--- a/src/FSEI_Mosta_EDT.xlsx
+++ b/src/FSEI_Mosta_EDT.xlsx
@@ -720,10 +720,14 @@
           <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
         </is>
       </c>
-      <c r="E8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, B4, Mme Diala.H</t>
+          <t>ALG2, TD/ G1, B2, Mme Diala.H</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
@@ -733,7 +737,7 @@
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, B3, DJAHAFI</t>
+          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
         </is>
       </c>
     </row>
@@ -743,23 +747,27 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, B4, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
+          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G4, B2, Mlle FERRAOUN A.</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
+          <t>ALG2, TD/ G6, B3, Mme SAIDANI</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, C1, DJAHAFI</t>
+          <t>ALG2, TD/ G2, B1, Mme Diala.H</t>
         </is>
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
+          <t>ALG2, TD/ G3, B1, Mme Diala.H</t>
         </is>
       </c>
     </row>
@@ -769,23 +777,27 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="n"/>
+          <t>ANA2, TD/ G5, B3, M. Kaid</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G6, B3, M. Kaid</t>
+        </is>
+      </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, C2, MOUMEN</t>
+          <t>ANA2, TD/ G7, B1, M. Kaid</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, B2, Mme Diala.H</t>
+          <t>ALG2, TD/ G7, B2, Mme SAIDANI</t>
         </is>
       </c>
       <c r="H10" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A1, MOUMEN</t>
+          <t>ASD2, TD/ G4, B3, BENAMEUR</t>
         </is>
       </c>
     </row>
@@ -793,105 +805,41 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G4, C2, BENAMEUR</t>
-        </is>
-      </c>
+      <c r="D11" s="27" t="n"/>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G4, B2, Mlle FERRAOUN A.</t>
-        </is>
-      </c>
-      <c r="G11" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G4, C2, HAMAMI</t>
-        </is>
-      </c>
-      <c r="H11" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G4, B1, Mme Diala.H</t>
-        </is>
-      </c>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
       <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G5, B3, M. Kaid</t>
-        </is>
-      </c>
+      <c r="D12" s="27" t="n"/>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G5, S12, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G5, S12, M. Benzidane</t>
-        </is>
-      </c>
-      <c r="H12" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G5, A2, BENAMEUR</t>
-        </is>
-      </c>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
       <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G6, C1, Mme SAIDANI</t>
-        </is>
-      </c>
+      <c r="D13" s="27" t="n"/>
       <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G6, B3, M. Kaid</t>
-        </is>
-      </c>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G6, B4, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G6, B4, HAMAMI</t>
-        </is>
-      </c>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
       <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G7, S12, BENSALLOUA</t>
-        </is>
-      </c>
+      <c r="D14" s="27" t="n"/>
       <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G7, C1, Mme SAIDANI</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G7, B1, M. Kaid</t>
-        </is>
-      </c>
-      <c r="H14" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G7, A3, BENSALLOUA</t>
-        </is>
-      </c>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
@@ -926,28 +874,32 @@
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
+          <t>ASD2, TD/ G3, B2, MOUMEN</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>ASD2, COUR/ section 1, Amphi1, HENNI F</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
           <t>ASD2, TP/ G1, A1, HABIB ZAHMANI M</t>
         </is>
       </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>ASD2, COUR/ section 1, Amphi1, HENNI F</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G1, B2, Mlle Zelmat Souhila</t>
-        </is>
-      </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
+          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, B1, Mekemmeche</t>
+          <t>SM2, TD/ G1, B1, DJAHAFI</t>
         </is>
       </c>
     </row>
@@ -956,24 +908,28 @@
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, B4, Mlle Zelmat Souhila</t>
-        </is>
-      </c>
-      <c r="D18" s="31" t="n"/>
-      <c r="E18" s="27" t="n"/>
+          <t>ALG2, TD/ G4, B1, Mme Diala.H</t>
+        </is>
+      </c>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G6, B2, BENAMEUR</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
+          <t>ASD2, TP/ G3, A2, MOUMEN</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B2, Mekemmeche</t>
+          <t>ASD2, TP/ G5, A2, BENAMEUR</t>
         </is>
       </c>
       <c r="H18" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, A1, Mlle Lakeb Ouda</t>
+          <t>SM2, TD/ G4, B2, HAMAMI</t>
         </is>
       </c>
     </row>
@@ -982,116 +938,68 @@
       <c r="B19" s="31" t="n"/>
       <c r="C19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B2, DJAHAFI</t>
-        </is>
-      </c>
-      <c r="D19" s="31" t="n"/>
-      <c r="E19" s="27" t="n"/>
+          <t>ASD2, TD/ G5, B3, BENAMEUR</t>
+        </is>
+      </c>
+      <c r="D19" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G7, B3, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, B3, Mlle Benaouad</t>
+          <t>ASD2, TP/ G4, A3, BENAMEUR</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
+          <t>ASD2, TP/ G7, A3, BENSALLOUA</t>
         </is>
       </c>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, A2, Mlle Bouzid</t>
+          <t>ASD2, TP/ G6, A1, BENAMEUR</t>
         </is>
       </c>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G4, A2, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="D20" s="31" t="n"/>
-      <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G4, A3, Mlle Bouzid</t>
-        </is>
-      </c>
-      <c r="G20" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G4, B1, Mlle Benaouad</t>
-        </is>
-      </c>
-      <c r="H20" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G6, B2, Labdelli</t>
-        </is>
-      </c>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="D21" s="31" t="n"/>
-      <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G5, B1, HAMAMI</t>
-        </is>
-      </c>
-      <c r="G21" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G6, A3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
-      <c r="H21" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G7, A3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G6, C1, M. Benzidane</t>
-        </is>
-      </c>
-      <c r="D22" s="31" t="n"/>
-      <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G6, A2, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="G22" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G7, B3, Labdelli</t>
-        </is>
-      </c>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G7, B3, HAMAMI</t>
-        </is>
-      </c>
-      <c r="D23" s="31" t="n"/>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G7, B4, Mme Kaisserli</t>
-        </is>
-      </c>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
+      <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
     </row>
@@ -1099,8 +1007,8 @@
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
       <c r="C24" s="27" t="n"/>
-      <c r="D24" s="31" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -1109,8 +1017,8 @@
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
       <c r="C25" s="16" t="n"/>
-      <c r="D25" s="33" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -1126,106 +1034,154 @@
           <t>SM2, COUR/ section 1, Amphi1, HASSAINE</t>
         </is>
       </c>
-      <c r="C26" s="29" t="inlineStr">
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G1, B3, Mlle Zelmat Souhila</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G2, B3, Mlle Zelmat Souhila</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G3, B2, Mlle Benaouad</t>
+        </is>
+      </c>
+      <c r="F26" s="29" t="inlineStr">
         <is>
           <t>IPSD, COUR/ section 1, Amphi1, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G4, B1, Mlle Benaouad</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="31" t="n"/>
-      <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
+      <c r="C27" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G2, B1, DJAHAFI</t>
+        </is>
+      </c>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G3, B1, DJAHAFI</t>
+        </is>
+      </c>
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G5, B3, M. Benzidane</t>
+        </is>
+      </c>
+      <c r="F27" s="31" t="n"/>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G6, B2, M. Benzidane</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
-      <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
-      <c r="H28" s="27" t="n"/>
+      <c r="C28" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G5, B2, HAMAMI</t>
+        </is>
+      </c>
+      <c r="D28" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G6, B2, HAMAMI</t>
+        </is>
+      </c>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G7, B1, HAMAMI</t>
+        </is>
+      </c>
+      <c r="F28" s="31" t="n"/>
+      <c r="G28" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G7, B3, Mme Kaisserli</t>
+        </is>
+      </c>
+      <c r="H28" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G6, A3, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
-      <c r="C29" s="31" t="n"/>
+      <c r="C29" s="27" t="n"/>
       <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
+      <c r="F29" s="31" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="31" t="n"/>
-      <c r="C30" s="31" t="n"/>
+      <c r="C30" s="27" t="n"/>
       <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
+      <c r="F30" s="31" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
+      <c r="C31" s="27" t="n"/>
       <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n"/>
+      <c r="F31" s="31" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
+      <c r="C32" s="27" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n"/>
+      <c r="F32" s="31" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
       <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
+      <c r="C33" s="27" t="n"/>
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
-      <c r="F33" s="27" t="n"/>
+      <c r="F33" s="31" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
       <c r="B34" s="33" t="n"/>
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="16" t="n"/>
       <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
-      <c r="F34" s="16" t="n"/>
+      <c r="F34" s="33" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
     </row>
@@ -1245,19 +1201,47 @@
           <t>OPM, COUR/ section 1, Amphi1, Mlle Ali Merina.H</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G2, A1, Mlle Lakeb Ouda</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G1, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G2, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
+        </is>
+      </c>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G4, A2, Mlle Bouzid</t>
+        </is>
+      </c>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G5, A1, Mlle Bouzid</t>
+        </is>
+      </c>
+      <c r="F36" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B2, Labdelli</t>
+        </is>
+      </c>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
     </row>
@@ -1265,8 +1249,16 @@
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="31" t="n"/>
       <c r="C37" s="31" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A3, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G6, B2, Labdelli</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -1342,8 +1334,16 @@
           <t>PHY2, COUR/ section 1, Amphi1, M. Benchehida</t>
         </is>
       </c>
-      <c r="C44" s="17" t="n"/>
-      <c r="D44" s="17" t="n"/>
+      <c r="C44" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="D44" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
+        </is>
+      </c>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -2412,9 +2412,9 @@
     <mergeCell ref="B8:B16"/>
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
     <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="F26:F34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="B44:B52"/>
@@ -2552,19 +2552,23 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TG, TP/ G1, C3, Mr Ablaoui H.</t>
+          <t>Mod2, TD/ G1, S16, Mlle Bouzid Leila</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PROGQUAD, TP/ G1, C3, M. AMIR A.</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="n"/>
+          <t>OAF 2, TD/ G1, S8, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>TCONTROL, TD/ G1, S9, Mr. BOUAGADA</t>
+        </is>
+      </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>Mod2, TD/ G1, Amphi4, Mlle Bouzid Leila</t>
+          <t>CFRAC, TD/ G1, S8, M. Zoubir DAHMANI</t>
         </is>
       </c>
     </row>
@@ -2661,28 +2665,24 @@
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>TCONTROL, COUR/ section 1, S13, Mr. BOUAGADA</t>
+          <t>TCONTROL, COUR/ section 1, C2, Mr. BOUAGADA</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>OAF 2, TD/ G1, S8, Mr S. M. Bahri</t>
+          <t>TG, TD/ G1, S16, Mr Ablaoui H.</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>TCONTROL, TD/ G1, S8, Mr. BOUAGADA</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>CFRAC, TD/ G1, S7, M. Zoubir DAHMANI</t>
-        </is>
-      </c>
+          <t>PROGQUAD, TD/ G1, S7, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>TG, TD/ G1, S15, Mr Ablaoui H.</t>
+          <t>TG, TP/ G1, M3, Mr Ablaoui H.</t>
         </is>
       </c>
     </row>
@@ -2779,12 +2779,12 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TG, COUR/ section 1, B3, Mr Ablaoui H.</t>
+          <t>TG, COUR/ section 1, C2, Mr Ablaoui H.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>PROGQUAD, TD/ G1, B4, M. AMIR A.</t>
+          <t>PROGQUAD, TP/ G1, M1, M. AMIR A.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -4203,13 +4203,21 @@
           <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
         </is>
       </c>
-      <c r="F8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G3, S16, Mme.Bechaoui</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G1, M2, Adda</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="n"/>
+          <t>Chim2, TD/ G1, S16, Hamiani</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G1, S2, Hamiani</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -4225,22 +4233,26 @@
       </c>
       <c r="D9" s="31" t="n"/>
       <c r="E9" s="31" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G4, S2, Belhachemi</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G2, S8, Mme.Bechaoui</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G2, S16, Mme.Bechaoui</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G3, S13, Benguettat</t>
-        </is>
-      </c>
-      <c r="C10" s="27" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G3, S13, Benguettat</t>
-        </is>
-      </c>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="31" t="n"/>
       <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
@@ -4249,11 +4261,7 @@
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G4, A3, Adda</t>
-        </is>
-      </c>
+      <c r="B11" s="27" t="n"/>
       <c r="C11" s="27" t="n"/>
       <c r="D11" s="31" t="n"/>
       <c r="E11" s="31" t="n"/>
@@ -4319,33 +4327,37 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, C1, Hamiani</t>
+          <t>Maths2, TD/ G3, B4, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, S15, Hamiani</t>
+          <t>Chim2, TD/ G3, S13, Belhachemi</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>Maths2, COUR/ section 1, Amphi3, Mme.Bechaoui</t>
+          <t>Maths2, COUR/ section 1, Amphi2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E17" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi1, Belhachemi</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="n"/>
+          <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G1, S11, Benguettat</t>
+        </is>
+      </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, S9, Benguettat</t>
+          <t>Phys2, TD/ G3, S13, Benguettat</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, S6, Benguettat</t>
+          <t>Phys2, TD/ G2, S14, Benguettat</t>
         </is>
       </c>
     </row>
@@ -4353,66 +4365,38 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, B4, Mme.Bechaoui</t>
+          <t>Chim2, TD/ G4, C1, Belhachemi</t>
         </is>
       </c>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S14, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G4, S12, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D18" s="31" t="n"/>
       <c r="E18" s="31" t="n"/>
-      <c r="F18" s="27" t="n"/>
-      <c r="G18" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G3, S11, Mme.Bechaoui</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G3, S4, Mme.Bechaoui</t>
-        </is>
-      </c>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>Info2, TP/ G2, M3, Adda</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G3, C2, Belhachemi</t>
-        </is>
-      </c>
-      <c r="C19" s="27" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G3, S4, Belhachemi</t>
-        </is>
-      </c>
+      <c r="B19" s="27" t="n"/>
+      <c r="C19" s="27" t="n"/>
       <c r="D19" s="31" t="n"/>
       <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G4, S10, Belhachemi</t>
-        </is>
-      </c>
-      <c r="H19" s="27" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G4, S5, Belhachemi</t>
-        </is>
-      </c>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="27" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G4, S12, Benguettat</t>
-        </is>
-      </c>
-      <c r="C20" s="27" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G4, S5, Benguettat</t>
-        </is>
-      </c>
+      <c r="B20" s="27" t="n"/>
+      <c r="C20" s="27" t="n"/>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
@@ -4477,60 +4461,64 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
+          <t>Chim2, TD/ G3, C1, Belhachemi</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>Phys2, COUR/ section 1, Amphi2, Mr.Senouci</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G1, S12, Benguettat</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
           <t>Phys2, TD/ G2, C1, Benguettat</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G2, C1, Benguettat</t>
-        </is>
-      </c>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>Phys2, COUR/ section 1, Amphi2, Mr.Senouci</t>
-        </is>
-      </c>
-      <c r="E26" s="29" t="inlineStr">
-        <is>
-          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G2, M3, Adda</t>
-        </is>
-      </c>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>Info2, TP/ G1, M2, Adda</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
+          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
+        </is>
+      </c>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="31" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
           <t>Info2, TP/ G3, C3, Adda</t>
         </is>
       </c>
-      <c r="C27" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
-        </is>
-      </c>
-      <c r="D27" s="31" t="n"/>
-      <c r="E27" s="31" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G3, S12, Benguettat</t>
+        </is>
+      </c>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
-        </is>
-      </c>
-      <c r="C28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="31" t="n"/>
       <c r="D28" s="31" t="n"/>
-      <c r="E28" s="31" t="n"/>
+      <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -4538,9 +4526,9 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="27" t="n"/>
-      <c r="C29" s="27" t="n"/>
+      <c r="C29" s="31" t="n"/>
       <c r="D29" s="31" t="n"/>
-      <c r="E29" s="31" t="n"/>
+      <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
@@ -4548,9 +4536,9 @@
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="27" t="n"/>
-      <c r="C30" s="27" t="n"/>
+      <c r="C30" s="31" t="n"/>
       <c r="D30" s="31" t="n"/>
-      <c r="E30" s="31" t="n"/>
+      <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
@@ -4558,9 +4546,9 @@
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="27" t="n"/>
-      <c r="C31" s="27" t="n"/>
+      <c r="C31" s="31" t="n"/>
       <c r="D31" s="31" t="n"/>
-      <c r="E31" s="31" t="n"/>
+      <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
@@ -4568,9 +4556,9 @@
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="27" t="n"/>
-      <c r="C32" s="27" t="n"/>
+      <c r="C32" s="31" t="n"/>
       <c r="D32" s="31" t="n"/>
-      <c r="E32" s="31" t="n"/>
+      <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
@@ -4578,9 +4566,9 @@
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
       <c r="B33" s="27" t="n"/>
-      <c r="C33" s="27" t="n"/>
+      <c r="C33" s="31" t="n"/>
       <c r="D33" s="31" t="n"/>
-      <c r="E33" s="31" t="n"/>
+      <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
@@ -4588,9 +4576,9 @@
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
       <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="33" t="n"/>
-      <c r="E34" s="33" t="n"/>
+      <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -4611,9 +4599,17 @@
           <t>HisSci, COUR/ section 1, Amphi4, Benguettat</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G4, B2, Benguettat</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>Info2, TP/ G4, M2, Adda</t>
+        </is>
+      </c>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -4703,7 +4699,11 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="n"/>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G4, B2, Benguettat</t>
+        </is>
+      </c>
       <c r="C44" s="17" t="n"/>
       <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
@@ -5775,8 +5775,8 @@
     <mergeCell ref="E8:E16"/>
     <mergeCell ref="D17:D25"/>
     <mergeCell ref="E17:E25"/>
+    <mergeCell ref="C26:C34"/>
     <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
   </mergeCells>
@@ -5903,23 +5903,35 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S14, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S13, Hentit H</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S14, Hentit H</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>Thdyna, TD/ G1, S13, Hentit H</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="n"/>
+          <t>Thdyna, COUR/ section 1, S13, Hentit H</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>Thdyna, TD/ G1, S2, Hentit H</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>FVC, TD/ G1, S3, Latreuch</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>FVC, TD/ G1, S2, Latreuch</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>MQ, TD/ G1, S3, Meghoufel</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -6009,33 +6021,33 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S13, Latreuch</t>
+          <t>FVC, COUR/ section 1, C2, Latreuch</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S6, Latreuch</t>
+          <t>FVC, COUR/ section 1, S14, Latreuch</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Thdyna, TD/ G1, S16, Hentit H</t>
+          <t>Thdyna, TD/ G1, S2, Hentit H</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S16, Latreuch</t>
+          <t>MQ, TD/ G1, S10, Meghoufel</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S8, Latreuch</t>
+          <t>elecmag, TD/ G1, S14, Abbes</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, S7, Meghoufel</t>
+          <t>elecmag, TD/ G1, S15, Abbes</t>
         </is>
       </c>
     </row>
@@ -6132,25 +6144,13 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, C2, Meghoufel</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>MQ, TD/ G1, C1, Meghoufel</t>
-        </is>
-      </c>
+          <t>MQ, COUR/ section 1, S12, Meghoufel</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>elecmag, TD/ G1, B3, Abbes</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>elecmag, TD/ G1, B2, Abbes</t>
-        </is>
-      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
@@ -6343,12 +6343,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
+          <t>elecgen, COUR/ section 1, B3, Melati</t>
+        </is>
+      </c>
+      <c r="C44" s="29" t="inlineStr">
+        <is>
           <t>elecgen, COUR/ section 1, B2, Melati</t>
-        </is>
-      </c>
-      <c r="C44" s="29" t="inlineStr">
-        <is>
-          <t>elecgen, COUR/ section 1, B1, Melati</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -7551,23 +7551,35 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S15, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S14, Bouattou</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S15, Bouattou</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>PhysSol, TD/ G1, S14, Bouattou</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="n"/>
+          <t>PhysSol, COUR/ section 1, S14, Bouattou</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>PhysSol, TD/ G1, S3, Bouattou</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>PhysNuc, TD/ G1, S1, Abbassa</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>PhysNuc, TD/ G1, S3, Abbassa</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>TransCha, TD/ G1, S1, Boukra</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -7657,33 +7669,33 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S14, Abbassa</t>
+          <t>PhysNuc, COUR/ section 1, S12, Abbassa</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S7, Abbassa</t>
+          <t>PhysNuc, COUR/ section 1, S15, Abbassa</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PhysSol, TD/ G1, S2, Bouattou</t>
+          <t>PhysSol, TD/ G1, S3, Bouattou</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, S2, Abbassa</t>
+          <t>TransCha, TD/ G1, S9, Boukra</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, S16, Abbassa</t>
+          <t>PhysAto, TD/ G1, S15, Beghdad</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, S11, Boukra</t>
+          <t>PhysAto, TD/ G1, S4, Beghdad</t>
         </is>
       </c>
     </row>
@@ -7780,25 +7792,13 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S12, Boukra</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>TransCha, TD/ G1, C2, Boukra</t>
-        </is>
-      </c>
+          <t>TransCha, COUR/ section 1, S13, Boukra</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>PhysAto, TD/ G1, B4, Beghdad</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>PhysAto, TD/ G1, B3, Beghdad</t>
-        </is>
-      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
@@ -9197,29 +9197,53 @@
           <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
         </is>
       </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G1, S15, Kadi</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="n"/>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G1, S1, Kadi</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G1, Amphi4, Belayachi</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G1, S1, Bourada</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G1, Amphi4, Boulenouar</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G2, S4, Belayachi</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G2, Amphi3, Belayachi</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G2, Amphi3, Kadi</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G2, Amphi3, Boulenouar</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G2, Amphi3, Bourada</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -9309,46 +9333,26 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ThermoCin, TD/ G1, S1, Belayachi</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G1, S3, Bourada</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G1, S3, Boulenouar</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>ChimInorg, TD/ G1, S10, Messaoudi</t>
-        </is>
-      </c>
+          <t>ChimInorg, TD/ G1, S1, Messaoudi</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>ChimInorg, TD/ G2, S15, Messaoudi</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
+      <c r="G17" s="17" t="n"/>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G2, S3, Kadi</t>
-        </is>
-      </c>
+      <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G2, S1, Boulenouar</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G2, S2, Bourada</t>
-        </is>
-      </c>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
@@ -9437,11 +9441,7 @@
           <t>ChiQuan, COUR/ section 1, S3, Benmalti</t>
         </is>
       </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>ChimInorg, TD/ G2, S12, Messaoudi</t>
-        </is>
-      </c>
+      <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
@@ -10848,14 +10848,22 @@
           <t>TS, COUR/ section 1, S1, Belhakem</t>
         </is>
       </c>
-      <c r="D8" s="17" t="n"/>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>TS, TD/ G1, Amphi4, Belhakem</t>
+        </is>
+      </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>TS, TD/ G1, S5, Belhakem</t>
+          <t>ElecChemi, TD/ G2, S6, Belayachi</t>
         </is>
       </c>
       <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>TS, TD/ G2, Amphi4, Belhakem</t>
+        </is>
+      </c>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
@@ -10863,11 +10871,7 @@
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G2, S6, Belouatek</t>
-        </is>
-      </c>
+      <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
@@ -10960,22 +10964,18 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TS, TD/ G2, Amphi4, Belhakem</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G1, B2, Belouatek</t>
-        </is>
-      </c>
+          <t>ElecChemi, TD/ G1, Amphi3, Belayachi</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>ElecChemi, TD/ G1, Amphi3, Belayachi</t>
+          <t>SpecMol, TD/ G1, S8, Belouatek</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>CSC, TD/ G1, Amphi3, Bourahla</t>
+          <t>CSC, TD/ G1, S4, Bourahla</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -10984,18 +10984,18 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="n"/>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G2, Amphi4, Belouatek</t>
+        </is>
+      </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>CSC, TD/ G2, Amphi4, Bourahla</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="inlineStr">
-        <is>
-          <t>ElecChemi, TD/ G2, S1, Belayachi</t>
-        </is>
-      </c>
+          <t>CSC, TD/ G2, S16, Bourahla</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
@@ -12498,23 +12498,27 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, S7, HAMAMI</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
+          <t>ANA2, TD/ G2, B4, Mme Bendehmane H</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G1, C2, Mme SAIDANI</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, S5, BENSALLOUA</t>
+          <t>ASD2, TD/ G1, C2, BENSALLOUA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, S13, Mme SAIDANI</t>
+          <t>ASD2, TD/ G2, C1, BENSALLOUA</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, C1, M. Kaid</t>
+          <t>ANA2, TD/ G1, B4, M. Kaid</t>
         </is>
       </c>
     </row>
@@ -12524,23 +12528,27 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, S13, Mme Bendehmane H</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
+          <t>ANA2, TD/ G4, C1, Mme Ablaoui</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G3, B4, Mme Bendehmane H</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, S7, HAMAMI</t>
+          <t>ALG2, TD/ G3, C1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, S15, BENSALLOUA</t>
+          <t>ALG2, TD/ G4, B4, Mme TABHARIT</t>
         </is>
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, C2, Mme SAIDANI</t>
+          <t>ASD2, TD/ G3, C2, BENSALLOUA</t>
         </is>
       </c>
     </row>
@@ -12550,23 +12558,27 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, S4, Mme TABHARIT</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="n"/>
+          <t>ANA2, TD/ G6, C2, M. Ould Ali M</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G7, C1, M. Ould Ali M</t>
+        </is>
+      </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, S13, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G5, B4, Mme Ablaoui</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, S6, Mme Kaisserli</t>
+          <t>ASD2, TD/ G5, C2, KAID SLIMANE</t>
         </is>
       </c>
       <c r="H10" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, S15, Labdelli</t>
+          <t>ALG2, TD/ G5, C1, Mme TABHARIT</t>
         </is>
       </c>
     </row>
@@ -12574,105 +12586,41 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G4, S14, Mme Ablaoui</t>
-        </is>
-      </c>
+      <c r="D11" s="27" t="n"/>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G4, S4, Mme TABHARIT</t>
-        </is>
-      </c>
-      <c r="G11" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G4, S4, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="H11" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G4, S14, Mme Kaisserli</t>
-        </is>
-      </c>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
       <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G5, S5, KAID SLIMANE</t>
-        </is>
-      </c>
+      <c r="D12" s="27" t="n"/>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G5, S14, Mme Ablaoui</t>
-        </is>
-      </c>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G5, S14, Mme TABHARIT</t>
-        </is>
-      </c>
-      <c r="H12" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G5, S13, HASSAINE</t>
-        </is>
-      </c>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
       <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G6, S15, M. Ould Ali M</t>
-        </is>
-      </c>
+      <c r="D13" s="27" t="n"/>
       <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G6, S6, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G6, S5, HASSAINE</t>
-        </is>
-      </c>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G6, S12, Mme TABHARIT</t>
-        </is>
-      </c>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
       <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G7, S6, HENNI F</t>
-        </is>
-      </c>
+      <c r="D14" s="27" t="n"/>
       <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G7, S15, M. Ould Ali M</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G7, S7, Mlle Dj. BENSIKADDOUR</t>
-        </is>
-      </c>
-      <c r="H14" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G7, S4, M. Benchehida</t>
-        </is>
-      </c>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
@@ -12712,23 +12660,27 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G1, B4, Mme Kaisserli</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
+          <t>ALG2, TD/ G2, B4, Mme SAIDANI</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G1, B2, HAMAMI</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, S12, Labdelli</t>
+          <t>SM2, TD/ G2, B3, HAMAMI</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, A4, BENSALLOUA</t>
+          <t>IPSD, TD/ G1, B3, Mme Kaisserli</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A4, BENSALLOUA</t>
+          <t>IPSD, TD/ G2, B4, Mme Kaisserli</t>
         </is>
       </c>
     </row>
@@ -12738,23 +12690,27 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, C2, Labdelli</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="n"/>
+          <t>ASD2, TD/ G4, C2, KAID SLIMANE</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G5, B3, HASSAINE</t>
+        </is>
+      </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, A4, BENSALLOUA</t>
+          <t>ASD2, TD/ G6, B1, KAID SLIMANE</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, C1, Mme Kaisserli</t>
+          <t>SM2, TD/ G3, B1, HAMAMI</t>
         </is>
       </c>
       <c r="H18" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, C4, Mlle Ali Merina.H</t>
+          <t>IPSD, TD/ G5, C1, M. Benyatou Kamel</t>
         </is>
       </c>
     </row>
@@ -12764,23 +12720,27 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, B2, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="E19" s="27" t="n"/>
+          <t>ALG2, TD/ G6, C1, Mme TABHARIT</t>
+        </is>
+      </c>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G7, B1, Mme TABHARIT</t>
+        </is>
+      </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G3, C4, Mlle Hamou Maamar.M</t>
+          <t>ASD2, TD/ G7, B2, HENNI F</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B4, HAMAMI</t>
+          <t>SM2, TD/ G6, B2, HASSAINE</t>
         </is>
       </c>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G6, C3, KAID SLIMANE</t>
+          <t>SM2, TD/ G7, B3, HASSAINE</t>
         </is>
       </c>
     </row>
@@ -12788,88 +12748,40 @@
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G4, B3, HAMAMI</t>
-        </is>
-      </c>
+      <c r="D20" s="27" t="n"/>
       <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G4, S13, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="G20" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G4, C3, KAID SLIMANE</t>
-        </is>
-      </c>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
       <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G5, C1, M. Benyatou Kamel</t>
-        </is>
-      </c>
+      <c r="D21" s="27" t="n"/>
       <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G5, C3, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="G21" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G5, C2, M. Benchehida</t>
-        </is>
-      </c>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
       <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G6, S12, M. Benchehida</t>
-        </is>
-      </c>
+      <c r="D22" s="27" t="n"/>
       <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G6, C2, M. Benyatou Kamel</t>
-        </is>
-      </c>
-      <c r="G22" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G6, M1, Mlle Ali Merina.H</t>
-        </is>
-      </c>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
       <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G7, B1, Mme TABHARIT</t>
-        </is>
-      </c>
+      <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G7, C1, HASSAINE</t>
-        </is>
-      </c>
-      <c r="G23" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G7, C4, HENNI F</t>
-        </is>
-      </c>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
@@ -12905,22 +12817,34 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>SM2, COUR/ section 2, Amphi2, HASSAINE</t>
+          <t>SM2, COUR/ section 2, Amphi1, HASSAINE</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, A1, Mlle Hamou Maamar.M</t>
+          <t>IPSD, TD/ G3, B4, Mme Kaisserli</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
+          <t>PHY2, TD/ G1, C1, Labdelli</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G1, A1, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G3, C1, Labdelli</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G2, A4, BENSALLOUA</t>
+        </is>
+      </c>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
@@ -12928,27 +12852,59 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, A2, Mlle Ali Merina.H</t>
+          <t>IPSD, TD/ G6, C1, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, A2, Mlle Ali Merina.H</t>
-        </is>
-      </c>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
+          <t>IPSD, TD/ G4, B4, Mme Kaisserli</t>
+        </is>
+      </c>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G2, B1, Labdelli</t>
+        </is>
+      </c>
+      <c r="G27" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G4, B4, HAMAMI</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G5, C3, KAID SLIMANE</t>
+        </is>
+      </c>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
       <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
-      <c r="H28" s="27" t="n"/>
+      <c r="D28" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G7, C2, Mlle Dj. BENSIKADDOUR</t>
+        </is>
+      </c>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, C2, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="F28" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G4, B2, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="G28" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G6, C2, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="H28" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G7, C4, HENNI F</t>
+        </is>
+      </c>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
@@ -13026,19 +12982,51 @@
           <t>TIC, COUR/ section 2, Amphi2, HENNI K.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
-      <c r="H35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G3, A4, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G1, A3, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G6, A1, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="H35" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G4, C3, KAID SLIMANE</t>
+        </is>
+      </c>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G5, A4, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="F36" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G4, A2, Mlle Ali Merina.H</t>
+        </is>
+      </c>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
     </row>
@@ -13046,8 +13034,16 @@
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="31" t="n"/>
       <c r="C37" s="31" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B1, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G6, A2, KAID SLIMANE</t>
+        </is>
+      </c>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -13118,7 +13114,11 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="n"/>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A1, Mlle Ali Merina.H</t>
+        </is>
+      </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
           <t>PHY2, COUR/ section 2, Amphi1, M. Benchehida</t>
@@ -14333,23 +14333,27 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G1, S11, MIDOUN M.</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
+          <t>TL, TD/ G1, S12, MIDOUN M.</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>TL, TD/ G3, S12, MIDOUN M.</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>SE1, TD/ G1, S8, BOUZEBIBA</t>
+          <t>SE1, TD/ G1, S15, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>BDD, TD/ G1, S8, MIROUD</t>
+          <t>BDD, TD/ G1, S15, MIROUD</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G1, S11, BOUZEBIBA</t>
+          <t>BDD, TD/ G2, S14, MENAD</t>
         </is>
       </c>
     </row>
@@ -14359,23 +14363,27 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G2, S8, BOUZEBIBA</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
+          <t>SE1, TD/ G2, S15, BOUZEBIBA</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>TL, TD/ G5, S13, BESNASSI</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G2, S11, MIDOUN M.</t>
+          <t>TL, TD/ G2, S12, MIDOUN M.</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G2, S16, MENAD</t>
+          <t>SE1, TD/ G3, S12, DJAHAFI</t>
         </is>
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G2, A4, MIDOUN M.</t>
+          <t>SE1, TD/ G4, S12, DJAHAFI</t>
         </is>
       </c>
     </row>
@@ -14385,23 +14393,27 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G3, S16, DJAHAFI</t>
-        </is>
-      </c>
-      <c r="E10" s="27" t="n"/>
+          <t>TL, TD/ G4, S13, BESNASSI</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>SE1, TD/ G6, S15, KHIAT</t>
+        </is>
+      </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G3, S1, MENAD</t>
+          <t>TL, TD/ G6, S13, BESNASSI</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G3, S11, MIDOUN M.</t>
+          <t>SE1, TD/ G5, S13, KHIAT</t>
         </is>
       </c>
       <c r="H10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G3, C4, HENNI K</t>
+          <t>BDD, TD/ G5, S15, MAGHNI SANDID Z.</t>
         </is>
       </c>
     </row>
@@ -14411,23 +14423,27 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G4, S10, BESNASSI</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="n"/>
+          <t>TL, TD/ G7, S14, BESSAOUD K.</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>TL, TD/ G8, S14, BESSAOUD K.</t>
+        </is>
+      </c>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G4, S16, DJAHAFI</t>
+          <t>TL, TD/ G9, S14, BESSAOUD K.</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G4, S3, BOUZEBIBA</t>
+          <t>SE1, TD/ G7, S14, KENNICHE A.</t>
         </is>
       </c>
       <c r="H11" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G4, S6, MENAD</t>
+          <t>SE1, TD/ G8, S13, KENNICHE A.</t>
         </is>
       </c>
     </row>
@@ -14435,131 +14451,51 @@
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
       <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G5, S2, KHIAT</t>
-        </is>
-      </c>
+      <c r="D12" s="27" t="n"/>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="inlineStr">
-        <is>
-          <t>TL, TD/ G5, S10, BESNASSI</t>
-        </is>
-      </c>
-      <c r="G12" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G5, S2, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
-      <c r="H12" s="27" t="inlineStr">
-        <is>
-          <t>TL, TP/ G5, C3, BESNASSI</t>
-        </is>
-      </c>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
       <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G6, S1, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
+      <c r="D13" s="27" t="n"/>
       <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G6, S2, KHIAT</t>
-        </is>
-      </c>
-      <c r="G13" s="27" t="inlineStr">
-        <is>
-          <t>TL, TD/ G6, S10, BESNASSI</t>
-        </is>
-      </c>
-      <c r="H13" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G6, M1, BETOUATI</t>
-        </is>
-      </c>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
       <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="inlineStr">
-        <is>
-          <t>TL, TD/ G7, S9, BESSAOUD K.</t>
-        </is>
-      </c>
+      <c r="D14" s="27" t="n"/>
       <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G7, S3, KENNICHE A.</t>
-        </is>
-      </c>
-      <c r="G14" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TD/ G7, S1, LAREDJ A. M</t>
-        </is>
-      </c>
-      <c r="H14" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G7, S7, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
       <c r="C15" s="31" t="n"/>
-      <c r="D15" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G8, S3, KENNICHE A.</t>
-        </is>
-      </c>
+      <c r="D15" s="27" t="n"/>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="inlineStr">
-        <is>
-          <t>TL, TD/ G8, S9, BESSAOUD K.</t>
-        </is>
-      </c>
-      <c r="G15" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G8, A1, KENNICHE A.</t>
-        </is>
-      </c>
-      <c r="H15" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TD/ G8, S10, LAREDJ A. M</t>
-        </is>
-      </c>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
       <c r="C16" s="33" t="n"/>
-      <c r="D16" s="16" t="inlineStr">
-        <is>
-          <t>RÉS, TD/ G9, Amphi3, LAREDJ A. M</t>
-        </is>
-      </c>
+      <c r="D16" s="16" t="n"/>
       <c r="E16" s="16" t="n"/>
-      <c r="F16" s="16" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G9, Amphi3, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
-      <c r="G16" s="16" t="inlineStr">
-        <is>
-          <t>TL, TD/ G9, S9, BESSAOUD K.</t>
-        </is>
-      </c>
-      <c r="H16" s="16" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G9, S5, KENNICHE A.</t>
-        </is>
-      </c>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
     </row>
     <row r="17" ht="21.75" customHeight="1" s="24">
       <c r="A17" s="28" t="inlineStr">
@@ -14579,23 +14515,27 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G1, A1, MIDOUN M.</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
+          <t>RÉS, TD/ G1, S15, BOUZEBIBA</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G2, C2, BOUZEBIBA</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G1, M3, HENNI K</t>
+          <t>TL, TP/ G1, A4, MIDOUN M.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G3, M2, MIDOUN M.</t>
+          <t>TL, TP/ G2, A4, MIDOUN M.</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G2, M1, HENNI K</t>
+          <t>TL, TP/ G3, A2, MIDOUN M.</t>
         </is>
       </c>
     </row>
@@ -14605,23 +14545,27 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G2, S14, BOUZEBIBA</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="n"/>
+          <t>BDD, TD/ G3, S13, MENAD</t>
+        </is>
+      </c>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TD/ G4, B4, MENAD</t>
+        </is>
+      </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G3, S14, BOUZEBIBA</t>
+          <t>RÉS, TD/ G3, C1, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G5, S12, BOUZEBIBA</t>
+          <t>TL, TP/ G4, C3, BESNASSI</t>
         </is>
       </c>
       <c r="H18" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G4, M2, DJAHAFI</t>
+          <t>RÉS, TD/ G4, S12, BOUZEBIBA</t>
         </is>
       </c>
     </row>
@@ -14631,23 +14575,27 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G3, C4, BETOUATI</t>
-        </is>
-      </c>
-      <c r="E19" s="27" t="n"/>
+          <t>BDD, TD/ G6, S14, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TD/ G7, C1, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G6, M1, BESNASSI</t>
+          <t>RÉS, TD/ G7, C2, LAREDJ A. M</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G9, M3, BESSAOUD K.</t>
+          <t>TL, TP/ G7, C4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="H19" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G6, B3, BOUZEBIBA</t>
+          <t>TL, TP/ G5, A3, BESNASSI</t>
         </is>
       </c>
     </row>
@@ -14657,19 +14605,27 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G4, A2, BESNASSI</t>
-        </is>
-      </c>
-      <c r="E20" s="27" t="n"/>
+          <t>SE1, TD/ G9, S12, KENNICHE A.</t>
+        </is>
+      </c>
+      <c r="E20" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G8, S12, LAREDJ A. M</t>
+        </is>
+      </c>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G8, M2, BESSAOUD K.</t>
-        </is>
-      </c>
-      <c r="G20" s="27" t="n"/>
+          <t>BDD, TD/ G8, B4, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
+      <c r="G20" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G9, B4, LAREDJ A. M</t>
+        </is>
+      </c>
       <c r="H20" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G7, M3, KENNICHE A.</t>
+          <t>BDD, TD/ G9, C2, MAGHNI SANDID Z.</t>
         </is>
       </c>
     </row>
@@ -14677,11 +14633,7 @@
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
       <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G5, A4, DJAHAFI</t>
-        </is>
-      </c>
+      <c r="D21" s="27" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -14691,11 +14643,7 @@
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
       <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TP/ G6, M1, BENHAMED</t>
-        </is>
-      </c>
+      <c r="D22" s="27" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -14705,11 +14653,7 @@
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
       <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="inlineStr">
-        <is>
-          <t>TL, TP/ G7, A3, BESSAOUD K.</t>
-        </is>
-      </c>
+      <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -14719,11 +14663,7 @@
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
       <c r="C24" s="31" t="n"/>
-      <c r="D24" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G8, S13, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
+      <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -14733,11 +14673,7 @@
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
       <c r="C25" s="33" t="n"/>
-      <c r="D25" s="16" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G9, C3, KENNICHE A.</t>
-        </is>
-      </c>
+      <c r="D25" s="16" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -14756,32 +14692,32 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>DAW, COUR/ section 1, Amphi3, SEHABA K.</t>
+          <t>DAW, COUR/ section 1, Amphi2, SEHABA K.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
+          <t>SE1, TP/ G1, A3, HENNI K</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>SE1, TP/ G2, A2, HENNI K</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
           <t>BDD, TP/ G1, A4, MEROUFEL B.</t>
         </is>
       </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G8, A3, MIROUD</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>RÉS, TP/ G1, A4,  MOUSSA M.</t>
-        </is>
-      </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G1, A1, BETOUATI</t>
+          <t>BDD, TP/ G2, A3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="H26" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G1, A4, HENNI K</t>
+          <t>BDD, TP/ G4, M2, BETOUATI</t>
         </is>
       </c>
     </row>
@@ -14791,27 +14727,27 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G2, M1,  MOUSSA M.</t>
+          <t>RÉS, TD/ G5, S12, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G9, A4, BENHAMED</t>
+          <t>SE1, TP/ G4, A3, DJAHAFI</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G2, A1, MEROUFEL B.</t>
+          <t>SE1, TP/ G3, A2, HENNI K</t>
         </is>
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G2, A3, HENNI K</t>
+          <t>BDD, TP/ G3, A4, BETOUATI</t>
         </is>
       </c>
       <c r="H27" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G2, A2, BETOUATI</t>
+          <t>SE1, TP/ G6, M1, DJAHAFI</t>
         </is>
       </c>
     </row>
@@ -14821,23 +14757,27 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G3, M2, BENHAMED</t>
-        </is>
-      </c>
-      <c r="E28" s="27" t="n"/>
+          <t>TL, TP/ G6, A1, BESNASSI</t>
+        </is>
+      </c>
+      <c r="E28" s="27" t="inlineStr">
+        <is>
+          <t>SE1, TP/ G7, A4, KENNICHE A.</t>
+        </is>
+      </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G3, M1, HENNI K</t>
+          <t>RÉS, TD/ G6, B3, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G4, A2, ABID M.</t>
+          <t>SE1, TP/ G5, A1, DJAHAFI</t>
         </is>
       </c>
       <c r="H28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G5, A1, BENHAMED</t>
+          <t>BDD, TP/ G7, M3, MIROUD</t>
         </is>
       </c>
     </row>
@@ -14847,63 +14787,43 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G4, C3, BETOUATI</t>
-        </is>
-      </c>
-      <c r="E29" s="27" t="n"/>
+          <t>TL, TP/ G8, A2, BESSAOUD K.</t>
+        </is>
+      </c>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>TL, TP/ G9, A1, BESSAOUD K.</t>
+        </is>
+      </c>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G4, C3, BENHAMED</t>
+          <t>SE1, TP/ G8, A3, KENNICHE A.</t>
         </is>
       </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G5, A4, SEHABA K.</t>
-        </is>
-      </c>
-      <c r="H29" s="27" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G6, C3, SEHABA K.</t>
-        </is>
-      </c>
+          <t>SE1, TP/ G9, A2, KENNICHE A.</t>
+        </is>
+      </c>
+      <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="31" t="n"/>
       <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G5, M3, ABID M.</t>
-        </is>
-      </c>
+      <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G5, A2, BETOUATI</t>
-        </is>
-      </c>
+      <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
-      <c r="H30" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G7, A3, ABID M.</t>
-        </is>
-      </c>
+      <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="31" t="n"/>
       <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G6, A3, DJAHAFI</t>
-        </is>
-      </c>
+      <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G6, C4, ABID M.</t>
-        </is>
-      </c>
+      <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
@@ -14911,17 +14831,9 @@
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="31" t="n"/>
       <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G7, C4, MIROUD</t>
-        </is>
-      </c>
+      <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G7, M2, SEHABA K.</t>
-        </is>
-      </c>
+      <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
@@ -14931,11 +14843,7 @@
       <c r="C33" s="31" t="n"/>
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
-      <c r="F33" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G9, A3, MIROUD</t>
-        </is>
-      </c>
+      <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
@@ -14957,77 +14865,149 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G3, A2, BETOUATI</t>
+          <t>RÉS, TP/ G1, A3,  MOUSSA M.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G8, A1, BENHAMED</t>
+          <t>RÉS, TP/ G2, A3,  MOUSSA M.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G8, A1, SEHABA K.</t>
-        </is>
-      </c>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
-      <c r="H35" s="17" t="n"/>
+          <t>POO, TP/ G1, M1, BETOUATI</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G1, C4, HENNI K</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>POO, TP/ G2, A4, BETOUATI</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>POO, TP/ G3, A3, BETOUATI</t>
+        </is>
+      </c>
+      <c r="H35" s="17" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G4, A4, HENNI K</t>
+        </is>
+      </c>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G4, A4, HENNI K</t>
+          <t>RÉS, TP/ G3, A4, BENHAMED</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G9, A2, ABID M.</t>
-        </is>
-      </c>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
+          <t>RÉS, TP/ G4, A4, BENHAMED</t>
+        </is>
+      </c>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G2, M3, HENNI K</t>
+        </is>
+      </c>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G5, C3, ABID M.</t>
+        </is>
+      </c>
+      <c r="F36" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G3, C4, HENNI K</t>
+        </is>
+      </c>
+      <c r="G36" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G5, A4, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="H36" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G6, A3, ABID M.</t>
+        </is>
+      </c>
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G7, A1, BENHAMED</t>
-        </is>
-      </c>
-      <c r="C37" s="27" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
+          <t>BDD, TP/ G5, A1, BETOUATI</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TP/ G6, A1, BETOUATI</t>
+        </is>
+      </c>
+      <c r="D37" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G4, M2, ABID M.</t>
+        </is>
+      </c>
+      <c r="E37" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G6, M1, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="F37" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G6, A3, BENHAMED</t>
+        </is>
+      </c>
+      <c r="G37" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G7, A2, BENHAMED</t>
+        </is>
+      </c>
+      <c r="H37" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G7, C3, SEHABA K.</t>
+        </is>
+      </c>
     </row>
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G8, A3, ABID M.</t>
-        </is>
-      </c>
-      <c r="C38" s="27" t="n"/>
-      <c r="D38" s="27" t="n"/>
+          <t>BDD, TP/ G8, A2, MIROUD</t>
+        </is>
+      </c>
+      <c r="C38" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TP/ G9, A2, MIROUD</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G5, C4, BENHAMED</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
-      <c r="F38" s="27" t="n"/>
+      <c r="F38" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G7, C3, ABID M.</t>
+        </is>
+      </c>
       <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
+      <c r="H38" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G8, A2, BENHAMED</t>
+        </is>
+      </c>
     </row>
     <row r="39" ht="21.75" customHeight="1" s="24">
       <c r="A39" s="30" t="n"/>
-      <c r="B39" s="27" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G9, C3, SEHABA K.</t>
-        </is>
-      </c>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
@@ -15081,9 +15061,21 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="n"/>
-      <c r="C44" s="17" t="n"/>
-      <c r="D44" s="17" t="n"/>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>POO, TP/ G8, A3, ABID M.</t>
+        </is>
+      </c>
+      <c r="C44" s="17" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G8, A2, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="D44" s="17" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G9, A1, SEHABA K.</t>
+        </is>
+      </c>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -15091,8 +15083,16 @@
     </row>
     <row r="45" ht="21.75" customHeight="1" s="24">
       <c r="A45" s="30" t="n"/>
-      <c r="B45" s="27" t="n"/>
-      <c r="C45" s="27" t="n"/>
+      <c r="B45" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G9, A2, BENHAMED</t>
+        </is>
+      </c>
+      <c r="C45" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G9, A1, ABID M.</t>
+        </is>
+      </c>
       <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
@@ -16289,27 +16289,27 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G1, Amphi4, BENIDRIS F.Z</t>
+          <t>SI, TD/ G1, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G5, B1, BENIDRIS F.Z</t>
+          <t>SI, TD/ G4, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G1, Amphi4, HOCINE N.</t>
+          <t>RS, TD/ G1, S4, HOCINE N.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G1, A2, HOCINE</t>
+          <t>IA, TP/ G1, A1, HOCINE</t>
         </is>
       </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G1, M2, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
     </row>
@@ -16319,27 +16319,27 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
+          <t>RS, TD/ G2, S5, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>RS, TD/ G5, S5, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
           <t>AP, TP/ G2, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>RS, TD/ G6, B2, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G2, A2, HOCINE</t>
-        </is>
-      </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G2, Amphi3, BENIDRIS F.Z</t>
+          <t>SI, TD/ G2, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G3, S9, BENIDRIS F.Z</t>
+          <t>SI, TD/ G3, S4, BENIDRIS F.Z</t>
         </is>
       </c>
     </row>
@@ -16349,27 +16349,27 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
+          <t>AP, TP/ G3, A1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="E10" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
           <t>IA, TP/ G3, A2, HOCINE</t>
         </is>
       </c>
-      <c r="E10" s="27" t="inlineStr">
-        <is>
-          <t>AP, TP/ G7, A1, MECHAOUI M. D.G</t>
-        </is>
-      </c>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>AP, TP/ G3, A1, MECHAOUI M. D.G</t>
-        </is>
-      </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G3, Amphi4, HOCINE N.</t>
+          <t>DSS, TP/ G3, A2, DELALI A.</t>
         </is>
       </c>
       <c r="H10" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G4, M3, HOCINE</t>
+          <t>RS, TD/ G4, S5, HOCINE N.</t>
         </is>
       </c>
     </row>
@@ -16377,22 +16377,10 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G4, A3, DELALI A.</t>
-        </is>
-      </c>
+      <c r="D11" s="27" t="n"/>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G5, A3, DELALI A.</t>
-        </is>
-      </c>
-      <c r="G11" s="27" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G6, A3, DELALI A.</t>
-        </is>
-      </c>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
@@ -16463,27 +16451,27 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G2, S4, HOCINE N.</t>
+          <t>RS, TD/ G3, S5, HOCINE N.</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G1, A1, DELALI A.</t>
+          <t>IA, TP/ G2, A1, HOCINE</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G4, S4, HOCINE N.</t>
+          <t>AP, TP/ G5, C3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G5, S13, HOCINE N.</t>
+          <t>DSS, TP/ G1, M3, DELALI A.</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G7, B4, HOCINE N.</t>
+          <t>DSS, TP/ G2, C3, DELALI A.</t>
         </is>
       </c>
     </row>
@@ -16493,21 +16481,29 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G4, S15, BENIDRIS F.Z</t>
+          <t>AP, TP/ G4, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
+          <t>SI, TD/ G6, S13, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G6, S15, BENIDRIS F.Z</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
+          <t>RS, TD/ G6, S13, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G4, M2, HOCINE</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G5, A4, HOCINE</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -16515,23 +16511,31 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G5, M2, MECHAOUI M. D.G</t>
-        </is>
-      </c>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
+          <t>SI, TD/ G5, S4, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>RS, TD/ G7, S14, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="F19" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G7, S12, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="G19" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G7, M1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G6, M3, HOCINE</t>
-        </is>
-      </c>
+      <c r="D20" s="27" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -16600,21 +16604,25 @@
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G2, A3, DELALI A.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
+          <t>DSS, TP/ G4, A2, DELALI A.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G5, C3, DELALI A.</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G3, M1, DELALI A.</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G7, M3, DELALI A.</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="n"/>
+          <t>DSS, TP/ G6, C3, DELALI A.</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G7, C3, DELALI A.</t>
+        </is>
+      </c>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
@@ -16622,15 +16630,15 @@
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G4, A1, MECHAOUI M. D.G</t>
-        </is>
-      </c>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="inlineStr">
-        <is>
-          <t>AP, TP/ G6, C3, MECHAOUI M. D.G</t>
-        </is>
-      </c>
+          <t>IA, TP/ G6, A1, HOCINE</t>
+        </is>
+      </c>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G7, A4, HOCINE</t>
+        </is>
+      </c>
+      <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
@@ -16638,17 +16646,9 @@
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
-      <c r="C28" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G5, A2, HOCINE</t>
-        </is>
-      </c>
+      <c r="C28" s="27" t="n"/>
       <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G7, C4, HOCINE</t>
-        </is>
-      </c>
+      <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -18018,17 +18018,25 @@
           <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
         </is>
       </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>ANA4, TD/ G1, B3, Mme Limam</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G1, S6, Mme Limam</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>ALG4, TD/ G1, S6, M.Ould ali</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>AC, TD/ G1, S6, Mlle Amina FERRAOUN</t>
+        </is>
+      </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G1, S16, M.Ould ali</t>
+          <t>ANUM2, TD/ G1, S7, M. Belhamiti Omar</t>
         </is>
       </c>
     </row>
@@ -18036,17 +18044,25 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>ALG4, TD/ G2, B4, M.Ould ali</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>ALG4, TD/ G2, S7, M.Ould ali</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G2, S5, Mme Limam</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G2, S5, Mme Limam</t>
+        </is>
+      </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S8, Mme Limam</t>
+          <t>AC, TD/ G2, S6, Mlle Amina FERRAOUN</t>
         </is>
       </c>
     </row>
@@ -18138,25 +18154,21 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S5, Mme Limam</t>
+          <t>ANA4, TD/ G1, S6, Mme Limam</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>AC, TD/ G1, S6, Mlle Amina FERRAOUN</t>
+          <t>PROBA, TD/ G1, S14, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G1, S14, M. Belhamiti Omar</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>PROBA, TD/ G1, C2, M. Mohammedi Mustapha</t>
-        </is>
-      </c>
+          <t>GÉOMÉ, TD/ G1, C2, Mme Bendahmane Hafida</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -18164,25 +18176,21 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>AC, TD/ G2, S6, Mlle Amina FERRAOUN</t>
+          <t>ANUM2, TD/ G2, S7, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S5, Mme Limam</t>
+          <t>GÉOMÉ, TD/ G2, S15, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G2, S15, M. Mohammedi Mustapha</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>ANUM2, TD/ G2, C1, M. Belhamiti Omar</t>
-        </is>
-      </c>
+          <t>PROBA, TD/ G2, C1, M. Mohammedi Mustapha</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -18270,16 +18278,8 @@
           <t>ANUM2, COUR/ section 1, S16, M. Belhamiti Omar</t>
         </is>
       </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>GÉOMÉ, TD/ G1, B2, Mme Bendahmane Hafida</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>GÉOMÉ, TD/ G2, B2, Mme Bendahmane Hafida</t>
-        </is>
-      </c>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
@@ -19685,17 +19685,25 @@
           <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
         </is>
       </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G1, C1, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G1, S11, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G1, S11, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G1, S11, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S3, Mme Belmouhoub-Ould ali</t>
+          <t>TRAL, TD/ G1, S11, M. Andasmas M</t>
         </is>
       </c>
     </row>
@@ -19703,17 +19711,25 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>EDP, TD/ G2, C2, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
+      <c r="D9" s="27" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G2, S10, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G2, S7, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G2, S7, M. Menad Abdallah</t>
+        </is>
+      </c>
       <c r="H9" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S2, M. Menad Abdallah</t>
+          <t>Géo. Diff, TD/ G2, S10, M. Fettouch Houari</t>
         </is>
       </c>
     </row>
@@ -19805,25 +19821,17 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S7, M. Menad Abdallah</t>
+          <t>TOL, TD/ G1, S11, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S11, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>TRAL, TD/ G1, S4, M. Andasmas M</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>Géo. Diff, TD/ G1, S13, M. Fettouch Houari</t>
-        </is>
-      </c>
+          <t>Géo. Diff, TD/ G1, S5, M. Fettouch Houari</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="n"/>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -19831,25 +19839,17 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S11, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G2, S10, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S7, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="inlineStr">
-        <is>
-          <t>Géo. Diff, TD/ G2, S5, M. Fettouch Houari</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>TRAL, TD/ G2, S12, M. Andasmas M</t>
-        </is>
-      </c>
+          <t>TRAL, TD/ G2, S4, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -21341,7 +21341,7 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G1, A1, MOUSSA M.</t>
+          <t>AOSI, TD/ G2, B1, KHIAT</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
@@ -21354,78 +21354,70 @@
           <t>ALOS, COUR/ section 1, Amphi1, MOUSSA M.</t>
         </is>
       </c>
-      <c r="F8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G1, A3, KHIAT</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, A4, KHIAT</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="n"/>
+          <t>ALOS, TP/ G2, A4, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G1, A2, MOUSSA M.</t>
+        </is>
+      </c>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G2, A1, MOUSSA M.</t>
+          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
         </is>
       </c>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G2, B1, KHIAT</t>
+          <t>AOSI, TD/ G4, B2, KHELIFA N.</t>
         </is>
       </c>
       <c r="D9" s="31" t="n"/>
       <c r="E9" s="31" t="n"/>
-      <c r="F9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G3, A4, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G2, M1, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="n"/>
+          <t>AOSI, TP/ G4, A3, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G2, A3, BENTAOUZA C</t>
+        </is>
+      </c>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="C10" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G3, A2, BENTAOUZA C</t>
-        </is>
-      </c>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="31" t="n"/>
       <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G3, C3, KHELIFA N.</t>
-        </is>
-      </c>
+      <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G4, A2, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G4, B2, KHELIFA N.</t>
-        </is>
-      </c>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
       <c r="D11" s="31" t="n"/>
       <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="inlineStr">
-        <is>
-          <t>ALOS, TP/ G4, C4, MOUSSA M.</t>
-        </is>
-      </c>
+      <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
@@ -21486,7 +21478,7 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>SSI, TP/ G1, A4, BENTAOUZA C</t>
+          <t>AOSI, TP/ G2, A1, KHIAT</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -21496,35 +21488,55 @@
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>OWS, COUR/ section 1, Amphi2, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="n"/>
+          <t>OWS, COUR/ section 1, Amphi1, DJEBBARA R.</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G1, A3, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>RO, TP/ G2, M1,  MIROUD</t>
+        </is>
+      </c>
       <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G1, M1, HABIB ZAHMANI M</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G2, A1, KHIAT</t>
+          <t>ALOS, TP/ G3, A2, MOUSSA M.</t>
         </is>
       </c>
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="31" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G4, A2, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G3, C4, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
+      <c r="H18" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G4, C4, BENTAOUZA C</t>
+        </is>
+      </c>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="inlineStr">
-        <is>
-          <t>ALOS, TP/ G3, A3, MOUSSA M.</t>
-        </is>
-      </c>
+      <c r="B19" s="27" t="n"/>
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="n"/>
@@ -21534,11 +21546,7 @@
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G4, A2, KHELIFA N.</t>
-        </is>
-      </c>
+      <c r="B20" s="27" t="n"/>
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
@@ -21604,12 +21612,12 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>FDD, TP/ G1, A1, HABIB ZAHMANI M</t>
+          <t>RO, TP/ G1, A2,  MIROUD</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>FDD, COUR/ section 1, Amphi4, MOUMEN M.</t>
+          <t>FDD, COUR/ section 1, Amphi3, MOUMEN M.</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
@@ -21617,75 +21625,59 @@
           <t>RO, COUR/ section 1, Amphi1, BAHNES N.</t>
         </is>
       </c>
-      <c r="E26" s="17" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G3, C4, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>RO, TP/ G1, C4,  MIROUD</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G1, M1, MEROUFEL B.</t>
-        </is>
-      </c>
+          <t>RO, TP/ G3, M1, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G2, A2,  MIROUD</t>
+          <t>FDD, TP/ G2, A1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="31" t="n"/>
-      <c r="E27" s="27" t="n"/>
+      <c r="E27" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G4, M1, BAHNES N.</t>
+        </is>
+      </c>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>FDD, TP/ G2, C3, HABIB ZAHMANI M</t>
-        </is>
-      </c>
-      <c r="H27" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G3, C4, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+          <t>FDD, TP/ G4, C4, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="inlineStr">
-        <is>
-          <t>RO, TP/ G3, A3, BAHNES N.</t>
-        </is>
-      </c>
+      <c r="B28" s="27" t="n"/>
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="31" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G3, M2, MEROUFEL B.</t>
-        </is>
-      </c>
+      <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="27" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G4, A4, MEROUFEL B.</t>
-        </is>
-      </c>
+      <c r="B29" s="27" t="n"/>
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="31" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="inlineStr">
-        <is>
-          <t>RO, TP/ G4, M1, BAHNES N.</t>
-        </is>
-      </c>
+      <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
@@ -21754,25 +21746,29 @@
           <t>SMA, COUR/ section 1, Amphi3, MEROUFEL B.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G2, A3, MEROUFEL B.</t>
-        </is>
-      </c>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
+      <c r="D35" s="17" t="n"/>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G1, M2, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G2, M1, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G3, C3, MEROUFEL B.</t>
+        </is>
+      </c>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G4, A2, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -21854,7 +21850,11 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="n"/>
+      <c r="B44" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G4, A4, MEROUFEL B.</t>
+        </is>
+      </c>
       <c r="C44" s="17" t="n"/>
       <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
@@ -23064,19 +23064,23 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, A4, LAREDJ A.</t>
+          <t>GSR, TD/ G1, S9, LAREDJ A.</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
+          <t>RO, TD/ G1, S10, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>GSR, TP/ G1, C3, LAREDJ A.</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="inlineStr">
+        <is>
           <t>VS, TP/ G1, A4, FILALI F.</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="n"/>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>GSR, TD/ G1, S1, LAREDJ A.</t>
         </is>
       </c>
     </row>
@@ -23168,27 +23172,31 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, B1, HABIB ZAHMANI M</t>
+          <t>SRI, COUR/ section 1, B1, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PR, COUR/ section 1, C2, HOCINE N.</t>
+          <t>ASBDA, COUR/ section 1, B4, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S10, KHIAT</t>
+          <t>AOSI, TD/ G1, S9, KHIAT</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RO, TD/ G1, S10, BAHNES N.</t>
+          <t>AOSI, TP/ G1, M2, KHIAT</t>
         </is>
       </c>
       <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="n"/>
+      <c r="H17" s="17" t="inlineStr">
+        <is>
+          <t>PR, TP/ G1, M2, HOCINE N.</t>
+        </is>
+      </c>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -23278,31 +23286,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>SRI, COUR/ section 1, B1, BENTAOUZA C</t>
+          <t>PR, COUR/ section 1, B1, HOCINE N.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, B1, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>SRI, TP/ G1, M2, BENTAOUZA C</t>
-        </is>
-      </c>
+          <t>AOSI, COUR/ section 1, B4, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>SRI, TP/ G1, C4, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>PR, TP/ G1, M3, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G1, M2, KHIAT</t>
-        </is>
-      </c>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
@@ -24700,17 +24700,25 @@
           <t>TO2, COUR/ section 1, B4, M. B. BENDOUKHA</t>
         </is>
       </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>AC2, TD/ G1, S12, M. BELAIDI Benharrat</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="n"/>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>AC2, TD/ G1, S8, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>TO2, TD/ G1, S9, M. B. BENDOUKHA</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>GéoDiff2, TD/ G1, S10, M. BELARBI Lakehal</t>
+        </is>
+      </c>
       <c r="H8" s="17" t="inlineStr">
         <is>
-          <t>TO2, TD/ G1, Amphi3, M. B. BENDOUKHA</t>
+          <t>GéoDiff2, TD/ G1, S9, M. BELARBI Lakehal</t>
         </is>
       </c>
     </row>
@@ -24807,28 +24815,28 @@
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>Dis2, COUR/ section 1, S12, M. BOUZIT Hamid</t>
+          <t>Dis2, COUR/ section 1, C1, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, S9, M. BELAIDI Benharrat</t>
+          <t>AC2, TD/ G1, S8, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S9, M. BELARBI Lakehal</t>
+          <t>Dis2, TD/ G1, S6, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S6, M. BELARBI Lakehal</t>
+          <t>EDP2, TD/ G1, S12, M. Andasmas M</t>
         </is>
       </c>
       <c r="H17" s="17" t="inlineStr">
         <is>
-          <t>Dis2, TD/ G1, S14, M. BOUZIT Hamid</t>
+          <t>EDP2, TD/ G1, S13, M. Andasmas M</t>
         </is>
       </c>
     </row>
@@ -24925,25 +24933,21 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>STAT2, COUR/ section 1, B2, Mlle Dj.BENSIKADDOUR</t>
+          <t>STAT2, COUR/ section 1, C1, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>EDP2, TD/ G1, B3, M. Andasmas M</t>
+          <t>STAT2, TD/ G1, S13, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>STAT2, TD/ G1, B2, Mlle Dj.BENSIKADDOUR</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>SEMIGROUP, TD/ G1, B1, Mlle Medeghri Ahmed</t>
-        </is>
-      </c>
+          <t>SEMIGROUP, TD/ G1, B4, Mlle Medeghri Ahmed</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
@@ -25042,11 +25046,7 @@
           <t>Anglais2, COUR/ section 1, B2, M. Dahmani Z.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="inlineStr">
-        <is>
-          <t>EDP2, TD/ G1, B1, M. Andasmas M</t>
-        </is>
-      </c>
+      <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>

--- a/src/FSEI_Mosta_EDT.xlsx
+++ b/src/FSEI_Mosta_EDT.xlsx
@@ -21,6 +21,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-PHYS_1" sheetId="13" state="visible" r:id="rId13"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2-CHIM_1" sheetId="14" state="visible" r:id="rId14"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-CHIM_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-PM_1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -710,24 +711,24 @@
           <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
         </is>
       </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
+          <t>ALG2, TD/ G1, B4, Mme Diala.H</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G1, B2, Mme Diala.H</t>
+          <t>ALG2, TD/ G3, B2, Mme Diala.H</t>
+        </is>
+      </c>
+      <c r="F8" s="29" t="inlineStr">
+        <is>
+          <t>ALG2, COUR/ section 1, Amphi1, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
@@ -735,129 +736,133 @@
           <t>ASD2, TD/ G1, B3, HABIB ZAHMANI M</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G2, B4, Mme Diala.H</t>
+        </is>
+      </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
+          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, B2, Mlle FERRAOUN A.</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G6, B3, Mme SAIDANI</t>
-        </is>
-      </c>
+          <t>ASD2, TD/ G4, B4, BENAMEUR</t>
+        </is>
+      </c>
+      <c r="F9" s="31" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, B1, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G3, B1, Mme Diala.H</t>
-        </is>
-      </c>
+          <t>ASD2, TD/ G3, B4, MOUMEN</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
+      <c r="C10" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
+        </is>
+      </c>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G5, B3, M. Kaid</t>
+          <t>ANA2, TD/ G4, B2, Mlle FERRAOUN A.</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, B3, M. Kaid</t>
-        </is>
-      </c>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G7, B1, M. Kaid</t>
-        </is>
-      </c>
+          <t>ALG2, TD/ G6, B3, Mme SAIDANI</t>
+        </is>
+      </c>
+      <c r="F10" s="31" t="n"/>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, B2, Mme SAIDANI</t>
-        </is>
-      </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G4, B3, BENAMEUR</t>
-        </is>
-      </c>
+          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G5, B3, M. Kaid</t>
+        </is>
+      </c>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G6, B3, M. Kaid</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G7, B1, M. Kaid</t>
+        </is>
+      </c>
+      <c r="F11" s="31" t="n"/>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G7, B2, Mme SAIDANI</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
+      <c r="F12" s="31" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="27" t="n"/>
       <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="n"/>
+      <c r="F13" s="31" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="27" t="n"/>
       <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="n"/>
+      <c r="F14" s="31" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="27" t="n"/>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
+      <c r="F15" s="31" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="16" t="n"/>
       <c r="E16" s="16" t="n"/>
-      <c r="F16" s="16" t="n"/>
+      <c r="F16" s="33" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
     </row>
@@ -869,39 +874,35 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ALG2, COUR/ section 1, Amphi1, M. Medeghri Ahmed</t>
+          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, B2, MOUMEN</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="E17" s="29" t="inlineStr">
+          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>ASD2, COUR/ section 1, Amphi1, HENNI F</t>
         </is>
       </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G1, A1, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, A1, HABIB ZAHMANI M</t>
+          <t>SM2, TD/ G1, B1, DJAHAFI</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G1, B1, DJAHAFI</t>
-        </is>
-      </c>
+          <t>SM2, TD/ G2, B1, DJAHAFI</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -911,27 +912,23 @@
           <t>ALG2, TD/ G4, B1, Mme Diala.H</t>
         </is>
       </c>
-      <c r="D18" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G6, B2, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="E18" s="31" t="n"/>
+      <c r="D18" s="31" t="n"/>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G3, A2, MOUMEN</t>
+        </is>
+      </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A2, MOUMEN</t>
+          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G5, A2, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G4, B2, HAMAMI</t>
-        </is>
-      </c>
+          <t>IPSD, TD/ G3, B3, Mlle Benaouad</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -941,44 +938,52 @@
           <t>ASD2, TD/ G5, B3, BENAMEUR</t>
         </is>
       </c>
-      <c r="D19" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G7, B3, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="E19" s="31" t="n"/>
+      <c r="D19" s="31" t="n"/>
+      <c r="E19" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G6, B1, BENAMEUR</t>
+        </is>
+      </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, A3, BENAMEUR</t>
+          <t>ASD2, TP/ G4, A2, BENAMEUR</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G7, A3, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="H19" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G6, A1, BENAMEUR</t>
-        </is>
-      </c>
+          <t>SM2, TD/ G4, B2, HAMAMI</t>
+        </is>
+      </c>
+      <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="27" t="n"/>
-      <c r="D20" s="27" t="n"/>
-      <c r="E20" s="31" t="n"/>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
+      <c r="C20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G7, B4, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="D20" s="31" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G7, A3, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="G20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G5, A1, BENAMEUR</t>
+        </is>
+      </c>
       <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
       <c r="C21" s="27" t="n"/>
-      <c r="D21" s="27" t="n"/>
-      <c r="E21" s="31" t="n"/>
+      <c r="D21" s="31" t="n"/>
+      <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -987,8 +992,8 @@
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
       <c r="C22" s="27" t="n"/>
-      <c r="D22" s="27" t="n"/>
-      <c r="E22" s="31" t="n"/>
+      <c r="D22" s="31" t="n"/>
+      <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -997,8 +1002,8 @@
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
       <c r="C23" s="27" t="n"/>
-      <c r="D23" s="27" t="n"/>
-      <c r="E23" s="31" t="n"/>
+      <c r="D23" s="31" t="n"/>
+      <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -1007,8 +1012,8 @@
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
       <c r="C24" s="27" t="n"/>
-      <c r="D24" s="27" t="n"/>
-      <c r="E24" s="31" t="n"/>
+      <c r="D24" s="31" t="n"/>
+      <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -1017,8 +1022,8 @@
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
       <c r="C25" s="16" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="33" t="n"/>
+      <c r="D25" s="33" t="n"/>
+      <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -1029,24 +1034,24 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G1, B3, Mlle Zelmat Souhila</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
         <is>
           <t>SM2, COUR/ section 1, Amphi1, HASSAINE</t>
         </is>
       </c>
-      <c r="C26" s="17" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G1, B3, Mlle Zelmat Souhila</t>
-        </is>
-      </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, B3, Mlle Zelmat Souhila</t>
+          <t>IPSD, TD/ G2, B2, Mlle Zelmat Souhila</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, B2, Mlle Benaouad</t>
+          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
         </is>
       </c>
       <c r="F26" s="29" t="inlineStr">
@@ -1056,89 +1061,93 @@
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B1, Mlle Benaouad</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
-        </is>
-      </c>
+          <t>PHY2, TD/ G1, B3, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G2, B1, DJAHAFI</t>
-        </is>
-      </c>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G3, B1, DJAHAFI</t>
+        </is>
+      </c>
+      <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B1, DJAHAFI</t>
+          <t>IPSD, TD/ G4, B3, Mlle Benaouad</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G5, B3, M. Benzidane</t>
+          <t>PHY2, TD/ G2, B2, Mekemmeche</t>
         </is>
       </c>
       <c r="F27" s="31" t="n"/>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, B2, M. Benzidane</t>
-        </is>
-      </c>
-      <c r="H27" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
-        </is>
-      </c>
+          <t>OPM, TP/ G4, A1, Mlle Bouzid</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
-      <c r="C28" s="27" t="inlineStr">
+      <c r="B28" s="27" t="inlineStr">
         <is>
           <t>SM2, TD/ G5, B2, HAMAMI</t>
         </is>
       </c>
+      <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, B2, HAMAMI</t>
+          <t>IPSD, TD/ G5, B4, M. Benzidane</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G7, B1, HAMAMI</t>
+          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
         </is>
       </c>
       <c r="F28" s="31" t="n"/>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, B3, Mme Kaisserli</t>
-        </is>
-      </c>
-      <c r="H28" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G6, A3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
+          <t>IPSD, TD/ G6, B1, M. Benzidane</t>
+        </is>
+      </c>
+      <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
-      <c r="C29" s="27" t="n"/>
-      <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
+      <c r="B29" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G6, A1, BENAMEUR</t>
+        </is>
+      </c>
+      <c r="C29" s="31" t="n"/>
+      <c r="D29" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G6, B1, HAMAMI</t>
+        </is>
+      </c>
+      <c r="E29" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G7, B1, HAMAMI</t>
+        </is>
+      </c>
       <c r="F29" s="31" t="n"/>
-      <c r="G29" s="27" t="n"/>
+      <c r="G29" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G7, B2, Mme Kaisserli</t>
+        </is>
+      </c>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
-      <c r="C30" s="27" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="31" t="n"/>
@@ -1147,8 +1156,8 @@
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="27" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="31" t="n"/>
       <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="31" t="n"/>
@@ -1157,8 +1166,8 @@
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="31" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="31" t="n"/>
@@ -1167,8 +1176,8 @@
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="31" t="n"/>
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="31" t="n"/>
@@ -1177,8 +1186,8 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
-      <c r="C34" s="16" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="33" t="n"/>
       <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="33" t="n"/>
@@ -1208,17 +1217,17 @@
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G7, B1, Labdelli</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -1229,17 +1238,17 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, A2, Mlle Bouzid</t>
+          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, A1, Mlle Bouzid</t>
+          <t>OPM, TP/ G7, A1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, B2, Labdelli</t>
+          <t>PHY2, TD/ G6, B2, Labdelli</t>
         </is>
       </c>
       <c r="G36" s="27" t="n"/>
@@ -1251,14 +1260,10 @@
       <c r="C37" s="31" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, A3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
-      <c r="E37" s="27" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G6, B2, Labdelli</t>
-        </is>
-      </c>
+          <t>OPM, TP/ G5, A2, Mlle Bouzid</t>
+        </is>
+      </c>
+      <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
@@ -1267,7 +1272,11 @@
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="31" t="n"/>
       <c r="C38" s="31" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G6, A3, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -1334,16 +1343,8 @@
           <t>PHY2, COUR/ section 1, Amphi1, M. Benchehida</t>
         </is>
       </c>
-      <c r="C44" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="D44" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
-        </is>
-      </c>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -2410,10 +2411,10 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="F8:F16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="C26:C34"/>
     <mergeCell ref="F26:F34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
@@ -2547,30 +2548,26 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>OAF 2, COUR/ section 1, C1, Mr S. M. Bahri</t>
+          <t>OAF 2, COUR/ section 1, S12, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>Mod2, TD/ G1, S16, Mlle Bouzid Leila</t>
+          <t>Mod2, TD/ G1, S1, Mlle Bouzid Leila</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>OAF 2, TD/ G1, S8, Mr S. M. Bahri</t>
+          <t>OAF 2, TD/ G1, S16, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>TCONTROL, TD/ G1, S9, Mr. BOUAGADA</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>CFRAC, TD/ G1, S8, M. Zoubir DAHMANI</t>
-        </is>
-      </c>
+          <t>TCONTROL, TD/ G1, S2, Mr. BOUAGADA</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -2665,26 +2662,26 @@
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>TCONTROL, COUR/ section 1, C2, Mr. BOUAGADA</t>
+          <t>TCONTROL, COUR/ section 1, S12, Mr. BOUAGADA</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TG, TD/ G1, S16, Mr Ablaoui H.</t>
+          <t>CFRAC, TD/ G1, S8, M. Zoubir DAHMANI</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
+          <t>TG, TD/ G1, S11, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
           <t>PROGQUAD, TD/ G1, S7, M. AMIR A.</t>
         </is>
       </c>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>TG, TP/ G1, M3, Mr Ablaoui H.</t>
-        </is>
-      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -2774,21 +2771,25 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>CFRAC, COUR/ section 1, B3, M. Zoubir DAHMANI</t>
+          <t>CFRAC, COUR/ section 1, C2, M. Zoubir DAHMANI</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TG, COUR/ section 1, C2, Mr Ablaoui H.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>PROGQUAD, TP/ G1, M1, M. AMIR A.</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="n"/>
+          <t>TG, COUR/ section 1, B4, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>TG, TP/ G1, M2, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>PROGQUAD, TP/ G1, M2, M. AMIR A.</t>
+        </is>
+      </c>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
@@ -4190,7 +4191,7 @@
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G1, C2, Mme.Bechaoui</t>
+          <t>Chim2, TD/ G1, S14, Hamiani</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
@@ -4200,24 +4201,16 @@
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G3, S16, Mme.Bechaoui</t>
-        </is>
-      </c>
+          <t>Chim2, COUR/ section 1, Amphi1, Belhachemi</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, S16, Hamiani</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G1, S2, Hamiani</t>
-        </is>
-      </c>
+          <t>Phys2, TD/ G1, Amphi3, Benguettat</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -4228,45 +4221,61 @@
       </c>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G2, S12, Belhachemi</t>
+          <t>Maths2, TD/ G2, S13, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D9" s="31" t="n"/>
       <c r="E9" s="31" t="n"/>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>Chim2, TD/ G4, S2, Belhachemi</t>
-        </is>
-      </c>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S8, Mme.Bechaoui</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G2, S16, Mme.Bechaoui</t>
-        </is>
-      </c>
+          <t>Info2, TP/ G2, M2, Adda</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
+      <c r="B10" s="27" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G3, S13, Benguettat</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G3, S15, Belhachemi</t>
+        </is>
+      </c>
       <c r="D10" s="31" t="n"/>
       <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
+      <c r="G10" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G3, S3, Mme.Bechaoui</t>
+        </is>
+      </c>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>Info2, TP/ G4, A3, Adda</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G4, S4, Benguettat</t>
+        </is>
+      </c>
       <c r="D11" s="31" t="n"/>
       <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G4, S1, Belhachemi</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
@@ -4327,76 +4336,84 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G3, B4, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G1, B4, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, S13, Belhachemi</t>
+          <t>Chim2, TD/ G1, S14, Hamiani</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>Maths2, COUR/ section 1, Amphi2, Mme.Bechaoui</t>
+          <t>Maths2, COUR/ section 1, Amphi3, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E17" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G1, S11, Benguettat</t>
-        </is>
-      </c>
+          <t>Chim2, COUR/ section 1, Amphi1, Belhachemi</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G3, S13, Benguettat</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G2, S14, Benguettat</t>
-        </is>
-      </c>
+          <t>Phys2, TD/ G1, S9, Benguettat</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G4, C1, Belhachemi</t>
+          <t>Chim2, TD/ G2, C1, Belhachemi</t>
         </is>
       </c>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G4, S12, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G2, S13, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D18" s="31" t="n"/>
       <c r="E18" s="31" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G2, M3, Adda</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G3, S11, Mme.Bechaoui</t>
+        </is>
+      </c>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="n"/>
-      <c r="C19" s="27" t="n"/>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G3, C2, Benguettat</t>
+        </is>
+      </c>
+      <c r="C19" s="27" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G3, S15, Belhachemi</t>
+        </is>
+      </c>
       <c r="D19" s="31" t="n"/>
       <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
+      <c r="G19" s="27" t="inlineStr">
+        <is>
+          <t>Chim2, TD/ G4, S10, Belhachemi</t>
+        </is>
+      </c>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="27" t="n"/>
-      <c r="C20" s="27" t="n"/>
+      <c r="C20" s="27" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G4, S4, Benguettat</t>
+        </is>
+      </c>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
@@ -4461,64 +4478,52 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, C1, Belhachemi</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
+          <t>Info2, TP/ G1, A2, Adda</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>Info2, TP/ G3, A4, Adda</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
         <is>
-          <t>Phys2, COUR/ section 1, Amphi2, Mr.Senouci</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G1, S12, Benguettat</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G2, C1, Benguettat</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G1, M2, Adda</t>
-        </is>
-      </c>
+          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>Info2, COUR/ section 1, Amphi1, Adda</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
-        </is>
-      </c>
-      <c r="C27" s="31" t="n"/>
+          <t>Phys2, TD/ G2, S13, Benguettat</t>
+        </is>
+      </c>
+      <c r="C27" s="27" t="n"/>
       <c r="D27" s="31" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G3, C3, Adda</t>
-        </is>
-      </c>
-      <c r="G27" s="27" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G3, S12, Benguettat</t>
-        </is>
-      </c>
+      <c r="E27" s="31" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="31" t="n"/>
+      <c r="B28" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G4, S12, Mme.Bechaoui</t>
+        </is>
+      </c>
+      <c r="C28" s="27" t="n"/>
       <c r="D28" s="31" t="n"/>
-      <c r="E28" s="27" t="n"/>
+      <c r="E28" s="31" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
@@ -4526,9 +4531,9 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="27" t="n"/>
-      <c r="C29" s="31" t="n"/>
+      <c r="C29" s="27" t="n"/>
       <c r="D29" s="31" t="n"/>
-      <c r="E29" s="27" t="n"/>
+      <c r="E29" s="31" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
@@ -4536,9 +4541,9 @@
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="27" t="n"/>
-      <c r="C30" s="31" t="n"/>
+      <c r="C30" s="27" t="n"/>
       <c r="D30" s="31" t="n"/>
-      <c r="E30" s="27" t="n"/>
+      <c r="E30" s="31" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
@@ -4546,9 +4551,9 @@
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="27" t="n"/>
-      <c r="C31" s="31" t="n"/>
+      <c r="C31" s="27" t="n"/>
       <c r="D31" s="31" t="n"/>
-      <c r="E31" s="27" t="n"/>
+      <c r="E31" s="31" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
@@ -4556,9 +4561,9 @@
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="27" t="n"/>
-      <c r="C32" s="31" t="n"/>
+      <c r="C32" s="27" t="n"/>
       <c r="D32" s="31" t="n"/>
-      <c r="E32" s="27" t="n"/>
+      <c r="E32" s="31" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
@@ -4566,9 +4571,9 @@
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
       <c r="B33" s="27" t="n"/>
-      <c r="C33" s="31" t="n"/>
+      <c r="C33" s="27" t="n"/>
       <c r="D33" s="31" t="n"/>
-      <c r="E33" s="27" t="n"/>
+      <c r="E33" s="31" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
@@ -4576,9 +4581,9 @@
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
       <c r="B34" s="16" t="n"/>
-      <c r="C34" s="33" t="n"/>
+      <c r="C34" s="16" t="n"/>
       <c r="D34" s="33" t="n"/>
-      <c r="E34" s="16" t="n"/>
+      <c r="E34" s="33" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -4591,7 +4596,7 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Info2, COUR/ section 1, Amphi4, Adda</t>
+          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
@@ -4601,15 +4606,11 @@
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G4, B2, Benguettat</t>
+          <t>Phys2, TD/ G2, C1, Benguettat</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="inlineStr">
-        <is>
-          <t>Info2, TP/ G4, M2, Adda</t>
-        </is>
-      </c>
+      <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -4617,7 +4618,11 @@
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
+        </is>
+      </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -4699,11 +4704,7 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G4, B2, Benguettat</t>
-        </is>
-      </c>
+      <c r="B44" s="17" t="n"/>
       <c r="C44" s="17" t="n"/>
       <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
@@ -5775,8 +5776,8 @@
     <mergeCell ref="E8:E16"/>
     <mergeCell ref="D17:D25"/>
     <mergeCell ref="E17:E25"/>
-    <mergeCell ref="C26:C34"/>
     <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
   </mergeCells>
@@ -5903,35 +5904,31 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S13, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S14, Hentit H</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S13, Hentit H</t>
+          <t>FVC, COUR/ section 1, S5, Latreuch</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>Thdyna, TD/ G1, S2, Hentit H</t>
+          <t>Thdyna, TD/ G1, Amphi3, Hentit H</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S3, Latreuch</t>
+          <t>FVC, TD/ G1, S2, Latreuch</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S2, Latreuch</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>MQ, TD/ G1, S3, Meghoufel</t>
-        </is>
-      </c>
+          <t>MQ, TD/ G1, Amphi4, Meghoufel</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -6021,35 +6018,31 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, C2, Latreuch</t>
+          <t>Thdyna, COUR/ section 1, S12, Hentit H</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S14, Latreuch</t>
+          <t>FVC, COUR/ section 1, S5, Latreuch</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Thdyna, TD/ G1, S2, Hentit H</t>
+          <t>Thdyna, TD/ G1, S16, Hentit H</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, S10, Meghoufel</t>
+          <t>FVC, TD/ G1, S10, Latreuch</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>elecmag, TD/ G1, S14, Abbes</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>elecmag, TD/ G1, S15, Abbes</t>
-        </is>
-      </c>
+          <t>MQ, TD/ G1, S8, Meghoufel</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -6139,15 +6132,19 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, C2, Meghoufel</t>
+          <t>MQ, COUR/ section 1, S14, Meghoufel</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, S12, Meghoufel</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
+          <t>elecmag, COUR/ section 1, C1, Abbes</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>elecmag, TD/ G1, S11, Abbes</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
@@ -6241,15 +6238,19 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
+          <t>MQ, COUR/ section 1, B4, Meghoufel</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
           <t>elecmag, COUR/ section 1, B4, Abbes</t>
         </is>
       </c>
-      <c r="C35" s="29" t="inlineStr">
-        <is>
-          <t>elecmag, COUR/ section 1, B4, Abbes</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>elecmag, TD/ G1, C2, Abbes</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
@@ -6343,12 +6344,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, B3, Melati</t>
+          <t>elecgen, COUR/ section 1, B2, Melati</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, B2, Melati</t>
+          <t>elecgen, COUR/ section 1, B1, Melati</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -7551,35 +7552,27 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S14, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S15, Bouattou</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S14, Bouattou</t>
+          <t>PhysNuc, COUR/ section 1, S6, Abbassa</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>PhysSol, TD/ G1, S3, Bouattou</t>
+          <t>PhysSol, TD/ G1, Amphi4, Bouattou</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, S1, Abbassa</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
           <t>PhysNuc, TD/ G1, S3, Abbassa</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>TransCha, TD/ G1, S1, Boukra</t>
-        </is>
-      </c>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -7669,35 +7662,31 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S12, Abbassa</t>
+          <t>PhysSol, COUR/ section 1, S13, Bouattou</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S15, Abbassa</t>
+          <t>PhysNuc, COUR/ section 1, S6, Abbassa</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PhysSol, TD/ G1, S3, Bouattou</t>
+          <t>PhysSol, TD/ G1, S2, Bouattou</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, S9, Boukra</t>
+          <t>PhysNuc, TD/ G1, S9, Abbassa</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>PhysAto, TD/ G1, S15, Beghdad</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>PhysAto, TD/ G1, S4, Beghdad</t>
-        </is>
-      </c>
+          <t>TransCha, TD/ G1, S16, Boukra</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -7787,17 +7776,25 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S12, Boukra</t>
+          <t>TransCha, COUR/ section 1, S15, Boukra</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S13, Boukra</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
+          <t>PhysAto, COUR/ section 1, C2, Beghdad</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>TransCha, TD/ G1, S10, Boukra</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="n"/>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>PhysAto, TD/ G1, S12, Beghdad</t>
+        </is>
+      </c>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
@@ -7889,15 +7886,19 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
+          <t>TransCha, COUR/ section 1, C1, Boukra</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
           <t>PhysAto, COUR/ section 1, C1, Beghdad</t>
         </is>
       </c>
-      <c r="C35" s="29" t="inlineStr">
-        <is>
-          <t>PhysAto, COUR/ section 1, C1, Beghdad</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>PhysAto, TD/ G1, S12, Beghdad</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
@@ -9194,56 +9195,40 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G1, S1, Kadi</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
+          <t>ThermoCin, COUR/ section 1, S3, Belayachi</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G1, S7, Kadi</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ThermoCin, TD/ G1, Amphi4, Belayachi</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G1, S1, Bourada</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G1, Amphi4, Boulenouar</t>
-        </is>
-      </c>
+          <t>ThermoCin, TD/ G1, Amphi3, Belayachi</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G2, Amphi3, Belayachi</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G2, S11, Belayachi</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ChiOrg2, TD/ G2, Amphi3, Kadi</t>
-        </is>
-      </c>
-      <c r="G9" s="27" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G2, Amphi3, Boulenouar</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G2, Amphi3, Bourada</t>
-        </is>
-      </c>
+          <t>ChiOrg2, TD/ G2, S1, Kadi</t>
+        </is>
+      </c>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -9323,35 +9308,47 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
+          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
           <t>ThermoCin, COUR/ section 1, S3, Belayachi</t>
         </is>
       </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>ThermoCin, COUR/ section 1, S3, Belayachi</t>
-        </is>
-      </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ChimInorg, TD/ G1, S1, Messaoudi</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>ChimInorg, TD/ G2, S15, Messaoudi</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
+          <t>ChimAna, TD/ G1, S3, Bourada</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n"/>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G1, S16, Boulenouar</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>ChimInorg, TD/ G1, S2, Messaoudi</t>
+        </is>
+      </c>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="n"/>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G2, S1, Boulenouar</t>
+        </is>
+      </c>
       <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G2, S8, Bourada</t>
+        </is>
+      </c>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
@@ -9441,7 +9438,11 @@
           <t>ChiQuan, COUR/ section 1, S3, Benmalti</t>
         </is>
       </c>
-      <c r="D26" s="17" t="n"/>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>ChimInorg, TD/ G2, S9, Messaoudi</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
@@ -10845,25 +10846,21 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>TS, COUR/ section 1, S1, Belhakem</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>TS, TD/ G1, Amphi4, Belhakem</t>
-        </is>
-      </c>
+          <t>SpecMol, COUR/ section 1, S1, Belouatek</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ElecChemi, TD/ G2, S6, Belayachi</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
-      <c r="G8" s="17" t="inlineStr">
+          <t>TS, TD/ G1, S10, Belhakem</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
         <is>
           <t>TS, TD/ G2, Amphi4, Belhakem</t>
         </is>
       </c>
+      <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
@@ -10871,7 +10868,11 @@
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G2, S9, Belouatek</t>
+        </is>
+      </c>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
@@ -10954,28 +10955,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
+          <t>TS, COUR/ section 1, S1, Belhakem</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
           <t>SpecMol, COUR/ section 1, S1, Belouatek</t>
         </is>
       </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>SpecMol, COUR/ section 1, S1, Belouatek</t>
-        </is>
-      </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ElecChemi, TD/ G1, Amphi3, Belayachi</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
+          <t>ElecChemi, TD/ G1, Amphi4, Belayachi</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>ElecChemi, TD/ G2, S4, Belayachi</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SpecMol, TD/ G1, S8, Belouatek</t>
+          <t>SpecMol, TD/ G1, S2, Belouatek</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>CSC, TD/ G1, S4, Bourahla</t>
+          <t>CSC, TD/ G1, S3, Bourahla</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -10984,15 +10989,11 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G2, Amphi4, Belouatek</t>
-        </is>
-      </c>
+      <c r="D18" s="27" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>CSC, TD/ G2, S16, Bourahla</t>
+          <t>CSC, TD/ G2, S3, Bourahla</t>
         </is>
       </c>
       <c r="G18" s="27" t="n"/>
@@ -11081,7 +11082,7 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
+          <t>CSC, COUR/ section 1, S1, Bourahla</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -11178,7 +11179,7 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>CSC, COUR/ section 1, S1, Bourahla</t>
+          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
@@ -12371,6 +12372,1628 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="26.375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="4.75" customWidth="1" style="24" min="1" max="1"/>
+    <col width="30.625" customWidth="1" style="24" min="2" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" s="24">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>UNIVERSITE ABDELHAMID IBN BADIS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="24">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>FACULTE DES SCIENCES EXACTES ET DE L'INFORMATIQUE</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="24">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Département de Mathématiques et Informatique</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="24">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="24">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>Emploi du M1-PM</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" s="24">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="23" t="n"/>
+      <c r="C6" s="23" t="n"/>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="24">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>8h 30 - 09h 30</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>9h  30 - 10h 30</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>10h 30 - 11h 30</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>11h 30 - 12h 30</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>12h 30 - 13h 30</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>13h30-14h30</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>14h30-15h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21.75" customHeight="1" s="24">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Dimanche</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>PhysSemiC, COUR/ section 1, S4, Bencherif</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>PhysicStat2, COUR/ section 1, S7, Benotsmane</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>PhysSemiC, TD/ G1, S8, Bencherif</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
+      <c r="G8" s="17" t="n"/>
+      <c r="H8" s="17" t="n"/>
+    </row>
+    <row r="9" ht="21.75" customHeight="1" s="24">
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+    </row>
+    <row r="10" ht="21.75" customHeight="1" s="24">
+      <c r="A10" s="30" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1" s="24">
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1" s="24">
+      <c r="A12" s="30" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="31" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1" s="24">
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="31" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1" s="24">
+      <c r="A14" s="30" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1" s="24">
+      <c r="A15" s="30" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="24">
+      <c r="A16" s="32" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="24">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>PhysSemiC, COUR/ section 1, S14, Bencherif</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>PhysicStat2, COUR/ section 1, S7, Benotsmane</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>PhysicStat2, TD/ G1, S5, Benotsmane</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>MNS, TD/ G1, S1, Belhouari</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>SAM, TD/ G1, S1, Terki</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1" s="24">
+      <c r="A18" s="30" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1" s="24">
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1" s="24">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1" s="24">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1" s="24">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1" s="24">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1" s="24">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1" s="24">
+      <c r="A25" s="32" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="24">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Mardi</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>MNS, COUR/ section 1, S4, Belhouari</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>SAM, COUR/ section 1, S12, Terki</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1" s="24">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1" s="24">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="31" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1" s="24">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="31" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1" s="24">
+      <c r="A30" s="30" t="n"/>
+      <c r="B30" s="31" t="n"/>
+      <c r="C30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="27" t="n"/>
+      <c r="H30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="21.75" customHeight="1" s="24">
+      <c r="A31" s="30" t="n"/>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="21.75" customHeight="1" s="24">
+      <c r="A32" s="30" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21.75" customHeight="1" s="24">
+      <c r="A33" s="30" t="n"/>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+    </row>
+    <row r="34" ht="21.75" customHeight="1" s="24">
+      <c r="A34" s="32" t="n"/>
+      <c r="B34" s="33" t="n"/>
+      <c r="C34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="16" t="n"/>
+      <c r="H34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="21.75" customHeight="1" s="24">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>SAM, COUR/ section 1, C2, Terki</t>
+        </is>
+      </c>
+      <c r="C35" s="29" t="inlineStr">
+        <is>
+          <t>Anglais, COUR/ section 1, C2, Hentit N</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="n"/>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+    </row>
+    <row r="36" ht="21.75" customHeight="1" s="24">
+      <c r="A36" s="30" t="n"/>
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="31" t="n"/>
+      <c r="D36" s="27" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+    </row>
+    <row r="37" ht="21.75" customHeight="1" s="24">
+      <c r="A37" s="30" t="n"/>
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="31" t="n"/>
+      <c r="D37" s="27" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+    </row>
+    <row r="38" ht="21.75" customHeight="1" s="24">
+      <c r="A38" s="30" t="n"/>
+      <c r="B38" s="31" t="n"/>
+      <c r="C38" s="31" t="n"/>
+      <c r="D38" s="27" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+    </row>
+    <row r="39" ht="21.75" customHeight="1" s="24">
+      <c r="A39" s="30" t="n"/>
+      <c r="B39" s="31" t="n"/>
+      <c r="C39" s="31" t="n"/>
+      <c r="D39" s="27" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1" s="24">
+      <c r="A40" s="30" t="n"/>
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="31" t="n"/>
+      <c r="D40" s="27" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+    </row>
+    <row r="41" ht="21.75" customHeight="1" s="24">
+      <c r="A41" s="30" t="n"/>
+      <c r="B41" s="31" t="n"/>
+      <c r="C41" s="31" t="n"/>
+      <c r="D41" s="27" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+    </row>
+    <row r="42" ht="21.75" customHeight="1" s="24">
+      <c r="A42" s="30" t="n"/>
+      <c r="B42" s="31" t="n"/>
+      <c r="C42" s="31" t="n"/>
+      <c r="D42" s="27" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+    </row>
+    <row r="43" ht="21.75" customHeight="1" s="24">
+      <c r="A43" s="32" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="33" t="n"/>
+      <c r="D43" s="16" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="16" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customHeight="1" s="24">
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="B44" s="17" t="n"/>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="17" t="n"/>
+      <c r="E44" s="17" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="17" t="n"/>
+      <c r="H44" s="17" t="n"/>
+    </row>
+    <row r="45" ht="21.75" customHeight="1" s="24">
+      <c r="A45" s="30" t="n"/>
+      <c r="B45" s="27" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+    </row>
+    <row r="46" ht="21.75" customHeight="1" s="24">
+      <c r="A46" s="30" t="n"/>
+      <c r="B46" s="27" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+    </row>
+    <row r="47" ht="21.75" customHeight="1" s="24">
+      <c r="A47" s="30" t="n"/>
+      <c r="B47" s="27" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+    </row>
+    <row r="48" ht="21.75" customHeight="1" s="24">
+      <c r="A48" s="30" t="n"/>
+      <c r="B48" s="27" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+    </row>
+    <row r="49" ht="21.75" customHeight="1" s="24">
+      <c r="A49" s="30" t="n"/>
+      <c r="B49" s="27" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+    </row>
+    <row r="50" ht="21.75" customHeight="1" s="24">
+      <c r="A50" s="30" t="n"/>
+      <c r="B50" s="27" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+    </row>
+    <row r="51" ht="21.75" customHeight="1" s="24">
+      <c r="A51" s="30" t="n"/>
+      <c r="B51" s="27" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="27" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+    </row>
+    <row r="52" ht="21.75" customHeight="1" s="24">
+      <c r="A52" s="32" t="n"/>
+      <c r="B52" s="16" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="16" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="24"/>
+    <row r="54" ht="18.75" customHeight="1" s="24"/>
+    <row r="55" ht="18.75" customHeight="1" s="24"/>
+    <row r="56" ht="18.75" customHeight="1" s="24"/>
+    <row r="57" ht="18.75" customHeight="1" s="24"/>
+    <row r="58" ht="18.75" customHeight="1" s="24"/>
+    <row r="59" ht="18.75" customHeight="1" s="24"/>
+    <row r="60" ht="18.75" customHeight="1" s="24"/>
+    <row r="61" ht="18.75" customHeight="1" s="24"/>
+    <row r="62" ht="18.75" customHeight="1" s="24"/>
+    <row r="63" ht="18.75" customHeight="1" s="24"/>
+    <row r="64" ht="18.75" customHeight="1" s="24"/>
+    <row r="65" ht="18.75" customHeight="1" s="24"/>
+    <row r="66" ht="18.75" customHeight="1" s="24"/>
+    <row r="67" ht="18.75" customHeight="1" s="24"/>
+    <row r="68" ht="18.75" customHeight="1" s="24"/>
+    <row r="69" ht="18.75" customHeight="1" s="24"/>
+    <row r="70" ht="18.75" customHeight="1" s="24"/>
+    <row r="71" ht="18.75" customHeight="1" s="24"/>
+    <row r="72" ht="18.75" customHeight="1" s="24"/>
+    <row r="73" ht="18.75" customHeight="1" s="24"/>
+    <row r="74" ht="18.75" customHeight="1" s="24"/>
+    <row r="75" ht="18.75" customHeight="1" s="24"/>
+    <row r="76" ht="18.75" customHeight="1" s="24"/>
+    <row r="77" ht="18.75" customHeight="1" s="24"/>
+    <row r="78" ht="18.75" customHeight="1" s="24"/>
+    <row r="79" ht="18.75" customHeight="1" s="24"/>
+    <row r="80" ht="18.75" customHeight="1" s="24"/>
+    <row r="81" ht="18.75" customHeight="1" s="24"/>
+    <row r="82" ht="18.75" customHeight="1" s="24"/>
+    <row r="83" ht="18.75" customHeight="1" s="24"/>
+    <row r="84" ht="18.75" customHeight="1" s="24"/>
+    <row r="85" ht="18.75" customHeight="1" s="24"/>
+    <row r="86" ht="18.75" customHeight="1" s="24"/>
+    <row r="87" ht="18.75" customHeight="1" s="24"/>
+    <row r="88" ht="18.75" customHeight="1" s="24"/>
+    <row r="89" ht="18.75" customHeight="1" s="24"/>
+    <row r="90" ht="18.75" customHeight="1" s="24"/>
+    <row r="91" ht="18.75" customHeight="1" s="24"/>
+    <row r="92" ht="18.75" customHeight="1" s="24"/>
+    <row r="93" ht="18.75" customHeight="1" s="24"/>
+    <row r="94" ht="18.75" customHeight="1" s="24"/>
+    <row r="95" ht="18.75" customHeight="1" s="24"/>
+    <row r="96" ht="18.75" customHeight="1" s="24"/>
+    <row r="97" ht="18.75" customHeight="1" s="24"/>
+    <row r="98" ht="18.75" customHeight="1" s="24"/>
+    <row r="99" ht="18.75" customHeight="1" s="24"/>
+    <row r="100" ht="18.75" customHeight="1" s="24"/>
+    <row r="101" ht="18.75" customHeight="1" s="24"/>
+    <row r="102" ht="18.75" customHeight="1" s="24"/>
+    <row r="103" ht="18.75" customHeight="1" s="24"/>
+    <row r="104" ht="18.75" customHeight="1" s="24"/>
+    <row r="105" ht="18.75" customHeight="1" s="24"/>
+    <row r="106" ht="18.75" customHeight="1" s="24"/>
+    <row r="107" ht="18.75" customHeight="1" s="24"/>
+    <row r="108" ht="18.75" customHeight="1" s="24"/>
+    <row r="109" ht="18.75" customHeight="1" s="24"/>
+    <row r="110" ht="18.75" customHeight="1" s="24"/>
+    <row r="111" ht="18.75" customHeight="1" s="24"/>
+    <row r="112" ht="18.75" customHeight="1" s="24"/>
+    <row r="113" ht="18.75" customHeight="1" s="24"/>
+    <row r="114" ht="18.75" customHeight="1" s="24"/>
+    <row r="115" ht="18.75" customHeight="1" s="24"/>
+    <row r="116" ht="18.75" customHeight="1" s="24"/>
+    <row r="117" ht="18.75" customHeight="1" s="24"/>
+    <row r="118" ht="18.75" customHeight="1" s="24"/>
+    <row r="119" ht="18.75" customHeight="1" s="24"/>
+    <row r="120" ht="18.75" customHeight="1" s="24"/>
+    <row r="121" ht="18.75" customHeight="1" s="24"/>
+    <row r="122" ht="18.75" customHeight="1" s="24"/>
+    <row r="123" ht="18.75" customHeight="1" s="24"/>
+    <row r="124" ht="18.75" customHeight="1" s="24"/>
+    <row r="125" ht="18.75" customHeight="1" s="24"/>
+    <row r="126" ht="18.75" customHeight="1" s="24"/>
+    <row r="127" ht="18.75" customHeight="1" s="24"/>
+    <row r="128" ht="18.75" customHeight="1" s="24"/>
+    <row r="129" ht="18.75" customHeight="1" s="24"/>
+    <row r="130" ht="18.75" customHeight="1" s="24"/>
+    <row r="131" ht="18.75" customHeight="1" s="24"/>
+    <row r="132" ht="18.75" customHeight="1" s="24"/>
+    <row r="133" ht="18.75" customHeight="1" s="24"/>
+    <row r="134" ht="18.75" customHeight="1" s="24"/>
+    <row r="135" ht="18.75" customHeight="1" s="24"/>
+    <row r="136" ht="18.75" customHeight="1" s="24"/>
+    <row r="137" ht="18.75" customHeight="1" s="24"/>
+    <row r="138" ht="18.75" customHeight="1" s="24"/>
+    <row r="139" ht="18.75" customHeight="1" s="24"/>
+    <row r="140" ht="18.75" customHeight="1" s="24"/>
+    <row r="141" ht="18.75" customHeight="1" s="24"/>
+    <row r="142" ht="18.75" customHeight="1" s="24"/>
+    <row r="143" ht="18.75" customHeight="1" s="24"/>
+    <row r="144" ht="18.75" customHeight="1" s="24"/>
+    <row r="145" ht="18.75" customHeight="1" s="24"/>
+    <row r="146" ht="18.75" customHeight="1" s="24"/>
+    <row r="147" ht="18.75" customHeight="1" s="24"/>
+    <row r="148" ht="18.75" customHeight="1" s="24"/>
+    <row r="149" ht="18.75" customHeight="1" s="24"/>
+    <row r="150" ht="18.75" customHeight="1" s="24"/>
+    <row r="151" ht="18.75" customHeight="1" s="24"/>
+    <row r="152" ht="18.75" customHeight="1" s="24"/>
+    <row r="153" ht="18.75" customHeight="1" s="24"/>
+    <row r="154" ht="18.75" customHeight="1" s="24"/>
+    <row r="155" ht="18.75" customHeight="1" s="24"/>
+    <row r="156" ht="18.75" customHeight="1" s="24"/>
+    <row r="157" ht="18.75" customHeight="1" s="24"/>
+    <row r="158" ht="18.75" customHeight="1" s="24"/>
+    <row r="159" ht="18.75" customHeight="1" s="24"/>
+    <row r="160" ht="18.75" customHeight="1" s="24"/>
+    <row r="161" ht="18.75" customHeight="1" s="24"/>
+    <row r="162" ht="18.75" customHeight="1" s="24"/>
+    <row r="163" ht="18.75" customHeight="1" s="24"/>
+    <row r="164" ht="18.75" customHeight="1" s="24"/>
+    <row r="165" ht="18.75" customHeight="1" s="24"/>
+    <row r="166" ht="18.75" customHeight="1" s="24"/>
+    <row r="167" ht="18.75" customHeight="1" s="24"/>
+    <row r="168" ht="18.75" customHeight="1" s="24"/>
+    <row r="169" ht="18.75" customHeight="1" s="24"/>
+    <row r="170" ht="18.75" customHeight="1" s="24"/>
+    <row r="171" ht="18.75" customHeight="1" s="24"/>
+    <row r="172" ht="18.75" customHeight="1" s="24"/>
+    <row r="173" ht="18.75" customHeight="1" s="24"/>
+    <row r="174" ht="18.75" customHeight="1" s="24"/>
+    <row r="175" ht="18.75" customHeight="1" s="24"/>
+    <row r="176" ht="18.75" customHeight="1" s="24"/>
+    <row r="177" ht="18.75" customHeight="1" s="24"/>
+    <row r="178" ht="18.75" customHeight="1" s="24"/>
+    <row r="179" ht="18.75" customHeight="1" s="24"/>
+    <row r="180" ht="18.75" customHeight="1" s="24"/>
+    <row r="181" ht="18.75" customHeight="1" s="24"/>
+    <row r="182" ht="18.75" customHeight="1" s="24"/>
+    <row r="183" ht="18.75" customHeight="1" s="24"/>
+    <row r="184" ht="18.75" customHeight="1" s="24"/>
+    <row r="185" ht="18.75" customHeight="1" s="24"/>
+    <row r="186" ht="18.75" customHeight="1" s="24"/>
+    <row r="187" ht="18.75" customHeight="1" s="24"/>
+    <row r="188" ht="18.75" customHeight="1" s="24"/>
+    <row r="189" ht="18.75" customHeight="1" s="24"/>
+    <row r="190" ht="18.75" customHeight="1" s="24"/>
+    <row r="191" ht="18.75" customHeight="1" s="24"/>
+    <row r="192" ht="18.75" customHeight="1" s="24"/>
+    <row r="193" ht="18.75" customHeight="1" s="24"/>
+    <row r="194" ht="18.75" customHeight="1" s="24"/>
+    <row r="195" ht="18.75" customHeight="1" s="24"/>
+    <row r="196" ht="18.75" customHeight="1" s="24"/>
+    <row r="197" ht="18.75" customHeight="1" s="24"/>
+    <row r="198" ht="18.75" customHeight="1" s="24"/>
+    <row r="199" ht="18.75" customHeight="1" s="24"/>
+    <row r="200" ht="18.75" customHeight="1" s="24"/>
+    <row r="201" ht="18.75" customHeight="1" s="24"/>
+    <row r="202" ht="18.75" customHeight="1" s="24"/>
+    <row r="203" ht="18.75" customHeight="1" s="24"/>
+    <row r="204" ht="18.75" customHeight="1" s="24"/>
+    <row r="205" ht="18.75" customHeight="1" s="24"/>
+    <row r="206" ht="18.75" customHeight="1" s="24"/>
+    <row r="207" ht="18.75" customHeight="1" s="24"/>
+    <row r="208" ht="18.75" customHeight="1" s="24"/>
+    <row r="209" ht="18.75" customHeight="1" s="24"/>
+    <row r="210" ht="18.75" customHeight="1" s="24"/>
+    <row r="211" ht="18.75" customHeight="1" s="24"/>
+    <row r="212" ht="18.75" customHeight="1" s="24"/>
+    <row r="213" ht="18.75" customHeight="1" s="24"/>
+    <row r="214" ht="18.75" customHeight="1" s="24"/>
+    <row r="215" ht="18.75" customHeight="1" s="24"/>
+    <row r="216" ht="18.75" customHeight="1" s="24"/>
+    <row r="217" ht="18.75" customHeight="1" s="24"/>
+    <row r="218" ht="18.75" customHeight="1" s="24"/>
+    <row r="219" ht="18.75" customHeight="1" s="24"/>
+    <row r="220" ht="18.75" customHeight="1" s="24"/>
+    <row r="221" ht="18.75" customHeight="1" s="24"/>
+    <row r="222" ht="18.75" customHeight="1" s="24"/>
+    <row r="223" ht="18.75" customHeight="1" s="24"/>
+    <row r="224" ht="18.75" customHeight="1" s="24"/>
+    <row r="225" ht="18.75" customHeight="1" s="24"/>
+    <row r="226" ht="18.75" customHeight="1" s="24"/>
+    <row r="227" ht="18.75" customHeight="1" s="24"/>
+    <row r="228" ht="18.75" customHeight="1" s="24"/>
+    <row r="229" ht="18.75" customHeight="1" s="24"/>
+    <row r="230" ht="18.75" customHeight="1" s="24"/>
+    <row r="231" ht="18.75" customHeight="1" s="24"/>
+    <row r="232" ht="18.75" customHeight="1" s="24"/>
+    <row r="233" ht="18.75" customHeight="1" s="24"/>
+    <row r="234" ht="18.75" customHeight="1" s="24"/>
+    <row r="235" ht="18.75" customHeight="1" s="24"/>
+    <row r="236" ht="18.75" customHeight="1" s="24"/>
+    <row r="237" ht="18.75" customHeight="1" s="24"/>
+    <row r="238" ht="18.75" customHeight="1" s="24"/>
+    <row r="239" ht="18.75" customHeight="1" s="24"/>
+    <row r="240" ht="18.75" customHeight="1" s="24"/>
+    <row r="241" ht="18.75" customHeight="1" s="24"/>
+    <row r="242" ht="18.75" customHeight="1" s="24"/>
+    <row r="243" ht="18.75" customHeight="1" s="24"/>
+    <row r="244" ht="18.75" customHeight="1" s="24"/>
+    <row r="245" ht="18.75" customHeight="1" s="24"/>
+    <row r="246" ht="18.75" customHeight="1" s="24"/>
+    <row r="247" ht="18.75" customHeight="1" s="24"/>
+    <row r="248" ht="18.75" customHeight="1" s="24"/>
+    <row r="249" ht="18.75" customHeight="1" s="24"/>
+    <row r="250" ht="18.75" customHeight="1" s="24"/>
+    <row r="251" ht="18.75" customHeight="1" s="24"/>
+    <row r="252" ht="18.75" customHeight="1" s="24"/>
+    <row r="253" ht="18.75" customHeight="1" s="24"/>
+    <row r="254" ht="18.75" customHeight="1" s="24"/>
+    <row r="255" ht="18.75" customHeight="1" s="24"/>
+    <row r="256" ht="18.75" customHeight="1" s="24"/>
+    <row r="257" ht="18.75" customHeight="1" s="24"/>
+    <row r="258" ht="18.75" customHeight="1" s="24"/>
+    <row r="259" ht="18.75" customHeight="1" s="24"/>
+    <row r="260" ht="18.75" customHeight="1" s="24"/>
+    <row r="261" ht="18.75" customHeight="1" s="24"/>
+    <row r="262" ht="18.75" customHeight="1" s="24"/>
+    <row r="263" ht="18.75" customHeight="1" s="24"/>
+    <row r="264" ht="18.75" customHeight="1" s="24"/>
+    <row r="265" ht="18.75" customHeight="1" s="24"/>
+    <row r="266" ht="18.75" customHeight="1" s="24"/>
+    <row r="267" ht="18.75" customHeight="1" s="24"/>
+    <row r="268" ht="18.75" customHeight="1" s="24"/>
+    <row r="269" ht="18.75" customHeight="1" s="24"/>
+    <row r="270" ht="18.75" customHeight="1" s="24"/>
+    <row r="271" ht="18.75" customHeight="1" s="24"/>
+    <row r="272" ht="18.75" customHeight="1" s="24"/>
+    <row r="273" ht="18.75" customHeight="1" s="24"/>
+    <row r="274" ht="18.75" customHeight="1" s="24"/>
+    <row r="275" ht="18.75" customHeight="1" s="24"/>
+    <row r="276" ht="18.75" customHeight="1" s="24"/>
+    <row r="277" ht="18.75" customHeight="1" s="24"/>
+    <row r="278" ht="18.75" customHeight="1" s="24"/>
+    <row r="279" ht="18.75" customHeight="1" s="24"/>
+    <row r="280" ht="18.75" customHeight="1" s="24"/>
+    <row r="281" ht="18.75" customHeight="1" s="24"/>
+    <row r="282" ht="18.75" customHeight="1" s="24"/>
+    <row r="283" ht="18.75" customHeight="1" s="24"/>
+    <row r="284" ht="18.75" customHeight="1" s="24"/>
+    <row r="285" ht="18.75" customHeight="1" s="24"/>
+    <row r="286" ht="18.75" customHeight="1" s="24"/>
+    <row r="287" ht="18.75" customHeight="1" s="24"/>
+    <row r="288" ht="18.75" customHeight="1" s="24"/>
+    <row r="289" ht="18.75" customHeight="1" s="24"/>
+    <row r="290" ht="18.75" customHeight="1" s="24"/>
+    <row r="291" ht="18.75" customHeight="1" s="24"/>
+    <row r="292" ht="18.75" customHeight="1" s="24"/>
+    <row r="293" ht="18.75" customHeight="1" s="24"/>
+    <row r="294" ht="18.75" customHeight="1" s="24"/>
+    <row r="295" ht="18.75" customHeight="1" s="24"/>
+    <row r="296" ht="18.75" customHeight="1" s="24"/>
+    <row r="297" ht="18.75" customHeight="1" s="24"/>
+    <row r="298" ht="18.75" customHeight="1" s="24"/>
+    <row r="299" ht="18.75" customHeight="1" s="24"/>
+    <row r="300" ht="18.75" customHeight="1" s="24"/>
+    <row r="301" ht="18.75" customHeight="1" s="24"/>
+    <row r="302" ht="18.75" customHeight="1" s="24"/>
+    <row r="303" ht="18.75" customHeight="1" s="24"/>
+    <row r="304" ht="18.75" customHeight="1" s="24"/>
+    <row r="305" ht="18.75" customHeight="1" s="24"/>
+    <row r="306" ht="18.75" customHeight="1" s="24"/>
+    <row r="307" ht="18.75" customHeight="1" s="24"/>
+    <row r="308" ht="18.75" customHeight="1" s="24"/>
+    <row r="309" ht="18.75" customHeight="1" s="24"/>
+    <row r="310" ht="18.75" customHeight="1" s="24"/>
+    <row r="311" ht="18.75" customHeight="1" s="24"/>
+    <row r="312" ht="18.75" customHeight="1" s="24"/>
+    <row r="313" ht="18.75" customHeight="1" s="24"/>
+    <row r="314" ht="18.75" customHeight="1" s="24"/>
+    <row r="315" ht="18.75" customHeight="1" s="24"/>
+    <row r="316" ht="18.75" customHeight="1" s="24"/>
+    <row r="317" ht="18.75" customHeight="1" s="24"/>
+    <row r="318" ht="18.75" customHeight="1" s="24"/>
+    <row r="319" ht="18.75" customHeight="1" s="24"/>
+    <row r="320" ht="18.75" customHeight="1" s="24"/>
+    <row r="321" ht="18.75" customHeight="1" s="24"/>
+    <row r="322" ht="18.75" customHeight="1" s="24"/>
+    <row r="323" ht="18.75" customHeight="1" s="24"/>
+    <row r="324" ht="18.75" customHeight="1" s="24"/>
+    <row r="325" ht="18.75" customHeight="1" s="24"/>
+    <row r="326" ht="18.75" customHeight="1" s="24"/>
+    <row r="327" ht="18.75" customHeight="1" s="24"/>
+    <row r="328" ht="18.75" customHeight="1" s="24"/>
+    <row r="329" ht="18.75" customHeight="1" s="24"/>
+    <row r="330" ht="18.75" customHeight="1" s="24"/>
+    <row r="331" ht="18.75" customHeight="1" s="24"/>
+    <row r="332" ht="18.75" customHeight="1" s="24"/>
+    <row r="333" ht="18.75" customHeight="1" s="24"/>
+    <row r="334" ht="18.75" customHeight="1" s="24"/>
+    <row r="335" ht="18.75" customHeight="1" s="24"/>
+    <row r="336" ht="18.75" customHeight="1" s="24"/>
+    <row r="337" ht="18.75" customHeight="1" s="24"/>
+    <row r="338" ht="18.75" customHeight="1" s="24"/>
+    <row r="339" ht="18.75" customHeight="1" s="24"/>
+    <row r="340" ht="18.75" customHeight="1" s="24"/>
+    <row r="341" ht="18.75" customHeight="1" s="24"/>
+    <row r="342" ht="18.75" customHeight="1" s="24"/>
+    <row r="343" ht="18.75" customHeight="1" s="24"/>
+    <row r="344" ht="18.75" customHeight="1" s="24"/>
+    <row r="345" ht="18.75" customHeight="1" s="24"/>
+    <row r="346" ht="18.75" customHeight="1" s="24"/>
+    <row r="347" ht="18.75" customHeight="1" s="24"/>
+    <row r="348" ht="18.75" customHeight="1" s="24"/>
+    <row r="349" ht="18.75" customHeight="1" s="24"/>
+    <row r="350" ht="18.75" customHeight="1" s="24"/>
+    <row r="351" ht="18.75" customHeight="1" s="24"/>
+    <row r="352" ht="18.75" customHeight="1" s="24"/>
+    <row r="353" ht="18.75" customHeight="1" s="24"/>
+    <row r="354" ht="18.75" customHeight="1" s="24"/>
+    <row r="355" ht="18.75" customHeight="1" s="24"/>
+    <row r="356" ht="18.75" customHeight="1" s="24"/>
+    <row r="357" ht="18.75" customHeight="1" s="24"/>
+    <row r="358" ht="18.75" customHeight="1" s="24"/>
+    <row r="359" ht="18.75" customHeight="1" s="24"/>
+    <row r="360" ht="18.75" customHeight="1" s="24"/>
+    <row r="361" ht="18.75" customHeight="1" s="24"/>
+    <row r="362" ht="18.75" customHeight="1" s="24"/>
+    <row r="363" ht="18.75" customHeight="1" s="24"/>
+    <row r="364" ht="18.75" customHeight="1" s="24"/>
+    <row r="365" ht="18.75" customHeight="1" s="24"/>
+    <row r="366" ht="18.75" customHeight="1" s="24"/>
+    <row r="367" ht="18.75" customHeight="1" s="24"/>
+    <row r="368" ht="18.75" customHeight="1" s="24"/>
+    <row r="369" ht="18.75" customHeight="1" s="24"/>
+    <row r="370" ht="18.75" customHeight="1" s="24"/>
+    <row r="371" ht="18.75" customHeight="1" s="24"/>
+    <row r="372" ht="18.75" customHeight="1" s="24"/>
+    <row r="373" ht="18.75" customHeight="1" s="24"/>
+    <row r="374" ht="18.75" customHeight="1" s="24"/>
+    <row r="375" ht="18.75" customHeight="1" s="24"/>
+    <row r="376" ht="18.75" customHeight="1" s="24"/>
+    <row r="377" ht="18.75" customHeight="1" s="24"/>
+    <row r="378" ht="18.75" customHeight="1" s="24"/>
+    <row r="379" ht="18.75" customHeight="1" s="24"/>
+    <row r="380" ht="18.75" customHeight="1" s="24"/>
+    <row r="381" ht="18.75" customHeight="1" s="24"/>
+    <row r="382" ht="18.75" customHeight="1" s="24"/>
+    <row r="383" ht="18.75" customHeight="1" s="24"/>
+    <row r="384" ht="18.75" customHeight="1" s="24"/>
+    <row r="385" ht="18.75" customHeight="1" s="24"/>
+    <row r="386" ht="18.75" customHeight="1" s="24"/>
+    <row r="387" ht="18.75" customHeight="1" s="24"/>
+    <row r="388" ht="18.75" customHeight="1" s="24"/>
+    <row r="389" ht="18.75" customHeight="1" s="24"/>
+    <row r="390" ht="18.75" customHeight="1" s="24"/>
+    <row r="391" ht="18.75" customHeight="1" s="24"/>
+    <row r="392" ht="18.75" customHeight="1" s="24"/>
+    <row r="393" ht="18.75" customHeight="1" s="24"/>
+    <row r="394" ht="18.75" customHeight="1" s="24"/>
+    <row r="395" ht="18.75" customHeight="1" s="24"/>
+    <row r="396" ht="18.75" customHeight="1" s="24"/>
+    <row r="397" ht="18.75" customHeight="1" s="24"/>
+    <row r="398" ht="18.75" customHeight="1" s="24"/>
+    <row r="399" ht="18.75" customHeight="1" s="24"/>
+    <row r="400" ht="18.75" customHeight="1" s="24"/>
+    <row r="401" ht="18.75" customHeight="1" s="24"/>
+    <row r="402" ht="18.75" customHeight="1" s="24"/>
+    <row r="403" ht="18.75" customHeight="1" s="24"/>
+    <row r="404" ht="18.75" customHeight="1" s="24"/>
+    <row r="405" ht="18.75" customHeight="1" s="24"/>
+    <row r="406" ht="18.75" customHeight="1" s="24"/>
+    <row r="407" ht="18.75" customHeight="1" s="24"/>
+    <row r="408" ht="18.75" customHeight="1" s="24"/>
+    <row r="409" ht="18.75" customHeight="1" s="24"/>
+    <row r="410" ht="18.75" customHeight="1" s="24"/>
+    <row r="411" ht="18.75" customHeight="1" s="24"/>
+    <row r="412" ht="18.75" customHeight="1" s="24"/>
+    <row r="413" ht="18.75" customHeight="1" s="24"/>
+    <row r="414" ht="18.75" customHeight="1" s="24"/>
+    <row r="415" ht="18.75" customHeight="1" s="24"/>
+    <row r="416" ht="18.75" customHeight="1" s="24"/>
+    <row r="417" ht="18.75" customHeight="1" s="24"/>
+    <row r="418" ht="18.75" customHeight="1" s="24"/>
+    <row r="419" ht="18.75" customHeight="1" s="24"/>
+    <row r="420" ht="18.75" customHeight="1" s="24"/>
+    <row r="421" ht="18.75" customHeight="1" s="24"/>
+    <row r="422" ht="18.75" customHeight="1" s="24"/>
+    <row r="423" ht="18.75" customHeight="1" s="24"/>
+    <row r="424" ht="18.75" customHeight="1" s="24"/>
+    <row r="425" ht="18.75" customHeight="1" s="24"/>
+    <row r="426" ht="18.75" customHeight="1" s="24"/>
+    <row r="427" ht="18.75" customHeight="1" s="24"/>
+    <row r="428" ht="18.75" customHeight="1" s="24"/>
+    <row r="429" ht="18.75" customHeight="1" s="24"/>
+    <row r="430" ht="18.75" customHeight="1" s="24"/>
+    <row r="431" ht="18.75" customHeight="1" s="24"/>
+    <row r="432" ht="18.75" customHeight="1" s="24"/>
+    <row r="433" ht="18.75" customHeight="1" s="24"/>
+    <row r="434" ht="18.75" customHeight="1" s="24"/>
+    <row r="435" ht="18.75" customHeight="1" s="24"/>
+    <row r="436" ht="18.75" customHeight="1" s="24"/>
+    <row r="437" ht="18.75" customHeight="1" s="24"/>
+    <row r="438" ht="18.75" customHeight="1" s="24"/>
+    <row r="439" ht="18.75" customHeight="1" s="24"/>
+    <row r="440" ht="18.75" customHeight="1" s="24"/>
+    <row r="441" ht="18.75" customHeight="1" s="24"/>
+    <row r="442" ht="18.75" customHeight="1" s="24"/>
+    <row r="443" ht="18.75" customHeight="1" s="24"/>
+    <row r="444" ht="18.75" customHeight="1" s="24"/>
+    <row r="445" ht="18.75" customHeight="1" s="24"/>
+    <row r="446" ht="18.75" customHeight="1" s="24"/>
+    <row r="447" ht="18.75" customHeight="1" s="24"/>
+    <row r="448" ht="18.75" customHeight="1" s="24"/>
+    <row r="449" ht="18.75" customHeight="1" s="24"/>
+    <row r="450" ht="18.75" customHeight="1" s="24"/>
+    <row r="451" ht="18.75" customHeight="1" s="24"/>
+    <row r="452" ht="18.75" customHeight="1" s="24"/>
+    <row r="453" ht="18.75" customHeight="1" s="24"/>
+    <row r="454" ht="18.75" customHeight="1" s="24"/>
+    <row r="455" ht="18.75" customHeight="1" s="24"/>
+    <row r="456" ht="18.75" customHeight="1" s="24"/>
+    <row r="457" ht="18.75" customHeight="1" s="24"/>
+    <row r="458" ht="18.75" customHeight="1" s="24"/>
+    <row r="459" ht="18.75" customHeight="1" s="24"/>
+    <row r="460" ht="18.75" customHeight="1" s="24"/>
+    <row r="461" ht="18.75" customHeight="1" s="24"/>
+    <row r="462" ht="18.75" customHeight="1" s="24"/>
+    <row r="463" ht="18.75" customHeight="1" s="24"/>
+    <row r="464" ht="18.75" customHeight="1" s="24"/>
+    <row r="465" ht="18.75" customHeight="1" s="24"/>
+    <row r="466" ht="18.75" customHeight="1" s="24"/>
+    <row r="467" ht="18.75" customHeight="1" s="24"/>
+    <row r="468" ht="18.75" customHeight="1" s="24"/>
+    <row r="469" ht="18.75" customHeight="1" s="24"/>
+    <row r="470" ht="18.75" customHeight="1" s="24"/>
+    <row r="471" ht="18.75" customHeight="1" s="24"/>
+    <row r="472" ht="18.75" customHeight="1" s="24"/>
+    <row r="473" ht="18.75" customHeight="1" s="24"/>
+    <row r="474" ht="18.75" customHeight="1" s="24"/>
+    <row r="475" ht="18.75" customHeight="1" s="24"/>
+    <row r="476" ht="18.75" customHeight="1" s="24"/>
+    <row r="477" ht="18.75" customHeight="1" s="24"/>
+    <row r="478" ht="18.75" customHeight="1" s="24"/>
+    <row r="479" ht="18.75" customHeight="1" s="24"/>
+    <row r="480" ht="18.75" customHeight="1" s="24"/>
+    <row r="481" ht="18.75" customHeight="1" s="24"/>
+    <row r="482" ht="18.75" customHeight="1" s="24"/>
+    <row r="483" ht="18.75" customHeight="1" s="24"/>
+    <row r="484" ht="18.75" customHeight="1" s="24"/>
+    <row r="485" ht="18.75" customHeight="1" s="24"/>
+    <row r="486" ht="18.75" customHeight="1" s="24"/>
+    <row r="487" ht="18.75" customHeight="1" s="24"/>
+    <row r="488" ht="18.75" customHeight="1" s="24"/>
+    <row r="489" ht="18.75" customHeight="1" s="24"/>
+    <row r="490" ht="18.75" customHeight="1" s="24"/>
+    <row r="491" ht="18.75" customHeight="1" s="24"/>
+    <row r="492" ht="18.75" customHeight="1" s="24"/>
+    <row r="493" ht="18.75" customHeight="1" s="24"/>
+    <row r="494" ht="18.75" customHeight="1" s="24"/>
+    <row r="495" ht="18.75" customHeight="1" s="24"/>
+    <row r="496" ht="18.75" customHeight="1" s="24"/>
+    <row r="497" ht="18.75" customHeight="1" s="24"/>
+    <row r="498" ht="18.75" customHeight="1" s="24"/>
+    <row r="499" ht="18.75" customHeight="1" s="24"/>
+    <row r="500" ht="18.75" customHeight="1" s="24"/>
+    <row r="501" ht="18.75" customHeight="1" s="24"/>
+    <row r="502" ht="18.75" customHeight="1" s="24"/>
+    <row r="503" ht="18.75" customHeight="1" s="24"/>
+    <row r="504" ht="18.75" customHeight="1" s="24"/>
+    <row r="505" ht="18.75" customHeight="1" s="24"/>
+    <row r="506" ht="18.75" customHeight="1" s="24"/>
+    <row r="507" ht="18.75" customHeight="1" s="24"/>
+    <row r="508" ht="18.75" customHeight="1" s="24"/>
+    <row r="509" ht="18.75" customHeight="1" s="24"/>
+    <row r="510" ht="18.75" customHeight="1" s="24"/>
+    <row r="511" ht="18.75" customHeight="1" s="24"/>
+    <row r="512" ht="18.75" customHeight="1" s="24"/>
+    <row r="513" ht="18.75" customHeight="1" s="24"/>
+    <row r="514" ht="18.75" customHeight="1" s="24"/>
+    <row r="515" ht="18.75" customHeight="1" s="24"/>
+    <row r="516" ht="18.75" customHeight="1" s="24"/>
+    <row r="517" ht="18.75" customHeight="1" s="24"/>
+    <row r="518" ht="18.75" customHeight="1" s="24"/>
+    <row r="519" ht="18.75" customHeight="1" s="24"/>
+    <row r="520" ht="18.75" customHeight="1" s="24"/>
+    <row r="521" ht="18.75" customHeight="1" s="24"/>
+    <row r="522" ht="18.75" customHeight="1" s="24"/>
+    <row r="523" ht="18.75" customHeight="1" s="24"/>
+    <row r="524" ht="18.75" customHeight="1" s="24"/>
+    <row r="525" ht="18.75" customHeight="1" s="24"/>
+    <row r="526" ht="18.75" customHeight="1" s="24"/>
+    <row r="527" ht="18.75" customHeight="1" s="24"/>
+    <row r="528" ht="18.75" customHeight="1" s="24"/>
+    <row r="529" ht="18.75" customHeight="1" s="24"/>
+    <row r="530" ht="18.75" customHeight="1" s="24"/>
+    <row r="531" ht="18.75" customHeight="1" s="24"/>
+    <row r="532" ht="18.75" customHeight="1" s="24"/>
+    <row r="533" ht="18.75" customHeight="1" s="24"/>
+    <row r="534" ht="18.75" customHeight="1" s="24"/>
+    <row r="535" ht="18.75" customHeight="1" s="24"/>
+    <row r="536" ht="18.75" customHeight="1" s="24"/>
+    <row r="537" ht="18.75" customHeight="1" s="24"/>
+    <row r="538" ht="18.75" customHeight="1" s="24"/>
+    <row r="539" ht="18.75" customHeight="1" s="24"/>
+    <row r="540" ht="18.75" customHeight="1" s="24"/>
+    <row r="541" ht="18.75" customHeight="1" s="24"/>
+    <row r="542" ht="18.75" customHeight="1" s="24"/>
+    <row r="543" ht="18.75" customHeight="1" s="24"/>
+    <row r="544" ht="18.75" customHeight="1" s="24"/>
+    <row r="545" ht="18.75" customHeight="1" s="24"/>
+    <row r="546" ht="18.75" customHeight="1" s="24"/>
+    <row r="547" ht="18.75" customHeight="1" s="24"/>
+    <row r="548" ht="18.75" customHeight="1" s="24"/>
+    <row r="549" ht="18.75" customHeight="1" s="24"/>
+    <row r="550" ht="18.75" customHeight="1" s="24"/>
+    <row r="551" ht="18.75" customHeight="1" s="24"/>
+    <row r="552" ht="18.75" customHeight="1" s="24"/>
+    <row r="553" ht="18.75" customHeight="1" s="24"/>
+    <row r="554" ht="18.75" customHeight="1" s="24"/>
+    <row r="555" ht="18.75" customHeight="1" s="24"/>
+    <row r="556" ht="18.75" customHeight="1" s="24"/>
+    <row r="557" ht="18.75" customHeight="1" s="24"/>
+    <row r="558" ht="18.75" customHeight="1" s="24"/>
+    <row r="559" ht="18.75" customHeight="1" s="24"/>
+    <row r="560" ht="18.75" customHeight="1" s="24"/>
+    <row r="561" ht="18.75" customHeight="1" s="24"/>
+    <row r="562" ht="18.75" customHeight="1" s="24"/>
+    <row r="563" ht="18.75" customHeight="1" s="24"/>
+    <row r="564" ht="18.75" customHeight="1" s="24"/>
+    <row r="565" ht="18.75" customHeight="1" s="24"/>
+    <row r="566" ht="18.75" customHeight="1" s="24"/>
+    <row r="567" ht="18.75" customHeight="1" s="24"/>
+    <row r="568" ht="18.75" customHeight="1" s="24"/>
+    <row r="569" ht="18.75" customHeight="1" s="24"/>
+    <row r="570" ht="18.75" customHeight="1" s="24"/>
+    <row r="571" ht="18.75" customHeight="1" s="24"/>
+    <row r="572" ht="18.75" customHeight="1" s="24"/>
+    <row r="573" ht="18.75" customHeight="1" s="24"/>
+    <row r="574" ht="18.75" customHeight="1" s="24"/>
+    <row r="575" ht="18.75" customHeight="1" s="24"/>
+    <row r="576" ht="18.75" customHeight="1" s="24"/>
+    <row r="577" ht="18.75" customHeight="1" s="24"/>
+    <row r="578" ht="18.75" customHeight="1" s="24"/>
+    <row r="579" ht="18.75" customHeight="1" s="24"/>
+    <row r="580" ht="18.75" customHeight="1" s="24"/>
+    <row r="581" ht="18.75" customHeight="1" s="24"/>
+    <row r="582" ht="18.75" customHeight="1" s="24"/>
+    <row r="583" ht="18.75" customHeight="1" s="24"/>
+    <row r="584" ht="18.75" customHeight="1" s="24"/>
+    <row r="585" ht="18.75" customHeight="1" s="24"/>
+    <row r="586" ht="18.75" customHeight="1" s="24"/>
+    <row r="587" ht="18.75" customHeight="1" s="24"/>
+    <row r="588" ht="18.75" customHeight="1" s="24"/>
+    <row r="589" ht="18.75" customHeight="1" s="24"/>
+    <row r="590" ht="18.75" customHeight="1" s="24"/>
+    <row r="591" ht="18.75" customHeight="1" s="24"/>
+    <row r="592" ht="18.75" customHeight="1" s="24"/>
+    <row r="593" ht="18.75" customHeight="1" s="24"/>
+    <row r="594" ht="18.75" customHeight="1" s="24"/>
+    <row r="595" ht="18.75" customHeight="1" s="24"/>
+    <row r="596" ht="18.75" customHeight="1" s="24"/>
+    <row r="597" ht="18.75" customHeight="1" s="24"/>
+    <row r="598" ht="18.75" customHeight="1" s="24"/>
+    <row r="599" ht="18.75" customHeight="1" s="24"/>
+    <row r="600" ht="18.75" customHeight="1" s="24"/>
+    <row r="601" ht="18.75" customHeight="1" s="24"/>
+    <row r="602" ht="18.75" customHeight="1" s="24"/>
+    <row r="603" ht="18.75" customHeight="1" s="24"/>
+    <row r="604" ht="18.75" customHeight="1" s="24"/>
+    <row r="605" ht="18.75" customHeight="1" s="24"/>
+    <row r="606" ht="18.75" customHeight="1" s="24"/>
+    <row r="607" ht="18.75" customHeight="1" s="24"/>
+    <row r="608" ht="18.75" customHeight="1" s="24"/>
+    <row r="609" ht="18.75" customHeight="1" s="24"/>
+    <row r="610" ht="18.75" customHeight="1" s="24"/>
+    <row r="611" ht="18.75" customHeight="1" s="24"/>
+    <row r="612" ht="18.75" customHeight="1" s="24"/>
+    <row r="613" ht="18.75" customHeight="1" s="24"/>
+    <row r="614" ht="18.75" customHeight="1" s="24"/>
+    <row r="615" ht="18.75" customHeight="1" s="24"/>
+    <row r="616" ht="18.75" customHeight="1" s="24"/>
+    <row r="617" ht="18.75" customHeight="1" s="24"/>
+    <row r="618" ht="18.75" customHeight="1" s="24"/>
+    <row r="619" ht="18.75" customHeight="1" s="24"/>
+    <row r="620" ht="18.75" customHeight="1" s="24"/>
+    <row r="621" ht="18.75" customHeight="1" s="24"/>
+    <row r="622" ht="18.75" customHeight="1" s="24"/>
+    <row r="623" ht="18.75" customHeight="1" s="24"/>
+    <row r="624" ht="18.75" customHeight="1" s="24"/>
+    <row r="625" ht="18.75" customHeight="1" s="24"/>
+    <row r="626" ht="18.75" customHeight="1" s="24"/>
+    <row r="627" ht="18.75" customHeight="1" s="24"/>
+    <row r="628" ht="18.75" customHeight="1" s="24"/>
+    <row r="629" ht="18.75" customHeight="1" s="24"/>
+    <row r="630" ht="18.75" customHeight="1" s="24"/>
+    <row r="631" ht="18.75" customHeight="1" s="24"/>
+    <row r="632" ht="18.75" customHeight="1" s="24"/>
+    <row r="633" ht="18.75" customHeight="1" s="24"/>
+    <row r="634" ht="18.75" customHeight="1" s="24"/>
+    <row r="635" ht="18.75" customHeight="1" s="24"/>
+    <row r="636" ht="18.75" customHeight="1" s="24"/>
+    <row r="637" ht="18.75" customHeight="1" s="24"/>
+    <row r="638" ht="18.75" customHeight="1" s="24"/>
+    <row r="639" ht="18.75" customHeight="1" s="24"/>
+    <row r="640" ht="18.75" customHeight="1" s="24"/>
+    <row r="641" ht="18.75" customHeight="1" s="24"/>
+    <row r="642" ht="18.75" customHeight="1" s="24"/>
+    <row r="643" ht="18.75" customHeight="1" s="24"/>
+    <row r="644" ht="18.75" customHeight="1" s="24"/>
+    <row r="645" ht="18.75" customHeight="1" s="24"/>
+    <row r="646" ht="18.75" customHeight="1" s="24"/>
+    <row r="647" ht="18.75" customHeight="1" s="24"/>
+    <row r="648" ht="18.75" customHeight="1" s="24"/>
+    <row r="649" ht="18.75" customHeight="1" s="24"/>
+    <row r="650" ht="18.75" customHeight="1" s="24"/>
+    <row r="651" ht="18.75" customHeight="1" s="24"/>
+    <row r="652" ht="18.75" customHeight="1" s="24"/>
+    <row r="653" ht="18.75" customHeight="1" s="24"/>
+    <row r="654" ht="18.75" customHeight="1" s="24"/>
+    <row r="655" ht="18.75" customHeight="1" s="24"/>
+    <row r="656" ht="18.75" customHeight="1" s="24"/>
+    <row r="657" ht="18.75" customHeight="1" s="24"/>
+    <row r="658" ht="18.75" customHeight="1" s="24"/>
+    <row r="659" ht="18.75" customHeight="1" s="24"/>
+    <row r="660" ht="18.75" customHeight="1" s="24"/>
+    <row r="661" ht="18.75" customHeight="1" s="24"/>
+    <row r="662" ht="18.75" customHeight="1" s="24"/>
+    <row r="663" ht="18.75" customHeight="1" s="24"/>
+    <row r="664" ht="18.75" customHeight="1" s="24"/>
+    <row r="665" ht="18.75" customHeight="1" s="24"/>
+    <row r="666" ht="18.75" customHeight="1" s="24"/>
+    <row r="667" ht="18.75" customHeight="1" s="24"/>
+    <row r="668" ht="18.75" customHeight="1" s="24"/>
+    <row r="669" ht="18.75" customHeight="1" s="24"/>
+    <row r="670" ht="18.75" customHeight="1" s="24"/>
+    <row r="671" ht="18.75" customHeight="1" s="24"/>
+    <row r="672" ht="18.75" customHeight="1" s="24"/>
+    <row r="673" ht="18.75" customHeight="1" s="24"/>
+    <row r="674" ht="18.75" customHeight="1" s="24"/>
+    <row r="675" ht="18.75" customHeight="1" s="24"/>
+    <row r="676" ht="18.75" customHeight="1" s="24"/>
+    <row r="677" ht="18.75" customHeight="1" s="24"/>
+    <row r="678" ht="18.75" customHeight="1" s="24"/>
+    <row r="679" ht="18.75" customHeight="1" s="24"/>
+    <row r="680" ht="18.75" customHeight="1" s="24"/>
+    <row r="681" ht="18.75" customHeight="1" s="24"/>
+    <row r="682" ht="18.75" customHeight="1" s="24"/>
+    <row r="683" ht="18.75" customHeight="1" s="24"/>
+    <row r="684" ht="18.75" customHeight="1" s="24"/>
+    <row r="685" ht="18.75" customHeight="1" s="24"/>
+    <row r="686" ht="18.75" customHeight="1" s="24"/>
+    <row r="687" ht="18.75" customHeight="1" s="24"/>
+    <row r="688" ht="18.75" customHeight="1" s="24"/>
+    <row r="689" ht="18.75" customHeight="1" s="24"/>
+    <row r="690" ht="18.75" customHeight="1" s="24"/>
+    <row r="691" ht="18.75" customHeight="1" s="24"/>
+    <row r="692" ht="18.75" customHeight="1" s="24"/>
+    <row r="693" ht="18.75" customHeight="1" s="24"/>
+    <row r="694" ht="18.75" customHeight="1" s="24"/>
+    <row r="695" ht="18.75" customHeight="1" s="24"/>
+    <row r="696" ht="18.75" customHeight="1" s="24"/>
+    <row r="697" ht="18.75" customHeight="1" s="24"/>
+    <row r="698" ht="18.75" customHeight="1" s="24"/>
+    <row r="699" ht="18.75" customHeight="1" s="24"/>
+    <row r="700" ht="18.75" customHeight="1" s="24"/>
+    <row r="701" ht="18.75" customHeight="1" s="24"/>
+    <row r="702" ht="18.75" customHeight="1" s="24"/>
+    <row r="703" ht="18.75" customHeight="1" s="24"/>
+    <row r="704" ht="18.75" customHeight="1" s="24"/>
+    <row r="705" ht="18.75" customHeight="1" s="24"/>
+    <row r="706" ht="18.75" customHeight="1" s="24"/>
+    <row r="707" ht="18.75" customHeight="1" s="24"/>
+    <row r="708" ht="18.75" customHeight="1" s="24"/>
+    <row r="709" ht="18.75" customHeight="1" s="24"/>
+    <row r="710" ht="18.75" customHeight="1" s="24"/>
+    <row r="711" ht="18.75" customHeight="1" s="24"/>
+    <row r="712" ht="18.75" customHeight="1" s="24"/>
+    <row r="713" ht="18.75" customHeight="1" s="24"/>
+    <row r="714" ht="18.75" customHeight="1" s="24"/>
+    <row r="715" ht="18.75" customHeight="1" s="24"/>
+    <row r="716" ht="18.75" customHeight="1" s="24"/>
+    <row r="717" ht="18.75" customHeight="1" s="24"/>
+    <row r="718" ht="18.75" customHeight="1" s="24"/>
+    <row r="719" ht="18.75" customHeight="1" s="24"/>
+    <row r="720" ht="18.75" customHeight="1" s="24"/>
+    <row r="721" ht="18.75" customHeight="1" s="24"/>
+    <row r="722" ht="18.75" customHeight="1" s="24"/>
+    <row r="723" ht="18.75" customHeight="1" s="24"/>
+    <row r="724" ht="18.75" customHeight="1" s="24"/>
+    <row r="725" ht="18.75" customHeight="1" s="24"/>
+    <row r="726" ht="18.75" customHeight="1" s="24"/>
+    <row r="727" ht="18.75" customHeight="1" s="24"/>
+    <row r="728" ht="18.75" customHeight="1" s="24"/>
+    <row r="729" ht="18.75" customHeight="1" s="24"/>
+    <row r="730" ht="18.75" customHeight="1" s="24"/>
+    <row r="731" ht="18.75" customHeight="1" s="24"/>
+    <row r="732" ht="18.75" customHeight="1" s="24"/>
+    <row r="733" ht="18.75" customHeight="1" s="24"/>
+    <row r="734" ht="18.75" customHeight="1" s="24"/>
+    <row r="735" ht="18.75" customHeight="1" s="24"/>
+    <row r="736" ht="18.75" customHeight="1" s="24"/>
+    <row r="737" ht="18.75" customHeight="1" s="24"/>
+    <row r="738" ht="18.75" customHeight="1" s="24"/>
+    <row r="739" ht="18.75" customHeight="1" s="24"/>
+    <row r="740" ht="18.75" customHeight="1" s="24"/>
+    <row r="741" ht="18.75" customHeight="1" s="24"/>
+    <row r="742" ht="18.75" customHeight="1" s="24"/>
+    <row r="743" ht="18.75" customHeight="1" s="24"/>
+    <row r="744" ht="18.75" customHeight="1" s="24"/>
+    <row r="745" ht="18.75" customHeight="1" s="24"/>
+    <row r="746" ht="18.75" customHeight="1" s="24"/>
+    <row r="747" ht="18.75" customHeight="1" s="24"/>
+    <row r="748" ht="18.75" customHeight="1" s="24"/>
+    <row r="749" ht="18.75" customHeight="1" s="24"/>
+    <row r="750" ht="18.75" customHeight="1" s="24"/>
+    <row r="751" ht="18.75" customHeight="1" s="24"/>
+    <row r="752" ht="18.75" customHeight="1" s="24"/>
+    <row r="753" ht="18.75" customHeight="1" s="24"/>
+    <row r="754" ht="18.75" customHeight="1" s="24"/>
+    <row r="755" ht="18.75" customHeight="1" s="24"/>
+    <row r="756" ht="18.75" customHeight="1" s="24"/>
+    <row r="757" ht="18.75" customHeight="1" s="24"/>
+    <row r="758" ht="18.75" customHeight="1" s="24"/>
+    <row r="759" ht="18.75" customHeight="1" s="24"/>
+    <row r="760" ht="18.75" customHeight="1" s="24"/>
+    <row r="761" ht="18.75" customHeight="1" s="24"/>
+    <row r="762" ht="18.75" customHeight="1" s="24"/>
+    <row r="763" ht="18.75" customHeight="1" s="24"/>
+    <row r="764" ht="18.75" customHeight="1" s="24"/>
+    <row r="765" ht="18.75" customHeight="1" s="24"/>
+    <row r="766" ht="18.75" customHeight="1" s="24"/>
+    <row r="767" ht="18.75" customHeight="1" s="24"/>
+    <row r="768" ht="18.75" customHeight="1" s="24"/>
+    <row r="769" ht="18.75" customHeight="1" s="24"/>
+    <row r="770" ht="18.75" customHeight="1" s="24"/>
+    <row r="771" ht="18.75" customHeight="1" s="24"/>
+    <row r="772" ht="18.75" customHeight="1" s="24"/>
+    <row r="773" ht="18.75" customHeight="1" s="24"/>
+    <row r="774" ht="18.75" customHeight="1" s="24"/>
+    <row r="775" ht="18.75" customHeight="1" s="24"/>
+    <row r="776" ht="18.75" customHeight="1" s="24"/>
+    <row r="777" ht="18.75" customHeight="1" s="24"/>
+    <row r="778" ht="18.75" customHeight="1" s="24"/>
+    <row r="779" ht="18.75" customHeight="1" s="24"/>
+    <row r="780" ht="18.75" customHeight="1" s="24"/>
+    <row r="781" ht="18.75" customHeight="1" s="24"/>
+    <row r="782" ht="18.75" customHeight="1" s="24"/>
+    <row r="783" ht="18.75" customHeight="1" s="24"/>
+    <row r="784" ht="18.75" customHeight="1" s="24"/>
+    <row r="785" ht="18.75" customHeight="1" s="24"/>
+    <row r="786" ht="18.75" customHeight="1" s="24"/>
+    <row r="787" ht="18.75" customHeight="1" s="24"/>
+    <row r="788" ht="18.75" customHeight="1" s="24"/>
+    <row r="789" ht="18.75" customHeight="1" s="24"/>
+    <row r="790" ht="18.75" customHeight="1" s="24"/>
+    <row r="791" ht="18.75" customHeight="1" s="24"/>
+    <row r="792" ht="18.75" customHeight="1" s="24"/>
+    <row r="793" ht="18.75" customHeight="1" s="24"/>
+    <row r="794" ht="18.75" customHeight="1" s="24"/>
+    <row r="795" ht="18.75" customHeight="1" s="24"/>
+    <row r="796" ht="18.75" customHeight="1" s="24"/>
+    <row r="797" ht="18.75" customHeight="1" s="24"/>
+    <row r="798" ht="18.75" customHeight="1" s="24"/>
+    <row r="799" ht="18.75" customHeight="1" s="24"/>
+    <row r="800" ht="18.75" customHeight="1" s="24"/>
+    <row r="801" ht="18.75" customHeight="1" s="24"/>
+    <row r="802" ht="18.75" customHeight="1" s="24"/>
+    <row r="803" ht="18.75" customHeight="1" s="24"/>
+    <row r="804" ht="18.75" customHeight="1" s="24"/>
+    <row r="805" ht="18.75" customHeight="1" s="24"/>
+    <row r="806" ht="18.75" customHeight="1" s="24"/>
+    <row r="807" ht="18.75" customHeight="1" s="24"/>
+    <row r="808" ht="18.75" customHeight="1" s="24"/>
+    <row r="809" ht="18.75" customHeight="1" s="24"/>
+    <row r="810" ht="18.75" customHeight="1" s="24"/>
+    <row r="811" ht="18.75" customHeight="1" s="24"/>
+    <row r="812" ht="18.75" customHeight="1" s="24"/>
+    <row r="813" ht="18.75" customHeight="1" s="24"/>
+    <row r="814" ht="18.75" customHeight="1" s="24"/>
+    <row r="815" ht="18.75" customHeight="1" s="24"/>
+    <row r="816" ht="18.75" customHeight="1" s="24"/>
+    <row r="817" ht="18.75" customHeight="1" s="24"/>
+    <row r="818" ht="18.75" customHeight="1" s="24"/>
+    <row r="819" ht="18.75" customHeight="1" s="24"/>
+    <row r="820" ht="18.75" customHeight="1" s="24"/>
+    <row r="821" ht="18.75" customHeight="1" s="24"/>
+    <row r="822" ht="18.75" customHeight="1" s="24"/>
+    <row r="823" ht="18.75" customHeight="1" s="24"/>
+    <row r="824" ht="18.75" customHeight="1" s="24"/>
+    <row r="825" ht="18.75" customHeight="1" s="24"/>
+    <row r="826" ht="18.75" customHeight="1" s="24"/>
+    <row r="827" ht="18.75" customHeight="1" s="24"/>
+    <row r="828" ht="18.75" customHeight="1" s="24"/>
+    <row r="829" ht="18.75" customHeight="1" s="24"/>
+    <row r="830" ht="18.75" customHeight="1" s="24"/>
+    <row r="831" ht="18.75" customHeight="1" s="24"/>
+    <row r="832" ht="18.75" customHeight="1" s="24"/>
+    <row r="833" ht="18.75" customHeight="1" s="24"/>
+    <row r="834" ht="18.75" customHeight="1" s="24"/>
+    <row r="835" ht="18.75" customHeight="1" s="24"/>
+    <row r="836" ht="18.75" customHeight="1" s="24"/>
+    <row r="837" ht="18.75" customHeight="1" s="24"/>
+    <row r="838" ht="18.75" customHeight="1" s="24"/>
+    <row r="839" ht="18.75" customHeight="1" s="24"/>
+    <row r="840" ht="18.75" customHeight="1" s="24"/>
+    <row r="841" ht="18.75" customHeight="1" s="24"/>
+    <row r="842" ht="18.75" customHeight="1" s="24"/>
+    <row r="843" ht="18.75" customHeight="1" s="24"/>
+    <row r="844" ht="18.75" customHeight="1" s="24"/>
+    <row r="845" ht="18.75" customHeight="1" s="24"/>
+    <row r="846" ht="18.75" customHeight="1" s="24"/>
+    <row r="847" ht="18.75" customHeight="1" s="24"/>
+    <row r="848" ht="18.75" customHeight="1" s="24"/>
+    <row r="849" ht="18.75" customHeight="1" s="24"/>
+    <row r="850" ht="18.75" customHeight="1" s="24"/>
+    <row r="851" ht="18.75" customHeight="1" s="24"/>
+    <row r="852" ht="18.75" customHeight="1" s="24"/>
+    <row r="853" ht="18.75" customHeight="1" s="24"/>
+    <row r="854" ht="18.75" customHeight="1" s="24"/>
+    <row r="855" ht="18.75" customHeight="1" s="24"/>
+    <row r="856" ht="18.75" customHeight="1" s="24"/>
+    <row r="857" ht="18.75" customHeight="1" s="24"/>
+    <row r="858" ht="18.75" customHeight="1" s="24"/>
+    <row r="859" ht="18.75" customHeight="1" s="24"/>
+    <row r="860" ht="18.75" customHeight="1" s="24"/>
+    <row r="861" ht="18.75" customHeight="1" s="24"/>
+    <row r="862" ht="18.75" customHeight="1" s="24"/>
+    <row r="863" ht="18.75" customHeight="1" s="24"/>
+    <row r="864" ht="18.75" customHeight="1" s="24"/>
+    <row r="865" ht="18.75" customHeight="1" s="24"/>
+    <row r="866" ht="18.75" customHeight="1" s="24"/>
+    <row r="867" ht="18.75" customHeight="1" s="24"/>
+    <row r="868" ht="18.75" customHeight="1" s="24"/>
+    <row r="869" ht="18.75" customHeight="1" s="24"/>
+    <row r="870" ht="18.75" customHeight="1" s="24"/>
+    <row r="871" ht="18.75" customHeight="1" s="24"/>
+    <row r="872" ht="18.75" customHeight="1" s="24"/>
+    <row r="873" ht="18.75" customHeight="1" s="24"/>
+    <row r="874" ht="18.75" customHeight="1" s="24"/>
+    <row r="875" ht="18.75" customHeight="1" s="24"/>
+    <row r="876" ht="18.75" customHeight="1" s="24"/>
+    <row r="877" ht="18.75" customHeight="1" s="24"/>
+    <row r="878" ht="18.75" customHeight="1" s="24"/>
+    <row r="879" ht="18.75" customHeight="1" s="24"/>
+    <row r="880" ht="18.75" customHeight="1" s="24"/>
+    <row r="881" ht="18.75" customHeight="1" s="24"/>
+    <row r="882" ht="18.75" customHeight="1" s="24"/>
+    <row r="883" ht="18.75" customHeight="1" s="24"/>
+    <row r="884" ht="18.75" customHeight="1" s="24"/>
+    <row r="885" ht="18.75" customHeight="1" s="24"/>
+    <row r="886" ht="18.75" customHeight="1" s="24"/>
+    <row r="887" ht="18.75" customHeight="1" s="24"/>
+    <row r="888" ht="18.75" customHeight="1" s="24"/>
+    <row r="889" ht="18.75" customHeight="1" s="24"/>
+    <row r="890" ht="18.75" customHeight="1" s="24"/>
+    <row r="891" ht="18.75" customHeight="1" s="24"/>
+    <row r="892" ht="18.75" customHeight="1" s="24"/>
+    <row r="893" ht="18.75" customHeight="1" s="24"/>
+    <row r="894" ht="18.75" customHeight="1" s="24"/>
+    <row r="895" ht="18.75" customHeight="1" s="24"/>
+    <row r="896" ht="18.75" customHeight="1" s="24"/>
+    <row r="897" ht="18.75" customHeight="1" s="24"/>
+    <row r="898" ht="18.75" customHeight="1" s="24"/>
+    <row r="899" ht="18.75" customHeight="1" s="24"/>
+    <row r="900" ht="18.75" customHeight="1" s="24"/>
+    <row r="901" ht="18.75" customHeight="1" s="24"/>
+    <row r="902" ht="18.75" customHeight="1" s="24"/>
+    <row r="903" ht="18.75" customHeight="1" s="24"/>
+    <row r="904" ht="18.75" customHeight="1" s="24"/>
+    <row r="905" ht="18.75" customHeight="1" s="24"/>
+    <row r="906" ht="18.75" customHeight="1" s="24"/>
+    <row r="907" ht="18.75" customHeight="1" s="24"/>
+    <row r="908" ht="18.75" customHeight="1" s="24"/>
+    <row r="909" ht="18.75" customHeight="1" s="24"/>
+    <row r="910" ht="18.75" customHeight="1" s="24"/>
+    <row r="911" ht="18.75" customHeight="1" s="24"/>
+    <row r="912" ht="18.75" customHeight="1" s="24"/>
+    <row r="913" ht="18.75" customHeight="1" s="24"/>
+    <row r="914" ht="18.75" customHeight="1" s="24"/>
+    <row r="915" ht="18.75" customHeight="1" s="24"/>
+    <row r="916" ht="18.75" customHeight="1" s="24"/>
+    <row r="917" ht="18.75" customHeight="1" s="24"/>
+    <row r="918" ht="18.75" customHeight="1" s="24"/>
+    <row r="919" ht="18.75" customHeight="1" s="24"/>
+    <row r="920" ht="18.75" customHeight="1" s="24"/>
+    <row r="921" ht="18.75" customHeight="1" s="24"/>
+    <row r="922" ht="18.75" customHeight="1" s="24"/>
+    <row r="923" ht="18.75" customHeight="1" s="24"/>
+    <row r="924" ht="18.75" customHeight="1" s="24"/>
+    <row r="925" ht="18.75" customHeight="1" s="24"/>
+    <row r="926" ht="18.75" customHeight="1" s="24"/>
+    <row r="927" ht="18.75" customHeight="1" s="24"/>
+    <row r="928" ht="18.75" customHeight="1" s="24"/>
+    <row r="929" ht="18.75" customHeight="1" s="24"/>
+    <row r="930" ht="18.75" customHeight="1" s="24"/>
+    <row r="931" ht="18.75" customHeight="1" s="24"/>
+    <row r="932" ht="18.75" customHeight="1" s="24"/>
+    <row r="933" ht="18.75" customHeight="1" s="24"/>
+    <row r="934" ht="18.75" customHeight="1" s="24"/>
+    <row r="935" ht="18.75" customHeight="1" s="24"/>
+    <row r="936" ht="18.75" customHeight="1" s="24"/>
+    <row r="937" ht="18.75" customHeight="1" s="24"/>
+    <row r="938" ht="18.75" customHeight="1" s="24"/>
+    <row r="939" ht="18.75" customHeight="1" s="24"/>
+    <row r="940" ht="18.75" customHeight="1" s="24"/>
+    <row r="941" ht="18.75" customHeight="1" s="24"/>
+    <row r="942" ht="18.75" customHeight="1" s="24"/>
+    <row r="943" ht="18.75" customHeight="1" s="24"/>
+    <row r="944" ht="18.75" customHeight="1" s="24"/>
+    <row r="945" ht="18.75" customHeight="1" s="24"/>
+    <row r="946" ht="18.75" customHeight="1" s="24"/>
+    <row r="947" ht="18.75" customHeight="1" s="24"/>
+    <row r="948" ht="18.75" customHeight="1" s="24"/>
+    <row r="949" ht="18.75" customHeight="1" s="24"/>
+    <row r="950" ht="18.75" customHeight="1" s="24"/>
+    <row r="951" ht="18.75" customHeight="1" s="24"/>
+    <row r="952" ht="18.75" customHeight="1" s="24"/>
+    <row r="953" ht="18.75" customHeight="1" s="24"/>
+    <row r="954" ht="18.75" customHeight="1" s="24"/>
+    <row r="955" ht="18.75" customHeight="1" s="24"/>
+    <row r="956" ht="18.75" customHeight="1" s="24"/>
+    <row r="957" ht="18.75" customHeight="1" s="24"/>
+    <row r="958" ht="18.75" customHeight="1" s="24"/>
+    <row r="959" ht="18.75" customHeight="1" s="24"/>
+    <row r="960" ht="18.75" customHeight="1" s="24"/>
+    <row r="961" ht="18.75" customHeight="1" s="24"/>
+    <row r="962" ht="18.75" customHeight="1" s="24"/>
+    <row r="963" ht="18.75" customHeight="1" s="24"/>
+    <row r="964" ht="18.75" customHeight="1" s="24"/>
+    <row r="965" ht="18.75" customHeight="1" s="24"/>
+    <row r="966" ht="18.75" customHeight="1" s="24"/>
+    <row r="967" ht="18.75" customHeight="1" s="24"/>
+    <row r="968" ht="18.75" customHeight="1" s="24"/>
+    <row r="969" ht="18.75" customHeight="1" s="24"/>
+    <row r="970" ht="18.75" customHeight="1" s="24"/>
+    <row r="971" ht="18.75" customHeight="1" s="24"/>
+    <row r="972" ht="18.75" customHeight="1" s="24"/>
+    <row r="973" ht="18.75" customHeight="1" s="24"/>
+    <row r="974" ht="18.75" customHeight="1" s="24"/>
+    <row r="975" ht="18.75" customHeight="1" s="24"/>
+    <row r="976" ht="18.75" customHeight="1" s="24"/>
+    <row r="977" ht="18.75" customHeight="1" s="24"/>
+    <row r="978" ht="18.75" customHeight="1" s="24"/>
+    <row r="979" ht="18.75" customHeight="1" s="24"/>
+    <row r="980" ht="18.75" customHeight="1" s="24"/>
+    <row r="981" ht="18.75" customHeight="1" s="24"/>
+    <row r="982" ht="18.75" customHeight="1" s="24"/>
+    <row r="983" ht="18.75" customHeight="1" s="24"/>
+    <row r="984" ht="18.75" customHeight="1" s="24"/>
+    <row r="985" ht="18.75" customHeight="1" s="24"/>
+    <row r="986" ht="18.75" customHeight="1" s="24"/>
+    <row r="987" ht="18.75" customHeight="1" s="24"/>
+    <row r="988" ht="18.75" customHeight="1" s="24"/>
+    <row r="989" ht="18.75" customHeight="1" s="24"/>
+    <row r="990" ht="18.75" customHeight="1" s="24"/>
+    <row r="991" ht="18.75" customHeight="1" s="24"/>
+    <row r="992" ht="18.75" customHeight="1" s="24"/>
+    <row r="993" ht="18.75" customHeight="1" s="24"/>
+    <row r="994" ht="18.75" customHeight="1" s="24"/>
+    <row r="995" ht="18.75" customHeight="1" s="24"/>
+    <row r="996" ht="18.75" customHeight="1" s="24"/>
+    <row r="997" ht="18.75" customHeight="1" s="24"/>
+    <row r="998" ht="18.75" customHeight="1" s="24"/>
+    <row r="999" ht="18.75" customHeight="1" s="24"/>
+    <row r="1000" ht="18.75" customHeight="1" s="24"/>
+    <row r="1001" ht="18.75" customHeight="1" s="24"/>
+    <row r="1002" ht="18.75" customHeight="1" s="24"/>
+    <row r="1003" ht="18.75" customHeight="1" s="24"/>
+    <row r="1004" ht="18.75" customHeight="1" s="24"/>
+    <row r="1005" ht="18.75" customHeight="1" s="24"/>
+    <row r="1006" ht="18.75" customHeight="1" s="24"/>
+    <row r="1007" ht="18.75" customHeight="1" s="24"/>
+    <row r="1008" ht="18.75" customHeight="1" s="24"/>
+    <row r="1009" ht="18.75" customHeight="1" s="24"/>
+    <row r="1010" ht="18.75" customHeight="1" s="24"/>
+    <row r="1011" ht="18.75" customHeight="1" s="24"/>
+    <row r="1012" ht="18.75" customHeight="1" s="24"/>
+    <row r="1013" ht="18.75" customHeight="1" s="24"/>
+    <row r="1014" ht="18.75" customHeight="1" s="24"/>
+    <row r="1015" ht="18.75" customHeight="1" s="24"/>
+    <row r="1016" ht="18.75" customHeight="1" s="24"/>
+    <row r="1017" ht="18.75" customHeight="1" s="24"/>
+    <row r="1018" ht="18.75" customHeight="1" s="24"/>
+    <row r="1019" ht="18.75" customHeight="1" s="24"/>
+    <row r="1020" ht="18.75" customHeight="1" s="24"/>
+    <row r="1021" ht="18.75" customHeight="1" s="24"/>
+  </sheetData>
+  <mergeCells count="17">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="C35:C43"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -12493,34 +14116,30 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
+          <t>ALG2, COUR/ section 2, Amphi1, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, B4, Mme Bendehmane H</t>
+          <t>ALG2, TD/ G1, S13, Mme SAIDANI</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, C2, Mme SAIDANI</t>
+          <t>ANA2, TD/ G3, C1, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, C2, BENSALLOUA</t>
+          <t>ASD2, TD/ G1, B3, BENSALLOUA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, C1, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G1, B4, M. Kaid</t>
-        </is>
-      </c>
+          <t>ANA2, TD/ G1, C1, M. Kaid</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -12528,29 +14147,25 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, C1, Mme Ablaoui</t>
+          <t>ANA2, TD/ G2, C1, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, B4, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G5, C2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, C1, Mme TABHARIT</t>
+          <t>ALG2, TD/ G2, B1, Mme SAIDANI</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G4, B4, Mme TABHARIT</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G3, C2, BENSALLOUA</t>
-        </is>
-      </c>
+          <t>ASD2, TD/ G2, S12, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -12558,38 +14173,46 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, C2, M. Ould Ali M</t>
+          <t>ANA2, TD/ G4, C2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G7, C1, M. Ould Ali M</t>
+          <t>ANA2, TD/ G7, S12, M. Ould Ali M</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G5, B4, Mme Ablaoui</t>
+          <t>ALG2, TD/ G3, B2, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G5, C2, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G5, C1, Mme TABHARIT</t>
-        </is>
-      </c>
+          <t>ALG2, TD/ G4, C2, Mme TABHARIT</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G6, S12, M. Ould Ali M</t>
+        </is>
+      </c>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G4, B4, KAID SLIMANE</t>
+        </is>
+      </c>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G5, S13, KAID SLIMANE</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
@@ -12650,39 +14273,35 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ASD2, COUR/ section 2, Amphi2, HENNI F</t>
+          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>ALG2, COUR/ section 2, Amphi1, M. Medeghri Ahmed</t>
+          <t>ASD2, COUR/ section 2, Amphi1, HENNI F</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, B4, Mme SAIDANI</t>
+          <t>SM2, TD/ G1, B4, HAMAMI</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, B2, HAMAMI</t>
+          <t>SM2, TD/ G2, B3, HAMAMI</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, B3, HAMAMI</t>
+          <t>SM2, TD/ G3, B4, HAMAMI</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G1, B3, Mme Kaisserli</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G2, B4, Mme Kaisserli</t>
-        </is>
-      </c>
+          <t>IPSD, TD/ G1, C1, Mme Kaisserli</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -12690,29 +14309,25 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G4, C2, KAID SLIMANE</t>
+          <t>ASD2, TD/ G3, B2, BENSALLOUA</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G5, B3, HASSAINE</t>
+          <t>IPSD, TD/ G4, B4, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G6, B1, KAID SLIMANE</t>
+          <t>SM2, TD/ G5, C1, HASSAINE</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B1, HAMAMI</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G5, C1, M. Benyatou Kamel</t>
-        </is>
-      </c>
+          <t>IPSD, TD/ G5, C2, M. Benyatou Kamel</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -12720,38 +14335,46 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G6, C1, Mme TABHARIT</t>
+          <t>ALG2, TD/ G5, B1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, B1, Mme TABHARIT</t>
+          <t>ALG2, TD/ G7, B2, Mme TABHARIT</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G7, B2, HENNI F</t>
+          <t>ALG2, TD/ G6, B2, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, B2, HASSAINE</t>
-        </is>
-      </c>
-      <c r="H19" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G7, B3, HASSAINE</t>
-        </is>
-      </c>
+          <t>SM2, TD/ G6, B4, HASSAINE</t>
+        </is>
+      </c>
+      <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
+      <c r="D20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G6, B3, KAID SLIMANE</t>
+        </is>
+      </c>
       <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
+      <c r="F20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G7, B3, HENNI F</t>
+        </is>
+      </c>
+      <c r="G20" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G7, S12, Mlle Dj. BENSIKADDOUR</t>
+        </is>
+      </c>
       <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
@@ -12812,22 +14435,22 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
+          <t>SM2, COUR/ section 2, Amphi1, HASSAINE</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
           <t>IPSD, COUR/ section 2, Amphi2, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>SM2, COUR/ section 2, Amphi1, HASSAINE</t>
-        </is>
-      </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, B4, Mme Kaisserli</t>
+          <t>PHY2, TD/ G1, S13, Labdelli</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, C1, Labdelli</t>
+          <t>IPSD, TD/ G3, B3, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
@@ -12837,14 +14460,10 @@
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, C1, Labdelli</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G2, A4, BENSALLOUA</t>
-        </is>
-      </c>
+          <t>ASD2, TP/ G2, A2, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
@@ -12852,29 +14471,25 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, C1, M. Benyatou Kamel</t>
+          <t>IPSD, TD/ G2, C2, Mme Kaisserli</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B4, Mme Kaisserli</t>
+          <t>PHY2, TD/ G4, B4, M. Benchehida</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B1, Labdelli</t>
+          <t>PHY2, TD/ G2, B2, Labdelli</t>
         </is>
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G4, B4, HAMAMI</t>
-        </is>
-      </c>
-      <c r="H27" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G5, C3, KAID SLIMANE</t>
-        </is>
-      </c>
+          <t>PHY2, TD/ G3, B4, Labdelli</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
@@ -12882,38 +14497,46 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, C2, Mlle Dj. BENSIKADDOUR</t>
+          <t>IPSD, TD/ G6, S12, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, C2, M. Benchehida</t>
+          <t>ASD2, TP/ G5, A3, KAID SLIMANE</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, B2, M. Benchehida</t>
+          <t>SM2, TD/ G4, B1, HAMAMI</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, C2, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="H28" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G7, C4, HENNI F</t>
-        </is>
-      </c>
+          <t>ASD2, TP/ G4, A3, KAID SLIMANE</t>
+        </is>
+      </c>
+      <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
+      <c r="D29" s="27" t="inlineStr">
+        <is>
+          <t>SM2, TD/ G7, C1, HASSAINE</t>
+        </is>
+      </c>
       <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="n"/>
+      <c r="F29" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, B3, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="G29" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G6, C1, M. Benchehida</t>
+        </is>
+      </c>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
@@ -12987,14 +14610,10 @@
           <t>ASD2, TP/ G3, A4, BENSALLOUA</t>
         </is>
       </c>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G1, A3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
+      <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G1, A2, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
@@ -13002,11 +14621,7 @@
           <t>OPM, TP/ G6, A1, Mlle Ali Merina.H</t>
         </is>
       </c>
-      <c r="H35" s="17" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
+      <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
@@ -13014,17 +14629,13 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, C3, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="E36" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G5, A4, Mlle Ali Merina.H</t>
-        </is>
-      </c>
+          <t>OPM, TP/ G4, C4, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, A2, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G5, A3, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="G36" s="27" t="n"/>
@@ -13036,15 +14647,15 @@
       <c r="C37" s="31" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, B1, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="E37" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G6, A2, KAID SLIMANE</t>
-        </is>
-      </c>
-      <c r="F37" s="27" t="n"/>
+          <t>ASD2, TP/ G6, C3, KAID SLIMANE</t>
+        </is>
+      </c>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G7, A1, HENNI F</t>
+        </is>
+      </c>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
     </row>
@@ -13052,7 +14663,11 @@
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="31" t="n"/>
       <c r="C38" s="31" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B2, M. Benchehida</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -13116,7 +14731,7 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, A1, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
@@ -13124,7 +14739,11 @@
           <t>PHY2, COUR/ section 2, Amphi1, M. Benchehida</t>
         </is>
       </c>
-      <c r="D44" s="17" t="n"/>
+      <c r="D44" s="17" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -13132,7 +14751,11 @@
     </row>
     <row r="45" ht="21.75" customHeight="1" s="24">
       <c r="A45" s="30" t="n"/>
-      <c r="B45" s="27" t="n"/>
+      <c r="B45" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A2, Mlle Ali Merina.H</t>
+        </is>
+      </c>
       <c r="C45" s="31" t="n"/>
       <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
@@ -14328,34 +15951,30 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>SE1, COUR/ section 1, Amphi3, KENNICHE A.</t>
+          <t>SE1, COUR/ section 1, Amphi2, KENNICHE A.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G1, S12, MIDOUN M.</t>
+          <t>TL, TD/ G1, S14, MIDOUN M.</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G3, S12, MIDOUN M.</t>
+          <t>TL, TD/ G5, S13, BESNASSI</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>SE1, TD/ G1, S15, BOUZEBIBA</t>
+          <t>SE1, TD/ G1, S13, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>BDD, TD/ G1, S15, MIROUD</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G2, S14, MENAD</t>
-        </is>
-      </c>
+          <t>BDD, TD/ G1, S5, MIROUD</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -14363,29 +15982,25 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G2, S15, BOUZEBIBA</t>
+          <t>SE1, TD/ G2, S5, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G5, S13, BESNASSI</t>
+          <t>SE1, TD/ G6, S15, KHIAT</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G2, S12, MIDOUN M.</t>
+          <t>TL, TD/ G2, C1, MIDOUN M.</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G3, S12, DJAHAFI</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G4, S12, DJAHAFI</t>
-        </is>
-      </c>
+          <t>BDD, TD/ G2, S6, MENAD</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -14393,29 +16008,25 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G4, S13, BESNASSI</t>
+          <t>SE1, TD/ G3, S6, DJAHAFI</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G6, S15, KHIAT</t>
+          <t>TL, TD/ G8, S14, BESSAOUD K.</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G6, S13, BESNASSI</t>
+          <t>SE1, TD/ G4, S14, DJAHAFI</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G5, S13, KHIAT</t>
-        </is>
-      </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G5, S15, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
+          <t>TL, TD/ G3, S14, MIDOUN M.</t>
+        </is>
+      </c>
+      <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
@@ -14423,38 +16034,46 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G7, S14, BESSAOUD K.</t>
+          <t>TL, TD/ G4, S15, BESNASSI</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G8, S14, BESSAOUD K.</t>
+          <t>SE1, TD/ G9, S4, KENNICHE A.</t>
         </is>
       </c>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G9, S14, BESSAOUD K.</t>
+          <t>TL, TD/ G6, C2, BESNASSI</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G7, S14, KENNICHE A.</t>
-        </is>
-      </c>
-      <c r="H11" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TD/ G8, S13, KENNICHE A.</t>
-        </is>
-      </c>
+          <t>SE1, TD/ G5, S15, KHIAT</t>
+        </is>
+      </c>
+      <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
       <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="n"/>
+      <c r="D12" s="27" t="inlineStr">
+        <is>
+          <t>TL, TD/ G7, S4, BESSAOUD K.</t>
+        </is>
+      </c>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
+      <c r="F12" s="27" t="inlineStr">
+        <is>
+          <t>TL, TD/ G9, S12, BESSAOUD K.</t>
+        </is>
+      </c>
+      <c r="G12" s="27" t="inlineStr">
+        <is>
+          <t>SE1, TD/ G7, S4, KENNICHE A.</t>
+        </is>
+      </c>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
@@ -14515,12 +16134,12 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G1, S15, BOUZEBIBA</t>
+          <t>RÉS, TD/ G1, S13, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G2, C2, BOUZEBIBA</t>
+          <t>RÉS, TD/ G2, S12, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
@@ -14530,14 +16149,10 @@
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G2, A4, MIDOUN M.</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>TL, TP/ G3, A2, MIDOUN M.</t>
-        </is>
-      </c>
+          <t>SE1, TP/ G1, C3, HENNI K</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -14545,29 +16160,25 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G3, S13, MENAD</t>
+          <t>BDD, TD/ G3, C2, MENAD</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G4, B4, MENAD</t>
+          <t>BDD, TD/ G4, C1, MENAD</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G3, C1, BOUZEBIBA</t>
+          <t>RÉS, TD/ G3, S12, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G4, C3, BESNASSI</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TD/ G4, S12, BOUZEBIBA</t>
-        </is>
-      </c>
+          <t>TL, TP/ G2, A2, MIDOUN M.</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -14575,29 +16186,25 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G6, S14, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G5, S12, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G7, C1, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G6, C2, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G7, C2, LAREDJ A. M</t>
+          <t>TL, TP/ G4, C3, BESNASSI</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G7, C4, BESSAOUD K.</t>
-        </is>
-      </c>
-      <c r="H19" s="27" t="inlineStr">
-        <is>
           <t>TL, TP/ G5, A3, BESNASSI</t>
         </is>
       </c>
+      <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
@@ -14605,38 +16212,46 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G9, S12, KENNICHE A.</t>
+          <t>RÉS, TD/ G7, S14, LAREDJ A. M</t>
         </is>
       </c>
       <c r="E20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G8, S12, LAREDJ A. M</t>
+          <t>RÉS, TD/ G9, S13, LAREDJ A. M</t>
         </is>
       </c>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G8, B4, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G7, C2, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G9, B4, LAREDJ A. M</t>
-        </is>
-      </c>
-      <c r="H20" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TD/ G9, C2, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
+          <t>TL, TP/ G7, A4, BESSAOUD K.</t>
+        </is>
+      </c>
+      <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
       <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="n"/>
+      <c r="D21" s="27" t="inlineStr">
+        <is>
+          <t>SE1, TD/ G8, C1, KENNICHE A.</t>
+        </is>
+      </c>
       <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
+      <c r="F21" s="27" t="inlineStr">
+        <is>
+          <t>TL, TP/ G8, C4, BESSAOUD K.</t>
+        </is>
+      </c>
+      <c r="G21" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TD/ G8, S13, LAREDJ A. M</t>
+        </is>
+      </c>
       <c r="H21" s="27" t="n"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
@@ -14687,39 +16302,35 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>POO, COUR/ section 1, Amphi3, ABID M.</t>
+          <t>POO, COUR/ section 1, Amphi2, ABID M.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>DAW, COUR/ section 1, Amphi2, SEHABA K.</t>
+          <t>DAW, COUR/ section 1, Amphi3, SEHABA K.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G1, A3, HENNI K</t>
+          <t>TL, TP/ G3, A1, MIDOUN M.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G2, A2, HENNI K</t>
+          <t>BDD, TP/ G1, C4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G1, A4, MEROUFEL B.</t>
+          <t>SE1, TP/ G3, A2, HENNI K</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G2, A3, MEROUFEL B.</t>
-        </is>
-      </c>
-      <c r="H26" s="17" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G4, M2, BETOUATI</t>
-        </is>
-      </c>
+          <t>BDD, TP/ G2, C4, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
@@ -14727,29 +16338,25 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G5, S12, BOUZEBIBA</t>
+          <t>RÉS, TD/ G4, S15, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
+          <t>SE1, TP/ G2, A4, HENNI K</t>
+        </is>
+      </c>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
           <t>SE1, TP/ G4, A3, DJAHAFI</t>
         </is>
       </c>
-      <c r="F27" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G3, A2, HENNI K</t>
-        </is>
-      </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G3, A4, BETOUATI</t>
-        </is>
-      </c>
-      <c r="H27" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G6, M1, DJAHAFI</t>
-        </is>
-      </c>
+          <t>BDD, TP/ G3, M1, BETOUATI</t>
+        </is>
+      </c>
+      <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
@@ -14757,29 +16364,25 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G6, A1, BESNASSI</t>
+          <t>TL, TP/ G6, A2, BESNASSI</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G7, A4, KENNICHE A.</t>
+          <t>RÉS, TD/ G5, C1, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G6, B3, BOUZEBIBA</t>
+          <t>RÉS, TD/ G6, C1, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G5, A1, DJAHAFI</t>
-        </is>
-      </c>
-      <c r="H28" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G7, M3, MIROUD</t>
-        </is>
-      </c>
+          <t>SE1, TP/ G5, A4, DJAHAFI</t>
+        </is>
+      </c>
+      <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
@@ -14787,22 +16390,22 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G8, A2, BESSAOUD K.</t>
+          <t>BDD, TD/ G8, S14, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G9, A1, BESSAOUD K.</t>
+          <t>SE1, TP/ G7, C3, KENNICHE A.</t>
         </is>
       </c>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G8, A3, KENNICHE A.</t>
+          <t>SE1, TP/ G8, A4, KENNICHE A.</t>
         </is>
       </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G9, A2, KENNICHE A.</t>
+          <t>BDD, TP/ G7, M2, MIROUD</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
@@ -14811,10 +16414,22 @@
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="31" t="n"/>
       <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
+      <c r="D30" s="27" t="inlineStr">
+        <is>
+          <t>TL, TP/ G9, A3, BESSAOUD K.</t>
+        </is>
+      </c>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="27" t="n"/>
+      <c r="F30" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TD/ G9, B4, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
+      <c r="G30" s="27" t="inlineStr">
+        <is>
+          <t>SE1, TP/ G9, C3, KENNICHE A.</t>
+        </is>
+      </c>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
@@ -14865,7 +16480,7 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G1, A3,  MOUSSA M.</t>
+          <t>RÉS, TP/ G1, A4,  MOUSSA M.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
@@ -14875,35 +16490,31 @@
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G1, M1, BETOUATI</t>
+          <t>POO, TP/ G4, M3, ABID M.</t>
         </is>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G1, C4, HENNI K</t>
+          <t>DAW, TP/ G1, A3, HENNI K</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G2, A4, BETOUATI</t>
+          <t>POO, TP/ G1, C3, BETOUATI</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G3, A3, BETOUATI</t>
-        </is>
-      </c>
-      <c r="H35" s="17" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G4, A4, HENNI K</t>
-        </is>
-      </c>
+          <t>POO, TP/ G2, A3, BETOUATI</t>
+        </is>
+      </c>
+      <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G3, A4, BENHAMED</t>
+          <t>RÉS, TP/ G3, C3, BENHAMED</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
@@ -14913,106 +16524,106 @@
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G2, M3, HENNI K</t>
+          <t>RÉS, TP/ G5, M2, BENHAMED</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G5, C3, ABID M.</t>
+          <t>POO, TP/ G5, A2, ABID M.</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G3, C4, HENNI K</t>
+          <t>DAW, TP/ G2, C4, HENNI K</t>
         </is>
       </c>
       <c r="G36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G5, A4, SEHABA K.</t>
-        </is>
-      </c>
-      <c r="H36" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G6, A3, ABID M.</t>
-        </is>
-      </c>
+          <t>DAW, TP/ G3, C3, HENNI K</t>
+        </is>
+      </c>
+      <c r="H36" s="27" t="n"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="27" t="inlineStr">
         <is>
+          <t>BDD, TP/ G4, A2, BETOUATI</t>
+        </is>
+      </c>
+      <c r="C37" s="27" t="inlineStr">
+        <is>
           <t>BDD, TP/ G5, A1, BETOUATI</t>
         </is>
       </c>
-      <c r="C37" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G6, A1, BETOUATI</t>
-        </is>
-      </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G4, M2, ABID M.</t>
+          <t>BDD, TP/ G6, M1, BETOUATI</t>
         </is>
       </c>
       <c r="E37" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G6, M1, SEHABA K.</t>
+          <t>DAW, TP/ G7, A4, SEHABA K.</t>
         </is>
       </c>
       <c r="F37" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G6, A3, BENHAMED</t>
+          <t>RÉS, TP/ G6, A4, BENHAMED</t>
         </is>
       </c>
       <c r="G37" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G7, A2, BENHAMED</t>
-        </is>
-      </c>
-      <c r="H37" s="27" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G7, C3, SEHABA K.</t>
-        </is>
-      </c>
+          <t>DAW, TP/ G5, C4, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="H37" s="27" t="n"/>
     </row>
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G8, A2, MIROUD</t>
+          <t>SE1, TP/ G6, A1, DJAHAFI</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G9, A2, MIROUD</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TP/ G5, C4, BENHAMED</t>
-        </is>
-      </c>
+          <t>POO, TP/ G6, C3, ABID M.</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G7, C3, ABID M.</t>
-        </is>
-      </c>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="inlineStr">
-        <is>
-          <t>RÉS, TP/ G8, A2, BENHAMED</t>
-        </is>
-      </c>
+          <t>DAW, TP/ G8, M1, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="G38" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G7, A2, BENHAMED</t>
+        </is>
+      </c>
+      <c r="H38" s="27" t="n"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" s="24">
       <c r="A39" s="30" t="n"/>
-      <c r="B39" s="27" t="n"/>
-      <c r="C39" s="27" t="n"/>
+      <c r="B39" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TP/ G8, A3, MIROUD</t>
+        </is>
+      </c>
+      <c r="C39" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TP/ G9, A2, MIROUD</t>
+        </is>
+      </c>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="n"/>
+      <c r="G39" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G8, A4, ABID M.</t>
+        </is>
+      </c>
       <c r="H39" s="27" t="n"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" s="24">
@@ -15063,20 +16674,24 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G8, A3, ABID M.</t>
+          <t>POO, TP/ G3, A4, BETOUATI</t>
         </is>
       </c>
       <c r="C44" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G8, A2, SEHABA K.</t>
+          <t>RÉS, TP/ G9, A1, BENHAMED</t>
         </is>
       </c>
       <c r="D44" s="17" t="inlineStr">
         <is>
+          <t>POO, TP/ G9, A2, ABID M.</t>
+        </is>
+      </c>
+      <c r="E44" s="17" t="inlineStr">
+        <is>
           <t>DAW, TP/ G9, A1, SEHABA K.</t>
         </is>
       </c>
-      <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
       <c r="H44" s="17" t="n"/>
@@ -15085,14 +16700,10 @@
       <c r="A45" s="30" t="n"/>
       <c r="B45" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G9, A2, BENHAMED</t>
-        </is>
-      </c>
-      <c r="C45" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G9, A1, ABID M.</t>
-        </is>
-      </c>
+          <t>DAW, TP/ G4, C4, HENNI K</t>
+        </is>
+      </c>
+      <c r="C45" s="27" t="n"/>
       <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
@@ -15101,7 +16712,11 @@
     </row>
     <row r="46" ht="21.75" customHeight="1" s="24">
       <c r="A46" s="30" t="n"/>
-      <c r="B46" s="27" t="n"/>
+      <c r="B46" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G6, M1, SEHABA K.</t>
+        </is>
+      </c>
       <c r="C46" s="27" t="n"/>
       <c r="D46" s="27" t="n"/>
       <c r="E46" s="27" t="n"/>
@@ -15111,7 +16726,11 @@
     </row>
     <row r="47" ht="21.75" customHeight="1" s="24">
       <c r="A47" s="30" t="n"/>
-      <c r="B47" s="27" t="n"/>
+      <c r="B47" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G7, C3, ABID M.</t>
+        </is>
+      </c>
       <c r="C47" s="27" t="n"/>
       <c r="D47" s="27" t="n"/>
       <c r="E47" s="27" t="n"/>
@@ -15121,7 +16740,11 @@
     </row>
     <row r="48" ht="21.75" customHeight="1" s="24">
       <c r="A48" s="30" t="n"/>
-      <c r="B48" s="27" t="n"/>
+      <c r="B48" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G8, A3, BENHAMED</t>
+        </is>
+      </c>
       <c r="C48" s="27" t="n"/>
       <c r="D48" s="27" t="n"/>
       <c r="E48" s="27" t="n"/>
@@ -16284,22 +17907,22 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>SI, COUR/ section 1, Amphi4, BENIDRIS F.Z</t>
+          <t>SI, COUR/ section 1, Amphi3, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G1, S4, BENIDRIS F.Z</t>
+          <t>SI, TD/ G1, S7, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G4, S4, BENIDRIS F.Z</t>
+          <t>SI, TD/ G5, S5, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G1, S4, HOCINE N.</t>
+          <t>RS, TD/ G1, S15, HOCINE N.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
@@ -16307,11 +17930,7 @@
           <t>IA, TP/ G1, A1, HOCINE</t>
         </is>
       </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
-        </is>
-      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -16319,12 +17938,12 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G2, S5, HOCINE N.</t>
+          <t>RS, TD/ G2, S11, HOCINE N.</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G5, S5, HOCINE N.</t>
+          <t>RS, TD/ G6, S6, HOCINE N.</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
@@ -16334,14 +17953,10 @@
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G2, S4, BENIDRIS F.Z</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>SI, TD/ G3, S4, BENIDRIS F.Z</t>
-        </is>
-      </c>
+          <t>SI, TD/ G2, S7, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -16354,7 +17969,7 @@
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G7, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
@@ -16367,19 +17982,23 @@
           <t>DSS, TP/ G3, A2, DELALI A.</t>
         </is>
       </c>
-      <c r="H10" s="27" t="inlineStr">
-        <is>
-          <t>RS, TD/ G4, S5, HOCINE N.</t>
-        </is>
-      </c>
+      <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
+      <c r="D11" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G4, A2, HOCINE</t>
+        </is>
+      </c>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>DSS, TP/ G4, A3, DELALI A.</t>
+        </is>
+      </c>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
@@ -16451,29 +18070,25 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G3, S5, HOCINE N.</t>
+          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G2, A1, HOCINE</t>
+          <t>RS, TD/ G5, S15, HOCINE N.</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G5, C3, MECHAOUI M. D.G</t>
+          <t>RS, TD/ G3, S14, HOCINE N.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G1, M3, DELALI A.</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G2, C3, DELALI A.</t>
-        </is>
-      </c>
+          <t>DSS, TP/ G1, M1, DELALI A.</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -16481,29 +18096,25 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G4, A1, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G2, A2, HOCINE</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G6, S13, BENIDRIS F.Z</t>
+          <t>SI, TD/ G6, S14, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G6, S13, HOCINE N.</t>
+          <t>SI, TD/ G4, S13, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G4, M2, HOCINE</t>
-        </is>
-      </c>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G5, A4, HOCINE</t>
-        </is>
-      </c>
+          <t>AP, TP/ G4, C4, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
@@ -16511,33 +18122,37 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G5, S4, BENIDRIS F.Z</t>
+          <t>SI, TD/ G3, S15, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G7, S14, HOCINE N.</t>
+          <t>IA, TP/ G7, A3, HOCINE</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G7, S12, BENIDRIS F.Z</t>
-        </is>
-      </c>
-      <c r="G19" s="27" t="inlineStr">
-        <is>
-          <t>AP, TP/ G7, M1, MECHAOUI M. D.G</t>
-        </is>
-      </c>
+          <t>AP, TP/ G5, M1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
       <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
+      <c r="D20" s="27" t="inlineStr">
+        <is>
+          <t>RS, TD/ G4, S4, HOCINE N.</t>
+        </is>
+      </c>
       <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="n"/>
+      <c r="F20" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G6, M2, HOCINE</t>
+        </is>
+      </c>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
     </row>
@@ -16599,28 +18214,28 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>CDS, COUR/ section 1, Amphi4, MIDOUN M.</t>
+          <t>CDS, COUR/ section 1, Amphi3, MIDOUN M.</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G4, A2, DELALI A.</t>
+          <t>DSS, TP/ G2, A3, DELALI A.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G5, C3, DELALI A.</t>
+          <t>DSS, TP/ G5, A4, DELALI A.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G6, C3, DELALI A.</t>
+          <t>DSS, TP/ G6, M1, DELALI A.</t>
         </is>
       </c>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G7, C3, DELALI A.</t>
+          <t>DSS, TP/ G7, M3, DELALI A.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -16630,12 +18245,12 @@
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G6, A1, HOCINE</t>
+          <t>IA, TP/ G5, A2, HOCINE</t>
         </is>
       </c>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G7, A4, HOCINE</t>
+          <t>RS, TD/ G7, S4, HOCINE N.</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
@@ -16646,7 +18261,11 @@
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
-      <c r="C28" s="27" t="n"/>
+      <c r="C28" s="27" t="inlineStr">
+        <is>
+          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
       <c r="D28" s="27" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
@@ -16656,7 +18275,11 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
-      <c r="C29" s="27" t="n"/>
+      <c r="C29" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
+        </is>
+      </c>
       <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
@@ -18015,30 +19638,26 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
+          <t>ALG4, COUR/ section 1, S16, M.Ould ali</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S6, Mme Limam</t>
+          <t>ANA4, TD/ G1, S10, Mme Limam</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G1, S6, M.Ould ali</t>
+          <t>ALG4, TD/ G1, S5, M.Ould ali</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>AC, TD/ G1, S6, Mlle Amina FERRAOUN</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>ANUM2, TD/ G1, S7, M. Belhamiti Omar</t>
-        </is>
-      </c>
+          <t>AC, TD/ G1, S11, Mlle Amina FERRAOUN</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -18046,25 +19665,21 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G2, S7, M.Ould ali</t>
+          <t>ALG4, TD/ G2, S9, M.Ould ali</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S5, Mme Limam</t>
+          <t>ANA4, TD/ G2, S4, Mme Limam</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S5, Mme Limam</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>AC, TD/ G2, S6, Mlle Amina FERRAOUN</t>
-        </is>
-      </c>
+          <t>ANUM2, TD/ G2, S10, M. Belhamiti Omar</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -18144,7 +19759,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ALG4, COUR/ section 1, S16, M.Ould ali</t>
+          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -18154,18 +19769,18 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S6, Mme Limam</t>
+          <t>ANA4, TD/ G1, S5, Mme Limam</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
+          <t>ANUM2, TD/ G1, S4, M. Belhamiti Omar</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
           <t>PROBA, TD/ G1, S14, M. Mohammedi Mustapha</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>GÉOMÉ, TD/ G1, C2, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -18176,18 +19791,18 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G2, S7, M. Belhamiti Omar</t>
+          <t>AC, TD/ G2, S6, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
+          <t>ANA4, TD/ G2, S15, Mme Limam</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
           <t>GÉOMÉ, TD/ G2, S15, Mme Bendahmane Hafida</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="inlineStr">
-        <is>
-          <t>PROBA, TD/ G2, C1, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -18278,7 +19893,11 @@
           <t>ANUM2, COUR/ section 1, S16, M. Belhamiti Omar</t>
         </is>
       </c>
-      <c r="D26" s="17" t="n"/>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>GÉOMÉ, TD/ G1, S6, Mme Bendahmane Hafida</t>
+        </is>
+      </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
@@ -18288,7 +19907,11 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t>PROBA, TD/ G2, S5, M. Mohammedi Mustapha</t>
+        </is>
+      </c>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -19682,30 +21305,26 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+          <t>EDP, COUR/ section 1, S2, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S11, M. Menad Abdallah</t>
+          <t>TOL, TD/ G1, S8, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S11, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G1, S7, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S11, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>TRAL, TD/ G1, S11, M. Andasmas M</t>
-        </is>
-      </c>
+          <t>TRAL, TD/ G1, S9, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -19713,25 +21332,21 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S10, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G2, S16, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S7, M. Menad Abdallah</t>
+          <t>TOL, TD/ G2, S6, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S7, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>Géo. Diff, TD/ G2, S10, M. Fettouch Houari</t>
-        </is>
-      </c>
+          <t>Géo. Diff, TD/ G2, S8, M. Fettouch Houari</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
@@ -19811,26 +21426,30 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
+          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
           <t>EDP, COUR/ section 1, S2, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>EDP, COUR/ section 1, S2, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S11, M. Menad Abdallah</t>
+          <t>TOL, TD/ G1, S7, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
+          <t>EDP, TD/ G1, S6, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
           <t>Géo. Diff, TD/ G1, S5, M. Fettouch Houari</t>
         </is>
       </c>
-      <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
@@ -19839,16 +21458,20 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S10, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G2, S11, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
+          <t>TOL, TD/ G2, S5, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
           <t>TRAL, TD/ G2, S4, M. Andasmas M</t>
         </is>
       </c>
-      <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
@@ -19934,7 +21557,7 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TRAL, COUR/ section 1, S2, Mme Limam</t>
+          <t>Géo. Diff, COUR/ section 1, S2, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -20031,7 +21654,7 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Géo. Diff, COUR/ section 1, S2, M. BELARBI Lakehal</t>
+          <t>TRAL, COUR/ section 1, S2, Mme Limam</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
@@ -21339,93 +22962,101 @@
           <t>AOSI, TD/ G1, B1, KHIAT</t>
         </is>
       </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G2, B1, KHIAT</t>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>AOSI, COUR/ section 1, Amphi4, KHELIFA N.</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, Amphi1, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="E8" s="29" t="inlineStr">
-        <is>
           <t>ALOS, COUR/ section 1, Amphi1, MOUSSA M.</t>
         </is>
       </c>
+      <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, A3, KHIAT</t>
+          <t>ALOS, TP/ G1, A4, MOUSSA M.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G2, A4, MOUSSA M.</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>ALOS, TP/ G1, A2, MOUSSA M.</t>
-        </is>
-      </c>
+          <t>SSI, TP/ G1, C3, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G4, B2, KHELIFA N.</t>
-        </is>
-      </c>
+          <t>ALOS, TP/ G2, A1, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="C9" s="31" t="n"/>
       <c r="D9" s="31" t="n"/>
-      <c r="E9" s="31" t="n"/>
+      <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G3, A4, KHELIFA N.</t>
+          <t>AOSI, TD/ G2, S11, KHIAT</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G4, A3, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="H9" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G2, A3, BENTAOUZA C</t>
-        </is>
-      </c>
+          <t>RO, TP/ G2, C4,  MIROUD</t>
+        </is>
+      </c>
+      <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
+      <c r="B10" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="C10" s="31" t="n"/>
       <c r="D10" s="31" t="n"/>
-      <c r="E10" s="31" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G3, C3, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="G10" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G3, A3, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
+      <c r="B11" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G4, A2, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="C11" s="31" t="n"/>
       <c r="D11" s="31" t="n"/>
-      <c r="E11" s="31" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G4, S10, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="G11" s="27" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G4, A4, MOUSSA M.</t>
+        </is>
+      </c>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="27" t="n"/>
-      <c r="C12" s="27" t="n"/>
+      <c r="C12" s="31" t="n"/>
       <c r="D12" s="31" t="n"/>
-      <c r="E12" s="31" t="n"/>
+      <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -21433,9 +23064,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="27" t="n"/>
-      <c r="C13" s="27" t="n"/>
+      <c r="C13" s="31" t="n"/>
       <c r="D13" s="31" t="n"/>
-      <c r="E13" s="31" t="n"/>
+      <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -21443,9 +23074,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="27" t="n"/>
-      <c r="C14" s="27" t="n"/>
+      <c r="C14" s="31" t="n"/>
       <c r="D14" s="31" t="n"/>
-      <c r="E14" s="31" t="n"/>
+      <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -21453,9 +23084,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
+      <c r="C15" s="31" t="n"/>
       <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
+      <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -21463,9 +23094,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
+      <c r="C16" s="33" t="n"/>
       <c r="D16" s="33" t="n"/>
-      <c r="E16" s="33" t="n"/>
+      <c r="E16" s="16" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -21478,7 +23109,7 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G2, A1, KHIAT</t>
+          <t>AOSI, TP/ G1, A1, KHIAT</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -21488,55 +23119,47 @@
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>OWS, COUR/ section 1, Amphi1, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G1, A3, BENTAOUZA C</t>
-        </is>
-      </c>
+          <t>OWS, COUR/ section 1, Amphi2, DJEBBARA R.</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RO, TP/ G2, M1,  MIROUD</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G1, M1, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+          <t>AOSI, TP/ G2, M3, KHIAT</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G1, M2, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G3, A2, MOUSSA M.</t>
+          <t>SSI, TP/ G2, A4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="31" t="n"/>
-      <c r="E18" s="27" t="inlineStr">
-        <is>
-          <t>ALOS, TP/ G4, A2, MOUSSA M.</t>
-        </is>
-      </c>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G3, C4, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G4, C4, BENTAOUZA C</t>
-        </is>
-      </c>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G3, M3, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="27" t="n"/>
+      <c r="B19" s="27" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G3, A3, MOUSSA M.</t>
+        </is>
+      </c>
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="n"/>
@@ -21546,7 +23169,11 @@
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="27" t="n"/>
+      <c r="B20" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G4, A2, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
@@ -21610,61 +23237,57 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="17" t="inlineStr">
-        <is>
-          <t>RO, TP/ G1, A2,  MIROUD</t>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>FDD, COUR/ section 1, Amphi4, MOUMEN M.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>FDD, COUR/ section 1, Amphi3, MOUMEN M.</t>
-        </is>
-      </c>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>RO, COUR/ section 1, Amphi1, BAHNES N.</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G3, C4, HABIB ZAHMANI M</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="n"/>
-      <c r="G26" s="17" t="inlineStr">
-        <is>
-          <t>RO, TP/ G3, M1, BAHNES N.</t>
-        </is>
-      </c>
+          <t>RO, COUR/ section 1, Amphi4, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>RO, TP/ G1, C4,  MIROUD</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n"/>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G1, C4, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G2, A1, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="B27" s="31" t="n"/>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="31" t="n"/>
-      <c r="E27" s="27" t="inlineStr">
-        <is>
-          <t>RO, TP/ G4, M1, BAHNES N.</t>
-        </is>
-      </c>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G4, C4, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="D27" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G2, C3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G3, C3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="n"/>
+      <c r="B28" s="31" t="n"/>
       <c r="C28" s="31" t="n"/>
-      <c r="D28" s="31" t="n"/>
+      <c r="D28" s="27" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G3, M2, MEROUFEL B.</t>
+        </is>
+      </c>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -21672,9 +23295,13 @@
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="27" t="n"/>
+      <c r="B29" s="31" t="n"/>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="31" t="n"/>
+      <c r="D29" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G4, M1, BAHNES N.</t>
+        </is>
+      </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -21682,9 +23309,9 @@
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="27" t="n"/>
+      <c r="B30" s="31" t="n"/>
       <c r="C30" s="31" t="n"/>
-      <c r="D30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
@@ -21692,9 +23319,9 @@
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="27" t="n"/>
+      <c r="B31" s="31" t="n"/>
       <c r="C31" s="31" t="n"/>
-      <c r="D31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
@@ -21702,9 +23329,9 @@
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="27" t="n"/>
+      <c r="B32" s="31" t="n"/>
       <c r="C32" s="31" t="n"/>
-      <c r="D32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
@@ -21712,9 +23339,9 @@
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="27" t="n"/>
+      <c r="B33" s="31" t="n"/>
       <c r="C33" s="31" t="n"/>
-      <c r="D33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
@@ -21722,9 +23349,9 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="16" t="n"/>
+      <c r="B34" s="33" t="n"/>
       <c r="C34" s="33" t="n"/>
-      <c r="D34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
@@ -21749,19 +23376,15 @@
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G1, M2, MEROUFEL B.</t>
+          <t>SMA, TP/ G2, C4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G2, M1, MEROUFEL B.</t>
-        </is>
-      </c>
-      <c r="G35" s="17" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G3, C3, MEROUFEL B.</t>
-        </is>
-      </c>
+          <t>SMA, TP/ G4, M2, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
@@ -21769,7 +23392,11 @@
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G4, C3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
@@ -21850,11 +23477,7 @@
           <t>Jeudi</t>
         </is>
       </c>
-      <c r="B44" s="17" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G4, A4, MEROUFEL B.</t>
-        </is>
-      </c>
+      <c r="B44" s="17" t="n"/>
       <c r="C44" s="17" t="n"/>
       <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
@@ -22922,12 +24545,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="C8:C16"/>
     <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
     <mergeCell ref="C17:C25"/>
     <mergeCell ref="D17:D25"/>
+    <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
   </mergeCells>
@@ -23059,30 +24682,26 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>VS, COUR/ section 1, B3, FILALI F.</t>
+          <t>VS, COUR/ section 1, C1, FILALI F.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TD/ G1, S9, LAREDJ A.</t>
+          <t>GSR, TD/ G1, S2, LAREDJ A.</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RO, TD/ G1, S10, BAHNES N.</t>
+          <t>RO, TD/ G1, S9, BAHNES N.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, C3, LAREDJ A.</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>VS, TP/ G1, A4, FILALI F.</t>
-        </is>
-      </c>
+          <t>GSR, TP/ G1, M1, LAREDJ A.</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -23172,31 +24791,23 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>SRI, COUR/ section 1, B1, BENTAOUZA C</t>
+          <t>ASBDA, COUR/ section 1, B1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, B4, HABIB ZAHMANI M</t>
+          <t>PR, COUR/ section 1, C1, HOCINE N.</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S9, KHIAT</t>
+          <t>AOSI, TD/ G1, S10, KHIAT</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G1, M2, KHIAT</t>
-        </is>
-      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="n"/>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>PR, TP/ G1, M2, HOCINE N.</t>
-        </is>
-      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -23286,21 +24897,25 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>PR, COUR/ section 1, B1, HOCINE N.</t>
+          <t>SRI, COUR/ section 1, B4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, B4, KHELIFA N.</t>
+          <t>AOSI, COUR/ section 1, B2, KHELIFA N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>SRI, TP/ G1, C4, BENTAOUZA C</t>
+          <t>VS, TP/ G1, M3, FILALI F.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="n"/>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>SRI, TP/ G1, M1, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
@@ -23401,8 +25016,16 @@
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>PR, TP/ G1, M1, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G1, M3, KHIAT</t>
+        </is>
+      </c>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -24697,30 +26320,26 @@
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>TO2, COUR/ section 1, B4, M. B. BENDOUKHA</t>
+          <t>TO2, COUR/ section 1, C2, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, S8, M. BELAIDI Benharrat</t>
+          <t>AC2, TD/ G1, S3, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>TO2, TD/ G1, S9, M. B. BENDOUKHA</t>
+          <t>TO2, TD/ G1, S8, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S10, M. BELARBI Lakehal</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="inlineStr">
-        <is>
-          <t>GéoDiff2, TD/ G1, S9, M. BELARBI Lakehal</t>
-        </is>
-      </c>
+          <t>GéoDiff2, TD/ G1, S16, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
@@ -24815,30 +26434,26 @@
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>Dis2, COUR/ section 1, C1, M. BOUZIT Hamid</t>
+          <t>Dis2, COUR/ section 1, C2, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, S8, M. BELAIDI Benharrat</t>
+          <t>AC2, TD/ G1, S9, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
+          <t>GéoDiff2, TD/ G1, S7, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
           <t>Dis2, TD/ G1, S6, M. BOUZIT Hamid</t>
         </is>
       </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>EDP2, TD/ G1, S12, M. Andasmas M</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="inlineStr">
-        <is>
-          <t>EDP2, TD/ G1, S13, M. Andasmas M</t>
-        </is>
-      </c>
+      <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
@@ -24928,26 +26543,30 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>EDP2, COUR/ section 1, B2, M. Andasmas M</t>
+          <t>EDP2, COUR/ section 1, C1, M. Andasmas M</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>STAT2, COUR/ section 1, C1, Mlle Dj.BENSIKADDOUR</t>
+          <t>STAT2, COUR/ section 1, B3, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>STAT2, TD/ G1, S13, Mlle Dj.BENSIKADDOUR</t>
+          <t>EDP2, TD/ G1, S7, M. Andasmas M</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SEMIGROUP, TD/ G1, B4, Mlle Medeghri Ahmed</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="n"/>
+          <t>STAT2, TD/ G1, C2, Mlle Dj.BENSIKADDOUR</t>
+        </is>
+      </c>
+      <c r="G26" s="17" t="inlineStr">
+        <is>
+          <t>SEMIGROUP, TD/ G1, C2, Mlle Medeghri Ahmed</t>
+        </is>
+      </c>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
@@ -25046,7 +26665,11 @@
           <t>Anglais2, COUR/ section 1, B2, M. Dahmani Z.</t>
         </is>
       </c>
-      <c r="D35" s="17" t="n"/>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>EDP2, TD/ G1, B3, M. Andasmas M</t>
+        </is>
+      </c>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>

--- a/src/FSEI_Mosta_EDT.xlsx
+++ b/src/FSEI_Mosta_EDT.xlsx
@@ -2779,12 +2779,12 @@
           <t>TG, COUR/ section 1, B4, Mr Ablaoui H.</t>
         </is>
       </c>
-      <c r="D26" s="17" t="n"/>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>TG, TP/ G1, M2, Mr Ablaoui H.</t>
-        </is>
-      </c>
+      <c r="D26" s="17" t="inlineStr">
+        <is>
+          <t>TG, TP/ G1, M3, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
           <t>PROGQUAD, TP/ G1, M2, M. AMIR A.</t>
@@ -4229,7 +4229,7 @@
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Info2, TP/ G2, M2, Adda</t>
+          <t>Info2, TP/ G2, M1, Adda</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -4483,7 +4483,7 @@
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G3, A4, Adda</t>
+          <t>Info2, TP/ G3, A3, Adda</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
@@ -17927,7 +17927,7 @@
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G1, A1, HOCINE</t>
+          <t>DSS, TP/ G1, A1, DELALI A.</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -17974,14 +17974,10 @@
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G3, A2, HOCINE</t>
-        </is>
-      </c>
-      <c r="G10" s="27" t="inlineStr">
-        <is>
           <t>DSS, TP/ G3, A2, DELALI A.</t>
         </is>
       </c>
+      <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
@@ -17990,15 +17986,11 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G4, A2, HOCINE</t>
+          <t>DSS, TP/ G4, A2, DELALI A.</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>DSS, TP/ G4, A3, DELALI A.</t>
-        </is>
-      </c>
+      <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
@@ -18085,7 +18077,7 @@
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G1, M1, DELALI A.</t>
+          <t>AP, TP/ G4, C4, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -18096,7 +18088,7 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G2, A2, HOCINE</t>
+          <t>DSS, TP/ G2, A2, DELALI A.</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
@@ -18111,7 +18103,7 @@
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G4, C4, MECHAOUI M. D.G</t>
+          <t>DSS, TP/ G5, M1, DELALI A.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -18127,7 +18119,7 @@
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G7, A3, HOCINE</t>
+          <t>DSS, TP/ G7, A3, DELALI A.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
@@ -18148,11 +18140,7 @@
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="inlineStr">
-        <is>
-          <t>IA, TP/ G6, M2, HOCINE</t>
-        </is>
-      </c>
+      <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
     </row>
@@ -18219,23 +18207,23 @@
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G2, A3, DELALI A.</t>
+          <t>IA, TP/ G1, A2, HOCINE N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G5, A4, DELALI A.</t>
+          <t>DSS, TP/ G6, A4, DELALI A.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G6, M1, DELALI A.</t>
+          <t>IA, TP/ G2, M1, HOCINE N.</t>
         </is>
       </c>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G7, M3, DELALI A.</t>
+          <t>IA, TP/ G3, M3, HOCINE N.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -18245,7 +18233,7 @@
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>IA, TP/ G5, A2, HOCINE</t>
+          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="D27" s="27" t="inlineStr">
@@ -18263,7 +18251,7 @@
       <c r="B28" s="31" t="n"/>
       <c r="C28" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
+          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="D28" s="27" t="n"/>
@@ -18275,11 +18263,7 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
-      <c r="C29" s="27" t="inlineStr">
-        <is>
-          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
-        </is>
-      </c>
+      <c r="C29" s="27" t="n"/>
       <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
@@ -18342,11 +18326,27 @@
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="B35" s="17" t="n"/>
-      <c r="C35" s="17" t="n"/>
+      <c r="B35" s="17" t="inlineStr">
+        <is>
+          <t>IA, TP/ G4, C4, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>IA, TP/ G5, C4, HOCINE N.</t>
+        </is>
+      </c>
       <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>IA, TP/ G6, C3, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="inlineStr">
+        <is>
+          <t>IA, TP/ G7, M2, HOCINE N.</t>
+        </is>
+      </c>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -22975,12 +22975,12 @@
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G1, A4, MOUSSA M.</t>
+          <t>ALOS, TP/ G1, A3, MOUSSA M.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>SSI, TP/ G1, C3, BENTAOUZA C</t>
+          <t>SSI, TP/ G1, A4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -23002,7 +23002,7 @@
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G2, C4,  MIROUD</t>
+          <t>RO, TP/ G2, C3,  MIROUD</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -23019,12 +23019,12 @@
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G3, C3, BENTAOUZA C</t>
+          <t>SSI, TP/ G3, A4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G3, A3, KHELIFA N.</t>
+          <t>AOSI, TP/ G3, A2, KHELIFA N.</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -23046,7 +23046,7 @@
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G4, A4, MOUSSA M.</t>
+          <t>ALOS, TP/ G4, A3, MOUSSA M.</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -23125,7 +23125,7 @@
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G2, M3, KHIAT</t>
+          <t>RO, TP/ G1, M3,  MIROUD</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
@@ -23145,7 +23145,11 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="31" t="n"/>
       <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
+      <c r="F18" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G2, M2, KHIAT</t>
+        </is>
+      </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
           <t>RO, TP/ G3, M3, BAHNES N.</t>
@@ -23249,13 +23253,17 @@
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>RO, TP/ G1, C4,  MIROUD</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="n"/>
+          <t>SMA, TP/ G1, M1, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G3, M2, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G1, C4, MEROUFEL B.</t>
+          <t>SMA, TP/ G2, C4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -23273,7 +23281,7 @@
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>FDD, TP/ G3, C3, HABIB ZAHMANI M</t>
+          <t>FDD, TP/ G4, C3, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="G27" s="27" t="n"/>
@@ -23285,7 +23293,7 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>SMA, TP/ G3, M2, MEROUFEL B.</t>
+          <t>RO, TP/ G4, C4, BAHNES N.</t>
         </is>
       </c>
       <c r="E28" s="27" t="n"/>
@@ -23297,11 +23305,7 @@
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="inlineStr">
-        <is>
-          <t>RO, TP/ G4, M1, BAHNES N.</t>
-        </is>
-      </c>
+      <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -23376,12 +23380,12 @@
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G2, C4, MEROUFEL B.</t>
+          <t>SMA, TP/ G3, C4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G4, M2, MEROUFEL B.</t>
+          <t>SMA, TP/ G4, M3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="G35" s="17" t="n"/>
@@ -23392,11 +23396,7 @@
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G4, C3, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
@@ -24698,7 +24698,7 @@
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, M1, LAREDJ A.</t>
+          <t>GSR, TP/ G1, C4, LAREDJ A.</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -24907,7 +24907,7 @@
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>VS, TP/ G1, M3, FILALI F.</t>
+          <t>VS, TP/ G1, M2, FILALI F.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -25018,15 +25018,15 @@
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
+          <t>AOSI, TP/ G1, M1, KHIAT</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="inlineStr">
+        <is>
           <t>PR, TP/ G1, M1, HOCINE N.</t>
         </is>
       </c>
-      <c r="F35" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G1, M3, KHIAT</t>
-        </is>
-      </c>
-      <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">

--- a/src/FSEI_Mosta_EDT.xlsx
+++ b/src/FSEI_Mosta_EDT.xlsx
@@ -708,32 +708,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
+          <t>ANA2, COUR/ section 1, Amphi4, Mr Bouzit H</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
+          <t>ANA2, TD/ G1, S1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, B4, Mme Diala.H</t>
+          <t>ALG2, TD/ G1, S10, Mme Diala.H</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, B2, Mme Diala.H</t>
+          <t>ALG2, TD/ G3, S8, Mme Diala.H</t>
         </is>
       </c>
       <c r="F8" s="29" t="inlineStr">
         <is>
-          <t>ALG2, COUR/ section 1, Amphi1, M. Medeghri Ahmed</t>
+          <t>ALG2, COUR/ section 1, Amphi4, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, B3, HABIB ZAHMANI M</t>
+          <t>ASD2, TD/ G1, S9, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -743,23 +743,23 @@
       <c r="B9" s="31" t="n"/>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, B4, Mme Diala.H</t>
+          <t>ALG2, TD/ G2, S10, Mme Diala.H</t>
         </is>
       </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
+          <t>ANA2, TD/ G2, S1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G4, B4, BENAMEUR</t>
+          <t>ASD2, TD/ G4, S10, BENAMEUR</t>
         </is>
       </c>
       <c r="F9" s="31" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, B4, MOUMEN</t>
+          <t>ASD2, TD/ G3, S10, MOUMEN</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -769,23 +769,23 @@
       <c r="B10" s="31" t="n"/>
       <c r="C10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
+          <t>ANA2, TD/ G3, S8, Mlle FERRAOUN A.</t>
         </is>
       </c>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, B2, Mlle FERRAOUN A.</t>
+          <t>ANA2, TD/ G4, S8, Mlle FERRAOUN A.</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G6, B3, Mme SAIDANI</t>
+          <t>ALG2, TD/ G6, S9, Mme SAIDANI</t>
         </is>
       </c>
       <c r="F10" s="31" t="n"/>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
+          <t>ALG2, TD/ G5, S1, Mme Diala.H</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -795,23 +795,23 @@
       <c r="B11" s="31" t="n"/>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G5, B3, M. Kaid</t>
+          <t>ANA2, TD/ G5, S9, M. Kaid</t>
         </is>
       </c>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, B3, M. Kaid</t>
+          <t>ANA2, TD/ G6, S9, M. Kaid</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G7, B1, M. Kaid</t>
+          <t>ANA2, TD/ G7, S1, M. Kaid</t>
         </is>
       </c>
       <c r="F11" s="31" t="n"/>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, B2, Mme SAIDANI</t>
+          <t>ALG2, TD/ G7, S8, Mme SAIDANI</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -874,32 +874,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
+          <t>ANA2, COUR/ section 1, Amphi4, Mr Bouzit H</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
+          <t>ASD2, TD/ G2, S8, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>ASD2, COUR/ section 1, Amphi1, HENNI F</t>
+          <t>ASD2, COUR/ section 1, Amphi4, HENNI F</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, A1, HABIB ZAHMANI M</t>
+          <t>ASD2, TP/ G1, M3, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, B1, DJAHAFI</t>
+          <t>SM2, TD/ G1, S1, DJAHAFI</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, B1, DJAHAFI</t>
+          <t>SM2, TD/ G2, S1, DJAHAFI</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -909,23 +909,23 @@
       <c r="B18" s="31" t="n"/>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G4, B1, Mme Diala.H</t>
+          <t>ALG2, TD/ G4, S1, Mme Diala.H</t>
         </is>
       </c>
       <c r="D18" s="31" t="n"/>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A2, MOUMEN</t>
+          <t>ASD2, TP/ G3, M2, MOUMEN</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
+          <t>ASD2, TP/ G2, M3, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, B3, Mlle Benaouad</t>
+          <t>IPSD, TD/ G3, S9, Mlle Benaouad</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -935,23 +935,23 @@
       <c r="B19" s="31" t="n"/>
       <c r="C19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G5, B3, BENAMEUR</t>
+          <t>ASD2, TD/ G5, S9, BENAMEUR</t>
         </is>
       </c>
       <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G6, B1, BENAMEUR</t>
+          <t>ASD2, TD/ G6, S1, BENAMEUR</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, A2, BENAMEUR</t>
+          <t>ASD2, TP/ G4, M2, BENAMEUR</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G4, B2, HAMAMI</t>
+          <t>SM2, TD/ G4, S8, HAMAMI</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -961,19 +961,19 @@
       <c r="B20" s="31" t="n"/>
       <c r="C20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G7, B4, BENSALLOUA</t>
+          <t>ASD2, TD/ G7, S10, BENSALLOUA</t>
         </is>
       </c>
       <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G7, A3, BENSALLOUA</t>
+          <t>ASD2, TP/ G7, M1, BENSALLOUA</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G5, A1, BENAMEUR</t>
+          <t>ASD2, TP/ G5, M3, BENAMEUR</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -1036,32 +1036,32 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G1, B3, Mlle Zelmat Souhila</t>
+          <t>IPSD, TD/ G1, S9, Mlle Zelmat Souhila</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>SM2, COUR/ section 1, Amphi1, HASSAINE</t>
+          <t>SM2, COUR/ section 1, Amphi4, HASSAINE</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, B2, Mlle Zelmat Souhila</t>
+          <t>IPSD, TD/ G2, S8, Mlle Zelmat Souhila</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, A1, Mlle Lakeb Ouda</t>
+          <t>OPM, TP/ G1, M3, Mlle Lakeb Ouda</t>
         </is>
       </c>
       <c r="F26" s="29" t="inlineStr">
         <is>
-          <t>IPSD, COUR/ section 1, Amphi1, Mlle Dj. BENSIKADDOUR</t>
+          <t>IPSD, COUR/ section 1, Amphi4, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, B3, Mekemmeche</t>
+          <t>PHY2, TD/ G1, S9, Mekemmeche</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -1070,24 +1070,24 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B1, DJAHAFI</t>
+          <t>SM2, TD/ G3, S1, DJAHAFI</t>
         </is>
       </c>
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B3, Mlle Benaouad</t>
+          <t>IPSD, TD/ G4, S9, Mlle Benaouad</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B2, Mekemmeche</t>
+          <t>PHY2, TD/ G2, S8, Mekemmeche</t>
         </is>
       </c>
       <c r="F27" s="31" t="n"/>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, A1, Mlle Bouzid</t>
+          <t>OPM, TP/ G4, M3, Mlle Bouzid</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
@@ -1096,24 +1096,24 @@
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G5, B2, HAMAMI</t>
+          <t>SM2, TD/ G5, S8, HAMAMI</t>
         </is>
       </c>
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G5, B4, M. Benzidane</t>
+          <t>IPSD, TD/ G5, S10, M. Benzidane</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G3, A2, Mlle Bouzid</t>
+          <t>OPM, TP/ G3, M2, Mlle Bouzid</t>
         </is>
       </c>
       <c r="F28" s="31" t="n"/>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, B1, M. Benzidane</t>
+          <t>IPSD, TD/ G6, S1, M. Benzidane</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
@@ -1122,24 +1122,24 @@
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G6, A1, BENAMEUR</t>
+          <t>ASD2, TP/ G6, M3, BENAMEUR</t>
         </is>
       </c>
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, B1, HAMAMI</t>
+          <t>SM2, TD/ G6, S1, HAMAMI</t>
         </is>
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G7, B1, HAMAMI</t>
+          <t>SM2, TD/ G7, S1, HAMAMI</t>
         </is>
       </c>
       <c r="F29" s="31" t="n"/>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, B2, Mme Kaisserli</t>
+          <t>IPSD, TD/ G7, S8, Mme Kaisserli</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
@@ -1202,32 +1202,32 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TIC, COUR/ section 1, Amphi1, HENNI K.</t>
+          <t>TIC, COUR/ section 1, Amphi4, HENNI K.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>OPM, COUR/ section 1, Amphi1, Mlle Ali Merina.H</t>
+          <t>OPM, COUR/ section 1, Amphi4, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, A1, Mlle Lakeb Ouda</t>
+          <t>OPM, TP/ G2, M3, Mlle Lakeb Ouda</t>
         </is>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G4, S1, Mekemmeche</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G5, S1, Mekemmeche</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, B1, Labdelli</t>
+          <t>PHY2, TD/ G7, S1, Labdelli</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -1238,17 +1238,17 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
+          <t>PHY2, TD/ G3, S1, Mekemmeche</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, A1, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G7, M3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, B2, Labdelli</t>
+          <t>PHY2, TD/ G6, S8, Labdelli</t>
         </is>
       </c>
       <c r="G36" s="27" t="n"/>
@@ -1260,7 +1260,7 @@
       <c r="C37" s="31" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, A2, Mlle Bouzid</t>
+          <t>OPM, TP/ G5, M2, Mlle Bouzid</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
@@ -1274,7 +1274,7 @@
       <c r="C38" s="31" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G6, A3, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G6, M1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -1340,7 +1340,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>PHY2, COUR/ section 1, Amphi1, M. Benchehida</t>
+          <t>PHY2, COUR/ section 1, Amphi4, M. Benchehida</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -2543,28 +2543,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>Mod2, COUR/ section 1, C1, Mlle Bouzid Leila</t>
+          <t>Mod2, COUR/ section 1, S7, Mlle Bouzid Leila</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>OAF 2, COUR/ section 1, S12, Mr S. M. Bahri</t>
+          <t>OAF 2, COUR/ section 1, S6, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>Mod2, TD/ G1, S1, Mlle Bouzid Leila</t>
+          <t>Mod2, TD/ G1, B1, Mlle Bouzid Leila</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>OAF 2, TD/ G1, S16, Mr S. M. Bahri</t>
+          <t>OAF 2, TD/ G1, B4, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>TCONTROL, TD/ G1, S2, Mr. BOUAGADA</t>
+          <t>TCONTROL, TD/ G1, B3, Mr. BOUAGADA</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -2657,28 +2657,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>OAF 2, COUR/ section 1, B3, Mr S. M. Bahri</t>
+          <t>OAF 2, COUR/ section 1, S10, Mr S. M. Bahri</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>TCONTROL, COUR/ section 1, S12, Mr. BOUAGADA</t>
+          <t>TCONTROL, COUR/ section 1, S6, Mr. BOUAGADA</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>CFRAC, TD/ G1, S8, M. Zoubir DAHMANI</t>
+          <t>CFRAC, TD/ G1, C1, M. Zoubir DAHMANI</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>TG, TD/ G1, S11, Mr Ablaoui H.</t>
+          <t>TG, TD/ G1, S13, Mr Ablaoui H.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>PROGQUAD, TD/ G1, S7, M. AMIR A.</t>
+          <t>PROGQUAD, TD/ G1, S14, M. AMIR A.</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -2771,23 +2771,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>CFRAC, COUR/ section 1, C2, M. Zoubir DAHMANI</t>
+          <t>CFRAC, COUR/ section 1, S7, M. Zoubir DAHMANI</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>TG, COUR/ section 1, B4, Mr Ablaoui H.</t>
+          <t>TG, COUR/ section 1, S10, Mr Ablaoui H.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>TG, TP/ G1, M3, Mr Ablaoui H.</t>
+          <t>TG, TP/ G1, A1, Mr Ablaoui H.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>PROGQUAD, TP/ G1, M2, M. AMIR A.</t>
+          <t>PROGQUAD, TP/ G1, A2, M. AMIR A.</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -2881,12 +2881,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>PROGQUAD, COUR/ section 1, B3, M. AMIR A.</t>
+          <t>PROGQUAD, COUR/ section 1, S10, M. AMIR A.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Latex, COUR/ section 1, B3, Mme Bouabdelli</t>
+          <t>Latex, COUR/ section 1, S10, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -2983,7 +2983,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>Anglais, COUR/ section 1, B1, M. Dahmani Z.</t>
+          <t>Anglais, COUR/ section 1, S8, M. Dahmani Z.</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -4186,28 +4186,28 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G1, C2, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G1, S6, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, S14, Hamiani</t>
+          <t>Chim2, TD/ G1, S4, Hamiani</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Maths2, COUR/ section 1, Amphi2, Mme.Bechaoui</t>
+          <t>Maths2, COUR/ section 1, Amphi3, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi1, Belhachemi</t>
+          <t>Chim2, COUR/ section 1, Amphi4, Belhachemi</t>
         </is>
       </c>
       <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, Amphi3, Benguettat</t>
+          <t>Phys2, TD/ G1, Amphi4, Benguettat</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -4216,12 +4216,12 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G2, S12, Belhachemi</t>
+          <t>Chim2, TD/ G2, S5, Belhachemi</t>
         </is>
       </c>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S13, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G2, S5, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D9" s="31" t="n"/>
@@ -4229,7 +4229,7 @@
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Info2, TP/ G2, M1, Adda</t>
+          <t>Info2, TP/ G2, A3, Adda</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -4238,12 +4238,12 @@
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G3, S13, Benguettat</t>
+          <t>Phys2, TD/ G3, S4, Benguettat</t>
         </is>
       </c>
       <c r="C10" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, S15, Belhachemi</t>
+          <t>Chim2, TD/ G3, S16, Belhachemi</t>
         </is>
       </c>
       <c r="D10" s="31" t="n"/>
@@ -4251,7 +4251,7 @@
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G3, S3, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G3, B2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -4260,12 +4260,12 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>Info2, TP/ G4, A3, Adda</t>
+          <t>Info2, TP/ G4, M1, Adda</t>
         </is>
       </c>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G4, S4, Benguettat</t>
+          <t>Phys2, TD/ G4, S15, Benguettat</t>
         </is>
       </c>
       <c r="D11" s="31" t="n"/>
@@ -4273,7 +4273,7 @@
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G4, S1, Belhachemi</t>
+          <t>Chim2, TD/ G4, B1, Belhachemi</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -4336,28 +4336,28 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G1, B4, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G1, S11, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, S14, Hamiani</t>
+          <t>Chim2, TD/ G1, S4, Hamiani</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>Maths2, COUR/ section 1, Amphi3, Mme.Bechaoui</t>
+          <t>Maths2, COUR/ section 1, Amphi2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E17" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi1, Belhachemi</t>
+          <t>Chim2, COUR/ section 1, Amphi4, Belhachemi</t>
         </is>
       </c>
       <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, S9, Benguettat</t>
+          <t>Phys2, TD/ G1, C2, Benguettat</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -4366,12 +4366,12 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G2, C1, Belhachemi</t>
+          <t>Chim2, TD/ G2, S7, Belhachemi</t>
         </is>
       </c>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S13, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G2, S5, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D18" s="31" t="n"/>
@@ -4379,7 +4379,7 @@
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G3, S11, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G3, S13, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -4388,12 +4388,12 @@
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G3, C2, Benguettat</t>
+          <t>Phys2, TD/ G3, S6, Benguettat</t>
         </is>
       </c>
       <c r="C19" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, S15, Belhachemi</t>
+          <t>Chim2, TD/ G3, S16, Belhachemi</t>
         </is>
       </c>
       <c r="D19" s="31" t="n"/>
@@ -4401,7 +4401,7 @@
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G4, S10, Belhachemi</t>
+          <t>Chim2, TD/ G4, S12, Belhachemi</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -4411,7 +4411,7 @@
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G4, S4, Benguettat</t>
+          <t>Phys2, TD/ G4, S15, Benguettat</t>
         </is>
       </c>
       <c r="D20" s="31" t="n"/>
@@ -4478,22 +4478,22 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G1, A2, Adda</t>
+          <t>Info2, TP/ G1, M2, Adda</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G3, A3, Adda</t>
+          <t>Info2, TP/ G3, M1, Adda</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
         <is>
-          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
+          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
         </is>
       </c>
       <c r="E26" s="29" t="inlineStr">
         <is>
-          <t>Info2, COUR/ section 1, Amphi1, Adda</t>
+          <t>Info2, COUR/ section 1, Amphi4, Adda</t>
         </is>
       </c>
       <c r="F26" s="17" t="n"/>
@@ -4504,7 +4504,7 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G2, S13, Benguettat</t>
+          <t>Phys2, TD/ G2, S5, Benguettat</t>
         </is>
       </c>
       <c r="C27" s="27" t="n"/>
@@ -4518,7 +4518,7 @@
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G4, S12, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G4, S6, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C28" s="27" t="n"/>
@@ -4596,17 +4596,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
+          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>HisSci, COUR/ section 1, Amphi4, Benguettat</t>
+          <t>HisSci, COUR/ section 1, Amphi1, Benguettat</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G2, C1, Benguettat</t>
+          <t>Phys2, TD/ G2, S11, Benguettat</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -4620,7 +4620,7 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G4, B4, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G4, S10, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
@@ -5904,28 +5904,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S14, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S2, Hentit H</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S5, Latreuch</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>Thdyna, TD/ G1, Amphi3, Hentit H</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
+          <t>FVC, COUR/ section 1, S14, Latreuch</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>Thdyna, TD/ G1, S14, Hentit H</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S2, Latreuch</t>
+          <t>FVC, TD/ G1, B3, Latreuch</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, Amphi4, Meghoufel</t>
+          <t>MQ, TD/ G1, Amphi3, Meghoufel</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -6018,28 +6018,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S12, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S5, Hentit H</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S5, Latreuch</t>
+          <t>FVC, COUR/ section 1, S14, Latreuch</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Thdyna, TD/ G1, S16, Hentit H</t>
+          <t>Thdyna, TD/ G1, B4, Hentit H</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S10, Latreuch</t>
+          <t>FVC, TD/ G1, S12, Latreuch</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, S8, Meghoufel</t>
+          <t>MQ, TD/ G1, C1, Meghoufel</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -6132,17 +6132,17 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, S14, Meghoufel</t>
+          <t>MQ, COUR/ section 1, S4, Meghoufel</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>elecmag, COUR/ section 1, C1, Abbes</t>
+          <t>elecmag, COUR/ section 1, S11, Abbes</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>elecmag, TD/ G1, S11, Abbes</t>
+          <t>elecmag, TD/ G1, S13, Abbes</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -6238,17 +6238,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, B4, Meghoufel</t>
+          <t>MQ, COUR/ section 1, S11, Meghoufel</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>elecmag, COUR/ section 1, B4, Abbes</t>
+          <t>elecmag, COUR/ section 1, S11, Abbes</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>elecmag, TD/ G1, C2, Abbes</t>
+          <t>elecmag, TD/ G1, S7, Abbes</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -6344,12 +6344,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, B2, Melati</t>
+          <t>elecgen, COUR/ section 1, S9, Melati</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, B1, Melati</t>
+          <t>elecgen, COUR/ section 1, S1, Melati</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -7552,23 +7552,23 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S15, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S16, Bouattou</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S6, Abbassa</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>PhysSol, TD/ G1, Amphi4, Bouattou</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
+          <t>PhysNuc, COUR/ section 1, S13, Abbassa</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>PhysSol, TD/ G1, S13, Bouattou</t>
+        </is>
+      </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, S3, Abbassa</t>
+          <t>PhysNuc, TD/ G1, B2, Abbassa</t>
         </is>
       </c>
       <c r="G8" s="17" t="n"/>
@@ -7662,28 +7662,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S13, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S4, Bouattou</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S6, Abbassa</t>
+          <t>PhysNuc, COUR/ section 1, S13, Abbassa</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PhysSol, TD/ G1, S2, Bouattou</t>
+          <t>PhysSol, TD/ G1, B3, Bouattou</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, S9, Abbassa</t>
+          <t>PhysNuc, TD/ G1, C2, Abbassa</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, S16, Boukra</t>
+          <t>TransCha, TD/ G1, B4, Boukra</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -7776,23 +7776,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S15, Boukra</t>
+          <t>TransCha, COUR/ section 1, S16, Boukra</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>PhysAto, COUR/ section 1, C2, Beghdad</t>
+          <t>PhysAto, COUR/ section 1, S7, Beghdad</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, S10, Boukra</t>
+          <t>TransCha, TD/ G1, S12, Boukra</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>PhysAto, TD/ G1, S12, Beghdad</t>
+          <t>PhysAto, TD/ G1, S6, Beghdad</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -7886,17 +7886,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, C1, Boukra</t>
+          <t>TransCha, COUR/ section 1, S7, Boukra</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>PhysAto, COUR/ section 1, C1, Beghdad</t>
+          <t>PhysAto, COUR/ section 1, S7, Beghdad</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>PhysAto, TD/ G1, S12, Beghdad</t>
+          <t>PhysAto, TD/ G1, S6, Beghdad</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -9188,114 +9188,114 @@
           <t>Dimanche</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
-        <is>
-          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>ThermoCin, COUR/ section 1, S3, Belayachi</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G1, S7, Kadi</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G1, Amphi3, Belayachi</t>
-        </is>
-      </c>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G1, S15, Kadi</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G1, C2, Belayachi</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>ChiOrg2, COUR/ section 1, Amphi2, Kadi</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>ThermoCin, COUR/ section 1, Amphi3, Belayachi</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
-      <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G2, S11, Belayachi</t>
-        </is>
-      </c>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G2, S1, Kadi</t>
-        </is>
-      </c>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G2, S14, Belayachi</t>
+        </is>
+      </c>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G2, S12, Kadi</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="31" t="n"/>
+      <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="31" t="n"/>
+      <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
-      <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="31" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
-      <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="B13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="31" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
-      <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="B14" s="27" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="31" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
-      <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="B15" s="27" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="33" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -9308,28 +9308,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>ThermoCin, COUR/ section 1, S3, Belayachi</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G1, S3, Bourada</t>
+          <t>ChiOrg2, COUR/ section 1, S2, Kadi</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G1, S12, Bourada</t>
+        </is>
+      </c>
+      <c r="D17" s="29" t="inlineStr">
+        <is>
+          <t>ThermoCin, COUR/ section 1, Amphi1, Belayachi</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>ChiQuan, TD/ G1, S16, Boulenouar</t>
+          <t>ChiQuan, TD/ G1, B4, Boulenouar</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ChimInorg, TD/ G1, S2, Messaoudi</t>
+          <t>ChimInorg, TD/ G1, B3, Messaoudi</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -9337,16 +9337,16 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G2, S1, Boulenouar</t>
-        </is>
-      </c>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G2, C2, Boulenouar</t>
+        </is>
+      </c>
+      <c r="D18" s="31" t="n"/>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ChimAna, TD/ G2, S8, Bourada</t>
+          <t>ChimAna, TD/ G2, C1, Bourada</t>
         </is>
       </c>
       <c r="G18" s="27" t="n"/>
@@ -9355,8 +9355,8 @@
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="31" t="n"/>
-      <c r="D19" s="27" t="n"/>
+      <c r="C19" s="27" t="n"/>
+      <c r="D19" s="31" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -9365,8 +9365,8 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
+      <c r="C20" s="27" t="n"/>
+      <c r="D20" s="31" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9375,8 +9375,8 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="n"/>
+      <c r="C21" s="27" t="n"/>
+      <c r="D21" s="31" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9385,8 +9385,8 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="n"/>
+      <c r="C22" s="27" t="n"/>
+      <c r="D22" s="31" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -9395,8 +9395,8 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="n"/>
+      <c r="C23" s="27" t="n"/>
+      <c r="D23" s="31" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -9405,8 +9405,8 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="31" t="n"/>
-      <c r="D24" s="27" t="n"/>
+      <c r="C24" s="27" t="n"/>
+      <c r="D24" s="31" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -9415,8 +9415,8 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="33" t="n"/>
-      <c r="D25" s="16" t="n"/>
+      <c r="C25" s="16" t="n"/>
+      <c r="D25" s="33" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -9428,19 +9428,19 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
-        <is>
-          <t>ChimAna, COUR/ section 1, S3, Bourada</t>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>ChimInorg, TD/ G2, S15, Messaoudi</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>ChiQuan, COUR/ section 1, S3, Benmalti</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>ChimInorg, TD/ G2, S9, Messaoudi</t>
+          <t>ChimAna, COUR/ section 1, S16, Bourada</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>ChiQuan, COUR/ section 1, Amphi3, Benmalti</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -9450,9 +9450,9 @@
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
+      <c r="B27" s="27" t="n"/>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
+      <c r="D27" s="31" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -9460,9 +9460,9 @@
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
+      <c r="B28" s="27" t="n"/>
       <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
+      <c r="D28" s="31" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -9470,9 +9470,9 @@
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
+      <c r="B29" s="27" t="n"/>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
+      <c r="D29" s="31" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -9480,9 +9480,9 @@
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
+      <c r="B30" s="27" t="n"/>
       <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
+      <c r="D30" s="31" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
@@ -9490,9 +9490,9 @@
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
+      <c r="B31" s="27" t="n"/>
       <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="n"/>
+      <c r="D31" s="31" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
@@ -9500,9 +9500,9 @@
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
+      <c r="B32" s="27" t="n"/>
       <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="n"/>
+      <c r="D32" s="31" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
@@ -9510,9 +9510,9 @@
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
+      <c r="B33" s="27" t="n"/>
       <c r="C33" s="31" t="n"/>
-      <c r="D33" s="27" t="n"/>
+      <c r="D33" s="31" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
@@ -9520,9 +9520,9 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
+      <c r="B34" s="16" t="n"/>
       <c r="C34" s="33" t="n"/>
-      <c r="D34" s="16" t="n"/>
+      <c r="D34" s="33" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>ChimInorg, COUR/ section 1, S3, Messaoudi</t>
+          <t>ChimInorg, COUR/ section 1, S2, Messaoudi</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais 4, COUR/ section 1, S3, harrats</t>
+          <t>Anglais 4, COUR/ section 1, S2, harrats</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>TAPC2, COUR/ section 1, S3, belhalfaoui</t>
+          <t>TAPC2, COUR/ section 1, S2, belhalfaoui</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -10708,12 +10708,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="D17:D25"/>
     <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="B44:B52"/>
@@ -10839,110 +10839,114 @@
           <t>Dimanche</t>
         </is>
       </c>
-      <c r="B8" s="29" t="inlineStr">
-        <is>
-          <t>TS, COUR/ section 1, S1, Belhakem</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>SpecMol, COUR/ section 1, S1, Belouatek</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>TS, TD/ G1, S10, Belhakem</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>TS, TD/ G2, Amphi4, Belhakem</t>
-        </is>
-      </c>
+      <c r="B8" s="17" t="inlineStr">
+        <is>
+          <t>TS, TD/ G1, S13, Belhakem</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G1, B4, Belouatek</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>TS, COUR/ section 1, Amphi1, Belhakem</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>SpecMol, COUR/ section 1, Amphi2, Belouatek</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
-      <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G2, S9, Belouatek</t>
-        </is>
-      </c>
+      <c r="B9" s="27" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G2, S12, Belouatek</t>
+        </is>
+      </c>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>TS, TD/ G2, C1, Belhakem</t>
+        </is>
+      </c>
+      <c r="D9" s="31" t="n"/>
+      <c r="E9" s="31" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="B10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="31" t="n"/>
+      <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
+      <c r="B11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="31" t="n"/>
+      <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
-      <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="B12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="31" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
-      <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="B13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="31" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
-      <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="B14" s="27" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="31" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
-      <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="B15" s="27" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="31" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="B16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="33" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -10955,32 +10959,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>TS, COUR/ section 1, S1, Belhakem</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>SpecMol, COUR/ section 1, S1, Belouatek</t>
+          <t>TS, COUR/ section 1, S16, Belhakem</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>ElecChemi, TD/ G1, C1, Belayachi</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ElecChemi, TD/ G1, Amphi4, Belayachi</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>ElecChemi, TD/ G2, S4, Belayachi</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G1, S2, Belouatek</t>
-        </is>
-      </c>
+          <t>CSC, TD/ G1, B2, Bourahla</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>ElecChemi, COUR/ section 1, S2, Belayachi</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>CSC, TD/ G1, S3, Bourahla</t>
+          <t>ElecChemi, TD/ G2, B2, Belayachi</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -10988,23 +10988,23 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="31" t="n"/>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>CSC, TD/ G2, B4, Bourahla</t>
+        </is>
+      </c>
       <c r="D18" s="27" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>CSC, TD/ G2, S3, Bourahla</t>
-        </is>
-      </c>
+      <c r="E18" s="31" t="n"/>
+      <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="31" t="n"/>
+      <c r="C19" s="27" t="n"/>
       <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -11012,9 +11012,9 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="31" t="n"/>
+      <c r="C20" s="27" t="n"/>
       <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -11022,9 +11022,9 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
+      <c r="C21" s="27" t="n"/>
       <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -11032,9 +11032,9 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="31" t="n"/>
+      <c r="C22" s="27" t="n"/>
       <c r="D22" s="27" t="n"/>
-      <c r="E22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -11042,9 +11042,9 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="31" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -11052,9 +11052,9 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="31" t="n"/>
+      <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -11062,9 +11062,9 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="33" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -11075,98 +11075,98 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
-        <is>
-          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>CSC, COUR/ section 1, S1, Bourahla</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="n"/>
-      <c r="E26" s="17" t="n"/>
+      <c r="B26" s="17" t="n"/>
+      <c r="C26" s="17" t="n"/>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>ElecChemi, COUR/ section 1, Amphi2, Belayachi</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>SpecMol, COUR/ section 1, S3, Belouatek</t>
+        </is>
+      </c>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
+      <c r="B27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="31" t="n"/>
+      <c r="E27" s="31" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
-      <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
+      <c r="B28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="31" t="n"/>
+      <c r="E28" s="31" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
-      <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
+      <c r="B29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="31" t="n"/>
+      <c r="E29" s="31" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
-      <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
-      <c r="E30" s="27" t="n"/>
+      <c r="B30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="31" t="n"/>
+      <c r="E30" s="31" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="n"/>
-      <c r="E31" s="27" t="n"/>
+      <c r="B31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="31" t="n"/>
+      <c r="E31" s="31" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="n"/>
-      <c r="E32" s="27" t="n"/>
+      <c r="B32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="31" t="n"/>
+      <c r="E32" s="31" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
-      <c r="D33" s="27" t="n"/>
-      <c r="E33" s="27" t="n"/>
+      <c r="B33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="31" t="n"/>
+      <c r="E33" s="31" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
-      <c r="C34" s="33" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n"/>
+      <c r="B34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="33" t="n"/>
+      <c r="E34" s="33" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -11179,12 +11179,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
+          <t>CSC, COUR/ section 1, S16, Bourahla</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>CSC, COUR/ section 1, S1, Bourahla</t>
+          <t>Ethique, COUR/ section 1, S16, Hamiani</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -11281,12 +11281,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>Ethique, COUR/ section 1, S1, Hamiani</t>
+          <t>CSC, COUR/ section 1, S16, Bourahla</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>Anglais, COUR/ section 1, S16, harrats</t>
+          <t>Anglais, COUR/ section 1, S3, harrats</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -12355,12 +12355,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="D8:D16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
-    <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="E17:E25"/>
+    <mergeCell ref="D26:D34"/>
+    <mergeCell ref="E26:E34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="B44:B52"/>
@@ -12489,21 +12489,25 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSemiC, COUR/ section 1, S4, Bencherif</t>
+          <t>PhysSemiC, COUR/ section 1, C2, Bencherif</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>PhysicStat2, COUR/ section 1, S7, Benotsmane</t>
+          <t>PhysicStat2, COUR/ section 1, B3, Benotsmane</t>
         </is>
       </c>
       <c r="D8" s="17" t="n"/>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>PhysSemiC, TD/ G1, S8, Bencherif</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
+          <t>PhysSemiC, TD/ G1, S12, Bencherif</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>PhysicStat2, TD/ G1, B1, Benotsmane</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
@@ -12595,30 +12599,26 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysSemiC, COUR/ section 1, S14, Bencherif</t>
+          <t>PhysSemiC, COUR/ section 1, S15, Bencherif</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysicStat2, COUR/ section 1, S7, Benotsmane</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="n"/>
-      <c r="E17" s="17" t="inlineStr">
-        <is>
-          <t>PhysicStat2, TD/ G1, S5, Benotsmane</t>
-        </is>
-      </c>
+          <t>PhysicStat2, COUR/ section 1, B3, Benotsmane</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>MNS, TD/ G1, B1, Belhouari</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>MNS, TD/ G1, S1, Belhouari</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>SAM, TD/ G1, S1, Terki</t>
-        </is>
-      </c>
+          <t>SAM, TD/ G1, B3, Terki</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="n"/>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
@@ -12709,12 +12709,12 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>MNS, COUR/ section 1, S4, Belhouari</t>
+          <t>MNS, COUR/ section 1, S14, Belhouari</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>SAM, COUR/ section 1, S12, Terki</t>
+          <t>SAM, COUR/ section 1, S6, Terki</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -12811,12 +12811,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>SAM, COUR/ section 1, C2, Terki</t>
+          <t>SAM, COUR/ section 1, S6, Terki</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais, COUR/ section 1, C2, Hentit N</t>
+          <t>Anglais, COUR/ section 1, S6, Hentit N</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -14111,32 +14111,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
+          <t>ANA2, COUR/ section 2, Amphi3, Mme Ablaoui</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ALG2, COUR/ section 2, Amphi1, M. Medeghri Ahmed</t>
+          <t>ALG2, COUR/ section 2, Amphi4, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, S13, Mme SAIDANI</t>
+          <t>ALG2, TD/ G1, S5, Mme SAIDANI</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, C1, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G3, S11, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, B3, BENSALLOUA</t>
+          <t>ASD2, TD/ G1, S9, BENSALLOUA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, C1, M. Kaid</t>
+          <t>ANA2, TD/ G1, S11, M. Kaid</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -14147,22 +14147,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, C1, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G2, S11, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G5, C2, Mme Ablaoui</t>
+          <t>ANA2, TD/ G5, S7, Mme Ablaoui</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, B1, Mme SAIDANI</t>
+          <t>ALG2, TD/ G2, S1, Mme SAIDANI</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, S12, BENSALLOUA</t>
+          <t>ASD2, TD/ G2, S6, BENSALLOUA</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -14173,22 +14173,22 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, C2, Mme Ablaoui</t>
+          <t>ANA2, TD/ G4, S7, Mme Ablaoui</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G7, S12, M. Ould Ali M</t>
+          <t>ANA2, TD/ G7, S6, M. Ould Ali M</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, B2, Mme TABHARIT</t>
+          <t>ALG2, TD/ G3, S8, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G4, C2, Mme TABHARIT</t>
+          <t>ALG2, TD/ G4, S7, Mme TABHARIT</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -14199,18 +14199,18 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, S12, M. Ould Ali M</t>
+          <t>ANA2, TD/ G6, S6, M. Ould Ali M</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G4, B4, KAID SLIMANE</t>
+          <t>ASD2, TD/ G4, S10, KAID SLIMANE</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G5, S13, KAID SLIMANE</t>
+          <t>ASD2, TD/ G5, S5, KAID SLIMANE</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -14273,32 +14273,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
+          <t>ANA2, COUR/ section 2, Amphi3, Mme Ablaoui</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>ASD2, COUR/ section 2, Amphi1, HENNI F</t>
+          <t>ASD2, COUR/ section 2, Amphi4, HENNI F</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, B4, HAMAMI</t>
+          <t>SM2, TD/ G1, S10, HAMAMI</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, B3, HAMAMI</t>
+          <t>SM2, TD/ G2, S9, HAMAMI</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, B4, HAMAMI</t>
+          <t>SM2, TD/ G3, S10, HAMAMI</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G1, C1, Mme Kaisserli</t>
+          <t>IPSD, TD/ G1, S11, Mme Kaisserli</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -14309,22 +14309,22 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, B2, BENSALLOUA</t>
+          <t>ASD2, TD/ G3, S8, BENSALLOUA</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, B4, Mme Kaisserli</t>
+          <t>IPSD, TD/ G4, S10, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G5, C1, HASSAINE</t>
+          <t>SM2, TD/ G5, S11, HASSAINE</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G5, C2, M. Benyatou Kamel</t>
+          <t>IPSD, TD/ G5, S7, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -14335,22 +14335,22 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G5, B1, Mme TABHARIT</t>
+          <t>ALG2, TD/ G5, S1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, B2, Mme TABHARIT</t>
+          <t>ALG2, TD/ G7, S8, Mme TABHARIT</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G6, B2, Mme TABHARIT</t>
+          <t>ALG2, TD/ G6, S8, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, B4, HASSAINE</t>
+          <t>SM2, TD/ G6, S10, HASSAINE</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -14361,18 +14361,18 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G6, B3, KAID SLIMANE</t>
+          <t>ASD2, TD/ G6, S9, KAID SLIMANE</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G7, B3, HENNI F</t>
+          <t>ASD2, TD/ G7, S9, HENNI F</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, S12, Mlle Dj. BENSIKADDOUR</t>
+          <t>IPSD, TD/ G7, S6, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -14435,32 +14435,32 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>SM2, COUR/ section 2, Amphi1, HASSAINE</t>
+          <t>SM2, COUR/ section 2, Amphi4, HASSAINE</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>IPSD, COUR/ section 2, Amphi2, Mlle Dj. BENSIKADDOUR</t>
+          <t>IPSD, COUR/ section 2, Amphi3, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, S13, Labdelli</t>
+          <t>PHY2, TD/ G1, S5, Labdelli</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, B3, Mme Kaisserli</t>
+          <t>IPSD, TD/ G3, S9, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, A1, BENSALLOUA</t>
+          <t>ASD2, TP/ G1, M3, BENSALLOUA</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, A2, BENSALLOUA</t>
+          <t>ASD2, TP/ G2, M2, BENSALLOUA</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -14471,22 +14471,22 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, C2, Mme Kaisserli</t>
+          <t>IPSD, TD/ G2, S7, Mme Kaisserli</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, B4, M. Benchehida</t>
+          <t>PHY2, TD/ G4, S10, M. Benchehida</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, B2, Labdelli</t>
+          <t>PHY2, TD/ G2, S8, Labdelli</t>
         </is>
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, B4, Labdelli</t>
+          <t>PHY2, TD/ G3, S10, Labdelli</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
@@ -14497,22 +14497,22 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, S12, M. Benyatou Kamel</t>
+          <t>IPSD, TD/ G6, S6, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G5, A3, KAID SLIMANE</t>
+          <t>ASD2, TP/ G5, M1, KAID SLIMANE</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G4, B1, HAMAMI</t>
+          <t>SM2, TD/ G4, S1, HAMAMI</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, A3, KAID SLIMANE</t>
+          <t>ASD2, TP/ G4, M1, KAID SLIMANE</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
@@ -14523,18 +14523,18 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G7, C1, HASSAINE</t>
+          <t>SM2, TD/ G7, S11, HASSAINE</t>
         </is>
       </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, B3, M. Benchehida</t>
+          <t>PHY2, TD/ G5, S9, M. Benchehida</t>
         </is>
       </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, C1, M. Benchehida</t>
+          <t>PHY2, TD/ G6, S11, M. Benchehida</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
@@ -14597,28 +14597,28 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>OPM, COUR/ section 2, Amphi2, Mlle Ali Merina.H</t>
+          <t>OPM, COUR/ section 2, Amphi3, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>TIC, COUR/ section 2, Amphi2, HENNI K.</t>
+          <t>TIC, COUR/ section 2, Amphi3, HENNI K.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, A4, BENSALLOUA</t>
+          <t>ASD2, TP/ G3, C4, BENSALLOUA</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, A2, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G1, M2, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G6, A1, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G6, M3, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -14629,13 +14629,13 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, C4, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G4, A4, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, A3, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G5, M1, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="G36" s="27" t="n"/>
@@ -14653,7 +14653,7 @@
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G7, A1, HENNI F</t>
+          <t>ASD2, TP/ G7, M3, HENNI F</t>
         </is>
       </c>
       <c r="G37" s="27" t="n"/>
@@ -14665,7 +14665,7 @@
       <c r="C38" s="31" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, B2, M. Benchehida</t>
+          <t>PHY2, TD/ G7, S8, M. Benchehida</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -14731,17 +14731,17 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, A1, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G2, M3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>PHY2, COUR/ section 2, Amphi1, M. Benchehida</t>
+          <t>PHY2, COUR/ section 2, Amphi4, M. Benchehida</t>
         </is>
       </c>
       <c r="D44" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G3, M3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="E44" s="17" t="n"/>
@@ -14753,7 +14753,7 @@
       <c r="A45" s="30" t="n"/>
       <c r="B45" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, A2, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G7, M2, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="C45" s="31" t="n"/>
@@ -15946,32 +15946,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>TL, COUR/ section 1, Amphi3, BESSAOUD K.</t>
+          <t>TL, COUR/ section 1, Amphi2, BESSAOUD K.</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>SE1, COUR/ section 1, Amphi2, KENNICHE A.</t>
+          <t>SE1, COUR/ section 1, Amphi3, KENNICHE A.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G1, S14, MIDOUN M.</t>
+          <t>TL, TD/ G1, S4, MIDOUN M.</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G5, S13, BESNASSI</t>
+          <t>TL, TD/ G5, S5, BESNASSI</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>SE1, TD/ G1, S13, BOUZEBIBA</t>
+          <t>SE1, TD/ G1, S5, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>BDD, TD/ G1, S5, MIROUD</t>
+          <t>BDD, TD/ G1, S16, MIROUD</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -15982,22 +15982,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G2, S5, BOUZEBIBA</t>
+          <t>SE1, TD/ G2, S16, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G6, S15, KHIAT</t>
+          <t>SE1, TD/ G6, S3, KHIAT</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G2, C1, MIDOUN M.</t>
+          <t>TL, TD/ G2, S11, MIDOUN M.</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G2, S6, MENAD</t>
+          <t>BDD, TD/ G2, S15, MENAD</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -16008,22 +16008,22 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G3, S6, DJAHAFI</t>
+          <t>SE1, TD/ G3, S15, DJAHAFI</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G8, S14, BESSAOUD K.</t>
+          <t>TL, TD/ G8, S4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G4, S14, DJAHAFI</t>
+          <t>SE1, TD/ G4, S4, DJAHAFI</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G3, S14, MIDOUN M.</t>
+          <t>TL, TD/ G3, S4, MIDOUN M.</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -16034,22 +16034,22 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G4, S15, BESNASSI</t>
+          <t>TL, TD/ G4, S3, BESNASSI</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G9, S4, KENNICHE A.</t>
+          <t>SE1, TD/ G9, S2, KENNICHE A.</t>
         </is>
       </c>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G6, C2, BESNASSI</t>
+          <t>TL, TD/ G6, S7, BESNASSI</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G5, S15, KHIAT</t>
+          <t>SE1, TD/ G5, S3, KHIAT</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -16060,18 +16060,18 @@
       <c r="C12" s="31" t="n"/>
       <c r="D12" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G7, S4, BESSAOUD K.</t>
+          <t>TL, TD/ G7, S2, BESSAOUD K.</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G9, S12, BESSAOUD K.</t>
+          <t>TL, TD/ G9, S6, BESSAOUD K.</t>
         </is>
       </c>
       <c r="G12" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G7, S4, KENNICHE A.</t>
+          <t>SE1, TD/ G7, S2, KENNICHE A.</t>
         </is>
       </c>
       <c r="H12" s="27" t="n"/>
@@ -16124,27 +16124,27 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>BDD, COUR/ section 1, Amphi3, MAGHNI SANDID Z.</t>
+          <t>BDD, COUR/ section 1, Amphi2, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>RÉS, COUR/ section 1, Amphi2, LAREDJ A. M</t>
+          <t>RÉS, COUR/ section 1, Amphi3, LAREDJ A. M</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G1, S13, BOUZEBIBA</t>
+          <t>RÉS, TD/ G1, S5, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G2, S12, BOUZEBIBA</t>
+          <t>RÉS, TD/ G2, S6, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G1, A4, MIDOUN M.</t>
+          <t>TL, TP/ G1, C4, MIDOUN M.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
@@ -16160,22 +16160,22 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G3, C2, MENAD</t>
+          <t>BDD, TD/ G3, S7, MENAD</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G4, C1, MENAD</t>
+          <t>BDD, TD/ G4, S11, MENAD</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G3, S12, BOUZEBIBA</t>
+          <t>RÉS, TD/ G3, S6, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G2, A2, MIDOUN M.</t>
+          <t>TL, TP/ G2, M2, MIDOUN M.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -16186,12 +16186,12 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G5, S12, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G5, S6, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G6, C2, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G6, S7, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
@@ -16201,7 +16201,7 @@
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G5, A3, BESNASSI</t>
+          <t>TL, TP/ G5, M1, BESNASSI</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -16212,22 +16212,22 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G7, S14, LAREDJ A. M</t>
+          <t>RÉS, TD/ G7, S4, LAREDJ A. M</t>
         </is>
       </c>
       <c r="E20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G9, S13, LAREDJ A. M</t>
+          <t>RÉS, TD/ G9, S5, LAREDJ A. M</t>
         </is>
       </c>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G7, C2, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G7, S7, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G7, A4, BESSAOUD K.</t>
+          <t>TL, TP/ G7, C4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -16238,18 +16238,18 @@
       <c r="C21" s="31" t="n"/>
       <c r="D21" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G8, C1, KENNICHE A.</t>
+          <t>SE1, TD/ G8, S11, KENNICHE A.</t>
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G8, C4, BESSAOUD K.</t>
+          <t>TL, TP/ G8, A4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="G21" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G8, S13, LAREDJ A. M</t>
+          <t>RÉS, TD/ G8, S5, LAREDJ A. M</t>
         </is>
       </c>
       <c r="H21" s="27" t="n"/>
@@ -16302,32 +16302,32 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>POO, COUR/ section 1, Amphi2, ABID M.</t>
+          <t>POO, COUR/ section 1, Amphi3, ABID M.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>DAW, COUR/ section 1, Amphi3, SEHABA K.</t>
+          <t>DAW, COUR/ section 1, Amphi2, SEHABA K.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G3, A1, MIDOUN M.</t>
+          <t>TL, TP/ G3, M3, MIDOUN M.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G1, C4, MEROUFEL B.</t>
+          <t>BDD, TP/ G1, A4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G3, A2, HENNI K</t>
+          <t>SE1, TP/ G3, M2, HENNI K</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G2, C4, MEROUFEL B.</t>
+          <t>BDD, TP/ G2, A4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -16338,22 +16338,22 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G4, S15, BOUZEBIBA</t>
+          <t>RÉS, TD/ G4, S3, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G2, A4, HENNI K</t>
+          <t>SE1, TP/ G2, C4, HENNI K</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G4, A3, DJAHAFI</t>
+          <t>SE1, TP/ G4, M1, DJAHAFI</t>
         </is>
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G3, M1, BETOUATI</t>
+          <t>BDD, TP/ G3, A3, BETOUATI</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
@@ -16364,22 +16364,22 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G6, A2, BESNASSI</t>
+          <t>TL, TP/ G6, M2, BESNASSI</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G5, C1, BOUZEBIBA</t>
+          <t>RÉS, TD/ G5, S11, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G6, C1, BOUZEBIBA</t>
+          <t>RÉS, TD/ G6, S11, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G5, A4, DJAHAFI</t>
+          <t>SE1, TP/ G5, C4, DJAHAFI</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
@@ -16390,7 +16390,7 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G8, S14, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G8, S4, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E29" s="27" t="inlineStr">
@@ -16400,12 +16400,12 @@
       </c>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G8, A4, KENNICHE A.</t>
+          <t>SE1, TP/ G8, C4, KENNICHE A.</t>
         </is>
       </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G7, M2, MIROUD</t>
+          <t>BDD, TP/ G7, A2, MIROUD</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
@@ -16416,13 +16416,13 @@
       <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G9, A3, BESSAOUD K.</t>
+          <t>TL, TP/ G9, M1, BESSAOUD K.</t>
         </is>
       </c>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G9, B4, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G9, S10, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="G30" s="27" t="inlineStr">
@@ -16480,22 +16480,22 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G1, A4,  MOUSSA M.</t>
+          <t>RÉS, TP/ G1, C4,  MOUSSA M.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G2, A3,  MOUSSA M.</t>
+          <t>RÉS, TP/ G2, M1,  MOUSSA M.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G4, M3, ABID M.</t>
+          <t>POO, TP/ G4, A1, ABID M.</t>
         </is>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G1, A3, HENNI K</t>
+          <t>DAW, TP/ G1, M1, HENNI K</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
@@ -16505,7 +16505,7 @@
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G2, A3, BETOUATI</t>
+          <t>POO, TP/ G2, M1, BETOUATI</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -16519,22 +16519,22 @@
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G4, A4, BENHAMED</t>
+          <t>RÉS, TP/ G4, C4, BENHAMED</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G5, M2, BENHAMED</t>
+          <t>RÉS, TP/ G5, A2, BENHAMED</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G5, A2, ABID M.</t>
+          <t>POO, TP/ G5, M2, ABID M.</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G2, C4, HENNI K</t>
+          <t>DAW, TP/ G2, A4, HENNI K</t>
         </is>
       </c>
       <c r="G36" s="27" t="inlineStr">
@@ -16548,32 +16548,32 @@
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G4, A2, BETOUATI</t>
+          <t>BDD, TP/ G4, M2, BETOUATI</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G5, A1, BETOUATI</t>
+          <t>BDD, TP/ G5, M3, BETOUATI</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G6, M1, BETOUATI</t>
+          <t>BDD, TP/ G6, A3, BETOUATI</t>
         </is>
       </c>
       <c r="E37" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G7, A4, SEHABA K.</t>
+          <t>DAW, TP/ G7, C4, SEHABA K.</t>
         </is>
       </c>
       <c r="F37" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G6, A4, BENHAMED</t>
+          <t>RÉS, TP/ G6, C4, BENHAMED</t>
         </is>
       </c>
       <c r="G37" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G5, C4, SEHABA K.</t>
+          <t>DAW, TP/ G5, A4, SEHABA K.</t>
         </is>
       </c>
       <c r="H37" s="27" t="n"/>
@@ -16582,7 +16582,7 @@
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G6, A1, DJAHAFI</t>
+          <t>SE1, TP/ G6, M3, DJAHAFI</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
@@ -16594,12 +16594,12 @@
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G8, M1, SEHABA K.</t>
+          <t>DAW, TP/ G8, A3, SEHABA K.</t>
         </is>
       </c>
       <c r="G38" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G7, A2, BENHAMED</t>
+          <t>RÉS, TP/ G7, M2, BENHAMED</t>
         </is>
       </c>
       <c r="H38" s="27" t="n"/>
@@ -16608,12 +16608,12 @@
       <c r="A39" s="30" t="n"/>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G8, A3, MIROUD</t>
+          <t>BDD, TP/ G8, M1, MIROUD</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G9, A2, MIROUD</t>
+          <t>BDD, TP/ G9, M2, MIROUD</t>
         </is>
       </c>
       <c r="D39" s="27" t="n"/>
@@ -16621,7 +16621,7 @@
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G8, A4, ABID M.</t>
+          <t>POO, TP/ G8, C4, ABID M.</t>
         </is>
       </c>
       <c r="H39" s="27" t="n"/>
@@ -16674,22 +16674,22 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G3, A4, BETOUATI</t>
+          <t>POO, TP/ G3, C4, BETOUATI</t>
         </is>
       </c>
       <c r="C44" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G9, A1, BENHAMED</t>
+          <t>RÉS, TP/ G9, M3, BENHAMED</t>
         </is>
       </c>
       <c r="D44" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G9, A2, ABID M.</t>
+          <t>POO, TP/ G9, M2, ABID M.</t>
         </is>
       </c>
       <c r="E44" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G9, A1, SEHABA K.</t>
+          <t>DAW, TP/ G9, M3, SEHABA K.</t>
         </is>
       </c>
       <c r="F44" s="17" t="n"/>
@@ -16700,7 +16700,7 @@
       <c r="A45" s="30" t="n"/>
       <c r="B45" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G4, C4, HENNI K</t>
+          <t>DAW, TP/ G4, A4, HENNI K</t>
         </is>
       </c>
       <c r="C45" s="27" t="n"/>
@@ -16714,7 +16714,7 @@
       <c r="A46" s="30" t="n"/>
       <c r="B46" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G6, M1, SEHABA K.</t>
+          <t>DAW, TP/ G6, A3, SEHABA K.</t>
         </is>
       </c>
       <c r="C46" s="27" t="n"/>
@@ -16742,7 +16742,7 @@
       <c r="A48" s="30" t="n"/>
       <c r="B48" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G8, A3, BENHAMED</t>
+          <t>RÉS, TP/ G8, M1, BENHAMED</t>
         </is>
       </c>
       <c r="C48" s="27" t="n"/>
@@ -17902,32 +17902,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>AP, COUR/ section 1, Amphi4, MECHAOUI M. D.G</t>
+          <t>AP, COUR/ section 1, Amphi1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>SI, COUR/ section 1, Amphi3, BENIDRIS F.Z</t>
+          <t>SI, COUR/ section 1, Amphi2, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G1, S7, BENIDRIS F.Z</t>
+          <t>SI, TD/ G1, S14, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G5, S5, BENIDRIS F.Z</t>
+          <t>SI, TD/ G5, S16, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G1, S15, HOCINE N.</t>
+          <t>RS, TD/ G1, S3, HOCINE N.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G1, A1, DELALI A.</t>
+          <t>DSS, TP/ G1, M3, DELALI A.</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -17938,22 +17938,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G2, S11, HOCINE N.</t>
+          <t>RS, TD/ G2, S13, HOCINE N.</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G6, S6, HOCINE N.</t>
+          <t>RS, TD/ G6, S15, HOCINE N.</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G2, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G2, M3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G2, S7, BENIDRIS F.Z</t>
+          <t>SI, TD/ G2, S14, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -17964,17 +17964,17 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G3, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G3, M3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G7, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G7, M3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G3, A2, DELALI A.</t>
+          <t>DSS, TP/ G3, M2, DELALI A.</t>
         </is>
       </c>
       <c r="G10" s="27" t="n"/>
@@ -17986,7 +17986,7 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G4, A2, DELALI A.</t>
+          <t>DSS, TP/ G4, M2, DELALI A.</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -18052,32 +18052,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>IA, COUR/ section 1, Amphi4, HOCINE N.</t>
+          <t>IA, COUR/ section 1, Amphi1, HOCINE N.</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>DSS, COUR/ section 1, Amphi3, DELALI A.</t>
+          <t>DSS, COUR/ section 1, Amphi2, DELALI A.</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G1, M3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G5, S15, HOCINE N.</t>
+          <t>RS, TD/ G5, S3, HOCINE N.</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G3, S14, HOCINE N.</t>
+          <t>RS, TD/ G3, S4, HOCINE N.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G4, C4, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G4, A4, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -18088,22 +18088,22 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G2, A2, DELALI A.</t>
+          <t>DSS, TP/ G2, M2, DELALI A.</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G6, S14, BENIDRIS F.Z</t>
+          <t>SI, TD/ G6, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G4, S13, BENIDRIS F.Z</t>
+          <t>SI, TD/ G4, S5, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G5, M1, DELALI A.</t>
+          <t>DSS, TP/ G5, A3, DELALI A.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -18114,17 +18114,17 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G3, S15, BENIDRIS F.Z</t>
+          <t>SI, TD/ G3, S3, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G7, A3, DELALI A.</t>
+          <t>DSS, TP/ G7, M1, DELALI A.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G5, M1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G5, A3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="G19" s="27" t="n"/>
@@ -18136,7 +18136,7 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G4, S4, HOCINE N.</t>
+          <t>RS, TD/ G4, S2, HOCINE N.</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
@@ -18202,28 +18202,28 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>CDS, COUR/ section 1, Amphi3, MIDOUN M.</t>
+          <t>CDS, COUR/ section 1, Amphi2, MIDOUN M.</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G1, A2, HOCINE N.</t>
+          <t>IA, TP/ G1, M2, HOCINE N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G6, A4, DELALI A.</t>
+          <t>DSS, TP/ G6, C4, DELALI A.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G2, M1, HOCINE N.</t>
+          <t>IA, TP/ G2, A3, HOCINE N.</t>
         </is>
       </c>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G3, M3, HOCINE N.</t>
+          <t>IA, TP/ G3, A1, HOCINE N.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -18233,12 +18233,12 @@
       <c r="B27" s="31" t="n"/>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
+          <t>AP, TP/ G6, M3, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G7, S4, HOCINE N.</t>
+          <t>RS, TD/ G7, S2, HOCINE N.</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
@@ -18251,7 +18251,7 @@
       <c r="B28" s="31" t="n"/>
       <c r="C28" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
+          <t>SI, TD/ G7, S1, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="D28" s="27" t="n"/>
@@ -18328,12 +18328,12 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G4, C4, HOCINE N.</t>
+          <t>IA, TP/ G4, A4, HOCINE N.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G5, C4, HOCINE N.</t>
+          <t>IA, TP/ G5, A4, HOCINE N.</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -18344,7 +18344,7 @@
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G7, M2, HOCINE N.</t>
+          <t>IA, TP/ G7, A2, HOCINE N.</t>
         </is>
       </c>
       <c r="G35" s="17" t="n"/>
@@ -19633,28 +19633,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
+          <t>ANA4, COUR/ section 1, S1, Mme Limam</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ALG4, COUR/ section 1, S16, M.Ould ali</t>
+          <t>ALG4, COUR/ section 1, S3, M.Ould ali</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S10, Mme Limam</t>
+          <t>ANA4, TD/ G1, S12, Mme Limam</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G1, S5, M.Ould ali</t>
+          <t>ALG4, TD/ G1, S16, M.Ould ali</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>AC, TD/ G1, S11, Mlle Amina FERRAOUN</t>
+          <t>AC, TD/ G1, S13, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -19665,18 +19665,18 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G2, S9, M.Ould ali</t>
+          <t>ALG4, TD/ G2, C2, M.Ould ali</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S4, Mme Limam</t>
+          <t>ANA4, TD/ G2, S2, Mme Limam</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G2, S10, M. Belhamiti Omar</t>
+          <t>ANUM2, TD/ G2, S12, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -19759,28 +19759,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
+          <t>ANA4, COUR/ section 1, S1, Mme Limam</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>AC, COUR/ section 1, S16, Mlle Amina FERRAOUN</t>
+          <t>AC, COUR/ section 1, S3, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S5, Mme Limam</t>
+          <t>ANA4, TD/ G1, S16, Mme Limam</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G1, S4, M. Belhamiti Omar</t>
+          <t>ANUM2, TD/ G1, S2, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G1, S14, M. Mohammedi Mustapha</t>
+          <t>PROBA, TD/ G1, S4, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -19791,18 +19791,18 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>AC, TD/ G2, S6, Mlle Amina FERRAOUN</t>
+          <t>AC, TD/ G2, S15, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G2, S15, Mme Limam</t>
+          <t>ANA4, TD/ G2, S3, Mme Limam</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>GÉOMÉ, TD/ G2, S15, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, TD/ G2, S3, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -19885,17 +19885,17 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>AC, COUR/ section 1, S16, Mlle Amina FERRAOUN</t>
+          <t>AC, COUR/ section 1, S3, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>ANUM2, COUR/ section 1, S16, M. Belhamiti Omar</t>
+          <t>ANUM2, COUR/ section 1, S3, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>GÉOMÉ, TD/ G1, S6, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, TD/ G1, S15, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -19909,7 +19909,7 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G2, S5, M. Mohammedi Mustapha</t>
+          <t>PROBA, TD/ G2, S16, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
@@ -19995,12 +19995,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>PROBA, COUR/ section 1, S16, M. Mohammedi Mustapha</t>
+          <t>PROBA, COUR/ section 1, S1, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>GÉOMÉ, COUR/ section 1, S16, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, COUR/ section 1, S1, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -20097,7 +20097,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>APsciences, COUR/ section 1, S16, M. Ghezzar Med</t>
+          <t>APsciences, COUR/ section 1, S1, M. Ghezzar Med</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -21300,7 +21300,7 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+          <t>TOL, COUR/ section 1, S3, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
@@ -21310,18 +21310,18 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S8, M. Menad Abdallah</t>
+          <t>TOL, TD/ G1, C1, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S7, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G1, S14, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G1, S9, M. Andasmas M</t>
+          <t>TRAL, TD/ G1, C2, M. Andasmas M</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -21332,18 +21332,18 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S16, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G2, B4, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S6, M. Menad Abdallah</t>
+          <t>TOL, TD/ G2, S15, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G2, S8, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G2, C1, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -21426,7 +21426,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+          <t>TOL, COUR/ section 1, S3, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -21436,18 +21436,18 @@
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>TOL, TD/ G1, S7, M. Menad Abdallah</t>
+          <t>TOL, TD/ G1, S14, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>EDP, TD/ G1, S6, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G1, S15, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G1, S5, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G1, S16, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -21458,18 +21458,18 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S11, Mme Belmouhoub-Ould ali</t>
+          <t>EDP, TD/ G2, S13, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>TOL, TD/ G2, S5, M. Menad Abdallah</t>
+          <t>TOL, TD/ G2, S16, M. Menad Abdallah</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G2, S4, M. Andasmas M</t>
+          <t>TRAL, TD/ G2, S2, M. Andasmas M</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -21654,12 +21654,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TRAL, COUR/ section 1, S2, Mme Limam</t>
+          <t>TRAL, COUR/ section 1, S3, Mme Limam</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Géo. Diff, COUR/ section 1, S2, M. BELARBI Lakehal</t>
+          <t>Géo. Diff, COUR/ section 1, S3, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -21756,7 +21756,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>ETHrecherche, COUR/ section 1, S2, M. Kaid Med</t>
+          <t>ETHrecherche, COUR/ section 1, S3, M. Kaid Med</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -22959,28 +22959,28 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, B1, KHIAT</t>
+          <t>AOSI, TD/ G1, S8, KHIAT</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, Amphi4, KHELIFA N.</t>
+          <t>AOSI, COUR/ section 1, Amphi1, KHELIFA N.</t>
         </is>
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>ALOS, COUR/ section 1, Amphi1, MOUSSA M.</t>
+          <t>ALOS, COUR/ section 1, Amphi4, MOUSSA M.</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G1, A3, MOUSSA M.</t>
+          <t>ALOS, TP/ G1, M1, MOUSSA M.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>SSI, TP/ G1, A4, BENTAOUZA C</t>
+          <t>SSI, TP/ G1, C4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -22989,7 +22989,7 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G2, A1, MOUSSA M.</t>
+          <t>ALOS, TP/ G2, M3, MOUSSA M.</t>
         </is>
       </c>
       <c r="C9" s="31" t="n"/>
@@ -22997,7 +22997,7 @@
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G2, S11, KHIAT</t>
+          <t>AOSI, TD/ G2, S13, KHIAT</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
@@ -23011,7 +23011,7 @@
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
+          <t>AOSI, TD/ G3, S9, KHELIFA N.</t>
         </is>
       </c>
       <c r="C10" s="31" t="n"/>
@@ -23019,12 +23019,12 @@
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G3, A4, BENTAOUZA C</t>
+          <t>SSI, TP/ G3, C4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G3, A2, KHELIFA N.</t>
+          <t>AOSI, TP/ G3, M2, KHELIFA N.</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -23033,7 +23033,7 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G4, A2, BENTAOUZA C</t>
+          <t>SSI, TP/ G4, M2, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C11" s="31" t="n"/>
@@ -23041,12 +23041,12 @@
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G4, S10, KHELIFA N.</t>
+          <t>AOSI, TD/ G4, S12, KHELIFA N.</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G4, A3, MOUSSA M.</t>
+          <t>ALOS, TP/ G4, M1, MOUSSA M.</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -23109,28 +23109,28 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, A1, KHIAT</t>
+          <t>AOSI, TP/ G1, M3, KHIAT</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>SSI, COUR/ section 1, Amphi4, BENTAOUZA C</t>
+          <t>SSI, COUR/ section 1, Amphi1, BENTAOUZA C</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
         <is>
-          <t>OWS, COUR/ section 1, Amphi2, DJEBBARA R.</t>
+          <t>OWS, COUR/ section 1, Amphi3, DJEBBARA R.</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RO, TP/ G1, M3,  MIROUD</t>
+          <t>RO, TP/ G1, A1,  MIROUD</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>FDD, TP/ G1, M2, HABIB ZAHMANI M</t>
+          <t>FDD, TP/ G1, A2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -23139,7 +23139,7 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G2, A4, BENTAOUZA C</t>
+          <t>SSI, TP/ G2, C4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C18" s="31" t="n"/>
@@ -23147,12 +23147,12 @@
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G2, M2, KHIAT</t>
+          <t>AOSI, TP/ G2, A2, KHIAT</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G3, M3, BAHNES N.</t>
+          <t>RO, TP/ G3, A1, BAHNES N.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -23161,7 +23161,7 @@
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G3, A3, MOUSSA M.</t>
+          <t>ALOS, TP/ G3, M1, MOUSSA M.</t>
         </is>
       </c>
       <c r="C19" s="31" t="n"/>
@@ -23175,7 +23175,7 @@
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G4, A2, KHELIFA N.</t>
+          <t>AOSI, TP/ G4, M2, KHELIFA N.</t>
         </is>
       </c>
       <c r="C20" s="31" t="n"/>
@@ -23243,27 +23243,27 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>FDD, COUR/ section 1, Amphi4, MOUMEN M.</t>
+          <t>FDD, COUR/ section 1, Amphi1, MOUMEN M.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>RO, COUR/ section 1, Amphi4, BAHNES N.</t>
+          <t>RO, COUR/ section 1, Amphi1, BAHNES N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G1, M1, MEROUFEL B.</t>
+          <t>SMA, TP/ G1, A3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>FDD, TP/ G3, M2, HABIB ZAHMANI M</t>
+          <t>FDD, TP/ G3, A2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G2, C4, MEROUFEL B.</t>
+          <t>SMA, TP/ G2, A4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -23293,7 +23293,7 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G4, C4, BAHNES N.</t>
+          <t>RO, TP/ G4, A4, BAHNES N.</t>
         </is>
       </c>
       <c r="E28" s="27" t="n"/>
@@ -23369,23 +23369,23 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>GP, COUR/ section 1, Amphi3, DELALI A.</t>
+          <t>GP, COUR/ section 1, Amphi2, DELALI A.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>SMA, COUR/ section 1, Amphi3, MEROUFEL B.</t>
+          <t>SMA, COUR/ section 1, Amphi2, MEROUFEL B.</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G3, C4, MEROUFEL B.</t>
+          <t>SMA, TP/ G3, A4, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G4, M3, MEROUFEL B.</t>
+          <t>SMA, TP/ G4, A1, MEROUFEL B.</t>
         </is>
       </c>
       <c r="G35" s="17" t="n"/>
@@ -24677,28 +24677,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>GSR, COUR/ section 1, B3, LAREDJ A.</t>
+          <t>GSR, COUR/ section 1, S10, LAREDJ A.</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>VS, COUR/ section 1, C1, FILALI F.</t>
+          <t>VS, COUR/ section 1, S11, FILALI F.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TD/ G1, S2, LAREDJ A.</t>
+          <t>GSR, TD/ G1, B3, LAREDJ A.</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RO, TD/ G1, S9, BAHNES N.</t>
+          <t>RO, TD/ G1, C2, BAHNES N.</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, C4, LAREDJ A.</t>
+          <t>GSR, TP/ G1, A4, LAREDJ A.</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -24791,17 +24791,17 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, B1, HABIB ZAHMANI M</t>
+          <t>ASBDA, COUR/ section 1, S8, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PR, COUR/ section 1, C1, HOCINE N.</t>
+          <t>PR, COUR/ section 1, S11, HOCINE N.</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S10, KHIAT</t>
+          <t>AOSI, TD/ G1, S12, KHIAT</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
@@ -24897,23 +24897,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>SRI, COUR/ section 1, B4, BENTAOUZA C</t>
+          <t>SRI, COUR/ section 1, S10, BENTAOUZA C</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>AOSI, COUR/ section 1, B2, KHELIFA N.</t>
+          <t>AOSI, COUR/ section 1, S8, KHELIFA N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>VS, TP/ G1, M2, FILALI F.</t>
+          <t>VS, TP/ G1, A2, FILALI F.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SRI, TP/ G1, M1, BENTAOUZA C</t>
+          <t>SRI, TP/ G1, A3, BENTAOUZA C</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -25007,24 +25007,24 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>RO, COUR/ section 1, B1, BAHNES N.</t>
+          <t>RO, COUR/ section 1, S8, BAHNES N.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>GP, COUR/ section 1, B1, DELALI A.</t>
+          <t>GP, COUR/ section 1, S8, DELALI A.</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, M1, KHIAT</t>
+          <t>AOSI, TP/ G1, A3, KHIAT</t>
         </is>
       </c>
       <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>PR, TP/ G1, M1, HOCINE N.</t>
+          <t>PR, TP/ G1, A3, HOCINE N.</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -26315,28 +26315,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>AC2, COUR/ section 1, B4, M. BELAIDI Benharrat</t>
+          <t>AC2, COUR/ section 1, S11, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>TO2, COUR/ section 1, C2, M. B. BENDOUKHA</t>
+          <t>TO2, COUR/ section 1, S7, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, S3, M. BELAIDI Benharrat</t>
+          <t>AC2, TD/ G1, B2, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>TO2, TD/ G1, S8, M. B. BENDOUKHA</t>
+          <t>TO2, TD/ G1, C1, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S16, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, TD/ G1, B4, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -26429,28 +26429,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>GéoDiff2, COUR/ section 1, B2, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, COUR/ section 1, S9, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>Dis2, COUR/ section 1, C2, M. BOUZIT Hamid</t>
+          <t>Dis2, COUR/ section 1, S7, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, S9, M. BELAIDI Benharrat</t>
+          <t>AC2, TD/ G1, C2, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, S7, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, TD/ G1, S14, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Dis2, TD/ G1, S6, M. BOUZIT Hamid</t>
+          <t>Dis2, TD/ G1, S15, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -26543,28 +26543,28 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>EDP2, COUR/ section 1, C1, M. Andasmas M</t>
+          <t>EDP2, COUR/ section 1, S11, M. Andasmas M</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>STAT2, COUR/ section 1, B3, Mlle Dj.BENSIKADDOUR</t>
+          <t>STAT2, COUR/ section 1, S9, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>EDP2, TD/ G1, S7, M. Andasmas M</t>
+          <t>EDP2, TD/ G1, S14, M. Andasmas M</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>STAT2, TD/ G1, C2, Mlle Dj.BENSIKADDOUR</t>
+          <t>STAT2, TD/ G1, S7, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>SEMIGROUP, TD/ G1, C2, Mlle Medeghri Ahmed</t>
+          <t>SEMIGROUP, TD/ G1, S7, Mlle Medeghri Ahmed</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -26657,17 +26657,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>SEMIGROUP, COUR/ section 1, B2, Mlle Medeghri Ahmed</t>
+          <t>SEMIGROUP, COUR/ section 1, S9, Mlle Medeghri Ahmed</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais2, COUR/ section 1, B2, M. Dahmani Z.</t>
+          <t>Anglais2, COUR/ section 1, S9, M. Dahmani Z.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>EDP2, TD/ G1, B3, M. Andasmas M</t>
+          <t>EDP2, TD/ G1, S9, M. Andasmas M</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>

--- a/src/FSEI_Mosta_EDT.xlsx
+++ b/src/FSEI_Mosta_EDT.xlsx
@@ -1,27 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC-MI_1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC-MI_2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2-INFO_1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-INFO_1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2-MATH_1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-MATH_1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-ISI_1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-RéSys_1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-AF_1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-MCO_1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TC-SM_1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2-PHYS_1" sheetId="12" state="visible" r:id="rId12"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-PHYS_1" sheetId="13" state="visible" r:id="rId13"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L2-CHIM_1" sheetId="14" state="visible" r:id="rId14"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="L3-CHIM_1" sheetId="15" state="visible" r:id="rId15"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="M1-PM_1" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet name="TC-MI_1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="TC-MI_2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="L2-INFO_1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="L3-INFO_1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="L2-MATH_1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="L3-MATH_1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="M1-ISI_1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="M1-RéSys_1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="M1-AF_1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="M1-MCO_1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="TC-SM_1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="L2-PHYS_1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="L3-PHYS_1" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet name="L2-CHIM_1" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet name="L3-CHIM_1" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet name="M1-PM_1" sheetId="16" state="visible" r:id="rId16"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
@@ -708,32 +708,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 1, Amphi4, Mr Bouzit H</t>
-        </is>
-      </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G1, S1, Mme Bouabdelli</t>
+          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>ALG2, COUR/ section 1, Amphi1, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, S10, Mme Diala.H</t>
+          <t>ANA2, TD/ G1, B1, Mme Bouabdelli</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, S8, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="F8" s="29" t="inlineStr">
-        <is>
-          <t>ALG2, COUR/ section 1, Amphi4, M. Medeghri Ahmed</t>
+          <t>ANA2, TD/ G4, B1, Mlle FERRAOUN A.</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G1, B3, Mme Diala.H</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, S9, HABIB ZAHMANI M</t>
+          <t>ASD2, TD/ G1, B2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -741,25 +741,25 @@
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G2, S10, Mme Diala.H</t>
-        </is>
-      </c>
+      <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, S1, Mme Bouabdelli</t>
+          <t>ALG2, TD/ G2, B4, Mme Diala.H</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G4, S10, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="F9" s="31" t="n"/>
+          <t>ANA2, TD/ G6, B2, M. Kaid</t>
+        </is>
+      </c>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G2, B1, Mme Bouabdelli</t>
+        </is>
+      </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, S10, MOUMEN</t>
+          <t>ALG2, TD/ G3, B1, Mme Diala.H</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -767,25 +767,25 @@
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G3, S8, Mlle FERRAOUN A.</t>
-        </is>
-      </c>
+      <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, S8, Mlle FERRAOUN A.</t>
+          <t>ANA2, TD/ G3, B2, Mlle FERRAOUN A.</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G6, S9, Mme SAIDANI</t>
-        </is>
-      </c>
-      <c r="F10" s="31" t="n"/>
+          <t>ALG2, TD/ G7, B3, Mme SAIDANI</t>
+        </is>
+      </c>
+      <c r="F10" s="27" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G6, B4, Mme SAIDANI</t>
+        </is>
+      </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G5, S1, Mme Diala.H</t>
+          <t>ASD2, TD/ G4, B3, BENAMEUR</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -793,25 +793,21 @@
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G5, S9, M. Kaid</t>
-        </is>
-      </c>
+      <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, S9, M. Kaid</t>
-        </is>
-      </c>
-      <c r="E11" s="27" t="inlineStr">
-        <is>
-          <t>ANA2, TD/ G7, S1, M. Kaid</t>
-        </is>
-      </c>
-      <c r="F11" s="31" t="n"/>
+          <t>ANA2, TD/ G5, B3, M. Kaid</t>
+        </is>
+      </c>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="inlineStr">
+        <is>
+          <t>ANA2, TD/ G7, B2, M. Kaid</t>
+        </is>
+      </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, S8, Mme SAIDANI</t>
+          <t>ASD2, TD/ G7, B4, BENSALLOUA</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -819,50 +815,50 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="27" t="n"/>
+      <c r="C12" s="31" t="n"/>
       <c r="D12" s="27" t="n"/>
       <c r="E12" s="27" t="n"/>
-      <c r="F12" s="31" t="n"/>
+      <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="27" t="n"/>
+      <c r="C13" s="31" t="n"/>
       <c r="D13" s="27" t="n"/>
       <c r="E13" s="27" t="n"/>
-      <c r="F13" s="31" t="n"/>
+      <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="27" t="n"/>
+      <c r="C14" s="31" t="n"/>
       <c r="D14" s="27" t="n"/>
       <c r="E14" s="27" t="n"/>
-      <c r="F14" s="31" t="n"/>
+      <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="27" t="n"/>
+      <c r="C15" s="31" t="n"/>
       <c r="D15" s="27" t="n"/>
       <c r="E15" s="27" t="n"/>
-      <c r="F15" s="31" t="n"/>
+      <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="16" t="n"/>
+      <c r="C16" s="33" t="n"/>
       <c r="D16" s="16" t="n"/>
       <c r="E16" s="16" t="n"/>
-      <c r="F16" s="33" t="n"/>
+      <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
     </row>
@@ -874,32 +870,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 1, Amphi4, Mr Bouzit H</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G2, S8, HABIB ZAHMANI M</t>
-        </is>
-      </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>ASD2, COUR/ section 1, Amphi4, HENNI F</t>
+          <t>ANA2, COUR/ section 1, Amphi1, Mr Bouzit H</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>ASD2, COUR/ section 1, Amphi1, HENNI F</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G2, B2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, M3, HABIB ZAHMANI M</t>
+          <t>SM2, TD/ G1, B2, DJAHAFI</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, S1, DJAHAFI</t>
+          <t>IPSD, TD/ G1, B4, Mlle Zelmat Souhila</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, S1, DJAHAFI</t>
+          <t>IPSD, TD/ G2, B3, Mlle Zelmat Souhila</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -907,25 +903,25 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="27" t="inlineStr">
-        <is>
-          <t>ALG2, TD/ G4, S1, Mme Diala.H</t>
-        </is>
-      </c>
-      <c r="D18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G3, B3, MOUMEN M.</t>
+        </is>
+      </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, M2, MOUMEN</t>
+          <t>ASD2, TD/ G6, B1, BENAMEUR</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, M3, HABIB ZAHMANI M</t>
+          <t>SM2, TD/ G2, B2, DJAHAFI</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, S9, Mlle Benaouad</t>
+          <t>SM2, TD/ G3, B1, DJAHAFI</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -933,25 +929,25 @@
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G5, S9, BENAMEUR</t>
-        </is>
-      </c>
-      <c r="D19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="inlineStr">
+        <is>
+          <t>ALG2, TD/ G4, B1, Mme Diala.H</t>
+        </is>
+      </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G6, S1, BENAMEUR</t>
+          <t>SM2, TD/ G7, B3, HAMAMI</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, M2, BENAMEUR</t>
+          <t>SM2, TD/ G4, B3, HAMAMI</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G4, S8, HAMAMI</t>
+          <t>IPSD, TD/ G4, B4, Mlle Benaouad</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -959,21 +955,21 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TD/ G7, S10, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="D20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TD/ G5, B4, BENAMEUR</t>
+        </is>
+      </c>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G7, M1, BENSALLOUA</t>
+          <t>ALG2, TD/ G5, B1, Mme Diala.H</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G5, M3, BENAMEUR</t>
+          <t>SM2, TD/ G5, B2, HAMAMI</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -981,8 +977,8 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="27" t="n"/>
-      <c r="D21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -991,8 +987,8 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="27" t="n"/>
-      <c r="D22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -1001,8 +997,8 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -1011,8 +1007,8 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="27" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -1021,8 +1017,8 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -1034,163 +1030,159 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="17" t="inlineStr">
-        <is>
-          <t>IPSD, TD/ G1, S9, Mlle Zelmat Souhila</t>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>SM2, COUR/ section 1, Amphi1, HASSAINE</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>SM2, COUR/ section 1, Amphi4, HASSAINE</t>
+          <t>IPSD, COUR/ section 1, Amphi1, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, S8, Mlle Zelmat Souhila</t>
+          <t>IPSD, TD/ G3, B2, Mlle Benaouad</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, M3, Mlle Lakeb Ouda</t>
-        </is>
-      </c>
-      <c r="F26" s="29" t="inlineStr">
-        <is>
-          <t>IPSD, COUR/ section 1, Amphi4, Mlle Dj. BENSIKADDOUR</t>
+          <t>ASD2, TP/ G1, A1, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G2, A1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, S9, Mekemmeche</t>
+          <t>OPM, TP/ G1, A3, Mlle Lakeb Ouda</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G3, S1, DJAHAFI</t>
-        </is>
-      </c>
+      <c r="B27" s="31" t="n"/>
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, S9, Mlle Benaouad</t>
+          <t>IPSD, TD/ G5, B3, M. Benzidane</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, S8, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="F27" s="31" t="n"/>
+          <t>OPM, TP/ G2, A3, Mlle Lakeb Ouda</t>
+        </is>
+      </c>
+      <c r="F27" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G3, A2, MOUMEN M.</t>
+        </is>
+      </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, M3, Mlle Bouzid</t>
+          <t>OPM, TP/ G3, A4, Mlle Bouzid</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G5, S8, HAMAMI</t>
-        </is>
-      </c>
+      <c r="B28" s="31" t="n"/>
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G5, S10, M. Benzidane</t>
+          <t>SM2, TD/ G6, B1, HAMAMI</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G3, M2, Mlle Bouzid</t>
-        </is>
-      </c>
-      <c r="F28" s="31" t="n"/>
+          <t>ASD2, TP/ G4, A2, BENAMEUR</t>
+        </is>
+      </c>
+      <c r="F28" s="27" t="inlineStr">
+        <is>
+          <t>ASD2, TP/ G5, A3, BENAMEUR</t>
+        </is>
+      </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, S1, M. Benzidane</t>
+          <t>ASD2, TP/ G6, A1, BENAMEUR</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G6, M3, BENAMEUR</t>
-        </is>
-      </c>
+      <c r="B29" s="31" t="n"/>
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, S1, HAMAMI</t>
-        </is>
-      </c>
-      <c r="E29" s="27" t="inlineStr">
-        <is>
-          <t>SM2, TD/ G7, S1, HAMAMI</t>
-        </is>
-      </c>
-      <c r="F29" s="31" t="n"/>
+          <t>IPSD, TD/ G7, B4, Mme Kaisserli</t>
+        </is>
+      </c>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="inlineStr">
+        <is>
+          <t>IPSD, TD/ G6, B1, M. Benzidane</t>
+        </is>
+      </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, S8, Mme Kaisserli</t>
+          <t>ASD2, TP/ G7, A2, BENSALLOUA</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="27" t="n"/>
+      <c r="B30" s="31" t="n"/>
       <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
-      <c r="F30" s="31" t="n"/>
+      <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="27" t="n"/>
+      <c r="B31" s="31" t="n"/>
       <c r="C31" s="31" t="n"/>
       <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
-      <c r="F31" s="31" t="n"/>
+      <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="27" t="n"/>
+      <c r="B32" s="31" t="n"/>
       <c r="C32" s="31" t="n"/>
       <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
-      <c r="F32" s="31" t="n"/>
+      <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="27" t="n"/>
+      <c r="B33" s="31" t="n"/>
       <c r="C33" s="31" t="n"/>
       <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
-      <c r="F33" s="31" t="n"/>
+      <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="16" t="n"/>
+      <c r="B34" s="33" t="n"/>
       <c r="C34" s="33" t="n"/>
       <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
-      <c r="F34" s="33" t="n"/>
+      <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
     </row>
@@ -1202,34 +1194,30 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TIC, COUR/ section 1, Amphi4, HENNI K.</t>
+          <t>TIC, COUR/ section 1, Amphi1, HENNI K.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>OPM, COUR/ section 1, Amphi4, Mlle Ali Merina.H</t>
+          <t>OPM, COUR/ section 1, Amphi1, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, M3, Mlle Lakeb Ouda</t>
+          <t>PHY2, TD/ G1, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, S1, Mekemmeche</t>
+          <t>PHY2, TD/ G2, B1, Mekemmeche</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, S1, Mekemmeche</t>
-        </is>
-      </c>
-      <c r="G35" s="17" t="inlineStr">
-        <is>
-          <t>PHY2, TD/ G7, S1, Labdelli</t>
-        </is>
-      </c>
+          <t>PHY2, TD/ G3, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
@@ -1238,17 +1226,17 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, S1, Mekemmeche</t>
+          <t>OPM, TP/ G4, A1, Mlle Bouzid</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G7, M3, Mlle Hamou Maamar.M</t>
+          <t>OPM, TP/ G5, A1, Mlle Bouzid</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, S8, Labdelli</t>
+          <t>PHY2, TD/ G6, B2, Labdelli</t>
         </is>
       </c>
       <c r="G36" s="27" t="n"/>
@@ -1260,11 +1248,15 @@
       <c r="C37" s="31" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, M2, Mlle Bouzid</t>
+          <t>OPM, TP/ G6, A2, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
+      <c r="F37" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A1, Mlle Hamou Maamar.M</t>
+        </is>
+      </c>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
     </row>
@@ -1274,7 +1266,7 @@
       <c r="C38" s="31" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G6, M1, Mlle Hamou Maamar.M</t>
+          <t>PHY2, TD/ G7, B2, Labdelli</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -1340,1654 +1332,19 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>PHY2, COUR/ section 1, Amphi4, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="C44" s="17" t="n"/>
-      <c r="D44" s="17" t="n"/>
-      <c r="E44" s="17" t="n"/>
-      <c r="F44" s="17" t="n"/>
-      <c r="G44" s="17" t="n"/>
-      <c r="H44" s="17" t="n"/>
-    </row>
-    <row r="45" ht="21.75" customHeight="1" s="24">
-      <c r="A45" s="30" t="n"/>
-      <c r="B45" s="31" t="n"/>
-      <c r="C45" s="27" t="n"/>
-      <c r="D45" s="27" t="n"/>
-      <c r="E45" s="27" t="n"/>
-      <c r="F45" s="27" t="n"/>
-      <c r="G45" s="27" t="n"/>
-      <c r="H45" s="27" t="n"/>
-    </row>
-    <row r="46" ht="21.75" customHeight="1" s="24">
-      <c r="A46" s="30" t="n"/>
-      <c r="B46" s="31" t="n"/>
-      <c r="C46" s="27" t="n"/>
-      <c r="D46" s="27" t="n"/>
-      <c r="E46" s="27" t="n"/>
-      <c r="F46" s="27" t="n"/>
-      <c r="G46" s="27" t="n"/>
-      <c r="H46" s="27" t="n"/>
-    </row>
-    <row r="47" ht="21.75" customHeight="1" s="24">
-      <c r="A47" s="30" t="n"/>
-      <c r="B47" s="31" t="n"/>
-      <c r="C47" s="27" t="n"/>
-      <c r="D47" s="27" t="n"/>
-      <c r="E47" s="27" t="n"/>
-      <c r="F47" s="27" t="n"/>
-      <c r="G47" s="27" t="n"/>
-      <c r="H47" s="27" t="n"/>
-    </row>
-    <row r="48" ht="21.75" customHeight="1" s="24">
-      <c r="A48" s="30" t="n"/>
-      <c r="B48" s="31" t="n"/>
-      <c r="C48" s="27" t="n"/>
-      <c r="D48" s="27" t="n"/>
-      <c r="E48" s="27" t="n"/>
-      <c r="F48" s="27" t="n"/>
-      <c r="G48" s="27" t="n"/>
-      <c r="H48" s="27" t="n"/>
-    </row>
-    <row r="49" ht="21.75" customHeight="1" s="24">
-      <c r="A49" s="30" t="n"/>
-      <c r="B49" s="31" t="n"/>
-      <c r="C49" s="27" t="n"/>
-      <c r="D49" s="27" t="n"/>
-      <c r="E49" s="27" t="n"/>
-      <c r="F49" s="27" t="n"/>
-      <c r="G49" s="27" t="n"/>
-      <c r="H49" s="27" t="n"/>
-    </row>
-    <row r="50" ht="21.75" customHeight="1" s="24">
-      <c r="A50" s="30" t="n"/>
-      <c r="B50" s="31" t="n"/>
-      <c r="C50" s="27" t="n"/>
-      <c r="D50" s="27" t="n"/>
-      <c r="E50" s="27" t="n"/>
-      <c r="F50" s="27" t="n"/>
-      <c r="G50" s="27" t="n"/>
-      <c r="H50" s="27" t="n"/>
-    </row>
-    <row r="51" ht="21.75" customHeight="1" s="24">
-      <c r="A51" s="30" t="n"/>
-      <c r="B51" s="31" t="n"/>
-      <c r="C51" s="27" t="n"/>
-      <c r="D51" s="27" t="n"/>
-      <c r="E51" s="27" t="n"/>
-      <c r="F51" s="27" t="n"/>
-      <c r="G51" s="27" t="n"/>
-      <c r="H51" s="27" t="n"/>
-    </row>
-    <row r="52" ht="21.75" customHeight="1" s="24">
-      <c r="A52" s="32" t="n"/>
-      <c r="B52" s="33" t="n"/>
-      <c r="C52" s="16" t="n"/>
-      <c r="D52" s="16" t="n"/>
-      <c r="E52" s="16" t="n"/>
-      <c r="F52" s="16" t="n"/>
-      <c r="G52" s="16" t="n"/>
-      <c r="H52" s="16" t="n"/>
-    </row>
-    <row r="53" ht="18.75" customHeight="1" s="24"/>
-    <row r="54" ht="18.75" customHeight="1" s="24"/>
-    <row r="55" ht="18.75" customHeight="1" s="24"/>
-    <row r="56" ht="18.75" customHeight="1" s="24"/>
-    <row r="57" ht="18.75" customHeight="1" s="24"/>
-    <row r="58" ht="18.75" customHeight="1" s="24"/>
-    <row r="59" ht="18.75" customHeight="1" s="24"/>
-    <row r="60" ht="18.75" customHeight="1" s="24"/>
-    <row r="61" ht="18.75" customHeight="1" s="24"/>
-    <row r="62" ht="18.75" customHeight="1" s="24"/>
-    <row r="63" ht="18.75" customHeight="1" s="24"/>
-    <row r="64" ht="18.75" customHeight="1" s="24"/>
-    <row r="65" ht="18.75" customHeight="1" s="24"/>
-    <row r="66" ht="18.75" customHeight="1" s="24"/>
-    <row r="67" ht="18.75" customHeight="1" s="24"/>
-    <row r="68" ht="18.75" customHeight="1" s="24"/>
-    <row r="69" ht="18.75" customHeight="1" s="24"/>
-    <row r="70" ht="18.75" customHeight="1" s="24"/>
-    <row r="71" ht="18.75" customHeight="1" s="24"/>
-    <row r="72" ht="18.75" customHeight="1" s="24"/>
-    <row r="73" ht="18.75" customHeight="1" s="24"/>
-    <row r="74" ht="18.75" customHeight="1" s="24"/>
-    <row r="75" ht="18.75" customHeight="1" s="24"/>
-    <row r="76" ht="18.75" customHeight="1" s="24"/>
-    <row r="77" ht="18.75" customHeight="1" s="24"/>
-    <row r="78" ht="18.75" customHeight="1" s="24"/>
-    <row r="79" ht="18.75" customHeight="1" s="24"/>
-    <row r="80" ht="18.75" customHeight="1" s="24"/>
-    <row r="81" ht="18.75" customHeight="1" s="24"/>
-    <row r="82" ht="18.75" customHeight="1" s="24"/>
-    <row r="83" ht="18.75" customHeight="1" s="24"/>
-    <row r="84" ht="18.75" customHeight="1" s="24"/>
-    <row r="85" ht="18.75" customHeight="1" s="24"/>
-    <row r="86" ht="18.75" customHeight="1" s="24"/>
-    <row r="87" ht="18.75" customHeight="1" s="24"/>
-    <row r="88" ht="18.75" customHeight="1" s="24"/>
-    <row r="89" ht="18.75" customHeight="1" s="24"/>
-    <row r="90" ht="18.75" customHeight="1" s="24"/>
-    <row r="91" ht="18.75" customHeight="1" s="24"/>
-    <row r="92" ht="18.75" customHeight="1" s="24"/>
-    <row r="93" ht="18.75" customHeight="1" s="24"/>
-    <row r="94" ht="18.75" customHeight="1" s="24"/>
-    <row r="95" ht="18.75" customHeight="1" s="24"/>
-    <row r="96" ht="18.75" customHeight="1" s="24"/>
-    <row r="97" ht="18.75" customHeight="1" s="24"/>
-    <row r="98" ht="18.75" customHeight="1" s="24"/>
-    <row r="99" ht="18.75" customHeight="1" s="24"/>
-    <row r="100" ht="18.75" customHeight="1" s="24"/>
-    <row r="101" ht="18.75" customHeight="1" s="24"/>
-    <row r="102" ht="18.75" customHeight="1" s="24"/>
-    <row r="103" ht="18.75" customHeight="1" s="24"/>
-    <row r="104" ht="18.75" customHeight="1" s="24"/>
-    <row r="105" ht="18.75" customHeight="1" s="24"/>
-    <row r="106" ht="18.75" customHeight="1" s="24"/>
-    <row r="107" ht="18.75" customHeight="1" s="24"/>
-    <row r="108" ht="18.75" customHeight="1" s="24"/>
-    <row r="109" ht="18.75" customHeight="1" s="24"/>
-    <row r="110" ht="18.75" customHeight="1" s="24"/>
-    <row r="111" ht="18.75" customHeight="1" s="24"/>
-    <row r="112" ht="18.75" customHeight="1" s="24"/>
-    <row r="113" ht="18.75" customHeight="1" s="24"/>
-    <row r="114" ht="18.75" customHeight="1" s="24"/>
-    <row r="115" ht="18.75" customHeight="1" s="24"/>
-    <row r="116" ht="18.75" customHeight="1" s="24"/>
-    <row r="117" ht="18.75" customHeight="1" s="24"/>
-    <row r="118" ht="18.75" customHeight="1" s="24"/>
-    <row r="119" ht="18.75" customHeight="1" s="24"/>
-    <row r="120" ht="18.75" customHeight="1" s="24"/>
-    <row r="121" ht="18.75" customHeight="1" s="24"/>
-    <row r="122" ht="18.75" customHeight="1" s="24"/>
-    <row r="123" ht="18.75" customHeight="1" s="24"/>
-    <row r="124" ht="18.75" customHeight="1" s="24"/>
-    <row r="125" ht="18.75" customHeight="1" s="24"/>
-    <row r="126" ht="18.75" customHeight="1" s="24"/>
-    <row r="127" ht="18.75" customHeight="1" s="24"/>
-    <row r="128" ht="18.75" customHeight="1" s="24"/>
-    <row r="129" ht="18.75" customHeight="1" s="24"/>
-    <row r="130" ht="18.75" customHeight="1" s="24"/>
-    <row r="131" ht="18.75" customHeight="1" s="24"/>
-    <row r="132" ht="18.75" customHeight="1" s="24"/>
-    <row r="133" ht="18.75" customHeight="1" s="24"/>
-    <row r="134" ht="18.75" customHeight="1" s="24"/>
-    <row r="135" ht="18.75" customHeight="1" s="24"/>
-    <row r="136" ht="18.75" customHeight="1" s="24"/>
-    <row r="137" ht="18.75" customHeight="1" s="24"/>
-    <row r="138" ht="18.75" customHeight="1" s="24"/>
-    <row r="139" ht="18.75" customHeight="1" s="24"/>
-    <row r="140" ht="18.75" customHeight="1" s="24"/>
-    <row r="141" ht="18.75" customHeight="1" s="24"/>
-    <row r="142" ht="18.75" customHeight="1" s="24"/>
-    <row r="143" ht="18.75" customHeight="1" s="24"/>
-    <row r="144" ht="18.75" customHeight="1" s="24"/>
-    <row r="145" ht="18.75" customHeight="1" s="24"/>
-    <row r="146" ht="18.75" customHeight="1" s="24"/>
-    <row r="147" ht="18.75" customHeight="1" s="24"/>
-    <row r="148" ht="18.75" customHeight="1" s="24"/>
-    <row r="149" ht="18.75" customHeight="1" s="24"/>
-    <row r="150" ht="18.75" customHeight="1" s="24"/>
-    <row r="151" ht="18.75" customHeight="1" s="24"/>
-    <row r="152" ht="18.75" customHeight="1" s="24"/>
-    <row r="153" ht="18.75" customHeight="1" s="24"/>
-    <row r="154" ht="18.75" customHeight="1" s="24"/>
-    <row r="155" ht="18.75" customHeight="1" s="24"/>
-    <row r="156" ht="18.75" customHeight="1" s="24"/>
-    <row r="157" ht="18.75" customHeight="1" s="24"/>
-    <row r="158" ht="18.75" customHeight="1" s="24"/>
-    <row r="159" ht="18.75" customHeight="1" s="24"/>
-    <row r="160" ht="18.75" customHeight="1" s="24"/>
-    <row r="161" ht="18.75" customHeight="1" s="24"/>
-    <row r="162" ht="18.75" customHeight="1" s="24"/>
-    <row r="163" ht="18.75" customHeight="1" s="24"/>
-    <row r="164" ht="18.75" customHeight="1" s="24"/>
-    <row r="165" ht="18.75" customHeight="1" s="24"/>
-    <row r="166" ht="18.75" customHeight="1" s="24"/>
-    <row r="167" ht="18.75" customHeight="1" s="24"/>
-    <row r="168" ht="18.75" customHeight="1" s="24"/>
-    <row r="169" ht="18.75" customHeight="1" s="24"/>
-    <row r="170" ht="18.75" customHeight="1" s="24"/>
-    <row r="171" ht="18.75" customHeight="1" s="24"/>
-    <row r="172" ht="18.75" customHeight="1" s="24"/>
-    <row r="173" ht="18.75" customHeight="1" s="24"/>
-    <row r="174" ht="18.75" customHeight="1" s="24"/>
-    <row r="175" ht="18.75" customHeight="1" s="24"/>
-    <row r="176" ht="18.75" customHeight="1" s="24"/>
-    <row r="177" ht="18.75" customHeight="1" s="24"/>
-    <row r="178" ht="18.75" customHeight="1" s="24"/>
-    <row r="179" ht="18.75" customHeight="1" s="24"/>
-    <row r="180" ht="18.75" customHeight="1" s="24"/>
-    <row r="181" ht="18.75" customHeight="1" s="24"/>
-    <row r="182" ht="18.75" customHeight="1" s="24"/>
-    <row r="183" ht="18.75" customHeight="1" s="24"/>
-    <row r="184" ht="18.75" customHeight="1" s="24"/>
-    <row r="185" ht="18.75" customHeight="1" s="24"/>
-    <row r="186" ht="18.75" customHeight="1" s="24"/>
-    <row r="187" ht="18.75" customHeight="1" s="24"/>
-    <row r="188" ht="18.75" customHeight="1" s="24"/>
-    <row r="189" ht="18.75" customHeight="1" s="24"/>
-    <row r="190" ht="18.75" customHeight="1" s="24"/>
-    <row r="191" ht="18.75" customHeight="1" s="24"/>
-    <row r="192" ht="18.75" customHeight="1" s="24"/>
-    <row r="193" ht="18.75" customHeight="1" s="24"/>
-    <row r="194" ht="18.75" customHeight="1" s="24"/>
-    <row r="195" ht="18.75" customHeight="1" s="24"/>
-    <row r="196" ht="18.75" customHeight="1" s="24"/>
-    <row r="197" ht="18.75" customHeight="1" s="24"/>
-    <row r="198" ht="18.75" customHeight="1" s="24"/>
-    <row r="199" ht="18.75" customHeight="1" s="24"/>
-    <row r="200" ht="18.75" customHeight="1" s="24"/>
-    <row r="201" ht="18.75" customHeight="1" s="24"/>
-    <row r="202" ht="18.75" customHeight="1" s="24"/>
-    <row r="203" ht="18.75" customHeight="1" s="24"/>
-    <row r="204" ht="18.75" customHeight="1" s="24"/>
-    <row r="205" ht="18.75" customHeight="1" s="24"/>
-    <row r="206" ht="18.75" customHeight="1" s="24"/>
-    <row r="207" ht="18.75" customHeight="1" s="24"/>
-    <row r="208" ht="18.75" customHeight="1" s="24"/>
-    <row r="209" ht="18.75" customHeight="1" s="24"/>
-    <row r="210" ht="18.75" customHeight="1" s="24"/>
-    <row r="211" ht="18.75" customHeight="1" s="24"/>
-    <row r="212" ht="18.75" customHeight="1" s="24"/>
-    <row r="213" ht="18.75" customHeight="1" s="24"/>
-    <row r="214" ht="18.75" customHeight="1" s="24"/>
-    <row r="215" ht="18.75" customHeight="1" s="24"/>
-    <row r="216" ht="18.75" customHeight="1" s="24"/>
-    <row r="217" ht="18.75" customHeight="1" s="24"/>
-    <row r="218" ht="18.75" customHeight="1" s="24"/>
-    <row r="219" ht="18.75" customHeight="1" s="24"/>
-    <row r="220" ht="18.75" customHeight="1" s="24"/>
-    <row r="221" ht="18.75" customHeight="1" s="24"/>
-    <row r="222" ht="18.75" customHeight="1" s="24"/>
-    <row r="223" ht="18.75" customHeight="1" s="24"/>
-    <row r="224" ht="18.75" customHeight="1" s="24"/>
-    <row r="225" ht="18.75" customHeight="1" s="24"/>
-    <row r="226" ht="18.75" customHeight="1" s="24"/>
-    <row r="227" ht="18.75" customHeight="1" s="24"/>
-    <row r="228" ht="18.75" customHeight="1" s="24"/>
-    <row r="229" ht="18.75" customHeight="1" s="24"/>
-    <row r="230" ht="18.75" customHeight="1" s="24"/>
-    <row r="231" ht="18.75" customHeight="1" s="24"/>
-    <row r="232" ht="18.75" customHeight="1" s="24"/>
-    <row r="233" ht="18.75" customHeight="1" s="24"/>
-    <row r="234" ht="18.75" customHeight="1" s="24"/>
-    <row r="235" ht="18.75" customHeight="1" s="24"/>
-    <row r="236" ht="18.75" customHeight="1" s="24"/>
-    <row r="237" ht="18.75" customHeight="1" s="24"/>
-    <row r="238" ht="18.75" customHeight="1" s="24"/>
-    <row r="239" ht="18.75" customHeight="1" s="24"/>
-    <row r="240" ht="18.75" customHeight="1" s="24"/>
-    <row r="241" ht="18.75" customHeight="1" s="24"/>
-    <row r="242" ht="18.75" customHeight="1" s="24"/>
-    <row r="243" ht="18.75" customHeight="1" s="24"/>
-    <row r="244" ht="18.75" customHeight="1" s="24"/>
-    <row r="245" ht="18.75" customHeight="1" s="24"/>
-    <row r="246" ht="18.75" customHeight="1" s="24"/>
-    <row r="247" ht="18.75" customHeight="1" s="24"/>
-    <row r="248" ht="18.75" customHeight="1" s="24"/>
-    <row r="249" ht="18.75" customHeight="1" s="24"/>
-    <row r="250" ht="18.75" customHeight="1" s="24"/>
-    <row r="251" ht="18.75" customHeight="1" s="24"/>
-    <row r="252" ht="18.75" customHeight="1" s="24"/>
-    <row r="253" ht="18.75" customHeight="1" s="24"/>
-    <row r="254" ht="18.75" customHeight="1" s="24"/>
-    <row r="255" ht="18.75" customHeight="1" s="24"/>
-    <row r="256" ht="18.75" customHeight="1" s="24"/>
-    <row r="257" ht="18.75" customHeight="1" s="24"/>
-    <row r="258" ht="18.75" customHeight="1" s="24"/>
-    <row r="259" ht="18.75" customHeight="1" s="24"/>
-    <row r="260" ht="18.75" customHeight="1" s="24"/>
-    <row r="261" ht="18.75" customHeight="1" s="24"/>
-    <row r="262" ht="18.75" customHeight="1" s="24"/>
-    <row r="263" ht="18.75" customHeight="1" s="24"/>
-    <row r="264" ht="18.75" customHeight="1" s="24"/>
-    <row r="265" ht="18.75" customHeight="1" s="24"/>
-    <row r="266" ht="18.75" customHeight="1" s="24"/>
-    <row r="267" ht="18.75" customHeight="1" s="24"/>
-    <row r="268" ht="18.75" customHeight="1" s="24"/>
-    <row r="269" ht="18.75" customHeight="1" s="24"/>
-    <row r="270" ht="18.75" customHeight="1" s="24"/>
-    <row r="271" ht="18.75" customHeight="1" s="24"/>
-    <row r="272" ht="18.75" customHeight="1" s="24"/>
-    <row r="273" ht="18.75" customHeight="1" s="24"/>
-    <row r="274" ht="18.75" customHeight="1" s="24"/>
-    <row r="275" ht="18.75" customHeight="1" s="24"/>
-    <row r="276" ht="18.75" customHeight="1" s="24"/>
-    <row r="277" ht="18.75" customHeight="1" s="24"/>
-    <row r="278" ht="18.75" customHeight="1" s="24"/>
-    <row r="279" ht="18.75" customHeight="1" s="24"/>
-    <row r="280" ht="18.75" customHeight="1" s="24"/>
-    <row r="281" ht="18.75" customHeight="1" s="24"/>
-    <row r="282" ht="18.75" customHeight="1" s="24"/>
-    <row r="283" ht="18.75" customHeight="1" s="24"/>
-    <row r="284" ht="18.75" customHeight="1" s="24"/>
-    <row r="285" ht="18.75" customHeight="1" s="24"/>
-    <row r="286" ht="18.75" customHeight="1" s="24"/>
-    <row r="287" ht="18.75" customHeight="1" s="24"/>
-    <row r="288" ht="18.75" customHeight="1" s="24"/>
-    <row r="289" ht="18.75" customHeight="1" s="24"/>
-    <row r="290" ht="18.75" customHeight="1" s="24"/>
-    <row r="291" ht="18.75" customHeight="1" s="24"/>
-    <row r="292" ht="18.75" customHeight="1" s="24"/>
-    <row r="293" ht="18.75" customHeight="1" s="24"/>
-    <row r="294" ht="18.75" customHeight="1" s="24"/>
-    <row r="295" ht="18.75" customHeight="1" s="24"/>
-    <row r="296" ht="18.75" customHeight="1" s="24"/>
-    <row r="297" ht="18.75" customHeight="1" s="24"/>
-    <row r="298" ht="18.75" customHeight="1" s="24"/>
-    <row r="299" ht="18.75" customHeight="1" s="24"/>
-    <row r="300" ht="18.75" customHeight="1" s="24"/>
-    <row r="301" ht="18.75" customHeight="1" s="24"/>
-    <row r="302" ht="18.75" customHeight="1" s="24"/>
-    <row r="303" ht="18.75" customHeight="1" s="24"/>
-    <row r="304" ht="18.75" customHeight="1" s="24"/>
-    <row r="305" ht="18.75" customHeight="1" s="24"/>
-    <row r="306" ht="18.75" customHeight="1" s="24"/>
-    <row r="307" ht="18.75" customHeight="1" s="24"/>
-    <row r="308" ht="18.75" customHeight="1" s="24"/>
-    <row r="309" ht="18.75" customHeight="1" s="24"/>
-    <row r="310" ht="18.75" customHeight="1" s="24"/>
-    <row r="311" ht="18.75" customHeight="1" s="24"/>
-    <row r="312" ht="18.75" customHeight="1" s="24"/>
-    <row r="313" ht="18.75" customHeight="1" s="24"/>
-    <row r="314" ht="18.75" customHeight="1" s="24"/>
-    <row r="315" ht="18.75" customHeight="1" s="24"/>
-    <row r="316" ht="18.75" customHeight="1" s="24"/>
-    <row r="317" ht="18.75" customHeight="1" s="24"/>
-    <row r="318" ht="18.75" customHeight="1" s="24"/>
-    <row r="319" ht="18.75" customHeight="1" s="24"/>
-    <row r="320" ht="18.75" customHeight="1" s="24"/>
-    <row r="321" ht="18.75" customHeight="1" s="24"/>
-    <row r="322" ht="18.75" customHeight="1" s="24"/>
-    <row r="323" ht="18.75" customHeight="1" s="24"/>
-    <row r="324" ht="18.75" customHeight="1" s="24"/>
-    <row r="325" ht="18.75" customHeight="1" s="24"/>
-    <row r="326" ht="18.75" customHeight="1" s="24"/>
-    <row r="327" ht="18.75" customHeight="1" s="24"/>
-    <row r="328" ht="18.75" customHeight="1" s="24"/>
-    <row r="329" ht="18.75" customHeight="1" s="24"/>
-    <row r="330" ht="18.75" customHeight="1" s="24"/>
-    <row r="331" ht="18.75" customHeight="1" s="24"/>
-    <row r="332" ht="18.75" customHeight="1" s="24"/>
-    <row r="333" ht="18.75" customHeight="1" s="24"/>
-    <row r="334" ht="18.75" customHeight="1" s="24"/>
-    <row r="335" ht="18.75" customHeight="1" s="24"/>
-    <row r="336" ht="18.75" customHeight="1" s="24"/>
-    <row r="337" ht="18.75" customHeight="1" s="24"/>
-    <row r="338" ht="18.75" customHeight="1" s="24"/>
-    <row r="339" ht="18.75" customHeight="1" s="24"/>
-    <row r="340" ht="18.75" customHeight="1" s="24"/>
-    <row r="341" ht="18.75" customHeight="1" s="24"/>
-    <row r="342" ht="18.75" customHeight="1" s="24"/>
-    <row r="343" ht="18.75" customHeight="1" s="24"/>
-    <row r="344" ht="18.75" customHeight="1" s="24"/>
-    <row r="345" ht="18.75" customHeight="1" s="24"/>
-    <row r="346" ht="18.75" customHeight="1" s="24"/>
-    <row r="347" ht="18.75" customHeight="1" s="24"/>
-    <row r="348" ht="18.75" customHeight="1" s="24"/>
-    <row r="349" ht="18.75" customHeight="1" s="24"/>
-    <row r="350" ht="18.75" customHeight="1" s="24"/>
-    <row r="351" ht="18.75" customHeight="1" s="24"/>
-    <row r="352" ht="18.75" customHeight="1" s="24"/>
-    <row r="353" ht="18.75" customHeight="1" s="24"/>
-    <row r="354" ht="18.75" customHeight="1" s="24"/>
-    <row r="355" ht="18.75" customHeight="1" s="24"/>
-    <row r="356" ht="18.75" customHeight="1" s="24"/>
-    <row r="357" ht="18.75" customHeight="1" s="24"/>
-    <row r="358" ht="18.75" customHeight="1" s="24"/>
-    <row r="359" ht="18.75" customHeight="1" s="24"/>
-    <row r="360" ht="18.75" customHeight="1" s="24"/>
-    <row r="361" ht="18.75" customHeight="1" s="24"/>
-    <row r="362" ht="18.75" customHeight="1" s="24"/>
-    <row r="363" ht="18.75" customHeight="1" s="24"/>
-    <row r="364" ht="18.75" customHeight="1" s="24"/>
-    <row r="365" ht="18.75" customHeight="1" s="24"/>
-    <row r="366" ht="18.75" customHeight="1" s="24"/>
-    <row r="367" ht="18.75" customHeight="1" s="24"/>
-    <row r="368" ht="18.75" customHeight="1" s="24"/>
-    <row r="369" ht="18.75" customHeight="1" s="24"/>
-    <row r="370" ht="18.75" customHeight="1" s="24"/>
-    <row r="371" ht="18.75" customHeight="1" s="24"/>
-    <row r="372" ht="18.75" customHeight="1" s="24"/>
-    <row r="373" ht="18.75" customHeight="1" s="24"/>
-    <row r="374" ht="18.75" customHeight="1" s="24"/>
-    <row r="375" ht="18.75" customHeight="1" s="24"/>
-    <row r="376" ht="18.75" customHeight="1" s="24"/>
-    <row r="377" ht="18.75" customHeight="1" s="24"/>
-    <row r="378" ht="18.75" customHeight="1" s="24"/>
-    <row r="379" ht="18.75" customHeight="1" s="24"/>
-    <row r="380" ht="18.75" customHeight="1" s="24"/>
-    <row r="381" ht="18.75" customHeight="1" s="24"/>
-    <row r="382" ht="18.75" customHeight="1" s="24"/>
-    <row r="383" ht="18.75" customHeight="1" s="24"/>
-    <row r="384" ht="18.75" customHeight="1" s="24"/>
-    <row r="385" ht="18.75" customHeight="1" s="24"/>
-    <row r="386" ht="18.75" customHeight="1" s="24"/>
-    <row r="387" ht="18.75" customHeight="1" s="24"/>
-    <row r="388" ht="18.75" customHeight="1" s="24"/>
-    <row r="389" ht="18.75" customHeight="1" s="24"/>
-    <row r="390" ht="18.75" customHeight="1" s="24"/>
-    <row r="391" ht="18.75" customHeight="1" s="24"/>
-    <row r="392" ht="18.75" customHeight="1" s="24"/>
-    <row r="393" ht="18.75" customHeight="1" s="24"/>
-    <row r="394" ht="18.75" customHeight="1" s="24"/>
-    <row r="395" ht="18.75" customHeight="1" s="24"/>
-    <row r="396" ht="18.75" customHeight="1" s="24"/>
-    <row r="397" ht="18.75" customHeight="1" s="24"/>
-    <row r="398" ht="18.75" customHeight="1" s="24"/>
-    <row r="399" ht="18.75" customHeight="1" s="24"/>
-    <row r="400" ht="18.75" customHeight="1" s="24"/>
-    <row r="401" ht="18.75" customHeight="1" s="24"/>
-    <row r="402" ht="18.75" customHeight="1" s="24"/>
-    <row r="403" ht="18.75" customHeight="1" s="24"/>
-    <row r="404" ht="18.75" customHeight="1" s="24"/>
-    <row r="405" ht="18.75" customHeight="1" s="24"/>
-    <row r="406" ht="18.75" customHeight="1" s="24"/>
-    <row r="407" ht="18.75" customHeight="1" s="24"/>
-    <row r="408" ht="18.75" customHeight="1" s="24"/>
-    <row r="409" ht="18.75" customHeight="1" s="24"/>
-    <row r="410" ht="18.75" customHeight="1" s="24"/>
-    <row r="411" ht="18.75" customHeight="1" s="24"/>
-    <row r="412" ht="18.75" customHeight="1" s="24"/>
-    <row r="413" ht="18.75" customHeight="1" s="24"/>
-    <row r="414" ht="18.75" customHeight="1" s="24"/>
-    <row r="415" ht="18.75" customHeight="1" s="24"/>
-    <row r="416" ht="18.75" customHeight="1" s="24"/>
-    <row r="417" ht="18.75" customHeight="1" s="24"/>
-    <row r="418" ht="18.75" customHeight="1" s="24"/>
-    <row r="419" ht="18.75" customHeight="1" s="24"/>
-    <row r="420" ht="18.75" customHeight="1" s="24"/>
-    <row r="421" ht="18.75" customHeight="1" s="24"/>
-    <row r="422" ht="18.75" customHeight="1" s="24"/>
-    <row r="423" ht="18.75" customHeight="1" s="24"/>
-    <row r="424" ht="18.75" customHeight="1" s="24"/>
-    <row r="425" ht="18.75" customHeight="1" s="24"/>
-    <row r="426" ht="18.75" customHeight="1" s="24"/>
-    <row r="427" ht="18.75" customHeight="1" s="24"/>
-    <row r="428" ht="18.75" customHeight="1" s="24"/>
-    <row r="429" ht="18.75" customHeight="1" s="24"/>
-    <row r="430" ht="18.75" customHeight="1" s="24"/>
-    <row r="431" ht="18.75" customHeight="1" s="24"/>
-    <row r="432" ht="18.75" customHeight="1" s="24"/>
-    <row r="433" ht="18.75" customHeight="1" s="24"/>
-    <row r="434" ht="18.75" customHeight="1" s="24"/>
-    <row r="435" ht="18.75" customHeight="1" s="24"/>
-    <row r="436" ht="18.75" customHeight="1" s="24"/>
-    <row r="437" ht="18.75" customHeight="1" s="24"/>
-    <row r="438" ht="18.75" customHeight="1" s="24"/>
-    <row r="439" ht="18.75" customHeight="1" s="24"/>
-    <row r="440" ht="18.75" customHeight="1" s="24"/>
-    <row r="441" ht="18.75" customHeight="1" s="24"/>
-    <row r="442" ht="18.75" customHeight="1" s="24"/>
-    <row r="443" ht="18.75" customHeight="1" s="24"/>
-    <row r="444" ht="18.75" customHeight="1" s="24"/>
-    <row r="445" ht="18.75" customHeight="1" s="24"/>
-    <row r="446" ht="18.75" customHeight="1" s="24"/>
-    <row r="447" ht="18.75" customHeight="1" s="24"/>
-    <row r="448" ht="18.75" customHeight="1" s="24"/>
-    <row r="449" ht="18.75" customHeight="1" s="24"/>
-    <row r="450" ht="18.75" customHeight="1" s="24"/>
-    <row r="451" ht="18.75" customHeight="1" s="24"/>
-    <row r="452" ht="18.75" customHeight="1" s="24"/>
-    <row r="453" ht="18.75" customHeight="1" s="24"/>
-    <row r="454" ht="18.75" customHeight="1" s="24"/>
-    <row r="455" ht="18.75" customHeight="1" s="24"/>
-    <row r="456" ht="18.75" customHeight="1" s="24"/>
-    <row r="457" ht="18.75" customHeight="1" s="24"/>
-    <row r="458" ht="18.75" customHeight="1" s="24"/>
-    <row r="459" ht="18.75" customHeight="1" s="24"/>
-    <row r="460" ht="18.75" customHeight="1" s="24"/>
-    <row r="461" ht="18.75" customHeight="1" s="24"/>
-    <row r="462" ht="18.75" customHeight="1" s="24"/>
-    <row r="463" ht="18.75" customHeight="1" s="24"/>
-    <row r="464" ht="18.75" customHeight="1" s="24"/>
-    <row r="465" ht="18.75" customHeight="1" s="24"/>
-    <row r="466" ht="18.75" customHeight="1" s="24"/>
-    <row r="467" ht="18.75" customHeight="1" s="24"/>
-    <row r="468" ht="18.75" customHeight="1" s="24"/>
-    <row r="469" ht="18.75" customHeight="1" s="24"/>
-    <row r="470" ht="18.75" customHeight="1" s="24"/>
-    <row r="471" ht="18.75" customHeight="1" s="24"/>
-    <row r="472" ht="18.75" customHeight="1" s="24"/>
-    <row r="473" ht="18.75" customHeight="1" s="24"/>
-    <row r="474" ht="18.75" customHeight="1" s="24"/>
-    <row r="475" ht="18.75" customHeight="1" s="24"/>
-    <row r="476" ht="18.75" customHeight="1" s="24"/>
-    <row r="477" ht="18.75" customHeight="1" s="24"/>
-    <row r="478" ht="18.75" customHeight="1" s="24"/>
-    <row r="479" ht="18.75" customHeight="1" s="24"/>
-    <row r="480" ht="18.75" customHeight="1" s="24"/>
-    <row r="481" ht="18.75" customHeight="1" s="24"/>
-    <row r="482" ht="18.75" customHeight="1" s="24"/>
-    <row r="483" ht="18.75" customHeight="1" s="24"/>
-    <row r="484" ht="18.75" customHeight="1" s="24"/>
-    <row r="485" ht="18.75" customHeight="1" s="24"/>
-    <row r="486" ht="18.75" customHeight="1" s="24"/>
-    <row r="487" ht="18.75" customHeight="1" s="24"/>
-    <row r="488" ht="18.75" customHeight="1" s="24"/>
-    <row r="489" ht="18.75" customHeight="1" s="24"/>
-    <row r="490" ht="18.75" customHeight="1" s="24"/>
-    <row r="491" ht="18.75" customHeight="1" s="24"/>
-    <row r="492" ht="18.75" customHeight="1" s="24"/>
-    <row r="493" ht="18.75" customHeight="1" s="24"/>
-    <row r="494" ht="18.75" customHeight="1" s="24"/>
-    <row r="495" ht="18.75" customHeight="1" s="24"/>
-    <row r="496" ht="18.75" customHeight="1" s="24"/>
-    <row r="497" ht="18.75" customHeight="1" s="24"/>
-    <row r="498" ht="18.75" customHeight="1" s="24"/>
-    <row r="499" ht="18.75" customHeight="1" s="24"/>
-    <row r="500" ht="18.75" customHeight="1" s="24"/>
-    <row r="501" ht="18.75" customHeight="1" s="24"/>
-    <row r="502" ht="18.75" customHeight="1" s="24"/>
-    <row r="503" ht="18.75" customHeight="1" s="24"/>
-    <row r="504" ht="18.75" customHeight="1" s="24"/>
-    <row r="505" ht="18.75" customHeight="1" s="24"/>
-    <row r="506" ht="18.75" customHeight="1" s="24"/>
-    <row r="507" ht="18.75" customHeight="1" s="24"/>
-    <row r="508" ht="18.75" customHeight="1" s="24"/>
-    <row r="509" ht="18.75" customHeight="1" s="24"/>
-    <row r="510" ht="18.75" customHeight="1" s="24"/>
-    <row r="511" ht="18.75" customHeight="1" s="24"/>
-    <row r="512" ht="18.75" customHeight="1" s="24"/>
-    <row r="513" ht="18.75" customHeight="1" s="24"/>
-    <row r="514" ht="18.75" customHeight="1" s="24"/>
-    <row r="515" ht="18.75" customHeight="1" s="24"/>
-    <row r="516" ht="18.75" customHeight="1" s="24"/>
-    <row r="517" ht="18.75" customHeight="1" s="24"/>
-    <row r="518" ht="18.75" customHeight="1" s="24"/>
-    <row r="519" ht="18.75" customHeight="1" s="24"/>
-    <row r="520" ht="18.75" customHeight="1" s="24"/>
-    <row r="521" ht="18.75" customHeight="1" s="24"/>
-    <row r="522" ht="18.75" customHeight="1" s="24"/>
-    <row r="523" ht="18.75" customHeight="1" s="24"/>
-    <row r="524" ht="18.75" customHeight="1" s="24"/>
-    <row r="525" ht="18.75" customHeight="1" s="24"/>
-    <row r="526" ht="18.75" customHeight="1" s="24"/>
-    <row r="527" ht="18.75" customHeight="1" s="24"/>
-    <row r="528" ht="18.75" customHeight="1" s="24"/>
-    <row r="529" ht="18.75" customHeight="1" s="24"/>
-    <row r="530" ht="18.75" customHeight="1" s="24"/>
-    <row r="531" ht="18.75" customHeight="1" s="24"/>
-    <row r="532" ht="18.75" customHeight="1" s="24"/>
-    <row r="533" ht="18.75" customHeight="1" s="24"/>
-    <row r="534" ht="18.75" customHeight="1" s="24"/>
-    <row r="535" ht="18.75" customHeight="1" s="24"/>
-    <row r="536" ht="18.75" customHeight="1" s="24"/>
-    <row r="537" ht="18.75" customHeight="1" s="24"/>
-    <row r="538" ht="18.75" customHeight="1" s="24"/>
-    <row r="539" ht="18.75" customHeight="1" s="24"/>
-    <row r="540" ht="18.75" customHeight="1" s="24"/>
-    <row r="541" ht="18.75" customHeight="1" s="24"/>
-    <row r="542" ht="18.75" customHeight="1" s="24"/>
-    <row r="543" ht="18.75" customHeight="1" s="24"/>
-    <row r="544" ht="18.75" customHeight="1" s="24"/>
-    <row r="545" ht="18.75" customHeight="1" s="24"/>
-    <row r="546" ht="18.75" customHeight="1" s="24"/>
-    <row r="547" ht="18.75" customHeight="1" s="24"/>
-    <row r="548" ht="18.75" customHeight="1" s="24"/>
-    <row r="549" ht="18.75" customHeight="1" s="24"/>
-    <row r="550" ht="18.75" customHeight="1" s="24"/>
-    <row r="551" ht="18.75" customHeight="1" s="24"/>
-    <row r="552" ht="18.75" customHeight="1" s="24"/>
-    <row r="553" ht="18.75" customHeight="1" s="24"/>
-    <row r="554" ht="18.75" customHeight="1" s="24"/>
-    <row r="555" ht="18.75" customHeight="1" s="24"/>
-    <row r="556" ht="18.75" customHeight="1" s="24"/>
-    <row r="557" ht="18.75" customHeight="1" s="24"/>
-    <row r="558" ht="18.75" customHeight="1" s="24"/>
-    <row r="559" ht="18.75" customHeight="1" s="24"/>
-    <row r="560" ht="18.75" customHeight="1" s="24"/>
-    <row r="561" ht="18.75" customHeight="1" s="24"/>
-    <row r="562" ht="18.75" customHeight="1" s="24"/>
-    <row r="563" ht="18.75" customHeight="1" s="24"/>
-    <row r="564" ht="18.75" customHeight="1" s="24"/>
-    <row r="565" ht="18.75" customHeight="1" s="24"/>
-    <row r="566" ht="18.75" customHeight="1" s="24"/>
-    <row r="567" ht="18.75" customHeight="1" s="24"/>
-    <row r="568" ht="18.75" customHeight="1" s="24"/>
-    <row r="569" ht="18.75" customHeight="1" s="24"/>
-    <row r="570" ht="18.75" customHeight="1" s="24"/>
-    <row r="571" ht="18.75" customHeight="1" s="24"/>
-    <row r="572" ht="18.75" customHeight="1" s="24"/>
-    <row r="573" ht="18.75" customHeight="1" s="24"/>
-    <row r="574" ht="18.75" customHeight="1" s="24"/>
-    <row r="575" ht="18.75" customHeight="1" s="24"/>
-    <row r="576" ht="18.75" customHeight="1" s="24"/>
-    <row r="577" ht="18.75" customHeight="1" s="24"/>
-    <row r="578" ht="18.75" customHeight="1" s="24"/>
-    <row r="579" ht="18.75" customHeight="1" s="24"/>
-    <row r="580" ht="18.75" customHeight="1" s="24"/>
-    <row r="581" ht="18.75" customHeight="1" s="24"/>
-    <row r="582" ht="18.75" customHeight="1" s="24"/>
-    <row r="583" ht="18.75" customHeight="1" s="24"/>
-    <row r="584" ht="18.75" customHeight="1" s="24"/>
-    <row r="585" ht="18.75" customHeight="1" s="24"/>
-    <row r="586" ht="18.75" customHeight="1" s="24"/>
-    <row r="587" ht="18.75" customHeight="1" s="24"/>
-    <row r="588" ht="18.75" customHeight="1" s="24"/>
-    <row r="589" ht="18.75" customHeight="1" s="24"/>
-    <row r="590" ht="18.75" customHeight="1" s="24"/>
-    <row r="591" ht="18.75" customHeight="1" s="24"/>
-    <row r="592" ht="18.75" customHeight="1" s="24"/>
-    <row r="593" ht="18.75" customHeight="1" s="24"/>
-    <row r="594" ht="18.75" customHeight="1" s="24"/>
-    <row r="595" ht="18.75" customHeight="1" s="24"/>
-    <row r="596" ht="18.75" customHeight="1" s="24"/>
-    <row r="597" ht="18.75" customHeight="1" s="24"/>
-    <row r="598" ht="18.75" customHeight="1" s="24"/>
-    <row r="599" ht="18.75" customHeight="1" s="24"/>
-    <row r="600" ht="18.75" customHeight="1" s="24"/>
-    <row r="601" ht="18.75" customHeight="1" s="24"/>
-    <row r="602" ht="18.75" customHeight="1" s="24"/>
-    <row r="603" ht="18.75" customHeight="1" s="24"/>
-    <row r="604" ht="18.75" customHeight="1" s="24"/>
-    <row r="605" ht="18.75" customHeight="1" s="24"/>
-    <row r="606" ht="18.75" customHeight="1" s="24"/>
-    <row r="607" ht="18.75" customHeight="1" s="24"/>
-    <row r="608" ht="18.75" customHeight="1" s="24"/>
-    <row r="609" ht="18.75" customHeight="1" s="24"/>
-    <row r="610" ht="18.75" customHeight="1" s="24"/>
-    <row r="611" ht="18.75" customHeight="1" s="24"/>
-    <row r="612" ht="18.75" customHeight="1" s="24"/>
-    <row r="613" ht="18.75" customHeight="1" s="24"/>
-    <row r="614" ht="18.75" customHeight="1" s="24"/>
-    <row r="615" ht="18.75" customHeight="1" s="24"/>
-    <row r="616" ht="18.75" customHeight="1" s="24"/>
-    <row r="617" ht="18.75" customHeight="1" s="24"/>
-    <row r="618" ht="18.75" customHeight="1" s="24"/>
-    <row r="619" ht="18.75" customHeight="1" s="24"/>
-    <row r="620" ht="18.75" customHeight="1" s="24"/>
-    <row r="621" ht="18.75" customHeight="1" s="24"/>
-    <row r="622" ht="18.75" customHeight="1" s="24"/>
-    <row r="623" ht="18.75" customHeight="1" s="24"/>
-    <row r="624" ht="18.75" customHeight="1" s="24"/>
-    <row r="625" ht="18.75" customHeight="1" s="24"/>
-    <row r="626" ht="18.75" customHeight="1" s="24"/>
-    <row r="627" ht="18.75" customHeight="1" s="24"/>
-    <row r="628" ht="18.75" customHeight="1" s="24"/>
-    <row r="629" ht="18.75" customHeight="1" s="24"/>
-    <row r="630" ht="18.75" customHeight="1" s="24"/>
-    <row r="631" ht="18.75" customHeight="1" s="24"/>
-    <row r="632" ht="18.75" customHeight="1" s="24"/>
-    <row r="633" ht="18.75" customHeight="1" s="24"/>
-    <row r="634" ht="18.75" customHeight="1" s="24"/>
-    <row r="635" ht="18.75" customHeight="1" s="24"/>
-    <row r="636" ht="18.75" customHeight="1" s="24"/>
-    <row r="637" ht="18.75" customHeight="1" s="24"/>
-    <row r="638" ht="18.75" customHeight="1" s="24"/>
-    <row r="639" ht="18.75" customHeight="1" s="24"/>
-    <row r="640" ht="18.75" customHeight="1" s="24"/>
-    <row r="641" ht="18.75" customHeight="1" s="24"/>
-    <row r="642" ht="18.75" customHeight="1" s="24"/>
-    <row r="643" ht="18.75" customHeight="1" s="24"/>
-    <row r="644" ht="18.75" customHeight="1" s="24"/>
-    <row r="645" ht="18.75" customHeight="1" s="24"/>
-    <row r="646" ht="18.75" customHeight="1" s="24"/>
-    <row r="647" ht="18.75" customHeight="1" s="24"/>
-    <row r="648" ht="18.75" customHeight="1" s="24"/>
-    <row r="649" ht="18.75" customHeight="1" s="24"/>
-    <row r="650" ht="18.75" customHeight="1" s="24"/>
-    <row r="651" ht="18.75" customHeight="1" s="24"/>
-    <row r="652" ht="18.75" customHeight="1" s="24"/>
-    <row r="653" ht="18.75" customHeight="1" s="24"/>
-    <row r="654" ht="18.75" customHeight="1" s="24"/>
-    <row r="655" ht="18.75" customHeight="1" s="24"/>
-    <row r="656" ht="18.75" customHeight="1" s="24"/>
-    <row r="657" ht="18.75" customHeight="1" s="24"/>
-    <row r="658" ht="18.75" customHeight="1" s="24"/>
-    <row r="659" ht="18.75" customHeight="1" s="24"/>
-    <row r="660" ht="18.75" customHeight="1" s="24"/>
-    <row r="661" ht="18.75" customHeight="1" s="24"/>
-    <row r="662" ht="18.75" customHeight="1" s="24"/>
-    <row r="663" ht="18.75" customHeight="1" s="24"/>
-    <row r="664" ht="18.75" customHeight="1" s="24"/>
-    <row r="665" ht="18.75" customHeight="1" s="24"/>
-    <row r="666" ht="18.75" customHeight="1" s="24"/>
-    <row r="667" ht="18.75" customHeight="1" s="24"/>
-    <row r="668" ht="18.75" customHeight="1" s="24"/>
-    <row r="669" ht="18.75" customHeight="1" s="24"/>
-    <row r="670" ht="18.75" customHeight="1" s="24"/>
-    <row r="671" ht="18.75" customHeight="1" s="24"/>
-    <row r="672" ht="18.75" customHeight="1" s="24"/>
-    <row r="673" ht="18.75" customHeight="1" s="24"/>
-    <row r="674" ht="18.75" customHeight="1" s="24"/>
-    <row r="675" ht="18.75" customHeight="1" s="24"/>
-    <row r="676" ht="18.75" customHeight="1" s="24"/>
-    <row r="677" ht="18.75" customHeight="1" s="24"/>
-    <row r="678" ht="18.75" customHeight="1" s="24"/>
-    <row r="679" ht="18.75" customHeight="1" s="24"/>
-    <row r="680" ht="18.75" customHeight="1" s="24"/>
-    <row r="681" ht="18.75" customHeight="1" s="24"/>
-    <row r="682" ht="18.75" customHeight="1" s="24"/>
-    <row r="683" ht="18.75" customHeight="1" s="24"/>
-    <row r="684" ht="18.75" customHeight="1" s="24"/>
-    <row r="685" ht="18.75" customHeight="1" s="24"/>
-    <row r="686" ht="18.75" customHeight="1" s="24"/>
-    <row r="687" ht="18.75" customHeight="1" s="24"/>
-    <row r="688" ht="18.75" customHeight="1" s="24"/>
-    <row r="689" ht="18.75" customHeight="1" s="24"/>
-    <row r="690" ht="18.75" customHeight="1" s="24"/>
-    <row r="691" ht="18.75" customHeight="1" s="24"/>
-    <row r="692" ht="18.75" customHeight="1" s="24"/>
-    <row r="693" ht="18.75" customHeight="1" s="24"/>
-    <row r="694" ht="18.75" customHeight="1" s="24"/>
-    <row r="695" ht="18.75" customHeight="1" s="24"/>
-    <row r="696" ht="18.75" customHeight="1" s="24"/>
-    <row r="697" ht="18.75" customHeight="1" s="24"/>
-    <row r="698" ht="18.75" customHeight="1" s="24"/>
-    <row r="699" ht="18.75" customHeight="1" s="24"/>
-    <row r="700" ht="18.75" customHeight="1" s="24"/>
-    <row r="701" ht="18.75" customHeight="1" s="24"/>
-    <row r="702" ht="18.75" customHeight="1" s="24"/>
-    <row r="703" ht="18.75" customHeight="1" s="24"/>
-    <row r="704" ht="18.75" customHeight="1" s="24"/>
-    <row r="705" ht="18.75" customHeight="1" s="24"/>
-    <row r="706" ht="18.75" customHeight="1" s="24"/>
-    <row r="707" ht="18.75" customHeight="1" s="24"/>
-    <row r="708" ht="18.75" customHeight="1" s="24"/>
-    <row r="709" ht="18.75" customHeight="1" s="24"/>
-    <row r="710" ht="18.75" customHeight="1" s="24"/>
-    <row r="711" ht="18.75" customHeight="1" s="24"/>
-    <row r="712" ht="18.75" customHeight="1" s="24"/>
-    <row r="713" ht="18.75" customHeight="1" s="24"/>
-    <row r="714" ht="18.75" customHeight="1" s="24"/>
-    <row r="715" ht="18.75" customHeight="1" s="24"/>
-    <row r="716" ht="18.75" customHeight="1" s="24"/>
-    <row r="717" ht="18.75" customHeight="1" s="24"/>
-    <row r="718" ht="18.75" customHeight="1" s="24"/>
-    <row r="719" ht="18.75" customHeight="1" s="24"/>
-    <row r="720" ht="18.75" customHeight="1" s="24"/>
-    <row r="721" ht="18.75" customHeight="1" s="24"/>
-    <row r="722" ht="18.75" customHeight="1" s="24"/>
-    <row r="723" ht="18.75" customHeight="1" s="24"/>
-    <row r="724" ht="18.75" customHeight="1" s="24"/>
-    <row r="725" ht="18.75" customHeight="1" s="24"/>
-    <row r="726" ht="18.75" customHeight="1" s="24"/>
-    <row r="727" ht="18.75" customHeight="1" s="24"/>
-    <row r="728" ht="18.75" customHeight="1" s="24"/>
-    <row r="729" ht="18.75" customHeight="1" s="24"/>
-    <row r="730" ht="18.75" customHeight="1" s="24"/>
-    <row r="731" ht="18.75" customHeight="1" s="24"/>
-    <row r="732" ht="18.75" customHeight="1" s="24"/>
-    <row r="733" ht="18.75" customHeight="1" s="24"/>
-    <row r="734" ht="18.75" customHeight="1" s="24"/>
-    <row r="735" ht="18.75" customHeight="1" s="24"/>
-    <row r="736" ht="18.75" customHeight="1" s="24"/>
-    <row r="737" ht="18.75" customHeight="1" s="24"/>
-    <row r="738" ht="18.75" customHeight="1" s="24"/>
-    <row r="739" ht="18.75" customHeight="1" s="24"/>
-    <row r="740" ht="18.75" customHeight="1" s="24"/>
-    <row r="741" ht="18.75" customHeight="1" s="24"/>
-    <row r="742" ht="18.75" customHeight="1" s="24"/>
-    <row r="743" ht="18.75" customHeight="1" s="24"/>
-    <row r="744" ht="18.75" customHeight="1" s="24"/>
-    <row r="745" ht="18.75" customHeight="1" s="24"/>
-    <row r="746" ht="18.75" customHeight="1" s="24"/>
-    <row r="747" ht="18.75" customHeight="1" s="24"/>
-    <row r="748" ht="18.75" customHeight="1" s="24"/>
-    <row r="749" ht="18.75" customHeight="1" s="24"/>
-    <row r="750" ht="18.75" customHeight="1" s="24"/>
-    <row r="751" ht="18.75" customHeight="1" s="24"/>
-    <row r="752" ht="18.75" customHeight="1" s="24"/>
-    <row r="753" ht="18.75" customHeight="1" s="24"/>
-    <row r="754" ht="18.75" customHeight="1" s="24"/>
-    <row r="755" ht="18.75" customHeight="1" s="24"/>
-    <row r="756" ht="18.75" customHeight="1" s="24"/>
-    <row r="757" ht="18.75" customHeight="1" s="24"/>
-    <row r="758" ht="18.75" customHeight="1" s="24"/>
-    <row r="759" ht="18.75" customHeight="1" s="24"/>
-    <row r="760" ht="18.75" customHeight="1" s="24"/>
-    <row r="761" ht="18.75" customHeight="1" s="24"/>
-    <row r="762" ht="18.75" customHeight="1" s="24"/>
-    <row r="763" ht="18.75" customHeight="1" s="24"/>
-    <row r="764" ht="18.75" customHeight="1" s="24"/>
-    <row r="765" ht="18.75" customHeight="1" s="24"/>
-    <row r="766" ht="18.75" customHeight="1" s="24"/>
-    <row r="767" ht="18.75" customHeight="1" s="24"/>
-    <row r="768" ht="18.75" customHeight="1" s="24"/>
-    <row r="769" ht="18.75" customHeight="1" s="24"/>
-    <row r="770" ht="18.75" customHeight="1" s="24"/>
-    <row r="771" ht="18.75" customHeight="1" s="24"/>
-    <row r="772" ht="18.75" customHeight="1" s="24"/>
-    <row r="773" ht="18.75" customHeight="1" s="24"/>
-    <row r="774" ht="18.75" customHeight="1" s="24"/>
-    <row r="775" ht="18.75" customHeight="1" s="24"/>
-    <row r="776" ht="18.75" customHeight="1" s="24"/>
-    <row r="777" ht="18.75" customHeight="1" s="24"/>
-    <row r="778" ht="18.75" customHeight="1" s="24"/>
-    <row r="779" ht="18.75" customHeight="1" s="24"/>
-    <row r="780" ht="18.75" customHeight="1" s="24"/>
-    <row r="781" ht="18.75" customHeight="1" s="24"/>
-    <row r="782" ht="18.75" customHeight="1" s="24"/>
-    <row r="783" ht="18.75" customHeight="1" s="24"/>
-    <row r="784" ht="18.75" customHeight="1" s="24"/>
-    <row r="785" ht="18.75" customHeight="1" s="24"/>
-    <row r="786" ht="18.75" customHeight="1" s="24"/>
-    <row r="787" ht="18.75" customHeight="1" s="24"/>
-    <row r="788" ht="18.75" customHeight="1" s="24"/>
-    <row r="789" ht="18.75" customHeight="1" s="24"/>
-    <row r="790" ht="18.75" customHeight="1" s="24"/>
-    <row r="791" ht="18.75" customHeight="1" s="24"/>
-    <row r="792" ht="18.75" customHeight="1" s="24"/>
-    <row r="793" ht="18.75" customHeight="1" s="24"/>
-    <row r="794" ht="18.75" customHeight="1" s="24"/>
-    <row r="795" ht="18.75" customHeight="1" s="24"/>
-    <row r="796" ht="18.75" customHeight="1" s="24"/>
-    <row r="797" ht="18.75" customHeight="1" s="24"/>
-    <row r="798" ht="18.75" customHeight="1" s="24"/>
-    <row r="799" ht="18.75" customHeight="1" s="24"/>
-    <row r="800" ht="18.75" customHeight="1" s="24"/>
-    <row r="801" ht="18.75" customHeight="1" s="24"/>
-    <row r="802" ht="18.75" customHeight="1" s="24"/>
-    <row r="803" ht="18.75" customHeight="1" s="24"/>
-    <row r="804" ht="18.75" customHeight="1" s="24"/>
-    <row r="805" ht="18.75" customHeight="1" s="24"/>
-    <row r="806" ht="18.75" customHeight="1" s="24"/>
-    <row r="807" ht="18.75" customHeight="1" s="24"/>
-    <row r="808" ht="18.75" customHeight="1" s="24"/>
-    <row r="809" ht="18.75" customHeight="1" s="24"/>
-    <row r="810" ht="18.75" customHeight="1" s="24"/>
-    <row r="811" ht="18.75" customHeight="1" s="24"/>
-    <row r="812" ht="18.75" customHeight="1" s="24"/>
-    <row r="813" ht="18.75" customHeight="1" s="24"/>
-    <row r="814" ht="18.75" customHeight="1" s="24"/>
-    <row r="815" ht="18.75" customHeight="1" s="24"/>
-    <row r="816" ht="18.75" customHeight="1" s="24"/>
-    <row r="817" ht="18.75" customHeight="1" s="24"/>
-    <row r="818" ht="18.75" customHeight="1" s="24"/>
-    <row r="819" ht="18.75" customHeight="1" s="24"/>
-    <row r="820" ht="18.75" customHeight="1" s="24"/>
-    <row r="821" ht="18.75" customHeight="1" s="24"/>
-    <row r="822" ht="18.75" customHeight="1" s="24"/>
-    <row r="823" ht="18.75" customHeight="1" s="24"/>
-    <row r="824" ht="18.75" customHeight="1" s="24"/>
-    <row r="825" ht="18.75" customHeight="1" s="24"/>
-    <row r="826" ht="18.75" customHeight="1" s="24"/>
-    <row r="827" ht="18.75" customHeight="1" s="24"/>
-    <row r="828" ht="18.75" customHeight="1" s="24"/>
-    <row r="829" ht="18.75" customHeight="1" s="24"/>
-    <row r="830" ht="18.75" customHeight="1" s="24"/>
-    <row r="831" ht="18.75" customHeight="1" s="24"/>
-    <row r="832" ht="18.75" customHeight="1" s="24"/>
-    <row r="833" ht="18.75" customHeight="1" s="24"/>
-    <row r="834" ht="18.75" customHeight="1" s="24"/>
-    <row r="835" ht="18.75" customHeight="1" s="24"/>
-    <row r="836" ht="18.75" customHeight="1" s="24"/>
-    <row r="837" ht="18.75" customHeight="1" s="24"/>
-    <row r="838" ht="18.75" customHeight="1" s="24"/>
-    <row r="839" ht="18.75" customHeight="1" s="24"/>
-    <row r="840" ht="18.75" customHeight="1" s="24"/>
-    <row r="841" ht="18.75" customHeight="1" s="24"/>
-    <row r="842" ht="18.75" customHeight="1" s="24"/>
-    <row r="843" ht="18.75" customHeight="1" s="24"/>
-    <row r="844" ht="18.75" customHeight="1" s="24"/>
-    <row r="845" ht="18.75" customHeight="1" s="24"/>
-    <row r="846" ht="18.75" customHeight="1" s="24"/>
-    <row r="847" ht="18.75" customHeight="1" s="24"/>
-    <row r="848" ht="18.75" customHeight="1" s="24"/>
-    <row r="849" ht="18.75" customHeight="1" s="24"/>
-    <row r="850" ht="18.75" customHeight="1" s="24"/>
-    <row r="851" ht="18.75" customHeight="1" s="24"/>
-    <row r="852" ht="18.75" customHeight="1" s="24"/>
-    <row r="853" ht="18.75" customHeight="1" s="24"/>
-    <row r="854" ht="18.75" customHeight="1" s="24"/>
-    <row r="855" ht="18.75" customHeight="1" s="24"/>
-    <row r="856" ht="18.75" customHeight="1" s="24"/>
-    <row r="857" ht="18.75" customHeight="1" s="24"/>
-    <row r="858" ht="18.75" customHeight="1" s="24"/>
-    <row r="859" ht="18.75" customHeight="1" s="24"/>
-    <row r="860" ht="18.75" customHeight="1" s="24"/>
-    <row r="861" ht="18.75" customHeight="1" s="24"/>
-    <row r="862" ht="18.75" customHeight="1" s="24"/>
-    <row r="863" ht="18.75" customHeight="1" s="24"/>
-    <row r="864" ht="18.75" customHeight="1" s="24"/>
-    <row r="865" ht="18.75" customHeight="1" s="24"/>
-    <row r="866" ht="18.75" customHeight="1" s="24"/>
-    <row r="867" ht="18.75" customHeight="1" s="24"/>
-    <row r="868" ht="18.75" customHeight="1" s="24"/>
-    <row r="869" ht="18.75" customHeight="1" s="24"/>
-    <row r="870" ht="18.75" customHeight="1" s="24"/>
-    <row r="871" ht="18.75" customHeight="1" s="24"/>
-    <row r="872" ht="18.75" customHeight="1" s="24"/>
-    <row r="873" ht="18.75" customHeight="1" s="24"/>
-    <row r="874" ht="18.75" customHeight="1" s="24"/>
-    <row r="875" ht="18.75" customHeight="1" s="24"/>
-    <row r="876" ht="18.75" customHeight="1" s="24"/>
-    <row r="877" ht="18.75" customHeight="1" s="24"/>
-    <row r="878" ht="18.75" customHeight="1" s="24"/>
-    <row r="879" ht="18.75" customHeight="1" s="24"/>
-    <row r="880" ht="18.75" customHeight="1" s="24"/>
-    <row r="881" ht="18.75" customHeight="1" s="24"/>
-    <row r="882" ht="18.75" customHeight="1" s="24"/>
-    <row r="883" ht="18.75" customHeight="1" s="24"/>
-    <row r="884" ht="18.75" customHeight="1" s="24"/>
-    <row r="885" ht="18.75" customHeight="1" s="24"/>
-    <row r="886" ht="18.75" customHeight="1" s="24"/>
-    <row r="887" ht="18.75" customHeight="1" s="24"/>
-    <row r="888" ht="18.75" customHeight="1" s="24"/>
-    <row r="889" ht="18.75" customHeight="1" s="24"/>
-    <row r="890" ht="18.75" customHeight="1" s="24"/>
-    <row r="891" ht="18.75" customHeight="1" s="24"/>
-    <row r="892" ht="18.75" customHeight="1" s="24"/>
-    <row r="893" ht="18.75" customHeight="1" s="24"/>
-    <row r="894" ht="18.75" customHeight="1" s="24"/>
-    <row r="895" ht="18.75" customHeight="1" s="24"/>
-    <row r="896" ht="18.75" customHeight="1" s="24"/>
-    <row r="897" ht="18.75" customHeight="1" s="24"/>
-    <row r="898" ht="18.75" customHeight="1" s="24"/>
-    <row r="899" ht="18.75" customHeight="1" s="24"/>
-    <row r="900" ht="18.75" customHeight="1" s="24"/>
-    <row r="901" ht="18.75" customHeight="1" s="24"/>
-    <row r="902" ht="18.75" customHeight="1" s="24"/>
-    <row r="903" ht="18.75" customHeight="1" s="24"/>
-    <row r="904" ht="18.75" customHeight="1" s="24"/>
-    <row r="905" ht="18.75" customHeight="1" s="24"/>
-    <row r="906" ht="18.75" customHeight="1" s="24"/>
-    <row r="907" ht="18.75" customHeight="1" s="24"/>
-    <row r="908" ht="18.75" customHeight="1" s="24"/>
-    <row r="909" ht="18.75" customHeight="1" s="24"/>
-    <row r="910" ht="18.75" customHeight="1" s="24"/>
-    <row r="911" ht="18.75" customHeight="1" s="24"/>
-    <row r="912" ht="18.75" customHeight="1" s="24"/>
-    <row r="913" ht="18.75" customHeight="1" s="24"/>
-    <row r="914" ht="18.75" customHeight="1" s="24"/>
-    <row r="915" ht="18.75" customHeight="1" s="24"/>
-    <row r="916" ht="18.75" customHeight="1" s="24"/>
-    <row r="917" ht="18.75" customHeight="1" s="24"/>
-    <row r="918" ht="18.75" customHeight="1" s="24"/>
-    <row r="919" ht="18.75" customHeight="1" s="24"/>
-    <row r="920" ht="18.75" customHeight="1" s="24"/>
-    <row r="921" ht="18.75" customHeight="1" s="24"/>
-    <row r="922" ht="18.75" customHeight="1" s="24"/>
-    <row r="923" ht="18.75" customHeight="1" s="24"/>
-    <row r="924" ht="18.75" customHeight="1" s="24"/>
-    <row r="925" ht="18.75" customHeight="1" s="24"/>
-    <row r="926" ht="18.75" customHeight="1" s="24"/>
-    <row r="927" ht="18.75" customHeight="1" s="24"/>
-    <row r="928" ht="18.75" customHeight="1" s="24"/>
-    <row r="929" ht="18.75" customHeight="1" s="24"/>
-    <row r="930" ht="18.75" customHeight="1" s="24"/>
-    <row r="931" ht="18.75" customHeight="1" s="24"/>
-    <row r="932" ht="18.75" customHeight="1" s="24"/>
-    <row r="933" ht="18.75" customHeight="1" s="24"/>
-    <row r="934" ht="18.75" customHeight="1" s="24"/>
-    <row r="935" ht="18.75" customHeight="1" s="24"/>
-    <row r="936" ht="18.75" customHeight="1" s="24"/>
-    <row r="937" ht="18.75" customHeight="1" s="24"/>
-    <row r="938" ht="18.75" customHeight="1" s="24"/>
-    <row r="939" ht="18.75" customHeight="1" s="24"/>
-    <row r="940" ht="18.75" customHeight="1" s="24"/>
-    <row r="941" ht="18.75" customHeight="1" s="24"/>
-    <row r="942" ht="18.75" customHeight="1" s="24"/>
-    <row r="943" ht="18.75" customHeight="1" s="24"/>
-    <row r="944" ht="18.75" customHeight="1" s="24"/>
-    <row r="945" ht="18.75" customHeight="1" s="24"/>
-    <row r="946" ht="18.75" customHeight="1" s="24"/>
-    <row r="947" ht="18.75" customHeight="1" s="24"/>
-    <row r="948" ht="18.75" customHeight="1" s="24"/>
-    <row r="949" ht="18.75" customHeight="1" s="24"/>
-    <row r="950" ht="18.75" customHeight="1" s="24"/>
-    <row r="951" ht="18.75" customHeight="1" s="24"/>
-    <row r="952" ht="18.75" customHeight="1" s="24"/>
-    <row r="953" ht="18.75" customHeight="1" s="24"/>
-    <row r="954" ht="18.75" customHeight="1" s="24"/>
-    <row r="955" ht="18.75" customHeight="1" s="24"/>
-    <row r="956" ht="18.75" customHeight="1" s="24"/>
-    <row r="957" ht="18.75" customHeight="1" s="24"/>
-    <row r="958" ht="18.75" customHeight="1" s="24"/>
-    <row r="959" ht="18.75" customHeight="1" s="24"/>
-    <row r="960" ht="18.75" customHeight="1" s="24"/>
-    <row r="961" ht="18.75" customHeight="1" s="24"/>
-    <row r="962" ht="18.75" customHeight="1" s="24"/>
-    <row r="963" ht="18.75" customHeight="1" s="24"/>
-    <row r="964" ht="18.75" customHeight="1" s="24"/>
-    <row r="965" ht="18.75" customHeight="1" s="24"/>
-    <row r="966" ht="18.75" customHeight="1" s="24"/>
-    <row r="967" ht="18.75" customHeight="1" s="24"/>
-    <row r="968" ht="18.75" customHeight="1" s="24"/>
-    <row r="969" ht="18.75" customHeight="1" s="24"/>
-    <row r="970" ht="18.75" customHeight="1" s="24"/>
-    <row r="971" ht="18.75" customHeight="1" s="24"/>
-    <row r="972" ht="18.75" customHeight="1" s="24"/>
-    <row r="973" ht="18.75" customHeight="1" s="24"/>
-    <row r="974" ht="18.75" customHeight="1" s="24"/>
-    <row r="975" ht="18.75" customHeight="1" s="24"/>
-    <row r="976" ht="18.75" customHeight="1" s="24"/>
-    <row r="977" ht="18.75" customHeight="1" s="24"/>
-    <row r="978" ht="18.75" customHeight="1" s="24"/>
-    <row r="979" ht="18.75" customHeight="1" s="24"/>
-    <row r="980" ht="18.75" customHeight="1" s="24"/>
-    <row r="981" ht="18.75" customHeight="1" s="24"/>
-    <row r="982" ht="18.75" customHeight="1" s="24"/>
-    <row r="983" ht="18.75" customHeight="1" s="24"/>
-    <row r="984" ht="18.75" customHeight="1" s="24"/>
-    <row r="985" ht="18.75" customHeight="1" s="24"/>
-    <row r="986" ht="18.75" customHeight="1" s="24"/>
-    <row r="987" ht="18.75" customHeight="1" s="24"/>
-    <row r="988" ht="18.75" customHeight="1" s="24"/>
-    <row r="989" ht="18.75" customHeight="1" s="24"/>
-    <row r="990" ht="18.75" customHeight="1" s="24"/>
-    <row r="991" ht="18.75" customHeight="1" s="24"/>
-    <row r="992" ht="18.75" customHeight="1" s="24"/>
-    <row r="993" ht="18.75" customHeight="1" s="24"/>
-    <row r="994" ht="18.75" customHeight="1" s="24"/>
-    <row r="995" ht="18.75" customHeight="1" s="24"/>
-    <row r="996" ht="18.75" customHeight="1" s="24"/>
-    <row r="997" ht="18.75" customHeight="1" s="24"/>
-    <row r="998" ht="18.75" customHeight="1" s="24"/>
-    <row r="999" ht="18.75" customHeight="1" s="24"/>
-    <row r="1000" ht="18.75" customHeight="1" s="24"/>
-    <row r="1001" ht="18.75" customHeight="1" s="24"/>
-    <row r="1002" ht="18.75" customHeight="1" s="24"/>
-    <row r="1003" ht="18.75" customHeight="1" s="24"/>
-    <row r="1004" ht="18.75" customHeight="1" s="24"/>
-    <row r="1005" ht="18.75" customHeight="1" s="24"/>
-    <row r="1006" ht="18.75" customHeight="1" s="24"/>
-    <row r="1007" ht="18.75" customHeight="1" s="24"/>
-    <row r="1008" ht="18.75" customHeight="1" s="24"/>
-    <row r="1009" ht="18.75" customHeight="1" s="24"/>
-    <row r="1010" ht="18.75" customHeight="1" s="24"/>
-    <row r="1011" ht="18.75" customHeight="1" s="24"/>
-    <row r="1012" ht="18.75" customHeight="1" s="24"/>
-    <row r="1013" ht="18.75" customHeight="1" s="24"/>
-    <row r="1014" ht="18.75" customHeight="1" s="24"/>
-    <row r="1015" ht="18.75" customHeight="1" s="24"/>
-    <row r="1016" ht="18.75" customHeight="1" s="24"/>
-    <row r="1017" ht="18.75" customHeight="1" s="24"/>
-    <row r="1018" ht="18.75" customHeight="1" s="24"/>
-    <row r="1019" ht="18.75" customHeight="1" s="24"/>
-    <row r="1020" ht="18.75" customHeight="1" s="24"/>
-    <row r="1021" ht="18.75" customHeight="1" s="24"/>
-  </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A44:A52"/>
-    <mergeCell ref="A8:A16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A26:A34"/>
-    <mergeCell ref="A17:A25"/>
-    <mergeCell ref="A35:A43"/>
-    <mergeCell ref="A5:G5"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="B8:B16"/>
-    <mergeCell ref="F8:F16"/>
-    <mergeCell ref="B17:B25"/>
-    <mergeCell ref="D17:D25"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="F26:F34"/>
-    <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
-    <mergeCell ref="B44:B52"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1" verticalCentered="1"/>
-  <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
-  <pageSetup orientation="landscape" paperSize="9"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <tabColor rgb="FF00B050"/>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Z52"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="26.375" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col width="4.75" customWidth="1" style="24" min="1" max="1"/>
-    <col width="30.625" customWidth="1" style="24" min="2" max="8"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="18.75" customHeight="1" s="24">
-      <c r="A1" s="23" t="inlineStr">
-        <is>
-          <t>UNIVERSITE ABDELHAMID IBN BADIS</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="n"/>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" s="24">
-      <c r="A2" s="25" t="inlineStr">
-        <is>
-          <t>FACULTE DES SCIENCES EXACTES ET DE L'INFORMATIQUE</t>
-        </is>
-      </c>
-      <c r="H2" s="3" t="n"/>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" s="24">
-      <c r="A3" s="26" t="inlineStr">
-        <is>
-          <t>Département de Mathématiques et Informatique</t>
-        </is>
-      </c>
-      <c r="H3" s="4" t="n"/>
-    </row>
-    <row r="4" ht="18.75" customHeight="1" s="24">
-      <c r="A4" s="5" t="n"/>
-      <c r="B4" s="6" t="n"/>
-      <c r="C4" s="6" t="n"/>
-      <c r="D4" s="6" t="n"/>
-      <c r="E4" s="6" t="n"/>
-      <c r="F4" s="6" t="n"/>
-      <c r="G4" s="6" t="n"/>
-      <c r="H4" s="4" t="n"/>
-    </row>
-    <row r="5" ht="18.75" customHeight="1" s="24">
-      <c r="A5" s="23" t="inlineStr">
-        <is>
-          <t>Emploi du M1-MCO</t>
-        </is>
-      </c>
-      <c r="H5" s="7" t="n"/>
-    </row>
-    <row r="6" ht="27" customHeight="1" s="24">
-      <c r="A6" s="8" t="n"/>
-      <c r="B6" s="23" t="n"/>
-      <c r="C6" s="23" t="n"/>
-      <c r="D6" s="23" t="n"/>
-      <c r="E6" s="23" t="n"/>
-      <c r="F6" s="23" t="n"/>
-      <c r="G6" s="23" t="n"/>
-      <c r="H6" s="7" t="n"/>
-    </row>
-    <row r="7" ht="18.75" customHeight="1" s="24">
-      <c r="A7" s="9" t="n"/>
-      <c r="B7" s="12" t="inlineStr">
-        <is>
-          <t>8h 30 - 09h 30</t>
-        </is>
-      </c>
-      <c r="C7" s="12" t="inlineStr">
-        <is>
-          <t>9h  30 - 10h 30</t>
-        </is>
-      </c>
-      <c r="D7" s="12" t="inlineStr">
-        <is>
-          <t>10h 30 - 11h 30</t>
-        </is>
-      </c>
-      <c r="E7" s="12" t="inlineStr">
-        <is>
-          <t>11h 30 - 12h 30</t>
-        </is>
-      </c>
-      <c r="F7" s="12" t="inlineStr">
-        <is>
-          <t>12h 30 - 13h 30</t>
-        </is>
-      </c>
-      <c r="G7" s="13" t="inlineStr">
-        <is>
-          <t>13h30-14h30</t>
-        </is>
-      </c>
-      <c r="H7" s="11" t="inlineStr">
-        <is>
-          <t>14h30-15h30</t>
-        </is>
-      </c>
-    </row>
-    <row r="8" ht="21.75" customHeight="1" s="24">
-      <c r="A8" s="28" t="inlineStr">
-        <is>
-          <t>Dimanche</t>
-        </is>
-      </c>
-      <c r="B8" s="29" t="inlineStr">
-        <is>
-          <t>Mod2, COUR/ section 1, S7, Mlle Bouzid Leila</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>OAF 2, COUR/ section 1, S6, Mr S. M. Bahri</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>Mod2, TD/ G1, B1, Mlle Bouzid Leila</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>OAF 2, TD/ G1, B4, Mr S. M. Bahri</t>
-        </is>
-      </c>
-      <c r="G8" s="17" t="inlineStr">
-        <is>
-          <t>TCONTROL, TD/ G1, B3, Mr. BOUAGADA</t>
-        </is>
-      </c>
-      <c r="H8" s="17" t="n"/>
-    </row>
-    <row r="9" ht="21.75" customHeight="1" s="24">
-      <c r="A9" s="30" t="n"/>
-      <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="n"/>
-      <c r="G9" s="27" t="n"/>
-      <c r="H9" s="27" t="n"/>
-    </row>
-    <row r="10" ht="21.75" customHeight="1" s="24">
-      <c r="A10" s="30" t="n"/>
-      <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="n"/>
-      <c r="G10" s="27" t="n"/>
-      <c r="H10" s="27" t="n"/>
-    </row>
-    <row r="11" ht="21.75" customHeight="1" s="24">
-      <c r="A11" s="30" t="n"/>
-      <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="n"/>
-      <c r="G11" s="27" t="n"/>
-      <c r="H11" s="27" t="n"/>
-    </row>
-    <row r="12" ht="21.75" customHeight="1" s="24">
-      <c r="A12" s="30" t="n"/>
-      <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
-      <c r="F12" s="27" t="n"/>
-      <c r="G12" s="27" t="n"/>
-      <c r="H12" s="27" t="n"/>
-    </row>
-    <row r="13" ht="21.75" customHeight="1" s="24">
-      <c r="A13" s="30" t="n"/>
-      <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
-      <c r="F13" s="27" t="n"/>
-      <c r="G13" s="27" t="n"/>
-      <c r="H13" s="27" t="n"/>
-    </row>
-    <row r="14" ht="21.75" customHeight="1" s="24">
-      <c r="A14" s="30" t="n"/>
-      <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
-      <c r="F14" s="27" t="n"/>
-      <c r="G14" s="27" t="n"/>
-      <c r="H14" s="27" t="n"/>
-    </row>
-    <row r="15" ht="21.75" customHeight="1" s="24">
-      <c r="A15" s="30" t="n"/>
-      <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
-      <c r="F15" s="27" t="n"/>
-      <c r="G15" s="27" t="n"/>
-      <c r="H15" s="27" t="n"/>
-    </row>
-    <row r="16" ht="21.75" customHeight="1" s="24">
-      <c r="A16" s="32" t="n"/>
-      <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
-      <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
-      <c r="F16" s="16" t="n"/>
-      <c r="G16" s="16" t="n"/>
-      <c r="H16" s="16" t="n"/>
-    </row>
-    <row r="17" ht="21.75" customHeight="1" s="24">
-      <c r="A17" s="28" t="inlineStr">
-        <is>
-          <t>Lundi</t>
-        </is>
-      </c>
-      <c r="B17" s="29" t="inlineStr">
-        <is>
-          <t>OAF 2, COUR/ section 1, S10, Mr S. M. Bahri</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>TCONTROL, COUR/ section 1, S6, Mr. BOUAGADA</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>CFRAC, TD/ G1, C1, M. Zoubir DAHMANI</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>TG, TD/ G1, S13, Mr Ablaoui H.</t>
-        </is>
-      </c>
-      <c r="G17" s="17" t="inlineStr">
-        <is>
-          <t>PROGQUAD, TD/ G1, S14, M. AMIR A.</t>
-        </is>
-      </c>
-      <c r="H17" s="17" t="n"/>
-    </row>
-    <row r="18" ht="21.75" customHeight="1" s="24">
-      <c r="A18" s="30" t="n"/>
-      <c r="B18" s="31" t="n"/>
-      <c r="C18" s="31" t="n"/>
-      <c r="D18" s="27" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="n"/>
-      <c r="G18" s="27" t="n"/>
-      <c r="H18" s="27" t="n"/>
-    </row>
-    <row r="19" ht="21.75" customHeight="1" s="24">
-      <c r="A19" s="30" t="n"/>
-      <c r="B19" s="31" t="n"/>
-      <c r="C19" s="31" t="n"/>
-      <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
-      <c r="F19" s="27" t="n"/>
-      <c r="G19" s="27" t="n"/>
-      <c r="H19" s="27" t="n"/>
-    </row>
-    <row r="20" ht="21.75" customHeight="1" s="24">
-      <c r="A20" s="30" t="n"/>
-      <c r="B20" s="31" t="n"/>
-      <c r="C20" s="31" t="n"/>
-      <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
-      <c r="F20" s="27" t="n"/>
-      <c r="G20" s="27" t="n"/>
-      <c r="H20" s="27" t="n"/>
-    </row>
-    <row r="21" ht="21.75" customHeight="1" s="24">
-      <c r="A21" s="30" t="n"/>
-      <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
-      <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
-      <c r="F21" s="27" t="n"/>
-      <c r="G21" s="27" t="n"/>
-      <c r="H21" s="27" t="n"/>
-    </row>
-    <row r="22" ht="21.75" customHeight="1" s="24">
-      <c r="A22" s="30" t="n"/>
-      <c r="B22" s="31" t="n"/>
-      <c r="C22" s="31" t="n"/>
-      <c r="D22" s="27" t="n"/>
-      <c r="E22" s="27" t="n"/>
-      <c r="F22" s="27" t="n"/>
-      <c r="G22" s="27" t="n"/>
-      <c r="H22" s="27" t="n"/>
-    </row>
-    <row r="23" ht="21.75" customHeight="1" s="24">
-      <c r="A23" s="30" t="n"/>
-      <c r="B23" s="31" t="n"/>
-      <c r="C23" s="31" t="n"/>
-      <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
-      <c r="F23" s="27" t="n"/>
-      <c r="G23" s="27" t="n"/>
-      <c r="H23" s="27" t="n"/>
-    </row>
-    <row r="24" ht="21.75" customHeight="1" s="24">
-      <c r="A24" s="30" t="n"/>
-      <c r="B24" s="31" t="n"/>
-      <c r="C24" s="31" t="n"/>
-      <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
-      <c r="F24" s="27" t="n"/>
-      <c r="G24" s="27" t="n"/>
-      <c r="H24" s="27" t="n"/>
-    </row>
-    <row r="25" ht="21.75" customHeight="1" s="24">
-      <c r="A25" s="32" t="n"/>
-      <c r="B25" s="33" t="n"/>
-      <c r="C25" s="33" t="n"/>
-      <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
-      <c r="F25" s="16" t="n"/>
-      <c r="G25" s="16" t="n"/>
-      <c r="H25" s="16" t="n"/>
-    </row>
-    <row r="26" ht="21.75" customHeight="1" s="24">
-      <c r="A26" s="28" t="inlineStr">
-        <is>
-          <t>Mardi</t>
-        </is>
-      </c>
-      <c r="B26" s="29" t="inlineStr">
-        <is>
-          <t>CFRAC, COUR/ section 1, S7, M. Zoubir DAHMANI</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>TG, COUR/ section 1, S10, Mr Ablaoui H.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>TG, TP/ G1, A1, Mr Ablaoui H.</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>PROGQUAD, TP/ G1, A2, M. AMIR A.</t>
-        </is>
-      </c>
-      <c r="G26" s="17" t="n"/>
-      <c r="H26" s="17" t="n"/>
-    </row>
-    <row r="27" ht="21.75" customHeight="1" s="24">
-      <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
-      <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
-      <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="n"/>
-      <c r="G27" s="27" t="n"/>
-      <c r="H27" s="27" t="n"/>
-    </row>
-    <row r="28" ht="21.75" customHeight="1" s="24">
-      <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
-      <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
-      <c r="F28" s="27" t="n"/>
-      <c r="G28" s="27" t="n"/>
-      <c r="H28" s="27" t="n"/>
-    </row>
-    <row r="29" ht="21.75" customHeight="1" s="24">
-      <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
-      <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
-      <c r="F29" s="27" t="n"/>
-      <c r="G29" s="27" t="n"/>
-      <c r="H29" s="27" t="n"/>
-    </row>
-    <row r="30" ht="21.75" customHeight="1" s="24">
-      <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
-      <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
-      <c r="E30" s="27" t="n"/>
-      <c r="F30" s="27" t="n"/>
-      <c r="G30" s="27" t="n"/>
-      <c r="H30" s="27" t="n"/>
-    </row>
-    <row r="31" ht="21.75" customHeight="1" s="24">
-      <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="n"/>
-      <c r="E31" s="27" t="n"/>
-      <c r="F31" s="27" t="n"/>
-      <c r="G31" s="27" t="n"/>
-      <c r="H31" s="27" t="n"/>
-    </row>
-    <row r="32" ht="21.75" customHeight="1" s="24">
-      <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="n"/>
-      <c r="E32" s="27" t="n"/>
-      <c r="F32" s="27" t="n"/>
-      <c r="G32" s="27" t="n"/>
-      <c r="H32" s="27" t="n"/>
-    </row>
-    <row r="33" ht="21.75" customHeight="1" s="24">
-      <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
-      <c r="D33" s="27" t="n"/>
-      <c r="E33" s="27" t="n"/>
-      <c r="F33" s="27" t="n"/>
-      <c r="G33" s="27" t="n"/>
-      <c r="H33" s="27" t="n"/>
-    </row>
-    <row r="34" ht="21.75" customHeight="1" s="24">
-      <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
-      <c r="C34" s="33" t="n"/>
-      <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n"/>
-      <c r="F34" s="16" t="n"/>
-      <c r="G34" s="16" t="n"/>
-      <c r="H34" s="16" t="n"/>
-    </row>
-    <row r="35" ht="21.75" customHeight="1" s="24">
-      <c r="A35" s="28" t="inlineStr">
-        <is>
-          <t>Mercredi</t>
-        </is>
-      </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>PROGQUAD, COUR/ section 1, S10, M. AMIR A.</t>
-        </is>
-      </c>
-      <c r="C35" s="29" t="inlineStr">
-        <is>
-          <t>Latex, COUR/ section 1, S10, Mme Bouabdelli</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="n"/>
-      <c r="F35" s="17" t="n"/>
-      <c r="G35" s="17" t="n"/>
-      <c r="H35" s="17" t="n"/>
-    </row>
-    <row r="36" ht="21.75" customHeight="1" s="24">
-      <c r="A36" s="30" t="n"/>
-      <c r="B36" s="31" t="n"/>
-      <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
-      <c r="G36" s="27" t="n"/>
-      <c r="H36" s="27" t="n"/>
-    </row>
-    <row r="37" ht="21.75" customHeight="1" s="24">
-      <c r="A37" s="30" t="n"/>
-      <c r="B37" s="31" t="n"/>
-      <c r="C37" s="31" t="n"/>
-      <c r="D37" s="27" t="n"/>
-      <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
-      <c r="G37" s="27" t="n"/>
-      <c r="H37" s="27" t="n"/>
-    </row>
-    <row r="38" ht="21.75" customHeight="1" s="24">
-      <c r="A38" s="30" t="n"/>
-      <c r="B38" s="31" t="n"/>
-      <c r="C38" s="31" t="n"/>
-      <c r="D38" s="27" t="n"/>
-      <c r="E38" s="27" t="n"/>
-      <c r="F38" s="27" t="n"/>
-      <c r="G38" s="27" t="n"/>
-      <c r="H38" s="27" t="n"/>
-    </row>
-    <row r="39" ht="21.75" customHeight="1" s="24">
-      <c r="A39" s="30" t="n"/>
-      <c r="B39" s="31" t="n"/>
-      <c r="C39" s="31" t="n"/>
-      <c r="D39" s="27" t="n"/>
-      <c r="E39" s="27" t="n"/>
-      <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="n"/>
-      <c r="H39" s="27" t="n"/>
-    </row>
-    <row r="40" ht="21.75" customHeight="1" s="24">
-      <c r="A40" s="30" t="n"/>
-      <c r="B40" s="31" t="n"/>
-      <c r="C40" s="31" t="n"/>
-      <c r="D40" s="27" t="n"/>
-      <c r="E40" s="27" t="n"/>
-      <c r="F40" s="27" t="n"/>
-      <c r="G40" s="27" t="n"/>
-      <c r="H40" s="27" t="n"/>
-    </row>
-    <row r="41" ht="21.75" customHeight="1" s="24">
-      <c r="A41" s="30" t="n"/>
-      <c r="B41" s="31" t="n"/>
-      <c r="C41" s="31" t="n"/>
-      <c r="D41" s="27" t="n"/>
-      <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
-      <c r="G41" s="27" t="n"/>
-      <c r="H41" s="27" t="n"/>
-    </row>
-    <row r="42" ht="21.75" customHeight="1" s="24">
-      <c r="A42" s="30" t="n"/>
-      <c r="B42" s="31" t="n"/>
-      <c r="C42" s="31" t="n"/>
-      <c r="D42" s="27" t="n"/>
-      <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n"/>
-      <c r="G42" s="27" t="n"/>
-      <c r="H42" s="27" t="n"/>
-    </row>
-    <row r="43" ht="21.75" customHeight="1" s="24">
-      <c r="A43" s="32" t="n"/>
-      <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="16" t="n"/>
-      <c r="E43" s="16" t="n"/>
-      <c r="F43" s="16" t="n"/>
-      <c r="G43" s="16" t="n"/>
-      <c r="H43" s="16" t="n"/>
-    </row>
-    <row r="44" ht="21.75" customHeight="1" s="24">
-      <c r="A44" s="28" t="inlineStr">
-        <is>
-          <t>Jeudi</t>
-        </is>
-      </c>
-      <c r="B44" s="29" t="inlineStr">
-        <is>
-          <t>Anglais, COUR/ section 1, S8, M. Dahmani Z.</t>
-        </is>
-      </c>
-      <c r="C44" s="17" t="n"/>
-      <c r="D44" s="17" t="n"/>
+          <t>PHY2, COUR/ section 1, Amphi1, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="C44" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G4, B1, Mekemmeche</t>
+        </is>
+      </c>
+      <c r="D44" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G5, B1, Mekemmeche</t>
+        </is>
+      </c>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -4069,6 +2426,1649 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <tabColor rgb="FF00B050"/>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Z52"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="26.375" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col width="4.75" customWidth="1" style="24" min="1" max="1"/>
+    <col width="30.625" customWidth="1" style="24" min="2" max="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" ht="18.75" customHeight="1" s="24">
+      <c r="A1" s="23" t="inlineStr">
+        <is>
+          <t>UNIVERSITE ABDELHAMID IBN BADIS</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="n"/>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" s="24">
+      <c r="A2" s="25" t="inlineStr">
+        <is>
+          <t>FACULTE DES SCIENCES EXACTES ET DE L'INFORMATIQUE</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="n"/>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" s="24">
+      <c r="A3" s="26" t="inlineStr">
+        <is>
+          <t>Département de Mathématiques et Informatique</t>
+        </is>
+      </c>
+      <c r="H3" s="4" t="n"/>
+    </row>
+    <row r="4" ht="18.75" customHeight="1" s="24">
+      <c r="A4" s="5" t="n"/>
+      <c r="B4" s="6" t="n"/>
+      <c r="C4" s="6" t="n"/>
+      <c r="D4" s="6" t="n"/>
+      <c r="E4" s="6" t="n"/>
+      <c r="F4" s="6" t="n"/>
+      <c r="G4" s="6" t="n"/>
+      <c r="H4" s="4" t="n"/>
+    </row>
+    <row r="5" ht="18.75" customHeight="1" s="24">
+      <c r="A5" s="23" t="inlineStr">
+        <is>
+          <t>Emploi du M1-MCO</t>
+        </is>
+      </c>
+      <c r="H5" s="7" t="n"/>
+    </row>
+    <row r="6" ht="27" customHeight="1" s="24">
+      <c r="A6" s="8" t="n"/>
+      <c r="B6" s="23" t="n"/>
+      <c r="C6" s="23" t="n"/>
+      <c r="D6" s="23" t="n"/>
+      <c r="E6" s="23" t="n"/>
+      <c r="F6" s="23" t="n"/>
+      <c r="G6" s="23" t="n"/>
+      <c r="H6" s="7" t="n"/>
+    </row>
+    <row r="7" ht="18.75" customHeight="1" s="24">
+      <c r="A7" s="9" t="n"/>
+      <c r="B7" s="12" t="inlineStr">
+        <is>
+          <t>8h 30 - 09h 30</t>
+        </is>
+      </c>
+      <c r="C7" s="12" t="inlineStr">
+        <is>
+          <t>9h  30 - 10h 30</t>
+        </is>
+      </c>
+      <c r="D7" s="12" t="inlineStr">
+        <is>
+          <t>10h 30 - 11h 30</t>
+        </is>
+      </c>
+      <c r="E7" s="12" t="inlineStr">
+        <is>
+          <t>11h 30 - 12h 30</t>
+        </is>
+      </c>
+      <c r="F7" s="12" t="inlineStr">
+        <is>
+          <t>12h 30 - 13h 30</t>
+        </is>
+      </c>
+      <c r="G7" s="13" t="inlineStr">
+        <is>
+          <t>13h30-14h30</t>
+        </is>
+      </c>
+      <c r="H7" s="11" t="inlineStr">
+        <is>
+          <t>14h30-15h30</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="21.75" customHeight="1" s="24">
+      <c r="A8" s="28" t="inlineStr">
+        <is>
+          <t>Dimanche</t>
+        </is>
+      </c>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>Mod2, COUR/ section 1, C1, Mlle Bouzid Leila</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>OAF 2, COUR/ section 1, S14, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>Mod2, TD/ G1, S3, Mlle Bouzid Leila</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>OAF 2, TD/ G1, S10, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="G8" s="17" t="inlineStr">
+        <is>
+          <t>TCONTROL, TD/ G1, S2, Mr. BOUAGADA</t>
+        </is>
+      </c>
+      <c r="H8" s="17" t="n"/>
+    </row>
+    <row r="9" ht="21.75" customHeight="1" s="24">
+      <c r="A9" s="30" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="n"/>
+      <c r="G9" s="27" t="n"/>
+      <c r="H9" s="27" t="n"/>
+    </row>
+    <row r="10" ht="21.75" customHeight="1" s="24">
+      <c r="A10" s="30" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
+      <c r="F10" s="27" t="n"/>
+      <c r="G10" s="27" t="n"/>
+      <c r="H10" s="27" t="n"/>
+    </row>
+    <row r="11" ht="21.75" customHeight="1" s="24">
+      <c r="A11" s="30" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
+      <c r="F11" s="27" t="n"/>
+      <c r="G11" s="27" t="n"/>
+      <c r="H11" s="27" t="n"/>
+    </row>
+    <row r="12" ht="21.75" customHeight="1" s="24">
+      <c r="A12" s="30" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="31" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
+      <c r="F12" s="27" t="n"/>
+      <c r="G12" s="27" t="n"/>
+      <c r="H12" s="27" t="n"/>
+    </row>
+    <row r="13" ht="21.75" customHeight="1" s="24">
+      <c r="A13" s="30" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="31" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
+      <c r="F13" s="27" t="n"/>
+      <c r="G13" s="27" t="n"/>
+      <c r="H13" s="27" t="n"/>
+    </row>
+    <row r="14" ht="21.75" customHeight="1" s="24">
+      <c r="A14" s="30" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="27" t="n"/>
+      <c r="F14" s="27" t="n"/>
+      <c r="G14" s="27" t="n"/>
+      <c r="H14" s="27" t="n"/>
+    </row>
+    <row r="15" ht="21.75" customHeight="1" s="24">
+      <c r="A15" s="30" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
+      <c r="F15" s="27" t="n"/>
+      <c r="G15" s="27" t="n"/>
+      <c r="H15" s="27" t="n"/>
+    </row>
+    <row r="16" ht="21.75" customHeight="1" s="24">
+      <c r="A16" s="32" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
+      <c r="F16" s="16" t="n"/>
+      <c r="G16" s="16" t="n"/>
+      <c r="H16" s="16" t="n"/>
+    </row>
+    <row r="17" ht="21.75" customHeight="1" s="24">
+      <c r="A17" s="28" t="inlineStr">
+        <is>
+          <t>Lundi</t>
+        </is>
+      </c>
+      <c r="B17" s="29" t="inlineStr">
+        <is>
+          <t>OAF 2, COUR/ section 1, B3, Mr S. M. Bahri</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>TCONTROL, COUR/ section 1, S12, Mr. BOUAGADA</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>CFRAC, TD/ G1, S2, M. Zoubir DAHMANI</t>
+        </is>
+      </c>
+      <c r="E17" s="17" t="n"/>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>TG, TD/ G1, S5, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>PROGQUAD, TD/ G1, S11, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="H17" s="17" t="n"/>
+    </row>
+    <row r="18" ht="21.75" customHeight="1" s="24">
+      <c r="A18" s="30" t="n"/>
+      <c r="B18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="n"/>
+      <c r="E18" s="27" t="n"/>
+      <c r="F18" s="27" t="n"/>
+      <c r="G18" s="27" t="n"/>
+      <c r="H18" s="27" t="n"/>
+    </row>
+    <row r="19" ht="21.75" customHeight="1" s="24">
+      <c r="A19" s="30" t="n"/>
+      <c r="B19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="n"/>
+      <c r="E19" s="27" t="n"/>
+      <c r="F19" s="27" t="n"/>
+      <c r="G19" s="27" t="n"/>
+      <c r="H19" s="27" t="n"/>
+    </row>
+    <row r="20" ht="21.75" customHeight="1" s="24">
+      <c r="A20" s="30" t="n"/>
+      <c r="B20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="n"/>
+      <c r="E20" s="27" t="n"/>
+      <c r="F20" s="27" t="n"/>
+      <c r="G20" s="27" t="n"/>
+      <c r="H20" s="27" t="n"/>
+    </row>
+    <row r="21" ht="21.75" customHeight="1" s="24">
+      <c r="A21" s="30" t="n"/>
+      <c r="B21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
+      <c r="E21" s="27" t="n"/>
+      <c r="F21" s="27" t="n"/>
+      <c r="G21" s="27" t="n"/>
+      <c r="H21" s="27" t="n"/>
+    </row>
+    <row r="22" ht="21.75" customHeight="1" s="24">
+      <c r="A22" s="30" t="n"/>
+      <c r="B22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
+      <c r="E22" s="27" t="n"/>
+      <c r="F22" s="27" t="n"/>
+      <c r="G22" s="27" t="n"/>
+      <c r="H22" s="27" t="n"/>
+    </row>
+    <row r="23" ht="21.75" customHeight="1" s="24">
+      <c r="A23" s="30" t="n"/>
+      <c r="B23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
+      <c r="E23" s="27" t="n"/>
+      <c r="F23" s="27" t="n"/>
+      <c r="G23" s="27" t="n"/>
+      <c r="H23" s="27" t="n"/>
+    </row>
+    <row r="24" ht="21.75" customHeight="1" s="24">
+      <c r="A24" s="30" t="n"/>
+      <c r="B24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
+      <c r="E24" s="27" t="n"/>
+      <c r="F24" s="27" t="n"/>
+      <c r="G24" s="27" t="n"/>
+      <c r="H24" s="27" t="n"/>
+    </row>
+    <row r="25" ht="21.75" customHeight="1" s="24">
+      <c r="A25" s="32" t="n"/>
+      <c r="B25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
+      <c r="E25" s="16" t="n"/>
+      <c r="F25" s="16" t="n"/>
+      <c r="G25" s="16" t="n"/>
+      <c r="H25" s="16" t="n"/>
+    </row>
+    <row r="26" ht="21.75" customHeight="1" s="24">
+      <c r="A26" s="28" t="inlineStr">
+        <is>
+          <t>Mardi</t>
+        </is>
+      </c>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>CFRAC, COUR/ section 1, C1, M. Zoubir DAHMANI</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>TG, COUR/ section 1, B2, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="inlineStr">
+        <is>
+          <t>TG, TP/ G1, M2, Mr Ablaoui H.</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="n"/>
+      <c r="G26" s="17" t="n"/>
+      <c r="H26" s="17" t="n"/>
+    </row>
+    <row r="27" ht="21.75" customHeight="1" s="24">
+      <c r="A27" s="30" t="n"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
+      <c r="F27" s="27" t="n"/>
+      <c r="G27" s="27" t="n"/>
+      <c r="H27" s="27" t="n"/>
+    </row>
+    <row r="28" ht="21.75" customHeight="1" s="24">
+      <c r="A28" s="30" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="31" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
+      <c r="F28" s="27" t="n"/>
+      <c r="G28" s="27" t="n"/>
+      <c r="H28" s="27" t="n"/>
+    </row>
+    <row r="29" ht="21.75" customHeight="1" s="24">
+      <c r="A29" s="30" t="n"/>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="31" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
+      <c r="F29" s="27" t="n"/>
+      <c r="G29" s="27" t="n"/>
+      <c r="H29" s="27" t="n"/>
+    </row>
+    <row r="30" ht="21.75" customHeight="1" s="24">
+      <c r="A30" s="30" t="n"/>
+      <c r="B30" s="31" t="n"/>
+      <c r="C30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
+      <c r="F30" s="27" t="n"/>
+      <c r="G30" s="27" t="n"/>
+      <c r="H30" s="27" t="n"/>
+    </row>
+    <row r="31" ht="21.75" customHeight="1" s="24">
+      <c r="A31" s="30" t="n"/>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
+      <c r="F31" s="27" t="n"/>
+      <c r="G31" s="27" t="n"/>
+      <c r="H31" s="27" t="n"/>
+    </row>
+    <row r="32" ht="21.75" customHeight="1" s="24">
+      <c r="A32" s="30" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
+      <c r="F32" s="27" t="n"/>
+      <c r="G32" s="27" t="n"/>
+      <c r="H32" s="27" t="n"/>
+    </row>
+    <row r="33" ht="21.75" customHeight="1" s="24">
+      <c r="A33" s="30" t="n"/>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
+      <c r="F33" s="27" t="n"/>
+      <c r="G33" s="27" t="n"/>
+      <c r="H33" s="27" t="n"/>
+    </row>
+    <row r="34" ht="21.75" customHeight="1" s="24">
+      <c r="A34" s="32" t="n"/>
+      <c r="B34" s="33" t="n"/>
+      <c r="C34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
+      <c r="F34" s="16" t="n"/>
+      <c r="G34" s="16" t="n"/>
+      <c r="H34" s="16" t="n"/>
+    </row>
+    <row r="35" ht="21.75" customHeight="1" s="24">
+      <c r="A35" s="28" t="inlineStr">
+        <is>
+          <t>Mercredi</t>
+        </is>
+      </c>
+      <c r="B35" s="29" t="inlineStr">
+        <is>
+          <t>PROGQUAD, COUR/ section 1, B4, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>PROGQUAD, TP/ G1, C4, M. AMIR A.</t>
+        </is>
+      </c>
+      <c r="D35" s="29" t="inlineStr">
+        <is>
+          <t>Latex, COUR/ section 1, S12, Mme Bouabdelli</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
+      <c r="G35" s="17" t="n"/>
+      <c r="H35" s="17" t="n"/>
+    </row>
+    <row r="36" ht="21.75" customHeight="1" s="24">
+      <c r="A36" s="30" t="n"/>
+      <c r="B36" s="31" t="n"/>
+      <c r="C36" s="27" t="n"/>
+      <c r="D36" s="31" t="n"/>
+      <c r="E36" s="27" t="n"/>
+      <c r="F36" s="27" t="n"/>
+      <c r="G36" s="27" t="n"/>
+      <c r="H36" s="27" t="n"/>
+    </row>
+    <row r="37" ht="21.75" customHeight="1" s="24">
+      <c r="A37" s="30" t="n"/>
+      <c r="B37" s="31" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="31" t="n"/>
+      <c r="E37" s="27" t="n"/>
+      <c r="F37" s="27" t="n"/>
+      <c r="G37" s="27" t="n"/>
+      <c r="H37" s="27" t="n"/>
+    </row>
+    <row r="38" ht="21.75" customHeight="1" s="24">
+      <c r="A38" s="30" t="n"/>
+      <c r="B38" s="31" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="31" t="n"/>
+      <c r="E38" s="27" t="n"/>
+      <c r="F38" s="27" t="n"/>
+      <c r="G38" s="27" t="n"/>
+      <c r="H38" s="27" t="n"/>
+    </row>
+    <row r="39" ht="21.75" customHeight="1" s="24">
+      <c r="A39" s="30" t="n"/>
+      <c r="B39" s="31" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="31" t="n"/>
+      <c r="E39" s="27" t="n"/>
+      <c r="F39" s="27" t="n"/>
+      <c r="G39" s="27" t="n"/>
+      <c r="H39" s="27" t="n"/>
+    </row>
+    <row r="40" ht="21.75" customHeight="1" s="24">
+      <c r="A40" s="30" t="n"/>
+      <c r="B40" s="31" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="31" t="n"/>
+      <c r="E40" s="27" t="n"/>
+      <c r="F40" s="27" t="n"/>
+      <c r="G40" s="27" t="n"/>
+      <c r="H40" s="27" t="n"/>
+    </row>
+    <row r="41" ht="21.75" customHeight="1" s="24">
+      <c r="A41" s="30" t="n"/>
+      <c r="B41" s="31" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="31" t="n"/>
+      <c r="E41" s="27" t="n"/>
+      <c r="F41" s="27" t="n"/>
+      <c r="G41" s="27" t="n"/>
+      <c r="H41" s="27" t="n"/>
+    </row>
+    <row r="42" ht="21.75" customHeight="1" s="24">
+      <c r="A42" s="30" t="n"/>
+      <c r="B42" s="31" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="31" t="n"/>
+      <c r="E42" s="27" t="n"/>
+      <c r="F42" s="27" t="n"/>
+      <c r="G42" s="27" t="n"/>
+      <c r="H42" s="27" t="n"/>
+    </row>
+    <row r="43" ht="21.75" customHeight="1" s="24">
+      <c r="A43" s="32" t="n"/>
+      <c r="B43" s="33" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="33" t="n"/>
+      <c r="E43" s="16" t="n"/>
+      <c r="F43" s="16" t="n"/>
+      <c r="G43" s="16" t="n"/>
+      <c r="H43" s="16" t="n"/>
+    </row>
+    <row r="44" ht="21.75" customHeight="1" s="24">
+      <c r="A44" s="28" t="inlineStr">
+        <is>
+          <t>Jeudi</t>
+        </is>
+      </c>
+      <c r="B44" s="29" t="inlineStr">
+        <is>
+          <t>Anglais, COUR/ section 1, B2, M. Dahmani Z.</t>
+        </is>
+      </c>
+      <c r="C44" s="17" t="n"/>
+      <c r="D44" s="17" t="n"/>
+      <c r="E44" s="17" t="n"/>
+      <c r="F44" s="17" t="n"/>
+      <c r="G44" s="17" t="n"/>
+      <c r="H44" s="17" t="n"/>
+    </row>
+    <row r="45" ht="21.75" customHeight="1" s="24">
+      <c r="A45" s="30" t="n"/>
+      <c r="B45" s="31" t="n"/>
+      <c r="C45" s="27" t="n"/>
+      <c r="D45" s="27" t="n"/>
+      <c r="E45" s="27" t="n"/>
+      <c r="F45" s="27" t="n"/>
+      <c r="G45" s="27" t="n"/>
+      <c r="H45" s="27" t="n"/>
+    </row>
+    <row r="46" ht="21.75" customHeight="1" s="24">
+      <c r="A46" s="30" t="n"/>
+      <c r="B46" s="31" t="n"/>
+      <c r="C46" s="27" t="n"/>
+      <c r="D46" s="27" t="n"/>
+      <c r="E46" s="27" t="n"/>
+      <c r="F46" s="27" t="n"/>
+      <c r="G46" s="27" t="n"/>
+      <c r="H46" s="27" t="n"/>
+    </row>
+    <row r="47" ht="21.75" customHeight="1" s="24">
+      <c r="A47" s="30" t="n"/>
+      <c r="B47" s="31" t="n"/>
+      <c r="C47" s="27" t="n"/>
+      <c r="D47" s="27" t="n"/>
+      <c r="E47" s="27" t="n"/>
+      <c r="F47" s="27" t="n"/>
+      <c r="G47" s="27" t="n"/>
+      <c r="H47" s="27" t="n"/>
+    </row>
+    <row r="48" ht="21.75" customHeight="1" s="24">
+      <c r="A48" s="30" t="n"/>
+      <c r="B48" s="31" t="n"/>
+      <c r="C48" s="27" t="n"/>
+      <c r="D48" s="27" t="n"/>
+      <c r="E48" s="27" t="n"/>
+      <c r="F48" s="27" t="n"/>
+      <c r="G48" s="27" t="n"/>
+      <c r="H48" s="27" t="n"/>
+    </row>
+    <row r="49" ht="21.75" customHeight="1" s="24">
+      <c r="A49" s="30" t="n"/>
+      <c r="B49" s="31" t="n"/>
+      <c r="C49" s="27" t="n"/>
+      <c r="D49" s="27" t="n"/>
+      <c r="E49" s="27" t="n"/>
+      <c r="F49" s="27" t="n"/>
+      <c r="G49" s="27" t="n"/>
+      <c r="H49" s="27" t="n"/>
+    </row>
+    <row r="50" ht="21.75" customHeight="1" s="24">
+      <c r="A50" s="30" t="n"/>
+      <c r="B50" s="31" t="n"/>
+      <c r="C50" s="27" t="n"/>
+      <c r="D50" s="27" t="n"/>
+      <c r="E50" s="27" t="n"/>
+      <c r="F50" s="27" t="n"/>
+      <c r="G50" s="27" t="n"/>
+      <c r="H50" s="27" t="n"/>
+    </row>
+    <row r="51" ht="21.75" customHeight="1" s="24">
+      <c r="A51" s="30" t="n"/>
+      <c r="B51" s="31" t="n"/>
+      <c r="C51" s="27" t="n"/>
+      <c r="D51" s="27" t="n"/>
+      <c r="E51" s="27" t="n"/>
+      <c r="F51" s="27" t="n"/>
+      <c r="G51" s="27" t="n"/>
+      <c r="H51" s="27" t="n"/>
+    </row>
+    <row r="52" ht="21.75" customHeight="1" s="24">
+      <c r="A52" s="32" t="n"/>
+      <c r="B52" s="33" t="n"/>
+      <c r="C52" s="16" t="n"/>
+      <c r="D52" s="16" t="n"/>
+      <c r="E52" s="16" t="n"/>
+      <c r="F52" s="16" t="n"/>
+      <c r="G52" s="16" t="n"/>
+      <c r="H52" s="16" t="n"/>
+    </row>
+    <row r="53" ht="18.75" customHeight="1" s="24"/>
+    <row r="54" ht="18.75" customHeight="1" s="24"/>
+    <row r="55" ht="18.75" customHeight="1" s="24"/>
+    <row r="56" ht="18.75" customHeight="1" s="24"/>
+    <row r="57" ht="18.75" customHeight="1" s="24"/>
+    <row r="58" ht="18.75" customHeight="1" s="24"/>
+    <row r="59" ht="18.75" customHeight="1" s="24"/>
+    <row r="60" ht="18.75" customHeight="1" s="24"/>
+    <row r="61" ht="18.75" customHeight="1" s="24"/>
+    <row r="62" ht="18.75" customHeight="1" s="24"/>
+    <row r="63" ht="18.75" customHeight="1" s="24"/>
+    <row r="64" ht="18.75" customHeight="1" s="24"/>
+    <row r="65" ht="18.75" customHeight="1" s="24"/>
+    <row r="66" ht="18.75" customHeight="1" s="24"/>
+    <row r="67" ht="18.75" customHeight="1" s="24"/>
+    <row r="68" ht="18.75" customHeight="1" s="24"/>
+    <row r="69" ht="18.75" customHeight="1" s="24"/>
+    <row r="70" ht="18.75" customHeight="1" s="24"/>
+    <row r="71" ht="18.75" customHeight="1" s="24"/>
+    <row r="72" ht="18.75" customHeight="1" s="24"/>
+    <row r="73" ht="18.75" customHeight="1" s="24"/>
+    <row r="74" ht="18.75" customHeight="1" s="24"/>
+    <row r="75" ht="18.75" customHeight="1" s="24"/>
+    <row r="76" ht="18.75" customHeight="1" s="24"/>
+    <row r="77" ht="18.75" customHeight="1" s="24"/>
+    <row r="78" ht="18.75" customHeight="1" s="24"/>
+    <row r="79" ht="18.75" customHeight="1" s="24"/>
+    <row r="80" ht="18.75" customHeight="1" s="24"/>
+    <row r="81" ht="18.75" customHeight="1" s="24"/>
+    <row r="82" ht="18.75" customHeight="1" s="24"/>
+    <row r="83" ht="18.75" customHeight="1" s="24"/>
+    <row r="84" ht="18.75" customHeight="1" s="24"/>
+    <row r="85" ht="18.75" customHeight="1" s="24"/>
+    <row r="86" ht="18.75" customHeight="1" s="24"/>
+    <row r="87" ht="18.75" customHeight="1" s="24"/>
+    <row r="88" ht="18.75" customHeight="1" s="24"/>
+    <row r="89" ht="18.75" customHeight="1" s="24"/>
+    <row r="90" ht="18.75" customHeight="1" s="24"/>
+    <row r="91" ht="18.75" customHeight="1" s="24"/>
+    <row r="92" ht="18.75" customHeight="1" s="24"/>
+    <row r="93" ht="18.75" customHeight="1" s="24"/>
+    <row r="94" ht="18.75" customHeight="1" s="24"/>
+    <row r="95" ht="18.75" customHeight="1" s="24"/>
+    <row r="96" ht="18.75" customHeight="1" s="24"/>
+    <row r="97" ht="18.75" customHeight="1" s="24"/>
+    <row r="98" ht="18.75" customHeight="1" s="24"/>
+    <row r="99" ht="18.75" customHeight="1" s="24"/>
+    <row r="100" ht="18.75" customHeight="1" s="24"/>
+    <row r="101" ht="18.75" customHeight="1" s="24"/>
+    <row r="102" ht="18.75" customHeight="1" s="24"/>
+    <row r="103" ht="18.75" customHeight="1" s="24"/>
+    <row r="104" ht="18.75" customHeight="1" s="24"/>
+    <row r="105" ht="18.75" customHeight="1" s="24"/>
+    <row r="106" ht="18.75" customHeight="1" s="24"/>
+    <row r="107" ht="18.75" customHeight="1" s="24"/>
+    <row r="108" ht="18.75" customHeight="1" s="24"/>
+    <row r="109" ht="18.75" customHeight="1" s="24"/>
+    <row r="110" ht="18.75" customHeight="1" s="24"/>
+    <row r="111" ht="18.75" customHeight="1" s="24"/>
+    <row r="112" ht="18.75" customHeight="1" s="24"/>
+    <row r="113" ht="18.75" customHeight="1" s="24"/>
+    <row r="114" ht="18.75" customHeight="1" s="24"/>
+    <row r="115" ht="18.75" customHeight="1" s="24"/>
+    <row r="116" ht="18.75" customHeight="1" s="24"/>
+    <row r="117" ht="18.75" customHeight="1" s="24"/>
+    <row r="118" ht="18.75" customHeight="1" s="24"/>
+    <row r="119" ht="18.75" customHeight="1" s="24"/>
+    <row r="120" ht="18.75" customHeight="1" s="24"/>
+    <row r="121" ht="18.75" customHeight="1" s="24"/>
+    <row r="122" ht="18.75" customHeight="1" s="24"/>
+    <row r="123" ht="18.75" customHeight="1" s="24"/>
+    <row r="124" ht="18.75" customHeight="1" s="24"/>
+    <row r="125" ht="18.75" customHeight="1" s="24"/>
+    <row r="126" ht="18.75" customHeight="1" s="24"/>
+    <row r="127" ht="18.75" customHeight="1" s="24"/>
+    <row r="128" ht="18.75" customHeight="1" s="24"/>
+    <row r="129" ht="18.75" customHeight="1" s="24"/>
+    <row r="130" ht="18.75" customHeight="1" s="24"/>
+    <row r="131" ht="18.75" customHeight="1" s="24"/>
+    <row r="132" ht="18.75" customHeight="1" s="24"/>
+    <row r="133" ht="18.75" customHeight="1" s="24"/>
+    <row r="134" ht="18.75" customHeight="1" s="24"/>
+    <row r="135" ht="18.75" customHeight="1" s="24"/>
+    <row r="136" ht="18.75" customHeight="1" s="24"/>
+    <row r="137" ht="18.75" customHeight="1" s="24"/>
+    <row r="138" ht="18.75" customHeight="1" s="24"/>
+    <row r="139" ht="18.75" customHeight="1" s="24"/>
+    <row r="140" ht="18.75" customHeight="1" s="24"/>
+    <row r="141" ht="18.75" customHeight="1" s="24"/>
+    <row r="142" ht="18.75" customHeight="1" s="24"/>
+    <row r="143" ht="18.75" customHeight="1" s="24"/>
+    <row r="144" ht="18.75" customHeight="1" s="24"/>
+    <row r="145" ht="18.75" customHeight="1" s="24"/>
+    <row r="146" ht="18.75" customHeight="1" s="24"/>
+    <row r="147" ht="18.75" customHeight="1" s="24"/>
+    <row r="148" ht="18.75" customHeight="1" s="24"/>
+    <row r="149" ht="18.75" customHeight="1" s="24"/>
+    <row r="150" ht="18.75" customHeight="1" s="24"/>
+    <row r="151" ht="18.75" customHeight="1" s="24"/>
+    <row r="152" ht="18.75" customHeight="1" s="24"/>
+    <row r="153" ht="18.75" customHeight="1" s="24"/>
+    <row r="154" ht="18.75" customHeight="1" s="24"/>
+    <row r="155" ht="18.75" customHeight="1" s="24"/>
+    <row r="156" ht="18.75" customHeight="1" s="24"/>
+    <row r="157" ht="18.75" customHeight="1" s="24"/>
+    <row r="158" ht="18.75" customHeight="1" s="24"/>
+    <row r="159" ht="18.75" customHeight="1" s="24"/>
+    <row r="160" ht="18.75" customHeight="1" s="24"/>
+    <row r="161" ht="18.75" customHeight="1" s="24"/>
+    <row r="162" ht="18.75" customHeight="1" s="24"/>
+    <row r="163" ht="18.75" customHeight="1" s="24"/>
+    <row r="164" ht="18.75" customHeight="1" s="24"/>
+    <row r="165" ht="18.75" customHeight="1" s="24"/>
+    <row r="166" ht="18.75" customHeight="1" s="24"/>
+    <row r="167" ht="18.75" customHeight="1" s="24"/>
+    <row r="168" ht="18.75" customHeight="1" s="24"/>
+    <row r="169" ht="18.75" customHeight="1" s="24"/>
+    <row r="170" ht="18.75" customHeight="1" s="24"/>
+    <row r="171" ht="18.75" customHeight="1" s="24"/>
+    <row r="172" ht="18.75" customHeight="1" s="24"/>
+    <row r="173" ht="18.75" customHeight="1" s="24"/>
+    <row r="174" ht="18.75" customHeight="1" s="24"/>
+    <row r="175" ht="18.75" customHeight="1" s="24"/>
+    <row r="176" ht="18.75" customHeight="1" s="24"/>
+    <row r="177" ht="18.75" customHeight="1" s="24"/>
+    <row r="178" ht="18.75" customHeight="1" s="24"/>
+    <row r="179" ht="18.75" customHeight="1" s="24"/>
+    <row r="180" ht="18.75" customHeight="1" s="24"/>
+    <row r="181" ht="18.75" customHeight="1" s="24"/>
+    <row r="182" ht="18.75" customHeight="1" s="24"/>
+    <row r="183" ht="18.75" customHeight="1" s="24"/>
+    <row r="184" ht="18.75" customHeight="1" s="24"/>
+    <row r="185" ht="18.75" customHeight="1" s="24"/>
+    <row r="186" ht="18.75" customHeight="1" s="24"/>
+    <row r="187" ht="18.75" customHeight="1" s="24"/>
+    <row r="188" ht="18.75" customHeight="1" s="24"/>
+    <row r="189" ht="18.75" customHeight="1" s="24"/>
+    <row r="190" ht="18.75" customHeight="1" s="24"/>
+    <row r="191" ht="18.75" customHeight="1" s="24"/>
+    <row r="192" ht="18.75" customHeight="1" s="24"/>
+    <row r="193" ht="18.75" customHeight="1" s="24"/>
+    <row r="194" ht="18.75" customHeight="1" s="24"/>
+    <row r="195" ht="18.75" customHeight="1" s="24"/>
+    <row r="196" ht="18.75" customHeight="1" s="24"/>
+    <row r="197" ht="18.75" customHeight="1" s="24"/>
+    <row r="198" ht="18.75" customHeight="1" s="24"/>
+    <row r="199" ht="18.75" customHeight="1" s="24"/>
+    <row r="200" ht="18.75" customHeight="1" s="24"/>
+    <row r="201" ht="18.75" customHeight="1" s="24"/>
+    <row r="202" ht="18.75" customHeight="1" s="24"/>
+    <row r="203" ht="18.75" customHeight="1" s="24"/>
+    <row r="204" ht="18.75" customHeight="1" s="24"/>
+    <row r="205" ht="18.75" customHeight="1" s="24"/>
+    <row r="206" ht="18.75" customHeight="1" s="24"/>
+    <row r="207" ht="18.75" customHeight="1" s="24"/>
+    <row r="208" ht="18.75" customHeight="1" s="24"/>
+    <row r="209" ht="18.75" customHeight="1" s="24"/>
+    <row r="210" ht="18.75" customHeight="1" s="24"/>
+    <row r="211" ht="18.75" customHeight="1" s="24"/>
+    <row r="212" ht="18.75" customHeight="1" s="24"/>
+    <row r="213" ht="18.75" customHeight="1" s="24"/>
+    <row r="214" ht="18.75" customHeight="1" s="24"/>
+    <row r="215" ht="18.75" customHeight="1" s="24"/>
+    <row r="216" ht="18.75" customHeight="1" s="24"/>
+    <row r="217" ht="18.75" customHeight="1" s="24"/>
+    <row r="218" ht="18.75" customHeight="1" s="24"/>
+    <row r="219" ht="18.75" customHeight="1" s="24"/>
+    <row r="220" ht="18.75" customHeight="1" s="24"/>
+    <row r="221" ht="18.75" customHeight="1" s="24"/>
+    <row r="222" ht="18.75" customHeight="1" s="24"/>
+    <row r="223" ht="18.75" customHeight="1" s="24"/>
+    <row r="224" ht="18.75" customHeight="1" s="24"/>
+    <row r="225" ht="18.75" customHeight="1" s="24"/>
+    <row r="226" ht="18.75" customHeight="1" s="24"/>
+    <row r="227" ht="18.75" customHeight="1" s="24"/>
+    <row r="228" ht="18.75" customHeight="1" s="24"/>
+    <row r="229" ht="18.75" customHeight="1" s="24"/>
+    <row r="230" ht="18.75" customHeight="1" s="24"/>
+    <row r="231" ht="18.75" customHeight="1" s="24"/>
+    <row r="232" ht="18.75" customHeight="1" s="24"/>
+    <row r="233" ht="18.75" customHeight="1" s="24"/>
+    <row r="234" ht="18.75" customHeight="1" s="24"/>
+    <row r="235" ht="18.75" customHeight="1" s="24"/>
+    <row r="236" ht="18.75" customHeight="1" s="24"/>
+    <row r="237" ht="18.75" customHeight="1" s="24"/>
+    <row r="238" ht="18.75" customHeight="1" s="24"/>
+    <row r="239" ht="18.75" customHeight="1" s="24"/>
+    <row r="240" ht="18.75" customHeight="1" s="24"/>
+    <row r="241" ht="18.75" customHeight="1" s="24"/>
+    <row r="242" ht="18.75" customHeight="1" s="24"/>
+    <row r="243" ht="18.75" customHeight="1" s="24"/>
+    <row r="244" ht="18.75" customHeight="1" s="24"/>
+    <row r="245" ht="18.75" customHeight="1" s="24"/>
+    <row r="246" ht="18.75" customHeight="1" s="24"/>
+    <row r="247" ht="18.75" customHeight="1" s="24"/>
+    <row r="248" ht="18.75" customHeight="1" s="24"/>
+    <row r="249" ht="18.75" customHeight="1" s="24"/>
+    <row r="250" ht="18.75" customHeight="1" s="24"/>
+    <row r="251" ht="18.75" customHeight="1" s="24"/>
+    <row r="252" ht="18.75" customHeight="1" s="24"/>
+    <row r="253" ht="18.75" customHeight="1" s="24"/>
+    <row r="254" ht="18.75" customHeight="1" s="24"/>
+    <row r="255" ht="18.75" customHeight="1" s="24"/>
+    <row r="256" ht="18.75" customHeight="1" s="24"/>
+    <row r="257" ht="18.75" customHeight="1" s="24"/>
+    <row r="258" ht="18.75" customHeight="1" s="24"/>
+    <row r="259" ht="18.75" customHeight="1" s="24"/>
+    <row r="260" ht="18.75" customHeight="1" s="24"/>
+    <row r="261" ht="18.75" customHeight="1" s="24"/>
+    <row r="262" ht="18.75" customHeight="1" s="24"/>
+    <row r="263" ht="18.75" customHeight="1" s="24"/>
+    <row r="264" ht="18.75" customHeight="1" s="24"/>
+    <row r="265" ht="18.75" customHeight="1" s="24"/>
+    <row r="266" ht="18.75" customHeight="1" s="24"/>
+    <row r="267" ht="18.75" customHeight="1" s="24"/>
+    <row r="268" ht="18.75" customHeight="1" s="24"/>
+    <row r="269" ht="18.75" customHeight="1" s="24"/>
+    <row r="270" ht="18.75" customHeight="1" s="24"/>
+    <row r="271" ht="18.75" customHeight="1" s="24"/>
+    <row r="272" ht="18.75" customHeight="1" s="24"/>
+    <row r="273" ht="18.75" customHeight="1" s="24"/>
+    <row r="274" ht="18.75" customHeight="1" s="24"/>
+    <row r="275" ht="18.75" customHeight="1" s="24"/>
+    <row r="276" ht="18.75" customHeight="1" s="24"/>
+    <row r="277" ht="18.75" customHeight="1" s="24"/>
+    <row r="278" ht="18.75" customHeight="1" s="24"/>
+    <row r="279" ht="18.75" customHeight="1" s="24"/>
+    <row r="280" ht="18.75" customHeight="1" s="24"/>
+    <row r="281" ht="18.75" customHeight="1" s="24"/>
+    <row r="282" ht="18.75" customHeight="1" s="24"/>
+    <row r="283" ht="18.75" customHeight="1" s="24"/>
+    <row r="284" ht="18.75" customHeight="1" s="24"/>
+    <row r="285" ht="18.75" customHeight="1" s="24"/>
+    <row r="286" ht="18.75" customHeight="1" s="24"/>
+    <row r="287" ht="18.75" customHeight="1" s="24"/>
+    <row r="288" ht="18.75" customHeight="1" s="24"/>
+    <row r="289" ht="18.75" customHeight="1" s="24"/>
+    <row r="290" ht="18.75" customHeight="1" s="24"/>
+    <row r="291" ht="18.75" customHeight="1" s="24"/>
+    <row r="292" ht="18.75" customHeight="1" s="24"/>
+    <row r="293" ht="18.75" customHeight="1" s="24"/>
+    <row r="294" ht="18.75" customHeight="1" s="24"/>
+    <row r="295" ht="18.75" customHeight="1" s="24"/>
+    <row r="296" ht="18.75" customHeight="1" s="24"/>
+    <row r="297" ht="18.75" customHeight="1" s="24"/>
+    <row r="298" ht="18.75" customHeight="1" s="24"/>
+    <row r="299" ht="18.75" customHeight="1" s="24"/>
+    <row r="300" ht="18.75" customHeight="1" s="24"/>
+    <row r="301" ht="18.75" customHeight="1" s="24"/>
+    <row r="302" ht="18.75" customHeight="1" s="24"/>
+    <row r="303" ht="18.75" customHeight="1" s="24"/>
+    <row r="304" ht="18.75" customHeight="1" s="24"/>
+    <row r="305" ht="18.75" customHeight="1" s="24"/>
+    <row r="306" ht="18.75" customHeight="1" s="24"/>
+    <row r="307" ht="18.75" customHeight="1" s="24"/>
+    <row r="308" ht="18.75" customHeight="1" s="24"/>
+    <row r="309" ht="18.75" customHeight="1" s="24"/>
+    <row r="310" ht="18.75" customHeight="1" s="24"/>
+    <row r="311" ht="18.75" customHeight="1" s="24"/>
+    <row r="312" ht="18.75" customHeight="1" s="24"/>
+    <row r="313" ht="18.75" customHeight="1" s="24"/>
+    <row r="314" ht="18.75" customHeight="1" s="24"/>
+    <row r="315" ht="18.75" customHeight="1" s="24"/>
+    <row r="316" ht="18.75" customHeight="1" s="24"/>
+    <row r="317" ht="18.75" customHeight="1" s="24"/>
+    <row r="318" ht="18.75" customHeight="1" s="24"/>
+    <row r="319" ht="18.75" customHeight="1" s="24"/>
+    <row r="320" ht="18.75" customHeight="1" s="24"/>
+    <row r="321" ht="18.75" customHeight="1" s="24"/>
+    <row r="322" ht="18.75" customHeight="1" s="24"/>
+    <row r="323" ht="18.75" customHeight="1" s="24"/>
+    <row r="324" ht="18.75" customHeight="1" s="24"/>
+    <row r="325" ht="18.75" customHeight="1" s="24"/>
+    <row r="326" ht="18.75" customHeight="1" s="24"/>
+    <row r="327" ht="18.75" customHeight="1" s="24"/>
+    <row r="328" ht="18.75" customHeight="1" s="24"/>
+    <row r="329" ht="18.75" customHeight="1" s="24"/>
+    <row r="330" ht="18.75" customHeight="1" s="24"/>
+    <row r="331" ht="18.75" customHeight="1" s="24"/>
+    <row r="332" ht="18.75" customHeight="1" s="24"/>
+    <row r="333" ht="18.75" customHeight="1" s="24"/>
+    <row r="334" ht="18.75" customHeight="1" s="24"/>
+    <row r="335" ht="18.75" customHeight="1" s="24"/>
+    <row r="336" ht="18.75" customHeight="1" s="24"/>
+    <row r="337" ht="18.75" customHeight="1" s="24"/>
+    <row r="338" ht="18.75" customHeight="1" s="24"/>
+    <row r="339" ht="18.75" customHeight="1" s="24"/>
+    <row r="340" ht="18.75" customHeight="1" s="24"/>
+    <row r="341" ht="18.75" customHeight="1" s="24"/>
+    <row r="342" ht="18.75" customHeight="1" s="24"/>
+    <row r="343" ht="18.75" customHeight="1" s="24"/>
+    <row r="344" ht="18.75" customHeight="1" s="24"/>
+    <row r="345" ht="18.75" customHeight="1" s="24"/>
+    <row r="346" ht="18.75" customHeight="1" s="24"/>
+    <row r="347" ht="18.75" customHeight="1" s="24"/>
+    <row r="348" ht="18.75" customHeight="1" s="24"/>
+    <row r="349" ht="18.75" customHeight="1" s="24"/>
+    <row r="350" ht="18.75" customHeight="1" s="24"/>
+    <row r="351" ht="18.75" customHeight="1" s="24"/>
+    <row r="352" ht="18.75" customHeight="1" s="24"/>
+    <row r="353" ht="18.75" customHeight="1" s="24"/>
+    <row r="354" ht="18.75" customHeight="1" s="24"/>
+    <row r="355" ht="18.75" customHeight="1" s="24"/>
+    <row r="356" ht="18.75" customHeight="1" s="24"/>
+    <row r="357" ht="18.75" customHeight="1" s="24"/>
+    <row r="358" ht="18.75" customHeight="1" s="24"/>
+    <row r="359" ht="18.75" customHeight="1" s="24"/>
+    <row r="360" ht="18.75" customHeight="1" s="24"/>
+    <row r="361" ht="18.75" customHeight="1" s="24"/>
+    <row r="362" ht="18.75" customHeight="1" s="24"/>
+    <row r="363" ht="18.75" customHeight="1" s="24"/>
+    <row r="364" ht="18.75" customHeight="1" s="24"/>
+    <row r="365" ht="18.75" customHeight="1" s="24"/>
+    <row r="366" ht="18.75" customHeight="1" s="24"/>
+    <row r="367" ht="18.75" customHeight="1" s="24"/>
+    <row r="368" ht="18.75" customHeight="1" s="24"/>
+    <row r="369" ht="18.75" customHeight="1" s="24"/>
+    <row r="370" ht="18.75" customHeight="1" s="24"/>
+    <row r="371" ht="18.75" customHeight="1" s="24"/>
+    <row r="372" ht="18.75" customHeight="1" s="24"/>
+    <row r="373" ht="18.75" customHeight="1" s="24"/>
+    <row r="374" ht="18.75" customHeight="1" s="24"/>
+    <row r="375" ht="18.75" customHeight="1" s="24"/>
+    <row r="376" ht="18.75" customHeight="1" s="24"/>
+    <row r="377" ht="18.75" customHeight="1" s="24"/>
+    <row r="378" ht="18.75" customHeight="1" s="24"/>
+    <row r="379" ht="18.75" customHeight="1" s="24"/>
+    <row r="380" ht="18.75" customHeight="1" s="24"/>
+    <row r="381" ht="18.75" customHeight="1" s="24"/>
+    <row r="382" ht="18.75" customHeight="1" s="24"/>
+    <row r="383" ht="18.75" customHeight="1" s="24"/>
+    <row r="384" ht="18.75" customHeight="1" s="24"/>
+    <row r="385" ht="18.75" customHeight="1" s="24"/>
+    <row r="386" ht="18.75" customHeight="1" s="24"/>
+    <row r="387" ht="18.75" customHeight="1" s="24"/>
+    <row r="388" ht="18.75" customHeight="1" s="24"/>
+    <row r="389" ht="18.75" customHeight="1" s="24"/>
+    <row r="390" ht="18.75" customHeight="1" s="24"/>
+    <row r="391" ht="18.75" customHeight="1" s="24"/>
+    <row r="392" ht="18.75" customHeight="1" s="24"/>
+    <row r="393" ht="18.75" customHeight="1" s="24"/>
+    <row r="394" ht="18.75" customHeight="1" s="24"/>
+    <row r="395" ht="18.75" customHeight="1" s="24"/>
+    <row r="396" ht="18.75" customHeight="1" s="24"/>
+    <row r="397" ht="18.75" customHeight="1" s="24"/>
+    <row r="398" ht="18.75" customHeight="1" s="24"/>
+    <row r="399" ht="18.75" customHeight="1" s="24"/>
+    <row r="400" ht="18.75" customHeight="1" s="24"/>
+    <row r="401" ht="18.75" customHeight="1" s="24"/>
+    <row r="402" ht="18.75" customHeight="1" s="24"/>
+    <row r="403" ht="18.75" customHeight="1" s="24"/>
+    <row r="404" ht="18.75" customHeight="1" s="24"/>
+    <row r="405" ht="18.75" customHeight="1" s="24"/>
+    <row r="406" ht="18.75" customHeight="1" s="24"/>
+    <row r="407" ht="18.75" customHeight="1" s="24"/>
+    <row r="408" ht="18.75" customHeight="1" s="24"/>
+    <row r="409" ht="18.75" customHeight="1" s="24"/>
+    <row r="410" ht="18.75" customHeight="1" s="24"/>
+    <row r="411" ht="18.75" customHeight="1" s="24"/>
+    <row r="412" ht="18.75" customHeight="1" s="24"/>
+    <row r="413" ht="18.75" customHeight="1" s="24"/>
+    <row r="414" ht="18.75" customHeight="1" s="24"/>
+    <row r="415" ht="18.75" customHeight="1" s="24"/>
+    <row r="416" ht="18.75" customHeight="1" s="24"/>
+    <row r="417" ht="18.75" customHeight="1" s="24"/>
+    <row r="418" ht="18.75" customHeight="1" s="24"/>
+    <row r="419" ht="18.75" customHeight="1" s="24"/>
+    <row r="420" ht="18.75" customHeight="1" s="24"/>
+    <row r="421" ht="18.75" customHeight="1" s="24"/>
+    <row r="422" ht="18.75" customHeight="1" s="24"/>
+    <row r="423" ht="18.75" customHeight="1" s="24"/>
+    <row r="424" ht="18.75" customHeight="1" s="24"/>
+    <row r="425" ht="18.75" customHeight="1" s="24"/>
+    <row r="426" ht="18.75" customHeight="1" s="24"/>
+    <row r="427" ht="18.75" customHeight="1" s="24"/>
+    <row r="428" ht="18.75" customHeight="1" s="24"/>
+    <row r="429" ht="18.75" customHeight="1" s="24"/>
+    <row r="430" ht="18.75" customHeight="1" s="24"/>
+    <row r="431" ht="18.75" customHeight="1" s="24"/>
+    <row r="432" ht="18.75" customHeight="1" s="24"/>
+    <row r="433" ht="18.75" customHeight="1" s="24"/>
+    <row r="434" ht="18.75" customHeight="1" s="24"/>
+    <row r="435" ht="18.75" customHeight="1" s="24"/>
+    <row r="436" ht="18.75" customHeight="1" s="24"/>
+    <row r="437" ht="18.75" customHeight="1" s="24"/>
+    <row r="438" ht="18.75" customHeight="1" s="24"/>
+    <row r="439" ht="18.75" customHeight="1" s="24"/>
+    <row r="440" ht="18.75" customHeight="1" s="24"/>
+    <row r="441" ht="18.75" customHeight="1" s="24"/>
+    <row r="442" ht="18.75" customHeight="1" s="24"/>
+    <row r="443" ht="18.75" customHeight="1" s="24"/>
+    <row r="444" ht="18.75" customHeight="1" s="24"/>
+    <row r="445" ht="18.75" customHeight="1" s="24"/>
+    <row r="446" ht="18.75" customHeight="1" s="24"/>
+    <row r="447" ht="18.75" customHeight="1" s="24"/>
+    <row r="448" ht="18.75" customHeight="1" s="24"/>
+    <row r="449" ht="18.75" customHeight="1" s="24"/>
+    <row r="450" ht="18.75" customHeight="1" s="24"/>
+    <row r="451" ht="18.75" customHeight="1" s="24"/>
+    <row r="452" ht="18.75" customHeight="1" s="24"/>
+    <row r="453" ht="18.75" customHeight="1" s="24"/>
+    <row r="454" ht="18.75" customHeight="1" s="24"/>
+    <row r="455" ht="18.75" customHeight="1" s="24"/>
+    <row r="456" ht="18.75" customHeight="1" s="24"/>
+    <row r="457" ht="18.75" customHeight="1" s="24"/>
+    <row r="458" ht="18.75" customHeight="1" s="24"/>
+    <row r="459" ht="18.75" customHeight="1" s="24"/>
+    <row r="460" ht="18.75" customHeight="1" s="24"/>
+    <row r="461" ht="18.75" customHeight="1" s="24"/>
+    <row r="462" ht="18.75" customHeight="1" s="24"/>
+    <row r="463" ht="18.75" customHeight="1" s="24"/>
+    <row r="464" ht="18.75" customHeight="1" s="24"/>
+    <row r="465" ht="18.75" customHeight="1" s="24"/>
+    <row r="466" ht="18.75" customHeight="1" s="24"/>
+    <row r="467" ht="18.75" customHeight="1" s="24"/>
+    <row r="468" ht="18.75" customHeight="1" s="24"/>
+    <row r="469" ht="18.75" customHeight="1" s="24"/>
+    <row r="470" ht="18.75" customHeight="1" s="24"/>
+    <row r="471" ht="18.75" customHeight="1" s="24"/>
+    <row r="472" ht="18.75" customHeight="1" s="24"/>
+    <row r="473" ht="18.75" customHeight="1" s="24"/>
+    <row r="474" ht="18.75" customHeight="1" s="24"/>
+    <row r="475" ht="18.75" customHeight="1" s="24"/>
+    <row r="476" ht="18.75" customHeight="1" s="24"/>
+    <row r="477" ht="18.75" customHeight="1" s="24"/>
+    <row r="478" ht="18.75" customHeight="1" s="24"/>
+    <row r="479" ht="18.75" customHeight="1" s="24"/>
+    <row r="480" ht="18.75" customHeight="1" s="24"/>
+    <row r="481" ht="18.75" customHeight="1" s="24"/>
+    <row r="482" ht="18.75" customHeight="1" s="24"/>
+    <row r="483" ht="18.75" customHeight="1" s="24"/>
+    <row r="484" ht="18.75" customHeight="1" s="24"/>
+    <row r="485" ht="18.75" customHeight="1" s="24"/>
+    <row r="486" ht="18.75" customHeight="1" s="24"/>
+    <row r="487" ht="18.75" customHeight="1" s="24"/>
+    <row r="488" ht="18.75" customHeight="1" s="24"/>
+    <row r="489" ht="18.75" customHeight="1" s="24"/>
+    <row r="490" ht="18.75" customHeight="1" s="24"/>
+    <row r="491" ht="18.75" customHeight="1" s="24"/>
+    <row r="492" ht="18.75" customHeight="1" s="24"/>
+    <row r="493" ht="18.75" customHeight="1" s="24"/>
+    <row r="494" ht="18.75" customHeight="1" s="24"/>
+    <row r="495" ht="18.75" customHeight="1" s="24"/>
+    <row r="496" ht="18.75" customHeight="1" s="24"/>
+    <row r="497" ht="18.75" customHeight="1" s="24"/>
+    <row r="498" ht="18.75" customHeight="1" s="24"/>
+    <row r="499" ht="18.75" customHeight="1" s="24"/>
+    <row r="500" ht="18.75" customHeight="1" s="24"/>
+    <row r="501" ht="18.75" customHeight="1" s="24"/>
+    <row r="502" ht="18.75" customHeight="1" s="24"/>
+    <row r="503" ht="18.75" customHeight="1" s="24"/>
+    <row r="504" ht="18.75" customHeight="1" s="24"/>
+    <row r="505" ht="18.75" customHeight="1" s="24"/>
+    <row r="506" ht="18.75" customHeight="1" s="24"/>
+    <row r="507" ht="18.75" customHeight="1" s="24"/>
+    <row r="508" ht="18.75" customHeight="1" s="24"/>
+    <row r="509" ht="18.75" customHeight="1" s="24"/>
+    <row r="510" ht="18.75" customHeight="1" s="24"/>
+    <row r="511" ht="18.75" customHeight="1" s="24"/>
+    <row r="512" ht="18.75" customHeight="1" s="24"/>
+    <row r="513" ht="18.75" customHeight="1" s="24"/>
+    <row r="514" ht="18.75" customHeight="1" s="24"/>
+    <row r="515" ht="18.75" customHeight="1" s="24"/>
+    <row r="516" ht="18.75" customHeight="1" s="24"/>
+    <row r="517" ht="18.75" customHeight="1" s="24"/>
+    <row r="518" ht="18.75" customHeight="1" s="24"/>
+    <row r="519" ht="18.75" customHeight="1" s="24"/>
+    <row r="520" ht="18.75" customHeight="1" s="24"/>
+    <row r="521" ht="18.75" customHeight="1" s="24"/>
+    <row r="522" ht="18.75" customHeight="1" s="24"/>
+    <row r="523" ht="18.75" customHeight="1" s="24"/>
+    <row r="524" ht="18.75" customHeight="1" s="24"/>
+    <row r="525" ht="18.75" customHeight="1" s="24"/>
+    <row r="526" ht="18.75" customHeight="1" s="24"/>
+    <row r="527" ht="18.75" customHeight="1" s="24"/>
+    <row r="528" ht="18.75" customHeight="1" s="24"/>
+    <row r="529" ht="18.75" customHeight="1" s="24"/>
+    <row r="530" ht="18.75" customHeight="1" s="24"/>
+    <row r="531" ht="18.75" customHeight="1" s="24"/>
+    <row r="532" ht="18.75" customHeight="1" s="24"/>
+    <row r="533" ht="18.75" customHeight="1" s="24"/>
+    <row r="534" ht="18.75" customHeight="1" s="24"/>
+    <row r="535" ht="18.75" customHeight="1" s="24"/>
+    <row r="536" ht="18.75" customHeight="1" s="24"/>
+    <row r="537" ht="18.75" customHeight="1" s="24"/>
+    <row r="538" ht="18.75" customHeight="1" s="24"/>
+    <row r="539" ht="18.75" customHeight="1" s="24"/>
+    <row r="540" ht="18.75" customHeight="1" s="24"/>
+    <row r="541" ht="18.75" customHeight="1" s="24"/>
+    <row r="542" ht="18.75" customHeight="1" s="24"/>
+    <row r="543" ht="18.75" customHeight="1" s="24"/>
+    <row r="544" ht="18.75" customHeight="1" s="24"/>
+    <row r="545" ht="18.75" customHeight="1" s="24"/>
+    <row r="546" ht="18.75" customHeight="1" s="24"/>
+    <row r="547" ht="18.75" customHeight="1" s="24"/>
+    <row r="548" ht="18.75" customHeight="1" s="24"/>
+    <row r="549" ht="18.75" customHeight="1" s="24"/>
+    <row r="550" ht="18.75" customHeight="1" s="24"/>
+    <row r="551" ht="18.75" customHeight="1" s="24"/>
+    <row r="552" ht="18.75" customHeight="1" s="24"/>
+    <row r="553" ht="18.75" customHeight="1" s="24"/>
+    <row r="554" ht="18.75" customHeight="1" s="24"/>
+    <row r="555" ht="18.75" customHeight="1" s="24"/>
+    <row r="556" ht="18.75" customHeight="1" s="24"/>
+    <row r="557" ht="18.75" customHeight="1" s="24"/>
+    <row r="558" ht="18.75" customHeight="1" s="24"/>
+    <row r="559" ht="18.75" customHeight="1" s="24"/>
+    <row r="560" ht="18.75" customHeight="1" s="24"/>
+    <row r="561" ht="18.75" customHeight="1" s="24"/>
+    <row r="562" ht="18.75" customHeight="1" s="24"/>
+    <row r="563" ht="18.75" customHeight="1" s="24"/>
+    <row r="564" ht="18.75" customHeight="1" s="24"/>
+    <row r="565" ht="18.75" customHeight="1" s="24"/>
+    <row r="566" ht="18.75" customHeight="1" s="24"/>
+    <row r="567" ht="18.75" customHeight="1" s="24"/>
+    <row r="568" ht="18.75" customHeight="1" s="24"/>
+    <row r="569" ht="18.75" customHeight="1" s="24"/>
+    <row r="570" ht="18.75" customHeight="1" s="24"/>
+    <row r="571" ht="18.75" customHeight="1" s="24"/>
+    <row r="572" ht="18.75" customHeight="1" s="24"/>
+    <row r="573" ht="18.75" customHeight="1" s="24"/>
+    <row r="574" ht="18.75" customHeight="1" s="24"/>
+    <row r="575" ht="18.75" customHeight="1" s="24"/>
+    <row r="576" ht="18.75" customHeight="1" s="24"/>
+    <row r="577" ht="18.75" customHeight="1" s="24"/>
+    <row r="578" ht="18.75" customHeight="1" s="24"/>
+    <row r="579" ht="18.75" customHeight="1" s="24"/>
+    <row r="580" ht="18.75" customHeight="1" s="24"/>
+    <row r="581" ht="18.75" customHeight="1" s="24"/>
+    <row r="582" ht="18.75" customHeight="1" s="24"/>
+    <row r="583" ht="18.75" customHeight="1" s="24"/>
+    <row r="584" ht="18.75" customHeight="1" s="24"/>
+    <row r="585" ht="18.75" customHeight="1" s="24"/>
+    <row r="586" ht="18.75" customHeight="1" s="24"/>
+    <row r="587" ht="18.75" customHeight="1" s="24"/>
+    <row r="588" ht="18.75" customHeight="1" s="24"/>
+    <row r="589" ht="18.75" customHeight="1" s="24"/>
+    <row r="590" ht="18.75" customHeight="1" s="24"/>
+    <row r="591" ht="18.75" customHeight="1" s="24"/>
+    <row r="592" ht="18.75" customHeight="1" s="24"/>
+    <row r="593" ht="18.75" customHeight="1" s="24"/>
+    <row r="594" ht="18.75" customHeight="1" s="24"/>
+    <row r="595" ht="18.75" customHeight="1" s="24"/>
+    <row r="596" ht="18.75" customHeight="1" s="24"/>
+    <row r="597" ht="18.75" customHeight="1" s="24"/>
+    <row r="598" ht="18.75" customHeight="1" s="24"/>
+    <row r="599" ht="18.75" customHeight="1" s="24"/>
+    <row r="600" ht="18.75" customHeight="1" s="24"/>
+    <row r="601" ht="18.75" customHeight="1" s="24"/>
+    <row r="602" ht="18.75" customHeight="1" s="24"/>
+    <row r="603" ht="18.75" customHeight="1" s="24"/>
+    <row r="604" ht="18.75" customHeight="1" s="24"/>
+    <row r="605" ht="18.75" customHeight="1" s="24"/>
+    <row r="606" ht="18.75" customHeight="1" s="24"/>
+    <row r="607" ht="18.75" customHeight="1" s="24"/>
+    <row r="608" ht="18.75" customHeight="1" s="24"/>
+    <row r="609" ht="18.75" customHeight="1" s="24"/>
+    <row r="610" ht="18.75" customHeight="1" s="24"/>
+    <row r="611" ht="18.75" customHeight="1" s="24"/>
+    <row r="612" ht="18.75" customHeight="1" s="24"/>
+    <row r="613" ht="18.75" customHeight="1" s="24"/>
+    <row r="614" ht="18.75" customHeight="1" s="24"/>
+    <row r="615" ht="18.75" customHeight="1" s="24"/>
+    <row r="616" ht="18.75" customHeight="1" s="24"/>
+    <row r="617" ht="18.75" customHeight="1" s="24"/>
+    <row r="618" ht="18.75" customHeight="1" s="24"/>
+    <row r="619" ht="18.75" customHeight="1" s="24"/>
+    <row r="620" ht="18.75" customHeight="1" s="24"/>
+    <row r="621" ht="18.75" customHeight="1" s="24"/>
+    <row r="622" ht="18.75" customHeight="1" s="24"/>
+    <row r="623" ht="18.75" customHeight="1" s="24"/>
+    <row r="624" ht="18.75" customHeight="1" s="24"/>
+    <row r="625" ht="18.75" customHeight="1" s="24"/>
+    <row r="626" ht="18.75" customHeight="1" s="24"/>
+    <row r="627" ht="18.75" customHeight="1" s="24"/>
+    <row r="628" ht="18.75" customHeight="1" s="24"/>
+    <row r="629" ht="18.75" customHeight="1" s="24"/>
+    <row r="630" ht="18.75" customHeight="1" s="24"/>
+    <row r="631" ht="18.75" customHeight="1" s="24"/>
+    <row r="632" ht="18.75" customHeight="1" s="24"/>
+    <row r="633" ht="18.75" customHeight="1" s="24"/>
+    <row r="634" ht="18.75" customHeight="1" s="24"/>
+    <row r="635" ht="18.75" customHeight="1" s="24"/>
+    <row r="636" ht="18.75" customHeight="1" s="24"/>
+    <row r="637" ht="18.75" customHeight="1" s="24"/>
+    <row r="638" ht="18.75" customHeight="1" s="24"/>
+    <row r="639" ht="18.75" customHeight="1" s="24"/>
+    <row r="640" ht="18.75" customHeight="1" s="24"/>
+    <row r="641" ht="18.75" customHeight="1" s="24"/>
+    <row r="642" ht="18.75" customHeight="1" s="24"/>
+    <row r="643" ht="18.75" customHeight="1" s="24"/>
+    <row r="644" ht="18.75" customHeight="1" s="24"/>
+    <row r="645" ht="18.75" customHeight="1" s="24"/>
+    <row r="646" ht="18.75" customHeight="1" s="24"/>
+    <row r="647" ht="18.75" customHeight="1" s="24"/>
+    <row r="648" ht="18.75" customHeight="1" s="24"/>
+    <row r="649" ht="18.75" customHeight="1" s="24"/>
+    <row r="650" ht="18.75" customHeight="1" s="24"/>
+    <row r="651" ht="18.75" customHeight="1" s="24"/>
+    <row r="652" ht="18.75" customHeight="1" s="24"/>
+    <row r="653" ht="18.75" customHeight="1" s="24"/>
+    <row r="654" ht="18.75" customHeight="1" s="24"/>
+    <row r="655" ht="18.75" customHeight="1" s="24"/>
+    <row r="656" ht="18.75" customHeight="1" s="24"/>
+    <row r="657" ht="18.75" customHeight="1" s="24"/>
+    <row r="658" ht="18.75" customHeight="1" s="24"/>
+    <row r="659" ht="18.75" customHeight="1" s="24"/>
+    <row r="660" ht="18.75" customHeight="1" s="24"/>
+    <row r="661" ht="18.75" customHeight="1" s="24"/>
+    <row r="662" ht="18.75" customHeight="1" s="24"/>
+    <row r="663" ht="18.75" customHeight="1" s="24"/>
+    <row r="664" ht="18.75" customHeight="1" s="24"/>
+    <row r="665" ht="18.75" customHeight="1" s="24"/>
+    <row r="666" ht="18.75" customHeight="1" s="24"/>
+    <row r="667" ht="18.75" customHeight="1" s="24"/>
+    <row r="668" ht="18.75" customHeight="1" s="24"/>
+    <row r="669" ht="18.75" customHeight="1" s="24"/>
+    <row r="670" ht="18.75" customHeight="1" s="24"/>
+    <row r="671" ht="18.75" customHeight="1" s="24"/>
+    <row r="672" ht="18.75" customHeight="1" s="24"/>
+    <row r="673" ht="18.75" customHeight="1" s="24"/>
+    <row r="674" ht="18.75" customHeight="1" s="24"/>
+    <row r="675" ht="18.75" customHeight="1" s="24"/>
+    <row r="676" ht="18.75" customHeight="1" s="24"/>
+    <row r="677" ht="18.75" customHeight="1" s="24"/>
+    <row r="678" ht="18.75" customHeight="1" s="24"/>
+    <row r="679" ht="18.75" customHeight="1" s="24"/>
+    <row r="680" ht="18.75" customHeight="1" s="24"/>
+    <row r="681" ht="18.75" customHeight="1" s="24"/>
+    <row r="682" ht="18.75" customHeight="1" s="24"/>
+    <row r="683" ht="18.75" customHeight="1" s="24"/>
+    <row r="684" ht="18.75" customHeight="1" s="24"/>
+    <row r="685" ht="18.75" customHeight="1" s="24"/>
+    <row r="686" ht="18.75" customHeight="1" s="24"/>
+    <row r="687" ht="18.75" customHeight="1" s="24"/>
+    <row r="688" ht="18.75" customHeight="1" s="24"/>
+    <row r="689" ht="18.75" customHeight="1" s="24"/>
+    <row r="690" ht="18.75" customHeight="1" s="24"/>
+    <row r="691" ht="18.75" customHeight="1" s="24"/>
+    <row r="692" ht="18.75" customHeight="1" s="24"/>
+    <row r="693" ht="18.75" customHeight="1" s="24"/>
+    <row r="694" ht="18.75" customHeight="1" s="24"/>
+    <row r="695" ht="18.75" customHeight="1" s="24"/>
+    <row r="696" ht="18.75" customHeight="1" s="24"/>
+    <row r="697" ht="18.75" customHeight="1" s="24"/>
+    <row r="698" ht="18.75" customHeight="1" s="24"/>
+    <row r="699" ht="18.75" customHeight="1" s="24"/>
+    <row r="700" ht="18.75" customHeight="1" s="24"/>
+    <row r="701" ht="18.75" customHeight="1" s="24"/>
+    <row r="702" ht="18.75" customHeight="1" s="24"/>
+    <row r="703" ht="18.75" customHeight="1" s="24"/>
+    <row r="704" ht="18.75" customHeight="1" s="24"/>
+    <row r="705" ht="18.75" customHeight="1" s="24"/>
+    <row r="706" ht="18.75" customHeight="1" s="24"/>
+    <row r="707" ht="18.75" customHeight="1" s="24"/>
+    <row r="708" ht="18.75" customHeight="1" s="24"/>
+    <row r="709" ht="18.75" customHeight="1" s="24"/>
+    <row r="710" ht="18.75" customHeight="1" s="24"/>
+    <row r="711" ht="18.75" customHeight="1" s="24"/>
+    <row r="712" ht="18.75" customHeight="1" s="24"/>
+    <row r="713" ht="18.75" customHeight="1" s="24"/>
+    <row r="714" ht="18.75" customHeight="1" s="24"/>
+    <row r="715" ht="18.75" customHeight="1" s="24"/>
+    <row r="716" ht="18.75" customHeight="1" s="24"/>
+    <row r="717" ht="18.75" customHeight="1" s="24"/>
+    <row r="718" ht="18.75" customHeight="1" s="24"/>
+    <row r="719" ht="18.75" customHeight="1" s="24"/>
+    <row r="720" ht="18.75" customHeight="1" s="24"/>
+    <row r="721" ht="18.75" customHeight="1" s="24"/>
+    <row r="722" ht="18.75" customHeight="1" s="24"/>
+    <row r="723" ht="18.75" customHeight="1" s="24"/>
+    <row r="724" ht="18.75" customHeight="1" s="24"/>
+    <row r="725" ht="18.75" customHeight="1" s="24"/>
+    <row r="726" ht="18.75" customHeight="1" s="24"/>
+    <row r="727" ht="18.75" customHeight="1" s="24"/>
+    <row r="728" ht="18.75" customHeight="1" s="24"/>
+    <row r="729" ht="18.75" customHeight="1" s="24"/>
+    <row r="730" ht="18.75" customHeight="1" s="24"/>
+    <row r="731" ht="18.75" customHeight="1" s="24"/>
+    <row r="732" ht="18.75" customHeight="1" s="24"/>
+    <row r="733" ht="18.75" customHeight="1" s="24"/>
+    <row r="734" ht="18.75" customHeight="1" s="24"/>
+    <row r="735" ht="18.75" customHeight="1" s="24"/>
+    <row r="736" ht="18.75" customHeight="1" s="24"/>
+    <row r="737" ht="18.75" customHeight="1" s="24"/>
+    <row r="738" ht="18.75" customHeight="1" s="24"/>
+    <row r="739" ht="18.75" customHeight="1" s="24"/>
+    <row r="740" ht="18.75" customHeight="1" s="24"/>
+    <row r="741" ht="18.75" customHeight="1" s="24"/>
+    <row r="742" ht="18.75" customHeight="1" s="24"/>
+    <row r="743" ht="18.75" customHeight="1" s="24"/>
+    <row r="744" ht="18.75" customHeight="1" s="24"/>
+    <row r="745" ht="18.75" customHeight="1" s="24"/>
+    <row r="746" ht="18.75" customHeight="1" s="24"/>
+    <row r="747" ht="18.75" customHeight="1" s="24"/>
+    <row r="748" ht="18.75" customHeight="1" s="24"/>
+    <row r="749" ht="18.75" customHeight="1" s="24"/>
+    <row r="750" ht="18.75" customHeight="1" s="24"/>
+    <row r="751" ht="18.75" customHeight="1" s="24"/>
+    <row r="752" ht="18.75" customHeight="1" s="24"/>
+    <row r="753" ht="18.75" customHeight="1" s="24"/>
+    <row r="754" ht="18.75" customHeight="1" s="24"/>
+    <row r="755" ht="18.75" customHeight="1" s="24"/>
+    <row r="756" ht="18.75" customHeight="1" s="24"/>
+    <row r="757" ht="18.75" customHeight="1" s="24"/>
+    <row r="758" ht="18.75" customHeight="1" s="24"/>
+    <row r="759" ht="18.75" customHeight="1" s="24"/>
+    <row r="760" ht="18.75" customHeight="1" s="24"/>
+    <row r="761" ht="18.75" customHeight="1" s="24"/>
+    <row r="762" ht="18.75" customHeight="1" s="24"/>
+    <row r="763" ht="18.75" customHeight="1" s="24"/>
+    <row r="764" ht="18.75" customHeight="1" s="24"/>
+    <row r="765" ht="18.75" customHeight="1" s="24"/>
+    <row r="766" ht="18.75" customHeight="1" s="24"/>
+    <row r="767" ht="18.75" customHeight="1" s="24"/>
+    <row r="768" ht="18.75" customHeight="1" s="24"/>
+    <row r="769" ht="18.75" customHeight="1" s="24"/>
+    <row r="770" ht="18.75" customHeight="1" s="24"/>
+    <row r="771" ht="18.75" customHeight="1" s="24"/>
+    <row r="772" ht="18.75" customHeight="1" s="24"/>
+    <row r="773" ht="18.75" customHeight="1" s="24"/>
+    <row r="774" ht="18.75" customHeight="1" s="24"/>
+    <row r="775" ht="18.75" customHeight="1" s="24"/>
+    <row r="776" ht="18.75" customHeight="1" s="24"/>
+    <row r="777" ht="18.75" customHeight="1" s="24"/>
+    <row r="778" ht="18.75" customHeight="1" s="24"/>
+    <row r="779" ht="18.75" customHeight="1" s="24"/>
+    <row r="780" ht="18.75" customHeight="1" s="24"/>
+    <row r="781" ht="18.75" customHeight="1" s="24"/>
+    <row r="782" ht="18.75" customHeight="1" s="24"/>
+    <row r="783" ht="18.75" customHeight="1" s="24"/>
+    <row r="784" ht="18.75" customHeight="1" s="24"/>
+    <row r="785" ht="18.75" customHeight="1" s="24"/>
+    <row r="786" ht="18.75" customHeight="1" s="24"/>
+    <row r="787" ht="18.75" customHeight="1" s="24"/>
+    <row r="788" ht="18.75" customHeight="1" s="24"/>
+    <row r="789" ht="18.75" customHeight="1" s="24"/>
+    <row r="790" ht="18.75" customHeight="1" s="24"/>
+    <row r="791" ht="18.75" customHeight="1" s="24"/>
+    <row r="792" ht="18.75" customHeight="1" s="24"/>
+    <row r="793" ht="18.75" customHeight="1" s="24"/>
+    <row r="794" ht="18.75" customHeight="1" s="24"/>
+    <row r="795" ht="18.75" customHeight="1" s="24"/>
+    <row r="796" ht="18.75" customHeight="1" s="24"/>
+    <row r="797" ht="18.75" customHeight="1" s="24"/>
+    <row r="798" ht="18.75" customHeight="1" s="24"/>
+    <row r="799" ht="18.75" customHeight="1" s="24"/>
+    <row r="800" ht="18.75" customHeight="1" s="24"/>
+    <row r="801" ht="18.75" customHeight="1" s="24"/>
+    <row r="802" ht="18.75" customHeight="1" s="24"/>
+    <row r="803" ht="18.75" customHeight="1" s="24"/>
+    <row r="804" ht="18.75" customHeight="1" s="24"/>
+    <row r="805" ht="18.75" customHeight="1" s="24"/>
+    <row r="806" ht="18.75" customHeight="1" s="24"/>
+    <row r="807" ht="18.75" customHeight="1" s="24"/>
+    <row r="808" ht="18.75" customHeight="1" s="24"/>
+    <row r="809" ht="18.75" customHeight="1" s="24"/>
+    <row r="810" ht="18.75" customHeight="1" s="24"/>
+    <row r="811" ht="18.75" customHeight="1" s="24"/>
+    <row r="812" ht="18.75" customHeight="1" s="24"/>
+    <row r="813" ht="18.75" customHeight="1" s="24"/>
+    <row r="814" ht="18.75" customHeight="1" s="24"/>
+    <row r="815" ht="18.75" customHeight="1" s="24"/>
+    <row r="816" ht="18.75" customHeight="1" s="24"/>
+    <row r="817" ht="18.75" customHeight="1" s="24"/>
+    <row r="818" ht="18.75" customHeight="1" s="24"/>
+    <row r="819" ht="18.75" customHeight="1" s="24"/>
+    <row r="820" ht="18.75" customHeight="1" s="24"/>
+    <row r="821" ht="18.75" customHeight="1" s="24"/>
+    <row r="822" ht="18.75" customHeight="1" s="24"/>
+    <row r="823" ht="18.75" customHeight="1" s="24"/>
+    <row r="824" ht="18.75" customHeight="1" s="24"/>
+    <row r="825" ht="18.75" customHeight="1" s="24"/>
+    <row r="826" ht="18.75" customHeight="1" s="24"/>
+    <row r="827" ht="18.75" customHeight="1" s="24"/>
+    <row r="828" ht="18.75" customHeight="1" s="24"/>
+    <row r="829" ht="18.75" customHeight="1" s="24"/>
+    <row r="830" ht="18.75" customHeight="1" s="24"/>
+    <row r="831" ht="18.75" customHeight="1" s="24"/>
+    <row r="832" ht="18.75" customHeight="1" s="24"/>
+    <row r="833" ht="18.75" customHeight="1" s="24"/>
+    <row r="834" ht="18.75" customHeight="1" s="24"/>
+    <row r="835" ht="18.75" customHeight="1" s="24"/>
+    <row r="836" ht="18.75" customHeight="1" s="24"/>
+    <row r="837" ht="18.75" customHeight="1" s="24"/>
+    <row r="838" ht="18.75" customHeight="1" s="24"/>
+    <row r="839" ht="18.75" customHeight="1" s="24"/>
+    <row r="840" ht="18.75" customHeight="1" s="24"/>
+    <row r="841" ht="18.75" customHeight="1" s="24"/>
+    <row r="842" ht="18.75" customHeight="1" s="24"/>
+    <row r="843" ht="18.75" customHeight="1" s="24"/>
+    <row r="844" ht="18.75" customHeight="1" s="24"/>
+    <row r="845" ht="18.75" customHeight="1" s="24"/>
+    <row r="846" ht="18.75" customHeight="1" s="24"/>
+    <row r="847" ht="18.75" customHeight="1" s="24"/>
+    <row r="848" ht="18.75" customHeight="1" s="24"/>
+    <row r="849" ht="18.75" customHeight="1" s="24"/>
+    <row r="850" ht="18.75" customHeight="1" s="24"/>
+    <row r="851" ht="18.75" customHeight="1" s="24"/>
+    <row r="852" ht="18.75" customHeight="1" s="24"/>
+    <row r="853" ht="18.75" customHeight="1" s="24"/>
+    <row r="854" ht="18.75" customHeight="1" s="24"/>
+    <row r="855" ht="18.75" customHeight="1" s="24"/>
+    <row r="856" ht="18.75" customHeight="1" s="24"/>
+    <row r="857" ht="18.75" customHeight="1" s="24"/>
+    <row r="858" ht="18.75" customHeight="1" s="24"/>
+    <row r="859" ht="18.75" customHeight="1" s="24"/>
+    <row r="860" ht="18.75" customHeight="1" s="24"/>
+    <row r="861" ht="18.75" customHeight="1" s="24"/>
+    <row r="862" ht="18.75" customHeight="1" s="24"/>
+    <row r="863" ht="18.75" customHeight="1" s="24"/>
+    <row r="864" ht="18.75" customHeight="1" s="24"/>
+    <row r="865" ht="18.75" customHeight="1" s="24"/>
+    <row r="866" ht="18.75" customHeight="1" s="24"/>
+    <row r="867" ht="18.75" customHeight="1" s="24"/>
+    <row r="868" ht="18.75" customHeight="1" s="24"/>
+    <row r="869" ht="18.75" customHeight="1" s="24"/>
+    <row r="870" ht="18.75" customHeight="1" s="24"/>
+    <row r="871" ht="18.75" customHeight="1" s="24"/>
+    <row r="872" ht="18.75" customHeight="1" s="24"/>
+    <row r="873" ht="18.75" customHeight="1" s="24"/>
+    <row r="874" ht="18.75" customHeight="1" s="24"/>
+    <row r="875" ht="18.75" customHeight="1" s="24"/>
+    <row r="876" ht="18.75" customHeight="1" s="24"/>
+    <row r="877" ht="18.75" customHeight="1" s="24"/>
+    <row r="878" ht="18.75" customHeight="1" s="24"/>
+    <row r="879" ht="18.75" customHeight="1" s="24"/>
+    <row r="880" ht="18.75" customHeight="1" s="24"/>
+    <row r="881" ht="18.75" customHeight="1" s="24"/>
+    <row r="882" ht="18.75" customHeight="1" s="24"/>
+    <row r="883" ht="18.75" customHeight="1" s="24"/>
+    <row r="884" ht="18.75" customHeight="1" s="24"/>
+    <row r="885" ht="18.75" customHeight="1" s="24"/>
+    <row r="886" ht="18.75" customHeight="1" s="24"/>
+    <row r="887" ht="18.75" customHeight="1" s="24"/>
+    <row r="888" ht="18.75" customHeight="1" s="24"/>
+    <row r="889" ht="18.75" customHeight="1" s="24"/>
+    <row r="890" ht="18.75" customHeight="1" s="24"/>
+    <row r="891" ht="18.75" customHeight="1" s="24"/>
+    <row r="892" ht="18.75" customHeight="1" s="24"/>
+    <row r="893" ht="18.75" customHeight="1" s="24"/>
+    <row r="894" ht="18.75" customHeight="1" s="24"/>
+    <row r="895" ht="18.75" customHeight="1" s="24"/>
+    <row r="896" ht="18.75" customHeight="1" s="24"/>
+    <row r="897" ht="18.75" customHeight="1" s="24"/>
+    <row r="898" ht="18.75" customHeight="1" s="24"/>
+    <row r="899" ht="18.75" customHeight="1" s="24"/>
+    <row r="900" ht="18.75" customHeight="1" s="24"/>
+    <row r="901" ht="18.75" customHeight="1" s="24"/>
+    <row r="902" ht="18.75" customHeight="1" s="24"/>
+    <row r="903" ht="18.75" customHeight="1" s="24"/>
+    <row r="904" ht="18.75" customHeight="1" s="24"/>
+    <row r="905" ht="18.75" customHeight="1" s="24"/>
+    <row r="906" ht="18.75" customHeight="1" s="24"/>
+    <row r="907" ht="18.75" customHeight="1" s="24"/>
+    <row r="908" ht="18.75" customHeight="1" s="24"/>
+    <row r="909" ht="18.75" customHeight="1" s="24"/>
+    <row r="910" ht="18.75" customHeight="1" s="24"/>
+    <row r="911" ht="18.75" customHeight="1" s="24"/>
+    <row r="912" ht="18.75" customHeight="1" s="24"/>
+    <row r="913" ht="18.75" customHeight="1" s="24"/>
+    <row r="914" ht="18.75" customHeight="1" s="24"/>
+    <row r="915" ht="18.75" customHeight="1" s="24"/>
+    <row r="916" ht="18.75" customHeight="1" s="24"/>
+    <row r="917" ht="18.75" customHeight="1" s="24"/>
+    <row r="918" ht="18.75" customHeight="1" s="24"/>
+    <row r="919" ht="18.75" customHeight="1" s="24"/>
+    <row r="920" ht="18.75" customHeight="1" s="24"/>
+    <row r="921" ht="18.75" customHeight="1" s="24"/>
+    <row r="922" ht="18.75" customHeight="1" s="24"/>
+    <row r="923" ht="18.75" customHeight="1" s="24"/>
+    <row r="924" ht="18.75" customHeight="1" s="24"/>
+    <row r="925" ht="18.75" customHeight="1" s="24"/>
+    <row r="926" ht="18.75" customHeight="1" s="24"/>
+    <row r="927" ht="18.75" customHeight="1" s="24"/>
+    <row r="928" ht="18.75" customHeight="1" s="24"/>
+    <row r="929" ht="18.75" customHeight="1" s="24"/>
+    <row r="930" ht="18.75" customHeight="1" s="24"/>
+    <row r="931" ht="18.75" customHeight="1" s="24"/>
+    <row r="932" ht="18.75" customHeight="1" s="24"/>
+    <row r="933" ht="18.75" customHeight="1" s="24"/>
+    <row r="934" ht="18.75" customHeight="1" s="24"/>
+    <row r="935" ht="18.75" customHeight="1" s="24"/>
+    <row r="936" ht="18.75" customHeight="1" s="24"/>
+    <row r="937" ht="18.75" customHeight="1" s="24"/>
+    <row r="938" ht="18.75" customHeight="1" s="24"/>
+    <row r="939" ht="18.75" customHeight="1" s="24"/>
+    <row r="940" ht="18.75" customHeight="1" s="24"/>
+    <row r="941" ht="18.75" customHeight="1" s="24"/>
+    <row r="942" ht="18.75" customHeight="1" s="24"/>
+    <row r="943" ht="18.75" customHeight="1" s="24"/>
+    <row r="944" ht="18.75" customHeight="1" s="24"/>
+    <row r="945" ht="18.75" customHeight="1" s="24"/>
+    <row r="946" ht="18.75" customHeight="1" s="24"/>
+    <row r="947" ht="18.75" customHeight="1" s="24"/>
+    <row r="948" ht="18.75" customHeight="1" s="24"/>
+    <row r="949" ht="18.75" customHeight="1" s="24"/>
+    <row r="950" ht="18.75" customHeight="1" s="24"/>
+    <row r="951" ht="18.75" customHeight="1" s="24"/>
+    <row r="952" ht="18.75" customHeight="1" s="24"/>
+    <row r="953" ht="18.75" customHeight="1" s="24"/>
+    <row r="954" ht="18.75" customHeight="1" s="24"/>
+    <row r="955" ht="18.75" customHeight="1" s="24"/>
+    <row r="956" ht="18.75" customHeight="1" s="24"/>
+    <row r="957" ht="18.75" customHeight="1" s="24"/>
+    <row r="958" ht="18.75" customHeight="1" s="24"/>
+    <row r="959" ht="18.75" customHeight="1" s="24"/>
+    <row r="960" ht="18.75" customHeight="1" s="24"/>
+    <row r="961" ht="18.75" customHeight="1" s="24"/>
+    <row r="962" ht="18.75" customHeight="1" s="24"/>
+    <row r="963" ht="18.75" customHeight="1" s="24"/>
+    <row r="964" ht="18.75" customHeight="1" s="24"/>
+    <row r="965" ht="18.75" customHeight="1" s="24"/>
+    <row r="966" ht="18.75" customHeight="1" s="24"/>
+    <row r="967" ht="18.75" customHeight="1" s="24"/>
+    <row r="968" ht="18.75" customHeight="1" s="24"/>
+    <row r="969" ht="18.75" customHeight="1" s="24"/>
+    <row r="970" ht="18.75" customHeight="1" s="24"/>
+    <row r="971" ht="18.75" customHeight="1" s="24"/>
+    <row r="972" ht="18.75" customHeight="1" s="24"/>
+    <row r="973" ht="18.75" customHeight="1" s="24"/>
+    <row r="974" ht="18.75" customHeight="1" s="24"/>
+    <row r="975" ht="18.75" customHeight="1" s="24"/>
+    <row r="976" ht="18.75" customHeight="1" s="24"/>
+    <row r="977" ht="18.75" customHeight="1" s="24"/>
+    <row r="978" ht="18.75" customHeight="1" s="24"/>
+    <row r="979" ht="18.75" customHeight="1" s="24"/>
+    <row r="980" ht="18.75" customHeight="1" s="24"/>
+    <row r="981" ht="18.75" customHeight="1" s="24"/>
+    <row r="982" ht="18.75" customHeight="1" s="24"/>
+    <row r="983" ht="18.75" customHeight="1" s="24"/>
+    <row r="984" ht="18.75" customHeight="1" s="24"/>
+    <row r="985" ht="18.75" customHeight="1" s="24"/>
+    <row r="986" ht="18.75" customHeight="1" s="24"/>
+    <row r="987" ht="18.75" customHeight="1" s="24"/>
+    <row r="988" ht="18.75" customHeight="1" s="24"/>
+    <row r="989" ht="18.75" customHeight="1" s="24"/>
+    <row r="990" ht="18.75" customHeight="1" s="24"/>
+    <row r="991" ht="18.75" customHeight="1" s="24"/>
+    <row r="992" ht="18.75" customHeight="1" s="24"/>
+    <row r="993" ht="18.75" customHeight="1" s="24"/>
+    <row r="994" ht="18.75" customHeight="1" s="24"/>
+    <row r="995" ht="18.75" customHeight="1" s="24"/>
+    <row r="996" ht="18.75" customHeight="1" s="24"/>
+    <row r="997" ht="18.75" customHeight="1" s="24"/>
+    <row r="998" ht="18.75" customHeight="1" s="24"/>
+    <row r="999" ht="18.75" customHeight="1" s="24"/>
+    <row r="1000" ht="18.75" customHeight="1" s="24"/>
+    <row r="1001" ht="18.75" customHeight="1" s="24"/>
+    <row r="1002" ht="18.75" customHeight="1" s="24"/>
+    <row r="1003" ht="18.75" customHeight="1" s="24"/>
+    <row r="1004" ht="18.75" customHeight="1" s="24"/>
+    <row r="1005" ht="18.75" customHeight="1" s="24"/>
+    <row r="1006" ht="18.75" customHeight="1" s="24"/>
+    <row r="1007" ht="18.75" customHeight="1" s="24"/>
+    <row r="1008" ht="18.75" customHeight="1" s="24"/>
+    <row r="1009" ht="18.75" customHeight="1" s="24"/>
+    <row r="1010" ht="18.75" customHeight="1" s="24"/>
+    <row r="1011" ht="18.75" customHeight="1" s="24"/>
+    <row r="1012" ht="18.75" customHeight="1" s="24"/>
+    <row r="1013" ht="18.75" customHeight="1" s="24"/>
+    <row r="1014" ht="18.75" customHeight="1" s="24"/>
+    <row r="1015" ht="18.75" customHeight="1" s="24"/>
+    <row r="1016" ht="18.75" customHeight="1" s="24"/>
+    <row r="1017" ht="18.75" customHeight="1" s="24"/>
+    <row r="1018" ht="18.75" customHeight="1" s="24"/>
+    <row r="1019" ht="18.75" customHeight="1" s="24"/>
+    <row r="1020" ht="18.75" customHeight="1" s="24"/>
+    <row r="1021" ht="18.75" customHeight="1" s="24"/>
+  </sheetData>
+  <mergeCells count="18">
+    <mergeCell ref="A44:A52"/>
+    <mergeCell ref="A8:A16"/>
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A26:A34"/>
+    <mergeCell ref="A17:A25"/>
+    <mergeCell ref="A35:A43"/>
+    <mergeCell ref="A5:G5"/>
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="D35:D43"/>
+    <mergeCell ref="B44:B52"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1" verticalCentered="1"/>
+  <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
+  <pageSetup orientation="landscape" paperSize="9"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
@@ -4186,7 +4186,7 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G1, S6, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G1, C2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C8" s="17" t="inlineStr">
@@ -4196,18 +4196,18 @@
       </c>
       <c r="D8" s="29" t="inlineStr">
         <is>
-          <t>Maths2, COUR/ section 1, Amphi3, Mme.Bechaoui</t>
+          <t>Maths2, COUR/ section 1, Amphi2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="E8" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi4, Belhachemi</t>
+          <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
         </is>
       </c>
       <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, Amphi4, Benguettat</t>
+          <t>Phys2, TD/ G1, Amphi3, Benguettat</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -4216,12 +4216,12 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G2, S5, Belhachemi</t>
+          <t>Chim2, TD/ G2, S12, Belhachemi</t>
         </is>
       </c>
       <c r="C9" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S5, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G2, S15, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D9" s="31" t="n"/>
@@ -4229,7 +4229,7 @@
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Info2, TP/ G2, A3, Adda</t>
+          <t>Info2, TP/ G2, M1, Adda</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -4238,12 +4238,12 @@
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G3, S4, Benguettat</t>
+          <t>Phys2, TD/ G3, S13, Benguettat</t>
         </is>
       </c>
       <c r="C10" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, S16, Belhachemi</t>
+          <t>Chim2, TD/ G3, S5, Belhachemi</t>
         </is>
       </c>
       <c r="D10" s="31" t="n"/>
@@ -4251,7 +4251,7 @@
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G3, B2, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G3, S3, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -4260,12 +4260,12 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>Info2, TP/ G4, M1, Adda</t>
+          <t>Info2, TP/ G4, A3, Adda</t>
         </is>
       </c>
       <c r="C11" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G4, S15, Benguettat</t>
+          <t>Phys2, TD/ G4, S6, Benguettat</t>
         </is>
       </c>
       <c r="D11" s="31" t="n"/>
@@ -4273,7 +4273,7 @@
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G4, B1, Belhachemi</t>
+          <t>Chim2, TD/ G4, S1, Belhachemi</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -4336,12 +4336,12 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G1, S11, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G1, B4, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C17" s="17" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G1, S4, Hamiani</t>
+          <t>Chim2, TD/ G1, S14, Hamiani</t>
         </is>
       </c>
       <c r="D17" s="29" t="inlineStr">
@@ -4351,13 +4351,13 @@
       </c>
       <c r="E17" s="29" t="inlineStr">
         <is>
-          <t>Chim2, COUR/ section 1, Amphi4, Belhachemi</t>
+          <t>Chim2, COUR/ section 1, Amphi2, Belhachemi</t>
         </is>
       </c>
       <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G1, C2, Benguettat</t>
+          <t>Phys2, TD/ G1, S8, Benguettat</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -4366,12 +4366,12 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G2, S7, Belhachemi</t>
+          <t>Chim2, TD/ G2, C1, Belhachemi</t>
         </is>
       </c>
       <c r="C18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G2, S5, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G2, S13, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="D18" s="31" t="n"/>
@@ -4379,7 +4379,7 @@
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G3, S13, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G3, S10, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -4388,12 +4388,12 @@
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G3, S6, Benguettat</t>
+          <t>Phys2, TD/ G3, C2, Benguettat</t>
         </is>
       </c>
       <c r="C19" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G3, S16, Belhachemi</t>
+          <t>Chim2, TD/ G3, S15, Belhachemi</t>
         </is>
       </c>
       <c r="D19" s="31" t="n"/>
@@ -4401,7 +4401,7 @@
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>Chim2, TD/ G4, S12, Belhachemi</t>
+          <t>Chim2, TD/ G4, S9, Belhachemi</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -4411,7 +4411,7 @@
       <c r="B20" s="27" t="n"/>
       <c r="C20" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G4, S15, Benguettat</t>
+          <t>Phys2, TD/ G4, S4, Benguettat</t>
         </is>
       </c>
       <c r="D20" s="31" t="n"/>
@@ -4478,22 +4478,22 @@
       </c>
       <c r="B26" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G1, M2, Adda</t>
+          <t>Info2, TP/ G1, A2, Adda</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>Info2, TP/ G3, M1, Adda</t>
+          <t>Info2, TP/ G3, A4, Adda</t>
         </is>
       </c>
       <c r="D26" s="29" t="inlineStr">
         <is>
-          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
+          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
         </is>
       </c>
       <c r="E26" s="29" t="inlineStr">
         <is>
-          <t>Info2, COUR/ section 1, Amphi4, Adda</t>
+          <t>Info2, COUR/ section 1, Amphi2, Adda</t>
         </is>
       </c>
       <c r="F26" s="17" t="n"/>
@@ -4504,7 +4504,7 @@
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="27" t="inlineStr">
         <is>
-          <t>Phys2, TD/ G2, S5, Benguettat</t>
+          <t>Phys2, TD/ G2, S12, Benguettat</t>
         </is>
       </c>
       <c r="C27" s="27" t="n"/>
@@ -4518,7 +4518,7 @@
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="27" t="inlineStr">
         <is>
-          <t>Maths2, TD/ G4, S6, Mme.Bechaoui</t>
+          <t>Maths2, TD/ G4, C2, Mme.Bechaoui</t>
         </is>
       </c>
       <c r="C28" s="27" t="n"/>
@@ -4596,17 +4596,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>Phys2, COUR/ section 1, Amphi1, Mr.Senouci</t>
-        </is>
-      </c>
-      <c r="C35" s="29" t="inlineStr">
+          <t>Phys2, COUR/ section 1, Amphi4, Mr.Senouci</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="inlineStr">
+        <is>
+          <t>Phys2, TD/ G2, B4, Benguettat</t>
+        </is>
+      </c>
+      <c r="D35" s="29" t="inlineStr">
         <is>
           <t>HisSci, COUR/ section 1, Amphi1, Benguettat</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="inlineStr">
-        <is>
-          <t>Phys2, TD/ G2, S11, Benguettat</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -4617,12 +4617,12 @@
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
-      <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="inlineStr">
-        <is>
-          <t>Maths2, TD/ G4, S10, Mme.Bechaoui</t>
-        </is>
-      </c>
+      <c r="C36" s="27" t="inlineStr">
+        <is>
+          <t>Maths2, TD/ G4, B3, Mme.Bechaoui</t>
+        </is>
+      </c>
+      <c r="D36" s="31" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -4631,8 +4631,8 @@
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="31" t="n"/>
-      <c r="C37" s="31" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="C37" s="27" t="n"/>
+      <c r="D37" s="31" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -4641,8 +4641,8 @@
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="31" t="n"/>
-      <c r="C38" s="31" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="C38" s="27" t="n"/>
+      <c r="D38" s="31" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -4651,8 +4651,8 @@
     <row r="39" ht="21.75" customHeight="1" s="24">
       <c r="A39" s="30" t="n"/>
       <c r="B39" s="31" t="n"/>
-      <c r="C39" s="31" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="C39" s="27" t="n"/>
+      <c r="D39" s="31" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -4661,8 +4661,8 @@
     <row r="40" ht="21.75" customHeight="1" s="24">
       <c r="A40" s="30" t="n"/>
       <c r="B40" s="31" t="n"/>
-      <c r="C40" s="31" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="C40" s="27" t="n"/>
+      <c r="D40" s="31" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -4671,8 +4671,8 @@
     <row r="41" ht="21.75" customHeight="1" s="24">
       <c r="A41" s="30" t="n"/>
       <c r="B41" s="31" t="n"/>
-      <c r="C41" s="31" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="C41" s="27" t="n"/>
+      <c r="D41" s="31" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -4681,8 +4681,8 @@
     <row r="42" ht="21.75" customHeight="1" s="24">
       <c r="A42" s="30" t="n"/>
       <c r="B42" s="31" t="n"/>
-      <c r="C42" s="31" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="C42" s="27" t="n"/>
+      <c r="D42" s="31" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -4691,8 +4691,8 @@
     <row r="43" ht="21.75" customHeight="1" s="24">
       <c r="A43" s="32" t="n"/>
       <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
-      <c r="D43" s="16" t="n"/>
+      <c r="C43" s="16" t="n"/>
+      <c r="D43" s="33" t="n"/>
       <c r="E43" s="16" t="n"/>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="16" t="n"/>
@@ -5779,7 +5779,7 @@
     <mergeCell ref="D26:D34"/>
     <mergeCell ref="E26:E34"/>
     <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
@@ -5904,28 +5904,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S2, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S14, Hentit H</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S14, Latreuch</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>Thdyna, TD/ G1, S14, Hentit H</t>
-        </is>
-      </c>
+          <t>FVC, COUR/ section 1, S7, Latreuch</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>Thdyna, TD/ G1, S1, Hentit H</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, B3, Latreuch</t>
+          <t>FVC, TD/ G1, S9, Latreuch</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, Amphi3, Meghoufel</t>
+          <t>MQ, TD/ G1, Amphi4, Meghoufel</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -6018,28 +6018,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>Thdyna, COUR/ section 1, S5, Hentit H</t>
+          <t>Thdyna, COUR/ section 1, S12, Hentit H</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>FVC, COUR/ section 1, S14, Latreuch</t>
+          <t>FVC, COUR/ section 1, S5, Latreuch</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>Thdyna, TD/ G1, B4, Hentit H</t>
+          <t>Thdyna, TD/ G1, S3, Hentit H</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>FVC, TD/ G1, S12, Latreuch</t>
+          <t>FVC, TD/ G1, S6, Latreuch</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>MQ, TD/ G1, C1, Meghoufel</t>
+          <t>MQ, TD/ G1, S16, Meghoufel</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -6132,17 +6132,17 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, S4, Meghoufel</t>
+          <t>MQ, COUR/ section 1, S13, Meghoufel</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>elecmag, COUR/ section 1, S11, Abbes</t>
+          <t>elecmag, COUR/ section 1, B3, Abbes</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>elecmag, TD/ G1, S13, Abbes</t>
+          <t>elecmag, TD/ G1, S6, Abbes</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
@@ -6238,17 +6238,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>MQ, COUR/ section 1, S11, Meghoufel</t>
+          <t>MQ, COUR/ section 1, C1, Meghoufel</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>elecmag, COUR/ section 1, S11, Abbes</t>
+          <t>elecmag, COUR/ section 1, C1, Abbes</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>elecmag, TD/ G1, S7, Abbes</t>
+          <t>elecmag, TD/ G1, S13, Abbes</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -6344,12 +6344,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, S9, Melati</t>
+          <t>elecgen, COUR/ section 1, B3, Melati</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>elecgen, COUR/ section 1, S1, Melati</t>
+          <t>elecgen, COUR/ section 1, B2, Melati</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -7552,23 +7552,23 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S16, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S15, Bouattou</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S13, Abbassa</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>PhysSol, TD/ G1, S13, Bouattou</t>
-        </is>
-      </c>
+          <t>PhysNuc, COUR/ section 1, S11, Abbassa</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>PhysSol, TD/ G1, Amphi3, Bouattou</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, B2, Abbassa</t>
+          <t>PhysNuc, TD/ G1, S8, Abbassa</t>
         </is>
       </c>
       <c r="G8" s="17" t="n"/>
@@ -7662,28 +7662,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysSol, COUR/ section 1, S4, Bouattou</t>
+          <t>PhysSol, COUR/ section 1, S13, Bouattou</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysNuc, COUR/ section 1, S13, Abbassa</t>
+          <t>PhysNuc, COUR/ section 1, S6, Abbassa</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>PhysSol, TD/ G1, B3, Bouattou</t>
+          <t>PhysSol, TD/ G1, S1, Bouattou</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>PhysNuc, TD/ G1, C2, Abbassa</t>
+          <t>PhysNuc, TD/ G1, S7, Abbassa</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, B4, Boukra</t>
+          <t>TransCha, TD/ G1, S2, Boukra</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -7776,23 +7776,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S16, Boukra</t>
+          <t>TransCha, COUR/ section 1, S14, Boukra</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>PhysAto, COUR/ section 1, S7, Beghdad</t>
+          <t>PhysAto, COUR/ section 1, B4, Beghdad</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>TransCha, TD/ G1, S12, Boukra</t>
+          <t>TransCha, TD/ G1, S7, Boukra</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>PhysAto, TD/ G1, S6, Beghdad</t>
+          <t>PhysAto, TD/ G1, S13, Beghdad</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -7886,17 +7886,17 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TransCha, COUR/ section 1, S7, Boukra</t>
+          <t>TransCha, COUR/ section 1, C2, Boukra</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>PhysAto, COUR/ section 1, S7, Beghdad</t>
+          <t>PhysAto, COUR/ section 1, C2, Beghdad</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>PhysAto, TD/ G1, S6, Beghdad</t>
+          <t>PhysAto, TD/ G1, S14, Beghdad</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -9188,114 +9188,114 @@
           <t>Dimanche</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G1, S15, Kadi</t>
-        </is>
-      </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G1, C2, Belayachi</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>ChiOrg2, COUR/ section 1, Amphi2, Kadi</t>
-        </is>
-      </c>
-      <c r="E8" s="29" t="inlineStr">
-        <is>
-          <t>ThermoCin, COUR/ section 1, Amphi3, Belayachi</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>ThermoCin, COUR/ section 1, S16, Belayachi</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G1, Amphi4, Kadi</t>
+        </is>
+      </c>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>ChiOrg2, TD/ G2, S5, Kadi</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G1, S16, Belayachi</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>ThermoCin, TD/ G2, S14, Belayachi</t>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>ChiOrg2, TD/ G2, S12, Kadi</t>
-        </is>
-      </c>
-      <c r="D9" s="31" t="n"/>
-      <c r="E9" s="31" t="n"/>
-      <c r="F9" s="27" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="n"/>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G2, S2, Bourada</t>
+        </is>
+      </c>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="31" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="31" t="n"/>
-      <c r="E11" s="31" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
-      <c r="B12" s="27" t="n"/>
-      <c r="C12" s="27" t="n"/>
-      <c r="D12" s="31" t="n"/>
-      <c r="E12" s="31" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="31" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
-      <c r="B13" s="27" t="n"/>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="31" t="n"/>
-      <c r="E13" s="31" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="31" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
-      <c r="B14" s="27" t="n"/>
-      <c r="C14" s="27" t="n"/>
-      <c r="D14" s="31" t="n"/>
-      <c r="E14" s="31" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
-      <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="33" t="n"/>
-      <c r="E16" s="33" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -9308,28 +9308,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ChiOrg2, COUR/ section 1, S2, Kadi</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>ChimAna, TD/ G1, S12, Bourada</t>
-        </is>
-      </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>ThermoCin, COUR/ section 1, Amphi1, Belayachi</t>
+          <t>ChiOrg2, COUR/ section 1, S3, Kadi</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>ThermoCin, COUR/ section 1, S16, Belayachi</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>ChimAna, TD/ G1, Amphi4, Bourada</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>ChiQuan, TD/ G1, B4, Boulenouar</t>
+          <t>ChiQuan, TD/ G1, S11, Boulenouar</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ChimInorg, TD/ G1, B3, Messaoudi</t>
+          <t>ChimInorg, TD/ G1, S1, Messaoudi</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -9337,26 +9337,30 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="27" t="inlineStr">
-        <is>
-          <t>ChiQuan, TD/ G2, C2, Boulenouar</t>
-        </is>
-      </c>
-      <c r="D18" s="31" t="n"/>
+      <c r="C18" s="31" t="n"/>
+      <c r="D18" s="27" t="inlineStr">
+        <is>
+          <t>ThermoCin, TD/ G2, Amphi3, Belayachi</t>
+        </is>
+      </c>
       <c r="E18" s="27" t="n"/>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>ChimAna, TD/ G2, C1, Bourada</t>
-        </is>
-      </c>
-      <c r="G18" s="27" t="n"/>
+          <t>ChimInorg, TD/ G2, S10, Messaoudi</t>
+        </is>
+      </c>
+      <c r="G18" s="27" t="inlineStr">
+        <is>
+          <t>ChiQuan, TD/ G2, S3, Boulenouar</t>
+        </is>
+      </c>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="27" t="n"/>
-      <c r="D19" s="31" t="n"/>
+      <c r="C19" s="31" t="n"/>
+      <c r="D19" s="27" t="n"/>
       <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
@@ -9365,8 +9369,8 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="27" t="n"/>
-      <c r="D20" s="31" t="n"/>
+      <c r="C20" s="31" t="n"/>
+      <c r="D20" s="27" t="n"/>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
@@ -9375,8 +9379,8 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="27" t="n"/>
-      <c r="D21" s="31" t="n"/>
+      <c r="C21" s="31" t="n"/>
+      <c r="D21" s="27" t="n"/>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
@@ -9385,8 +9389,8 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="27" t="n"/>
-      <c r="D22" s="31" t="n"/>
+      <c r="C22" s="31" t="n"/>
+      <c r="D22" s="27" t="n"/>
       <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
@@ -9395,8 +9399,8 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="27" t="n"/>
-      <c r="D23" s="31" t="n"/>
+      <c r="C23" s="31" t="n"/>
+      <c r="D23" s="27" t="n"/>
       <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
@@ -9405,8 +9409,8 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="27" t="n"/>
-      <c r="D24" s="31" t="n"/>
+      <c r="C24" s="31" t="n"/>
+      <c r="D24" s="27" t="n"/>
       <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
@@ -9415,8 +9419,8 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="16" t="n"/>
-      <c r="D25" s="33" t="n"/>
+      <c r="C25" s="33" t="n"/>
+      <c r="D25" s="16" t="n"/>
       <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
@@ -9428,21 +9432,17 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="17" t="inlineStr">
-        <is>
-          <t>ChimInorg, TD/ G2, S15, Messaoudi</t>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>ChimAna, COUR/ section 1, S3, Bourada</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>ChimAna, COUR/ section 1, S16, Bourada</t>
-        </is>
-      </c>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>ChiQuan, COUR/ section 1, Amphi3, Benmalti</t>
-        </is>
-      </c>
+          <t>ChiQuan, COUR/ section 1, S3, Benmalti</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
@@ -9450,9 +9450,9 @@
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="27" t="n"/>
+      <c r="B27" s="31" t="n"/>
       <c r="C27" s="31" t="n"/>
-      <c r="D27" s="31" t="n"/>
+      <c r="D27" s="27" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -9460,9 +9460,9 @@
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="n"/>
+      <c r="B28" s="31" t="n"/>
       <c r="C28" s="31" t="n"/>
-      <c r="D28" s="31" t="n"/>
+      <c r="D28" s="27" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -9470,9 +9470,9 @@
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="27" t="n"/>
+      <c r="B29" s="31" t="n"/>
       <c r="C29" s="31" t="n"/>
-      <c r="D29" s="31" t="n"/>
+      <c r="D29" s="27" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -9480,9 +9480,9 @@
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="27" t="n"/>
+      <c r="B30" s="31" t="n"/>
       <c r="C30" s="31" t="n"/>
-      <c r="D30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
@@ -9490,9 +9490,9 @@
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="27" t="n"/>
+      <c r="B31" s="31" t="n"/>
       <c r="C31" s="31" t="n"/>
-      <c r="D31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
@@ -9500,9 +9500,9 @@
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="27" t="n"/>
+      <c r="B32" s="31" t="n"/>
       <c r="C32" s="31" t="n"/>
-      <c r="D32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
@@ -9510,9 +9510,9 @@
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="27" t="n"/>
+      <c r="B33" s="31" t="n"/>
       <c r="C33" s="31" t="n"/>
-      <c r="D33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
@@ -9520,9 +9520,9 @@
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="16" t="n"/>
+      <c r="B34" s="33" t="n"/>
       <c r="C34" s="33" t="n"/>
-      <c r="D34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
@@ -9536,12 +9536,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>ChimInorg, COUR/ section 1, S2, Messaoudi</t>
+          <t>ChimInorg, COUR/ section 1, S3, Messaoudi</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais 4, COUR/ section 1, S2, harrats</t>
+          <t>Anglais 4, COUR/ section 1, S3, harrats</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -9638,7 +9638,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>TAPC2, COUR/ section 1, S2, belhalfaoui</t>
+          <t>TAPC2, COUR/ section 1, S3, belhalfaoui</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -10708,12 +10708,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="D17:D25"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
-    <mergeCell ref="D26:D34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="B44:B52"/>
@@ -10839,114 +10839,114 @@
           <t>Dimanche</t>
         </is>
       </c>
-      <c r="B8" s="17" t="inlineStr">
-        <is>
-          <t>TS, TD/ G1, S13, Belhakem</t>
-        </is>
-      </c>
-      <c r="C8" s="17" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G1, B4, Belouatek</t>
-        </is>
-      </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>TS, COUR/ section 1, Amphi1, Belhakem</t>
-        </is>
-      </c>
-      <c r="E8" s="29" t="inlineStr">
-        <is>
-          <t>SpecMol, COUR/ section 1, Amphi2, Belouatek</t>
-        </is>
-      </c>
-      <c r="F8" s="17" t="n"/>
+      <c r="B8" s="29" t="inlineStr">
+        <is>
+          <t>TS, COUR/ section 1, S1, Belhakem</t>
+        </is>
+      </c>
+      <c r="C8" s="29" t="inlineStr">
+        <is>
+          <t>SpecMol, COUR/ section 1, S2, Belouatek</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="n"/>
+      <c r="E8" s="17" t="inlineStr">
+        <is>
+          <t>TS, TD/ G1, S6, Belhakem</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G1, S1, Belouatek</t>
+        </is>
+      </c>
       <c r="G8" s="17" t="n"/>
       <c r="H8" s="17" t="n"/>
     </row>
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
-      <c r="B9" s="27" t="inlineStr">
-        <is>
-          <t>SpecMol, TD/ G2, S12, Belouatek</t>
-        </is>
-      </c>
-      <c r="C9" s="27" t="inlineStr">
-        <is>
-          <t>TS, TD/ G2, C1, Belhakem</t>
-        </is>
-      </c>
-      <c r="D9" s="31" t="n"/>
-      <c r="E9" s="31" t="n"/>
-      <c r="F9" s="27" t="n"/>
+      <c r="B9" s="31" t="n"/>
+      <c r="C9" s="31" t="n"/>
+      <c r="D9" s="27" t="n"/>
+      <c r="E9" s="27" t="inlineStr">
+        <is>
+          <t>ElecChemi, TD/ G2, S7, Belayachi</t>
+        </is>
+      </c>
+      <c r="F9" s="27" t="inlineStr">
+        <is>
+          <t>TS, TD/ G2, S3, Belhakem</t>
+        </is>
+      </c>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
     </row>
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
-      <c r="B10" s="27" t="n"/>
-      <c r="C10" s="27" t="n"/>
-      <c r="D10" s="31" t="n"/>
-      <c r="E10" s="31" t="n"/>
+      <c r="B10" s="31" t="n"/>
+      <c r="C10" s="31" t="n"/>
+      <c r="D10" s="27" t="n"/>
+      <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
     </row>
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
-      <c r="B11" s="27" t="n"/>
-      <c r="C11" s="27" t="n"/>
-      <c r="D11" s="31" t="n"/>
-      <c r="E11" s="31" t="n"/>
+      <c r="B11" s="31" t="n"/>
+      <c r="C11" s="31" t="n"/>
+      <c r="D11" s="27" t="n"/>
+      <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
     </row>
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
-      <c r="B12" s="27" t="n"/>
-      <c r="C12" s="27" t="n"/>
-      <c r="D12" s="31" t="n"/>
-      <c r="E12" s="31" t="n"/>
+      <c r="B12" s="31" t="n"/>
+      <c r="C12" s="31" t="n"/>
+      <c r="D12" s="27" t="n"/>
+      <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
     </row>
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
-      <c r="B13" s="27" t="n"/>
-      <c r="C13" s="27" t="n"/>
-      <c r="D13" s="31" t="n"/>
-      <c r="E13" s="31" t="n"/>
+      <c r="B13" s="31" t="n"/>
+      <c r="C13" s="31" t="n"/>
+      <c r="D13" s="27" t="n"/>
+      <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
     </row>
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
-      <c r="B14" s="27" t="n"/>
-      <c r="C14" s="27" t="n"/>
-      <c r="D14" s="31" t="n"/>
-      <c r="E14" s="31" t="n"/>
+      <c r="B14" s="31" t="n"/>
+      <c r="C14" s="31" t="n"/>
+      <c r="D14" s="27" t="n"/>
+      <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
     </row>
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
-      <c r="B15" s="27" t="n"/>
-      <c r="C15" s="27" t="n"/>
-      <c r="D15" s="31" t="n"/>
-      <c r="E15" s="31" t="n"/>
+      <c r="B15" s="31" t="n"/>
+      <c r="C15" s="31" t="n"/>
+      <c r="D15" s="27" t="n"/>
+      <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
     </row>
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
-      <c r="B16" s="16" t="n"/>
-      <c r="C16" s="16" t="n"/>
-      <c r="D16" s="33" t="n"/>
-      <c r="E16" s="33" t="n"/>
+      <c r="B16" s="33" t="n"/>
+      <c r="C16" s="33" t="n"/>
+      <c r="D16" s="16" t="n"/>
+      <c r="E16" s="16" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -10959,28 +10959,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>TS, COUR/ section 1, S16, Belhakem</t>
-        </is>
-      </c>
-      <c r="C17" s="17" t="inlineStr">
-        <is>
-          <t>ElecChemi, TD/ G1, C1, Belayachi</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>CSC, TD/ G1, B2, Bourahla</t>
-        </is>
-      </c>
-      <c r="E17" s="29" t="inlineStr">
-        <is>
-          <t>ElecChemi, COUR/ section 1, S2, Belayachi</t>
-        </is>
-      </c>
-      <c r="F17" s="17" t="n"/>
+          <t>TS, COUR/ section 1, S1, Belhakem</t>
+        </is>
+      </c>
+      <c r="C17" s="29" t="inlineStr">
+        <is>
+          <t>SpecMol, COUR/ section 1, S2, Belouatek</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>ElecChemi, TD/ G1, S6, Belayachi</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>CSC, TD/ G1, S9, Bourahla</t>
+        </is>
+      </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>ElecChemi, TD/ G2, B2, Belayachi</t>
+          <t>CSC, TD/ G2, Amphi3, Bourahla</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -10988,13 +10988,13 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="27" t="inlineStr">
-        <is>
-          <t>CSC, TD/ G2, B4, Bourahla</t>
-        </is>
-      </c>
+      <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="n"/>
-      <c r="E18" s="31" t="n"/>
+      <c r="E18" s="27" t="inlineStr">
+        <is>
+          <t>SpecMol, TD/ G2, S7, Belouatek</t>
+        </is>
+      </c>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
@@ -11002,9 +11002,9 @@
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="27" t="n"/>
+      <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="n"/>
-      <c r="E19" s="31" t="n"/>
+      <c r="E19" s="27" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -11012,9 +11012,9 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="27" t="n"/>
+      <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="n"/>
-      <c r="E20" s="31" t="n"/>
+      <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -11022,9 +11022,9 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="27" t="n"/>
+      <c r="C21" s="31" t="n"/>
       <c r="D21" s="27" t="n"/>
-      <c r="E21" s="31" t="n"/>
+      <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -11032,9 +11032,9 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="27" t="n"/>
+      <c r="C22" s="31" t="n"/>
       <c r="D22" s="27" t="n"/>
-      <c r="E22" s="31" t="n"/>
+      <c r="E22" s="27" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -11042,9 +11042,9 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="27" t="n"/>
+      <c r="C23" s="31" t="n"/>
       <c r="D23" s="27" t="n"/>
-      <c r="E23" s="31" t="n"/>
+      <c r="E23" s="27" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -11052,9 +11052,9 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="27" t="n"/>
+      <c r="C24" s="31" t="n"/>
       <c r="D24" s="27" t="n"/>
-      <c r="E24" s="31" t="n"/>
+      <c r="E24" s="27" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -11062,9 +11062,9 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="16" t="n"/>
+      <c r="C25" s="33" t="n"/>
       <c r="D25" s="16" t="n"/>
-      <c r="E25" s="33" t="n"/>
+      <c r="E25" s="16" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -11075,98 +11075,98 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="17" t="n"/>
-      <c r="C26" s="17" t="n"/>
-      <c r="D26" s="29" t="inlineStr">
-        <is>
-          <t>ElecChemi, COUR/ section 1, Amphi2, Belayachi</t>
-        </is>
-      </c>
-      <c r="E26" s="29" t="inlineStr">
-        <is>
-          <t>SpecMol, COUR/ section 1, S3, Belouatek</t>
-        </is>
-      </c>
+      <c r="B26" s="29" t="inlineStr">
+        <is>
+          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
+        </is>
+      </c>
+      <c r="C26" s="29" t="inlineStr">
+        <is>
+          <t>CSC, COUR/ section 1, S1, Bourahla</t>
+        </is>
+      </c>
+      <c r="D26" s="17" t="n"/>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="27" t="n"/>
-      <c r="C27" s="27" t="n"/>
-      <c r="D27" s="31" t="n"/>
-      <c r="E27" s="31" t="n"/>
+      <c r="B27" s="31" t="n"/>
+      <c r="C27" s="31" t="n"/>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="27" t="n"/>
-      <c r="C28" s="27" t="n"/>
-      <c r="D28" s="31" t="n"/>
-      <c r="E28" s="31" t="n"/>
+      <c r="B28" s="31" t="n"/>
+      <c r="C28" s="31" t="n"/>
+      <c r="D28" s="27" t="n"/>
+      <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="27" t="n"/>
-      <c r="C29" s="27" t="n"/>
-      <c r="D29" s="31" t="n"/>
-      <c r="E29" s="31" t="n"/>
+      <c r="B29" s="31" t="n"/>
+      <c r="C29" s="31" t="n"/>
+      <c r="D29" s="27" t="n"/>
+      <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="27" t="n"/>
-      <c r="C30" s="27" t="n"/>
-      <c r="D30" s="31" t="n"/>
-      <c r="E30" s="31" t="n"/>
+      <c r="B30" s="31" t="n"/>
+      <c r="C30" s="31" t="n"/>
+      <c r="D30" s="27" t="n"/>
+      <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="27" t="n"/>
-      <c r="C31" s="27" t="n"/>
-      <c r="D31" s="31" t="n"/>
-      <c r="E31" s="31" t="n"/>
+      <c r="B31" s="31" t="n"/>
+      <c r="C31" s="31" t="n"/>
+      <c r="D31" s="27" t="n"/>
+      <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="27" t="n"/>
-      <c r="C32" s="27" t="n"/>
-      <c r="D32" s="31" t="n"/>
-      <c r="E32" s="31" t="n"/>
+      <c r="B32" s="31" t="n"/>
+      <c r="C32" s="31" t="n"/>
+      <c r="D32" s="27" t="n"/>
+      <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="27" t="n"/>
-      <c r="C33" s="27" t="n"/>
-      <c r="D33" s="31" t="n"/>
-      <c r="E33" s="31" t="n"/>
+      <c r="B33" s="31" t="n"/>
+      <c r="C33" s="31" t="n"/>
+      <c r="D33" s="27" t="n"/>
+      <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="16" t="n"/>
-      <c r="C34" s="16" t="n"/>
-      <c r="D34" s="33" t="n"/>
-      <c r="E34" s="33" t="n"/>
+      <c r="B34" s="33" t="n"/>
+      <c r="C34" s="33" t="n"/>
+      <c r="D34" s="16" t="n"/>
+      <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -11179,12 +11179,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>CSC, COUR/ section 1, S16, Bourahla</t>
+          <t>ElecChemi, COUR/ section 1, S1, Belayachi</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Ethique, COUR/ section 1, S16, Hamiani</t>
+          <t>CSC, COUR/ section 1, S1, Bourahla</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -11281,12 +11281,12 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>CSC, COUR/ section 1, S16, Bourahla</t>
+          <t>Ethique, COUR/ section 1, S1, Hamiani</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>Anglais, COUR/ section 1, S3, harrats</t>
+          <t>Anglais, COUR/ section 1, S16, harrats</t>
         </is>
       </c>
       <c r="D44" s="17" t="n"/>
@@ -12355,12 +12355,12 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="D8:D16"/>
-    <mergeCell ref="E8:E16"/>
+    <mergeCell ref="B8:B16"/>
+    <mergeCell ref="C8:C16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="E17:E25"/>
-    <mergeCell ref="D26:D34"/>
-    <mergeCell ref="E26:E34"/>
+    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
     <mergeCell ref="C35:C43"/>
     <mergeCell ref="B44:B52"/>
@@ -12489,23 +12489,23 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>PhysSemiC, COUR/ section 1, C2, Bencherif</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>PhysicStat2, COUR/ section 1, B3, Benotsmane</t>
+          <t>PhysSemiC, COUR/ section 1, S4, Bencherif</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>PhysSemiC, TD/ G1, S10, Bencherif</t>
         </is>
       </c>
       <c r="D8" s="17" t="n"/>
-      <c r="E8" s="17" t="inlineStr">
-        <is>
-          <t>PhysSemiC, TD/ G1, S12, Bencherif</t>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>PhysicStat2, COUR/ section 1, S11, Benotsmane</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>PhysicStat2, TD/ G1, B1, Benotsmane</t>
+          <t>PhysicStat2, TD/ G1, Amphi3, Benotsmane</t>
         </is>
       </c>
       <c r="G8" s="17" t="n"/>
@@ -12514,9 +12514,9 @@
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="27" t="n"/>
       <c r="D9" s="27" t="n"/>
-      <c r="E9" s="27" t="n"/>
+      <c r="E9" s="31" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
       <c r="H9" s="27" t="n"/>
@@ -12524,9 +12524,9 @@
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
@@ -12534,9 +12534,9 @@
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
+      <c r="C11" s="27" t="n"/>
       <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
+      <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
@@ -12544,9 +12544,9 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -12554,9 +12554,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -12564,9 +12564,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -12574,9 +12574,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -12584,9 +12584,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -12599,23 +12599,23 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>PhysSemiC, COUR/ section 1, S15, Bencherif</t>
+          <t>PhysSemiC, COUR/ section 1, S14, Bencherif</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PhysicStat2, COUR/ section 1, B3, Benotsmane</t>
-        </is>
-      </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>MNS, TD/ G1, B1, Belhouari</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
+          <t>PhysicStat2, COUR/ section 1, S7, Benotsmane</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="n"/>
+      <c r="E17" s="17" t="inlineStr">
+        <is>
+          <t>MNS, TD/ G1, S11, Belhouari</t>
+        </is>
+      </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SAM, TD/ G1, B3, Terki</t>
+          <t>SAM, TD/ G1, S8, Terki</t>
         </is>
       </c>
       <c r="G17" s="17" t="n"/>
@@ -12709,12 +12709,12 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>MNS, COUR/ section 1, S14, Belhouari</t>
+          <t>MNS, COUR/ section 1, S15, Belhouari</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>SAM, COUR/ section 1, S6, Terki</t>
+          <t>SAM, COUR/ section 1, C1, Terki</t>
         </is>
       </c>
       <c r="D26" s="17" t="n"/>
@@ -12811,12 +12811,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>SAM, COUR/ section 1, S6, Terki</t>
+          <t>SAM, COUR/ section 1, S12, Terki</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais, COUR/ section 1, S6, Hentit N</t>
+          <t>Anglais, COUR/ section 1, S12, Hentit N</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -13980,7 +13980,7 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C25"/>
     <mergeCell ref="B26:B34"/>
@@ -14111,32 +14111,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 2, Amphi3, Mme Ablaoui</t>
+          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>ALG2, COUR/ section 2, Amphi4, M. Medeghri Ahmed</t>
+          <t>ASD2, COUR/ section 2, Amphi2, HENNI F</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G1, S5, Mme SAIDANI</t>
+          <t>ALG2, TD/ G1, S13, Mme SAIDANI</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G3, S11, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G3, B4, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G1, S9, BENSALLOUA</t>
+          <t>ASD2, TD/ G1, C2, BENSALLOUA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G1, S11, M. Kaid</t>
+          <t>SM2, TD/ G1, S12, HAMAMI</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -14147,22 +14147,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G2, S11, Mme Bendehmane H</t>
+          <t>ANA2, TD/ G2, C1, Mme Bendehmane H</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G5, S7, Mme Ablaoui</t>
+          <t>ANA2, TD/ G5, C1, Mme Ablaoui</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G2, S1, Mme SAIDANI</t>
+          <t>ALG2, TD/ G3, C1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G2, S6, BENSALLOUA</t>
+          <t>ALG2, TD/ G4, C1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -14173,22 +14173,22 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G4, S7, Mme Ablaoui</t>
+          <t>ANA2, TD/ G4, C2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G7, S6, M. Ould Ali M</t>
+          <t>ANA2, TD/ G7, C2, M. Ould Ali M</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G3, S8, Mme TABHARIT</t>
+          <t>ASD2, TD/ G4, S12, KAID SLIMANE</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G4, S7, Mme TABHARIT</t>
+          <t>ASD2, TD/ G5, C2, KAID SLIMANE</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -14199,18 +14199,18 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>ANA2, TD/ G6, S6, M. Ould Ali M</t>
+          <t>ANA2, TD/ G6, S12, M. Ould Ali M</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G4, S10, KAID SLIMANE</t>
+          <t>ASD2, TD/ G7, S13, HENNI F</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G5, S5, KAID SLIMANE</t>
+          <t>SM2, TD/ G6, S13, HASSAINE</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -14273,32 +14273,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA2, COUR/ section 2, Amphi3, Mme Ablaoui</t>
+          <t>ANA2, COUR/ section 2, Amphi2, Mme Ablaoui</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>ASD2, COUR/ section 2, Amphi4, HENNI F</t>
+          <t>ALG2, COUR/ section 2, Amphi2, M. Medeghri Ahmed</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G1, S10, HAMAMI</t>
+          <t>ANA2, TD/ G1, C1, M. Kaid</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G2, S9, HAMAMI</t>
+          <t>IPSD, TD/ G4, C2, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>SM2, TD/ G3, S10, HAMAMI</t>
+          <t>ASD2, TD/ G2, C2, BENSALLOUA</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G1, S11, Mme Kaisserli</t>
+          <t>IPSD, TD/ G1, C1, Mme Kaisserli</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -14309,22 +14309,22 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G3, S8, BENSALLOUA</t>
+          <t>ALG2, TD/ G2, C2, Mme SAIDANI</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G4, S10, Mme Kaisserli</t>
+          <t>ALG2, TD/ G6, B4, Mme TABHARIT</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G5, S11, HASSAINE</t>
+          <t>SM2, TD/ G5, S13, HASSAINE</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G5, S7, M. Benyatou Kamel</t>
+          <t>ASD2, TP/ G2, A1, BENSALLOUA</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -14335,22 +14335,22 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G5, S1, Mme TABHARIT</t>
+          <t>ASD2, TD/ G3, S13, BENSALLOUA</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G7, S8, Mme TABHARIT</t>
+          <t>SM2, TD/ G7, C1, HASSAINE</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>ALG2, TD/ G6, S8, Mme TABHARIT</t>
+          <t>ASD2, TD/ G6, S12, KAID SLIMANE</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G6, S10, HASSAINE</t>
+          <t>IPSD, TD/ G5, C2, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -14361,18 +14361,18 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G6, S9, KAID SLIMANE</t>
+          <t>ALG2, TD/ G5, S12, Mme TABHARIT</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TD/ G7, S9, HENNI F</t>
+          <t>ALG2, TD/ G7, C1, Mme TABHARIT</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G7, S6, Mlle Dj. BENSIKADDOUR</t>
+          <t>IPSD, TD/ G7, S12, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -14435,32 +14435,32 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>SM2, COUR/ section 2, Amphi4, HASSAINE</t>
+          <t>IPSD, COUR/ section 2, Amphi2, Mlle Dj. BENSIKADDOUR</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>IPSD, COUR/ section 2, Amphi3, Mlle Dj. BENSIKADDOUR</t>
+          <t>SM2, COUR/ section 2, Amphi2, HASSAINE</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G1, S5, Labdelli</t>
+          <t>ASD2, TP/ G1, A1, BENSALLOUA</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G3, S9, Mme Kaisserli</t>
+          <t>SM2, TD/ G2, B1, HAMAMI</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G1, M3, BENSALLOUA</t>
+          <t>OPM, TP/ G1, C3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G2, M2, BENSALLOUA</t>
+          <t>PHY2, TD/ G1, B1, Labdelli</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -14471,22 +14471,22 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G2, S7, Mme Kaisserli</t>
+          <t>ASD2, TP/ G4, A2, KAID SLIMANE</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G4, S10, M. Benchehida</t>
+          <t>IPSD, TD/ G3, B2, Mme Kaisserli</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G2, S8, Labdelli</t>
+          <t>IPSD, TD/ G2, B3, Mme Kaisserli</t>
         </is>
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G3, S10, Labdelli</t>
+          <t>OPM, TP/ G2, C3, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
@@ -14497,22 +14497,22 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>IPSD, TD/ G6, S6, M. Benyatou Kamel</t>
+          <t>IPSD, TD/ G6, C1, M. Benyatou Kamel</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G5, M1, KAID SLIMANE</t>
+          <t>ASD2, TP/ G5, A4, KAID SLIMANE</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G4, S1, HAMAMI</t>
+          <t>SM2, TD/ G3, B2, HAMAMI</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G4, M1, KAID SLIMANE</t>
+          <t>OPM, TP/ G4, C4, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
@@ -14523,18 +14523,18 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>SM2, TD/ G7, S11, HASSAINE</t>
+          <t>ASD2, TP/ G7, A3, HENNI F</t>
         </is>
       </c>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G5, S9, M. Benchehida</t>
+          <t>ASD2, TP/ G6, A4, KAID SLIMANE</t>
         </is>
       </c>
       <c r="G29" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G6, S11, M. Benchehida</t>
+          <t>PHY2, TD/ G5, B2, M. Benchehida</t>
         </is>
       </c>
       <c r="H29" s="27" t="n"/>
@@ -14597,28 +14597,32 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>OPM, COUR/ section 2, Amphi3, Mlle Ali Merina.H</t>
+          <t>OPM, COUR/ section 2, Amphi2, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>TIC, COUR/ section 2, Amphi3, HENNI K.</t>
+          <t>TIC, COUR/ section 2, Amphi2, HENNI K.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G3, C4, BENSALLOUA</t>
-        </is>
-      </c>
-      <c r="E35" s="17" t="n"/>
+          <t>ASD2, TP/ G3, A3, BENSALLOUA</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G2, B2, Labdelli</t>
+        </is>
+      </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G1, M2, Mlle Hamou Maamar.M</t>
+          <t>PHY2, TD/ G4, B3, M. Benchehida</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G6, M3, Mlle Ali Merina.H</t>
+          <t>OPM, TP/ G3, A1, Mlle Hamou Maamar.M</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -14629,16 +14633,24 @@
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G4, A4, Mlle Ali Merina.H</t>
-        </is>
-      </c>
-      <c r="E36" s="27" t="n"/>
+          <t>SM2, TD/ G4, B3, HAMAMI</t>
+        </is>
+      </c>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>PHY2, TD/ G7, B3, M. Benchehida</t>
+        </is>
+      </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>OPM, TP/ G5, M1, Mlle Ali Merina.H</t>
-        </is>
-      </c>
-      <c r="G36" s="27" t="n"/>
+          <t>OPM, TP/ G6, A2, Mlle Ali Merina.H</t>
+        </is>
+      </c>
+      <c r="G36" s="27" t="inlineStr">
+        <is>
+          <t>OPM, TP/ G7, A2, Mlle Ali Merina.H</t>
+        </is>
+      </c>
       <c r="H36" s="27" t="n"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
@@ -14647,15 +14659,11 @@
       <c r="C37" s="31" t="n"/>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>ASD2, TP/ G6, C3, KAID SLIMANE</t>
+          <t>OPM, TP/ G5, A4, Mlle Ali Merina.H</t>
         </is>
       </c>
       <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="inlineStr">
-        <is>
-          <t>ASD2, TP/ G7, M3, HENNI F</t>
-        </is>
-      </c>
+      <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
     </row>
@@ -14665,7 +14673,7 @@
       <c r="C38" s="31" t="n"/>
       <c r="D38" s="27" t="inlineStr">
         <is>
-          <t>PHY2, TD/ G7, S8, M. Benchehida</t>
+          <t>PHY2, TD/ G6, B4, M. Benchehida</t>
         </is>
       </c>
       <c r="E38" s="27" t="n"/>
@@ -14731,19 +14739,15 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>OPM, TP/ G2, M3, Mlle Hamou Maamar.M</t>
+          <t>PHY2, TD/ G3, B1, Labdelli</t>
         </is>
       </c>
       <c r="C44" s="29" t="inlineStr">
         <is>
-          <t>PHY2, COUR/ section 2, Amphi4, M. Benchehida</t>
-        </is>
-      </c>
-      <c r="D44" s="17" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G3, M3, Mlle Hamou Maamar.M</t>
-        </is>
-      </c>
+          <t>PHY2, COUR/ section 2, Amphi1, M. Benchehida</t>
+        </is>
+      </c>
+      <c r="D44" s="17" t="n"/>
       <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
@@ -14751,11 +14755,7 @@
     </row>
     <row r="45" ht="21.75" customHeight="1" s="24">
       <c r="A45" s="30" t="n"/>
-      <c r="B45" s="27" t="inlineStr">
-        <is>
-          <t>OPM, TP/ G7, M2, Mlle Ali Merina.H</t>
-        </is>
-      </c>
+      <c r="B45" s="27" t="n"/>
       <c r="C45" s="31" t="n"/>
       <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
@@ -15946,7 +15946,7 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>TL, COUR/ section 1, Amphi2, BESSAOUD K.</t>
+          <t>TL, COUR/ section 1, Amphi3, BESSAOUD K.</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
@@ -15956,12 +15956,12 @@
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G1, S4, MIDOUN M.</t>
+          <t>TL, TD/ G1, S14, MIDOUN M.</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>TL, TD/ G5, S5, BESNASSI</t>
+          <t>TL, TD/ G5, S12, BESNASSI</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
@@ -15971,7 +15971,7 @@
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>BDD, TD/ G1, S16, MIROUD</t>
+          <t>BDD, TD/ G1, S5, MIROUD</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -15982,22 +15982,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G2, S16, BOUZEBIBA</t>
+          <t>SE1, TD/ G2, S5, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G6, S3, KHIAT</t>
+          <t>SE1, TD/ G6, S14, KHIAT</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G2, S11, MIDOUN M.</t>
+          <t>TL, TD/ G2, S14, MIDOUN M.</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G2, S15, MENAD</t>
+          <t>BDD, TD/ G2, S6, MENAD</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -16008,22 +16008,22 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G3, S15, DJAHAFI</t>
+          <t>SE1, TD/ G3, S6, DJAHAFI</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G8, S4, BESSAOUD K.</t>
+          <t>TL, TD/ G8, S13, BESSAOUD K.</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G4, S4, DJAHAFI</t>
+          <t>SE1, TD/ G4, S6, DJAHAFI</t>
         </is>
       </c>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G3, S4, MIDOUN M.</t>
+          <t>TL, TD/ G3, S14, MIDOUN M.</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -16034,22 +16034,22 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G4, S3, BESNASSI</t>
+          <t>TL, TD/ G4, S15, BESNASSI</t>
         </is>
       </c>
       <c r="E11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G9, S2, KENNICHE A.</t>
+          <t>SE1, TD/ G9, S15, KENNICHE A.</t>
         </is>
       </c>
       <c r="F11" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G6, S7, BESNASSI</t>
+          <t>TL, TD/ G6, S15, BESNASSI</t>
         </is>
       </c>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G5, S3, KHIAT</t>
+          <t>SE1, TD/ G5, S15, KHIAT</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -16060,18 +16060,18 @@
       <c r="C12" s="31" t="n"/>
       <c r="D12" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G7, S2, BESSAOUD K.</t>
+          <t>TL, TD/ G7, S4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="inlineStr">
         <is>
-          <t>TL, TD/ G9, S6, BESSAOUD K.</t>
+          <t>TL, TD/ G9, S4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="G12" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G7, S2, KENNICHE A.</t>
+          <t>SE1, TD/ G7, S4, KENNICHE A.</t>
         </is>
       </c>
       <c r="H12" s="27" t="n"/>
@@ -16124,7 +16124,7 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>BDD, COUR/ section 1, Amphi2, MAGHNI SANDID Z.</t>
+          <t>BDD, COUR/ section 1, Amphi3, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
@@ -16139,12 +16139,12 @@
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G2, S6, BOUZEBIBA</t>
+          <t>RÉS, TD/ G2, S14, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G1, C4, MIDOUN M.</t>
+          <t>TL, TP/ G1, A1, MIDOUN M.</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
@@ -16160,22 +16160,22 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G3, S7, MENAD</t>
+          <t>BDD, TD/ G3, S15, MENAD</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G4, S11, MENAD</t>
+          <t>BDD, TD/ G4, S12, MENAD</t>
         </is>
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G3, S6, BOUZEBIBA</t>
+          <t>RÉS, TD/ G3, S15, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G2, M2, MIDOUN M.</t>
+          <t>TL, TP/ G2, A2, MIDOUN M.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -16186,22 +16186,22 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G5, S6, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G5, S4, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G6, S7, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G6, S13, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G4, C3, BESNASSI</t>
+          <t>TL, TP/ G4, A2, BESNASSI</t>
         </is>
       </c>
       <c r="G19" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G5, M1, BESNASSI</t>
+          <t>TL, TP/ G5, A3, BESNASSI</t>
         </is>
       </c>
       <c r="H19" s="27" t="n"/>
@@ -16212,22 +16212,22 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G7, S4, LAREDJ A. M</t>
+          <t>RÉS, TD/ G7, S6, LAREDJ A. M</t>
         </is>
       </c>
       <c r="E20" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G9, S5, LAREDJ A. M</t>
+          <t>RÉS, TD/ G9, S15, LAREDJ A. M</t>
         </is>
       </c>
       <c r="F20" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G7, S7, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G7, S14, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="G20" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G7, C4, BESSAOUD K.</t>
+          <t>TL, TP/ G7, A4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="H20" s="27" t="n"/>
@@ -16238,18 +16238,18 @@
       <c r="C21" s="31" t="n"/>
       <c r="D21" s="27" t="inlineStr">
         <is>
-          <t>SE1, TD/ G8, S11, KENNICHE A.</t>
+          <t>SE1, TD/ G8, S14, KENNICHE A.</t>
         </is>
       </c>
       <c r="E21" s="27" t="n"/>
       <c r="F21" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G8, A4, BESSAOUD K.</t>
+          <t>TL, TP/ G8, A3, BESSAOUD K.</t>
         </is>
       </c>
       <c r="G21" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G8, S5, LAREDJ A. M</t>
+          <t>RÉS, TD/ G8, S13, LAREDJ A. M</t>
         </is>
       </c>
       <c r="H21" s="27" t="n"/>
@@ -16307,27 +16307,27 @@
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>DAW, COUR/ section 1, Amphi2, SEHABA K.</t>
+          <t>DAW, COUR/ section 1, Amphi3, SEHABA K.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>TL, TP/ G3, M3, MIDOUN M.</t>
+          <t>TL, TP/ G3, A4, MIDOUN M.</t>
         </is>
       </c>
       <c r="E26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G1, A4, MEROUFEL B.</t>
+          <t>BDD, TP/ G1, M1, MEROUFEL B.</t>
         </is>
       </c>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SE1, TP/ G3, M2, HENNI K</t>
+          <t>SE1, TP/ G3, C4, HENNI K</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>BDD, TP/ G2, A4, MEROUFEL B.</t>
+          <t>BDD, TP/ G2, M3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -16338,12 +16338,12 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G4, S3, BOUZEBIBA</t>
+          <t>RÉS, TD/ G4, S12, BOUZEBIBA</t>
         </is>
       </c>
       <c r="E27" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G2, C4, HENNI K</t>
+          <t>SE1, TP/ G2, C3, HENNI K</t>
         </is>
       </c>
       <c r="F27" s="27" t="inlineStr">
@@ -16353,7 +16353,7 @@
       </c>
       <c r="G27" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G3, A3, BETOUATI</t>
+          <t>SE1, TP/ G5, M1, DJAHAFI</t>
         </is>
       </c>
       <c r="H27" s="27" t="n"/>
@@ -16364,22 +16364,22 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G6, M2, BESNASSI</t>
+          <t>TL, TP/ G6, C3, BESNASSI</t>
         </is>
       </c>
       <c r="E28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G5, S11, BOUZEBIBA</t>
+          <t>RÉS, TD/ G5, B3, BOUZEBIBA</t>
         </is>
       </c>
       <c r="F28" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TD/ G6, S11, BOUZEBIBA</t>
+          <t>RÉS, TD/ G6, C1, BOUZEBIBA</t>
         </is>
       </c>
       <c r="G28" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G5, C4, DJAHAFI</t>
+          <t>SE1, TP/ G9, M2, KENNICHE A.</t>
         </is>
       </c>
       <c r="H28" s="27" t="n"/>
@@ -16390,24 +16390,20 @@
       <c r="C29" s="31" t="n"/>
       <c r="D29" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G8, S4, MAGHNI SANDID Z.</t>
+          <t>BDD, TD/ G8, C2, MAGHNI SANDID Z.</t>
         </is>
       </c>
       <c r="E29" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G7, C3, KENNICHE A.</t>
+          <t>SE1, TP/ G7, C4, KENNICHE A.</t>
         </is>
       </c>
       <c r="F29" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G8, C4, KENNICHE A.</t>
-        </is>
-      </c>
-      <c r="G29" s="27" t="inlineStr">
-        <is>
-          <t>BDD, TP/ G7, A2, MIROUD</t>
-        </is>
-      </c>
+          <t>SE1, TP/ G8, M2, KENNICHE A.</t>
+        </is>
+      </c>
+      <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
@@ -16416,20 +16412,16 @@
       <c r="C30" s="31" t="n"/>
       <c r="D30" s="27" t="inlineStr">
         <is>
-          <t>TL, TP/ G9, M1, BESSAOUD K.</t>
+          <t>TL, TP/ G9, C4, BESSAOUD K.</t>
         </is>
       </c>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="inlineStr">
         <is>
-          <t>BDD, TD/ G9, S10, MAGHNI SANDID Z.</t>
-        </is>
-      </c>
-      <c r="G30" s="27" t="inlineStr">
-        <is>
-          <t>SE1, TP/ G9, C3, KENNICHE A.</t>
-        </is>
-      </c>
+          <t>BDD, TD/ G9, B4, MAGHNI SANDID Z.</t>
+        </is>
+      </c>
+      <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
@@ -16480,32 +16472,32 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G1, C4,  MOUSSA M.</t>
+          <t>RÉS, TP/ G1, A4,  MOUSSA M.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G2, M1,  MOUSSA M.</t>
+          <t>RÉS, TP/ G2, A3,  MOUSSA M.</t>
         </is>
       </c>
       <c r="D35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G4, A1, ABID M.</t>
+          <t>DAW, TP/ G1, M3, HENNI K</t>
         </is>
       </c>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>DAW, TP/ G1, M1, HENNI K</t>
+          <t>DAW, TP/ G2, A3, HENNI K</t>
         </is>
       </c>
       <c r="F35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G1, C3, BETOUATI</t>
+          <t>DAW, TP/ G3, C3, HENNI K</t>
         </is>
       </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G2, M1, BETOUATI</t>
+          <t>POO, TP/ G1, A4, BETOUATI</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -16514,32 +16506,32 @@
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G3, C3, BENHAMED</t>
+          <t>BDD, TP/ G3, A2, BETOUATI</t>
         </is>
       </c>
       <c r="C36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G4, C4, BENHAMED</t>
+          <t>RÉS, TP/ G3, A4, BENHAMED</t>
         </is>
       </c>
       <c r="D36" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G5, A2, BENHAMED</t>
+          <t>POO, TP/ G4, M2, ABID M.</t>
         </is>
       </c>
       <c r="E36" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G5, M2, ABID M.</t>
+          <t>DAW, TP/ G5, A4, SEHABA K.</t>
         </is>
       </c>
       <c r="F36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G2, A4, HENNI K</t>
+          <t>BDD, TP/ G6, A3, BETOUATI</t>
         </is>
       </c>
       <c r="G36" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G3, C3, HENNI K</t>
+          <t>RÉS, TP/ G5, A3, BENHAMED</t>
         </is>
       </c>
       <c r="H36" s="27" t="n"/>
@@ -16548,32 +16540,32 @@
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G4, M2, BETOUATI</t>
+          <t>RÉS, TP/ G4, C3, BENHAMED</t>
         </is>
       </c>
       <c r="C37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G5, M3, BETOUATI</t>
+          <t>BDD, TP/ G4, A1, BETOUATI</t>
         </is>
       </c>
       <c r="D37" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G6, A3, BETOUATI</t>
+          <t>BDD, TP/ G5, C3, BETOUATI</t>
         </is>
       </c>
       <c r="E37" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G7, C4, SEHABA K.</t>
+          <t>POO, TP/ G6, A2, ABID M.</t>
         </is>
       </c>
       <c r="F37" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G6, C4, BENHAMED</t>
+          <t>RÉS, TP/ G7, A4, BENHAMED</t>
         </is>
       </c>
       <c r="G37" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G5, A4, SEHABA K.</t>
+          <t>POO, TP/ G7, C3, ABID M.</t>
         </is>
       </c>
       <c r="H37" s="27" t="n"/>
@@ -16582,24 +16574,28 @@
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="27" t="inlineStr">
         <is>
-          <t>SE1, TP/ G6, M3, DJAHAFI</t>
+          <t>SE1, TP/ G6, A1, DJAHAFI</t>
         </is>
       </c>
       <c r="C38" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G6, C3, ABID M.</t>
-        </is>
-      </c>
-      <c r="D38" s="27" t="n"/>
+          <t>POO, TP/ G5, C3, ABID M.</t>
+        </is>
+      </c>
+      <c r="D38" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G6, M1, BENHAMED</t>
+        </is>
+      </c>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G8, A3, SEHABA K.</t>
+          <t>DAW, TP/ G8, C4, SEHABA K.</t>
         </is>
       </c>
       <c r="G38" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G7, M2, BENHAMED</t>
+          <t>DAW, TP/ G9, C4, SEHABA K.</t>
         </is>
       </c>
       <c r="H38" s="27" t="n"/>
@@ -16608,22 +16604,22 @@
       <c r="A39" s="30" t="n"/>
       <c r="B39" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G8, M1, MIROUD</t>
+          <t>BDD, TP/ G7, A3, MIROUD</t>
         </is>
       </c>
       <c r="C39" s="27" t="inlineStr">
         <is>
-          <t>BDD, TP/ G9, M2, MIROUD</t>
-        </is>
-      </c>
-      <c r="D39" s="27" t="n"/>
+          <t>BDD, TP/ G8, A2, MIROUD</t>
+        </is>
+      </c>
+      <c r="D39" s="27" t="inlineStr">
+        <is>
+          <t>BDD, TP/ G9, C4, MIROUD</t>
+        </is>
+      </c>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
-      <c r="G39" s="27" t="inlineStr">
-        <is>
-          <t>POO, TP/ G8, C4, ABID M.</t>
-        </is>
-      </c>
+      <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" s="24">
@@ -16674,24 +16670,16 @@
       </c>
       <c r="B44" s="17" t="inlineStr">
         <is>
-          <t>POO, TP/ G3, C4, BETOUATI</t>
+          <t>POO, TP/ G2, A2, BETOUATI</t>
         </is>
       </c>
       <c r="C44" s="17" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G9, M3, BENHAMED</t>
-        </is>
-      </c>
-      <c r="D44" s="17" t="inlineStr">
-        <is>
-          <t>POO, TP/ G9, M2, ABID M.</t>
-        </is>
-      </c>
-      <c r="E44" s="17" t="inlineStr">
-        <is>
-          <t>DAW, TP/ G9, M3, SEHABA K.</t>
-        </is>
-      </c>
+          <t>POO, TP/ G3, A2, BETOUATI</t>
+        </is>
+      </c>
+      <c r="D44" s="17" t="n"/>
+      <c r="E44" s="17" t="n"/>
       <c r="F44" s="17" t="n"/>
       <c r="G44" s="17" t="n"/>
       <c r="H44" s="17" t="n"/>
@@ -16703,7 +16691,11 @@
           <t>DAW, TP/ G4, A4, HENNI K</t>
         </is>
       </c>
-      <c r="C45" s="27" t="n"/>
+      <c r="C45" s="27" t="inlineStr">
+        <is>
+          <t>DAW, TP/ G7, A4, SEHABA K.</t>
+        </is>
+      </c>
       <c r="D45" s="27" t="n"/>
       <c r="E45" s="27" t="n"/>
       <c r="F45" s="27" t="n"/>
@@ -16714,10 +16706,14 @@
       <c r="A46" s="30" t="n"/>
       <c r="B46" s="27" t="inlineStr">
         <is>
-          <t>DAW, TP/ G6, A3, SEHABA K.</t>
-        </is>
-      </c>
-      <c r="C46" s="27" t="n"/>
+          <t>DAW, TP/ G6, C3, SEHABA K.</t>
+        </is>
+      </c>
+      <c r="C46" s="27" t="inlineStr">
+        <is>
+          <t>POO, TP/ G8, A3, ABID M.</t>
+        </is>
+      </c>
       <c r="D46" s="27" t="n"/>
       <c r="E46" s="27" t="n"/>
       <c r="F46" s="27" t="n"/>
@@ -16728,10 +16724,14 @@
       <c r="A47" s="30" t="n"/>
       <c r="B47" s="27" t="inlineStr">
         <is>
-          <t>POO, TP/ G7, C3, ABID M.</t>
-        </is>
-      </c>
-      <c r="C47" s="27" t="n"/>
+          <t>RÉS, TP/ G8, A1, BENHAMED</t>
+        </is>
+      </c>
+      <c r="C47" s="27" t="inlineStr">
+        <is>
+          <t>RÉS, TP/ G9, A1, BENHAMED</t>
+        </is>
+      </c>
       <c r="D47" s="27" t="n"/>
       <c r="E47" s="27" t="n"/>
       <c r="F47" s="27" t="n"/>
@@ -16742,7 +16742,7 @@
       <c r="A48" s="30" t="n"/>
       <c r="B48" s="27" t="inlineStr">
         <is>
-          <t>RÉS, TP/ G8, M1, BENHAMED</t>
+          <t>POO, TP/ G9, A3, ABID M.</t>
         </is>
       </c>
       <c r="C48" s="27" t="n"/>
@@ -17902,32 +17902,32 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>AP, COUR/ section 1, Amphi1, MECHAOUI M. D.G</t>
+          <t>AP, COUR/ section 1, Amphi4, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>SI, COUR/ section 1, Amphi2, BENIDRIS F.Z</t>
+          <t>SI, COUR/ section 1, Amphi4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G1, S14, BENIDRIS F.Z</t>
+          <t>SI, TD/ G1, S7, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E8" s="17" t="inlineStr">
         <is>
-          <t>SI, TD/ G5, S16, BENIDRIS F.Z</t>
+          <t>SI, TD/ G5, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G1, S3, HOCINE N.</t>
+          <t>AP, TP/ G1, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G1, M3, DELALI A.</t>
+          <t>DSS, TP/ G1, A1, HOCINE N.</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -17938,22 +17938,22 @@
       <c r="C9" s="31" t="n"/>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G2, S13, HOCINE N.</t>
+          <t>AP, TP/ G2, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E9" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G6, S15, HOCINE N.</t>
+          <t>AP, TP/ G6, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="F9" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G2, M3, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G2, A2, DELALI A.</t>
         </is>
       </c>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G2, S14, BENIDRIS F.Z</t>
+          <t>SI, TD/ G2, S7, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -17964,17 +17964,17 @@
       <c r="C10" s="31" t="n"/>
       <c r="D10" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G3, M3, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G3, A2, DELALI A.</t>
         </is>
       </c>
       <c r="E10" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G7, M3, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G7, A2, DELALI A.</t>
         </is>
       </c>
       <c r="F10" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G3, M2, DELALI A.</t>
+          <t>DSS, TP/ G3, A3, HOCINE N.</t>
         </is>
       </c>
       <c r="G10" s="27" t="n"/>
@@ -17986,7 +17986,7 @@
       <c r="C11" s="31" t="n"/>
       <c r="D11" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G4, M2, DELALI A.</t>
+          <t>DSS, TP/ G4, A3, HOCINE N.</t>
         </is>
       </c>
       <c r="E11" s="27" t="n"/>
@@ -18052,32 +18052,32 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>IA, COUR/ section 1, Amphi1, HOCINE N.</t>
+          <t>IA, COUR/ section 1, Amphi4, DELALI A.</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>DSS, COUR/ section 1, Amphi2, DELALI A.</t>
+          <t>DSS, COUR/ section 1, Amphi4, HOCINE N.</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G1, M3, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G1, A2, DELALI A.</t>
         </is>
       </c>
       <c r="E17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G5, S3, HOCINE N.</t>
+          <t>AP, TP/ G5, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="F17" s="17" t="inlineStr">
         <is>
-          <t>RS, TD/ G3, S4, HOCINE N.</t>
+          <t>AP, TP/ G3, A4, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>AP, TP/ G4, A4, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G4, C4, DELALI A.</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -18088,7 +18088,7 @@
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G2, M2, DELALI A.</t>
+          <t>DSS, TP/ G2, A3, HOCINE N.</t>
         </is>
       </c>
       <c r="E18" s="27" t="inlineStr">
@@ -18098,12 +18098,12 @@
       </c>
       <c r="F18" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G4, S5, BENIDRIS F.Z</t>
+          <t>SI, TD/ G4, S4, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G5, A3, DELALI A.</t>
+          <t>DSS, TP/ G5, M1, HOCINE N.</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -18114,17 +18114,17 @@
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="inlineStr">
         <is>
-          <t>SI, TD/ G3, S3, BENIDRIS F.Z</t>
+          <t>SI, TD/ G3, S7, BENIDRIS F.Z</t>
         </is>
       </c>
       <c r="E19" s="27" t="inlineStr">
         <is>
-          <t>DSS, TP/ G7, M1, DELALI A.</t>
+          <t>DSS, TP/ G7, A2, HOCINE N.</t>
         </is>
       </c>
       <c r="F19" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G5, A3, MECHAOUI M. D.G</t>
+          <t>IA, TP/ G5, C3, DELALI A.</t>
         </is>
       </c>
       <c r="G19" s="27" t="n"/>
@@ -18136,7 +18136,7 @@
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="inlineStr">
         <is>
-          <t>RS, TD/ G4, S2, HOCINE N.</t>
+          <t>AP, TP/ G4, A1, MECHAOUI M. D.G</t>
         </is>
       </c>
       <c r="E20" s="27" t="n"/>
@@ -18200,122 +18200,126 @@
           <t>Mardi</t>
         </is>
       </c>
-      <c r="B26" s="29" t="inlineStr">
-        <is>
-          <t>CDS, COUR/ section 1, Amphi2, MIDOUN M.</t>
+      <c r="B26" s="17" t="inlineStr">
+        <is>
+          <t>RS, TD/ G1, B2, HOCINE N.</t>
         </is>
       </c>
       <c r="C26" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G1, M2, HOCINE N.</t>
+          <t>DSS, TP/ G6, A2, HOCINE N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>DSS, TP/ G6, C4, DELALI A.</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>IA, TP/ G2, A3, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="F26" s="17" t="n"/>
+          <t>RS, TD/ G2, S13, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="E26" s="29" t="inlineStr">
+        <is>
+          <t>CDS, COUR/ section 1, Amphi1, MIDOUN M.</t>
+        </is>
+      </c>
+      <c r="F26" s="17" t="inlineStr">
+        <is>
+          <t>RS, TD/ G3, C2, HOCINE N.</t>
+        </is>
+      </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G3, A1, HOCINE N.</t>
+          <t>RS, TD/ G4, B3, HOCINE N.</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
-      <c r="B27" s="31" t="n"/>
+      <c r="B27" s="27" t="inlineStr">
+        <is>
+          <t>IA, TP/ G6, A1, DELALI A.</t>
+        </is>
+      </c>
       <c r="C27" s="27" t="inlineStr">
         <is>
-          <t>AP, TP/ G6, M3, MECHAOUI M. D.G</t>
-        </is>
-      </c>
-      <c r="D27" s="27" t="inlineStr">
-        <is>
-          <t>RS, TD/ G7, S2, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="E27" s="27" t="n"/>
+          <t>AP, TP/ G7, A1, MECHAOUI M. D.G</t>
+        </is>
+      </c>
+      <c r="D27" s="27" t="n"/>
+      <c r="E27" s="31" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
-      <c r="B28" s="31" t="n"/>
-      <c r="C28" s="27" t="inlineStr">
-        <is>
-          <t>SI, TD/ G7, S1, BENIDRIS F.Z</t>
-        </is>
-      </c>
+      <c r="B28" s="27" t="inlineStr">
+        <is>
+          <t>SI, TD/ G7, B1, BENIDRIS F.Z</t>
+        </is>
+      </c>
+      <c r="C28" s="27" t="n"/>
       <c r="D28" s="27" t="n"/>
-      <c r="E28" s="27" t="n"/>
+      <c r="E28" s="31" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
       <c r="H28" s="27" t="n"/>
     </row>
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
-      <c r="B29" s="31" t="n"/>
+      <c r="B29" s="27" t="n"/>
       <c r="C29" s="27" t="n"/>
       <c r="D29" s="27" t="n"/>
-      <c r="E29" s="27" t="n"/>
+      <c r="E29" s="31" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
       <c r="H29" s="27" t="n"/>
     </row>
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
-      <c r="B30" s="31" t="n"/>
+      <c r="B30" s="27" t="n"/>
       <c r="C30" s="27" t="n"/>
       <c r="D30" s="27" t="n"/>
-      <c r="E30" s="27" t="n"/>
+      <c r="E30" s="31" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
       <c r="H30" s="27" t="n"/>
     </row>
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
-      <c r="B31" s="31" t="n"/>
+      <c r="B31" s="27" t="n"/>
       <c r="C31" s="27" t="n"/>
       <c r="D31" s="27" t="n"/>
-      <c r="E31" s="27" t="n"/>
+      <c r="E31" s="31" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
       <c r="H31" s="27" t="n"/>
     </row>
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
-      <c r="B32" s="31" t="n"/>
+      <c r="B32" s="27" t="n"/>
       <c r="C32" s="27" t="n"/>
       <c r="D32" s="27" t="n"/>
-      <c r="E32" s="27" t="n"/>
+      <c r="E32" s="31" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
       <c r="H32" s="27" t="n"/>
     </row>
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
-      <c r="B33" s="31" t="n"/>
+      <c r="B33" s="27" t="n"/>
       <c r="C33" s="27" t="n"/>
       <c r="D33" s="27" t="n"/>
-      <c r="E33" s="27" t="n"/>
+      <c r="E33" s="31" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
       <c r="H33" s="27" t="n"/>
     </row>
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
-      <c r="B34" s="33" t="n"/>
+      <c r="B34" s="16" t="n"/>
       <c r="C34" s="16" t="n"/>
       <c r="D34" s="16" t="n"/>
-      <c r="E34" s="16" t="n"/>
+      <c r="E34" s="33" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
       <c r="H34" s="16" t="n"/>
@@ -18328,25 +18332,21 @@
       </c>
       <c r="B35" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G4, A4, HOCINE N.</t>
+          <t>RS, TD/ G5, B1, HOCINE N.</t>
         </is>
       </c>
       <c r="C35" s="17" t="inlineStr">
         <is>
-          <t>IA, TP/ G5, A4, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>IA, TP/ G6, C3, HOCINE N.</t>
-        </is>
-      </c>
-      <c r="F35" s="17" t="inlineStr">
-        <is>
-          <t>IA, TP/ G7, A2, HOCINE N.</t>
-        </is>
-      </c>
+          <t>RS, TD/ G6, B1, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="D35" s="17" t="inlineStr">
+        <is>
+          <t>RS, TD/ G7, C1, HOCINE N.</t>
+        </is>
+      </c>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -19508,7 +19508,7 @@
     <mergeCell ref="C8:C16"/>
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C25"/>
-    <mergeCell ref="B26:B34"/>
+    <mergeCell ref="E26:E34"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
@@ -19633,28 +19633,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>ANA4, COUR/ section 1, S1, Mme Limam</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>ALG4, COUR/ section 1, S3, M.Ould ali</t>
+          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G1, B1, Mme Limam</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S12, Mme Limam</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>ALG4, TD/ G1, S16, M.Ould ali</t>
-        </is>
-      </c>
+          <t>ALG4, TD/ G1, S10, M.Ould ali</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>ALG4, COUR/ section 1, S16, M.Ould ali</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>AC, TD/ G1, S13, Mlle Amina FERRAOUN</t>
+          <t>AC, TD/ G1, S11, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -19662,21 +19662,21 @@
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>ALG4, TD/ G2, B2, M.Ould ali</t>
+        </is>
+      </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>ALG4, TD/ G2, C2, M.Ould ali</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>ANA4, TD/ G2, S2, Mme Limam</t>
-        </is>
-      </c>
+          <t>ANA4, TD/ G2, S11, Mme Limam</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>ANUM2, TD/ G2, S12, M. Belhamiti Omar</t>
+          <t>ANUM2, TD/ G2, S10, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -19684,9 +19684,9 @@
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
@@ -19694,9 +19694,9 @@
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
+      <c r="C11" s="27" t="n"/>
       <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
+      <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
@@ -19704,9 +19704,9 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -19714,9 +19714,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -19724,9 +19724,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -19734,9 +19734,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -19744,9 +19744,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -19759,28 +19759,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ANA4, COUR/ section 1, S1, Mme Limam</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
-        <is>
-          <t>AC, COUR/ section 1, S3, Mlle Amina FERRAOUN</t>
+          <t>ANA4, COUR/ section 1, S16, Mme Limam</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>ANA4, TD/ G1, B1, Mme Limam</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>ANA4, TD/ G1, S16, Mme Limam</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>ANUM2, TD/ G1, S2, M. Belhamiti Omar</t>
-        </is>
-      </c>
+          <t>ANUM2, TD/ G1, S10, M. Belhamiti Omar</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>AC, COUR/ section 1, S16, Mlle Amina FERRAOUN</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G1, S4, M. Mohammedi Mustapha</t>
+          <t>PROBA, TD/ G1, S14, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -19788,21 +19788,21 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="31" t="n"/>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>AC, TD/ G2, B2, Mlle Amina FERRAOUN</t>
+        </is>
+      </c>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>AC, TD/ G2, S15, Mlle Amina FERRAOUN</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>ANA4, TD/ G2, S3, Mme Limam</t>
-        </is>
-      </c>
+          <t>ANA4, TD/ G2, S11, Mme Limam</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="n"/>
+      <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>GÉOMÉ, TD/ G2, S3, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, TD/ G2, S15, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -19810,9 +19810,9 @@
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="31" t="n"/>
+      <c r="C19" s="27" t="n"/>
       <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -19820,9 +19820,9 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="31" t="n"/>
+      <c r="C20" s="27" t="n"/>
       <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -19830,9 +19830,9 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
+      <c r="C21" s="27" t="n"/>
       <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -19840,9 +19840,9 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="31" t="n"/>
+      <c r="C22" s="27" t="n"/>
       <c r="D22" s="27" t="n"/>
-      <c r="E22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -19850,9 +19850,9 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="31" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -19860,9 +19860,9 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="31" t="n"/>
+      <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -19870,9 +19870,9 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="33" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -19885,12 +19885,12 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>AC, COUR/ section 1, S3, Mlle Amina FERRAOUN</t>
+          <t>AC, COUR/ section 1, S16, Mlle Amina FERRAOUN</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>ANUM2, COUR/ section 1, S3, M. Belhamiti Omar</t>
+          <t>ANUM2, COUR/ section 1, S16, M. Belhamiti Omar</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
@@ -19909,7 +19909,7 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>PROBA, TD/ G2, S16, M. Mohammedi Mustapha</t>
+          <t>PROBA, TD/ G2, S14, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
@@ -19995,12 +19995,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>PROBA, COUR/ section 1, S1, M. Mohammedi Mustapha</t>
+          <t>PROBA, COUR/ section 1, S16, M. Mohammedi Mustapha</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>GÉOMÉ, COUR/ section 1, S1, Mme Bendahmane Hafida</t>
+          <t>GÉOMÉ, COUR/ section 1, S16, Mme Bendahmane Hafida</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -20097,7 +20097,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>APsciences, COUR/ section 1, S1, M. Ghezzar Med</t>
+          <t>APsciences, COUR/ section 1, S16, M. Ghezzar Med</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -21168,9 +21168,9 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="E17:E25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
@@ -21300,28 +21300,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, S3, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
+          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G1, B3, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="D8" s="17" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G1, S8, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="E8" s="29" t="inlineStr">
         <is>
           <t>EDP, COUR/ section 1, S2, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G1, C1, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>EDP, TD/ G1, S14, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G1, C2, M. Andasmas M</t>
+          <t>TRAL, TD/ G1, S9, M. Andasmas M</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -21329,21 +21329,21 @@
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G2, B4, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
       <c r="D9" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, B4, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G2, S15, M. Menad Abdallah</t>
-        </is>
-      </c>
+          <t>TOL, TD/ G2, S9, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G2, C1, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G2, S8, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="H9" s="27" t="n"/>
@@ -21351,9 +21351,9 @@
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
+      <c r="C10" s="27" t="n"/>
       <c r="D10" s="27" t="n"/>
-      <c r="E10" s="27" t="n"/>
+      <c r="E10" s="31" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
       <c r="H10" s="27" t="n"/>
@@ -21361,9 +21361,9 @@
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
+      <c r="C11" s="27" t="n"/>
       <c r="D11" s="27" t="n"/>
-      <c r="E11" s="27" t="n"/>
+      <c r="E11" s="31" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
       <c r="H11" s="27" t="n"/>
@@ -21371,9 +21371,9 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="27" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -21381,9 +21381,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="27" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -21391,9 +21391,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="27" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -21401,9 +21401,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="27" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -21411,9 +21411,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="16" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -21426,28 +21426,28 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>TOL, COUR/ section 1, S3, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
+          <t>TOL, COUR/ section 1, S2, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>TOL, TD/ G1, B3, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="D17" s="17" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G1, S8, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
         <is>
           <t>EDP, COUR/ section 1, S2, Mme Belmouhoub-Ould ali</t>
         </is>
       </c>
-      <c r="D17" s="17" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G1, S14, M. Menad Abdallah</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>EDP, TD/ G1, S15, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Géo. Diff, TD/ G1, S16, M. Fettouch Houari</t>
+          <t>Géo. Diff, TD/ G1, S5, M. Fettouch Houari</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -21455,21 +21455,21 @@
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="31" t="n"/>
-      <c r="C18" s="31" t="n"/>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>EDP, TD/ G2, B4, Mme Belmouhoub-Ould ali</t>
+        </is>
+      </c>
       <c r="D18" s="27" t="inlineStr">
         <is>
-          <t>EDP, TD/ G2, S13, Mme Belmouhoub-Ould ali</t>
-        </is>
-      </c>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>TOL, TD/ G2, S16, M. Menad Abdallah</t>
-        </is>
-      </c>
+          <t>TOL, TD/ G2, S9, M. Menad Abdallah</t>
+        </is>
+      </c>
+      <c r="E18" s="31" t="n"/>
+      <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>TRAL, TD/ G2, S2, M. Andasmas M</t>
+          <t>TRAL, TD/ G2, S4, M. Andasmas M</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -21477,9 +21477,9 @@
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="31" t="n"/>
-      <c r="C19" s="31" t="n"/>
+      <c r="C19" s="27" t="n"/>
       <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -21487,9 +21487,9 @@
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="31" t="n"/>
-      <c r="C20" s="31" t="n"/>
+      <c r="C20" s="27" t="n"/>
       <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -21497,9 +21497,9 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="31" t="n"/>
-      <c r="C21" s="31" t="n"/>
+      <c r="C21" s="27" t="n"/>
       <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -21507,9 +21507,9 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="31" t="n"/>
-      <c r="C22" s="31" t="n"/>
+      <c r="C22" s="27" t="n"/>
       <c r="D22" s="27" t="n"/>
-      <c r="E22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -21517,9 +21517,9 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="31" t="n"/>
-      <c r="C23" s="31" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -21527,9 +21527,9 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="31" t="n"/>
-      <c r="C24" s="31" t="n"/>
+      <c r="C24" s="27" t="n"/>
       <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -21537,9 +21537,9 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="33" t="n"/>
-      <c r="C25" s="33" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -21654,12 +21654,12 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>TRAL, COUR/ section 1, S3, Mme Limam</t>
+          <t>TRAL, COUR/ section 1, S2, Mme Limam</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Géo. Diff, COUR/ section 1, S3, M. BELARBI Lakehal</t>
+          <t>Géo. Diff, COUR/ section 1, S2, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
@@ -21756,7 +21756,7 @@
       </c>
       <c r="B44" s="29" t="inlineStr">
         <is>
-          <t>ETHrecherche, COUR/ section 1, S3, M. Kaid Med</t>
+          <t>ETHrecherche, COUR/ section 1, S2, M. Kaid Med</t>
         </is>
       </c>
       <c r="C44" s="17" t="n"/>
@@ -22827,9 +22827,9 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="B17:B25"/>
-    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="E17:E25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
@@ -22959,28 +22959,28 @@
       </c>
       <c r="B8" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S8, KHIAT</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
+          <t>AOSI, TD/ G1, B1, KHIAT</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>ALOS, TP/ G1, A1, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
         <is>
           <t>AOSI, COUR/ section 1, Amphi1, KHELIFA N.</t>
         </is>
       </c>
-      <c r="D8" s="29" t="inlineStr">
-        <is>
-          <t>ALOS, COUR/ section 1, Amphi4, MOUSSA M.</t>
-        </is>
-      </c>
-      <c r="E8" s="17" t="n"/>
-      <c r="F8" s="17" t="inlineStr">
-        <is>
-          <t>ALOS, TP/ G1, M1, MOUSSA M.</t>
-        </is>
-      </c>
+      <c r="E8" s="29" t="inlineStr">
+        <is>
+          <t>ALOS, COUR/ section 1, Amphi1, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="F8" s="17" t="n"/>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>SSI, TP/ G1, C4, BENTAOUZA C</t>
+          <t>SSI, TP/ G1, A4, BENTAOUZA C</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -22989,17 +22989,17 @@
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G2, M3, MOUSSA M.</t>
-        </is>
-      </c>
-      <c r="C9" s="31" t="n"/>
+          <t>ALOS, TP/ G2, A1, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="C9" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G2, C1, KHIAT</t>
+        </is>
+      </c>
       <c r="D9" s="31" t="n"/>
-      <c r="E9" s="27" t="n"/>
-      <c r="F9" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G2, S13, KHIAT</t>
-        </is>
-      </c>
+      <c r="E9" s="31" t="n"/>
+      <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="inlineStr">
         <is>
           <t>RO, TP/ G2, C3,  MIROUD</t>
@@ -23011,20 +23011,20 @@
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G3, S9, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="C10" s="31" t="n"/>
+          <t>AOSI, TD/ G3, B2, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="C10" s="27" t="inlineStr">
+        <is>
+          <t>SSI, TP/ G3, A2, BENTAOUZA C</t>
+        </is>
+      </c>
       <c r="D10" s="31" t="n"/>
-      <c r="E10" s="27" t="n"/>
-      <c r="F10" s="27" t="inlineStr">
-        <is>
-          <t>SSI, TP/ G3, C4, BENTAOUZA C</t>
-        </is>
-      </c>
+      <c r="E10" s="31" t="n"/>
+      <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G3, M2, KHELIFA N.</t>
+          <t>AOSI, TP/ G3, A2, KHELIFA N.</t>
         </is>
       </c>
       <c r="H10" s="27" t="n"/>
@@ -23033,20 +23033,20 @@
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G4, M2, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="C11" s="31" t="n"/>
+          <t>SSI, TP/ G4, A2, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="C11" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TD/ G4, C2, KHELIFA N.</t>
+        </is>
+      </c>
       <c r="D11" s="31" t="n"/>
-      <c r="E11" s="27" t="n"/>
-      <c r="F11" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TD/ G4, S12, KHELIFA N.</t>
-        </is>
-      </c>
+      <c r="E11" s="31" t="n"/>
+      <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G4, M1, MOUSSA M.</t>
+          <t>ALOS, TP/ G4, A3, MOUSSA M.</t>
         </is>
       </c>
       <c r="H11" s="27" t="n"/>
@@ -23054,9 +23054,9 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="27" t="n"/>
-      <c r="C12" s="31" t="n"/>
+      <c r="C12" s="27" t="n"/>
       <c r="D12" s="31" t="n"/>
-      <c r="E12" s="27" t="n"/>
+      <c r="E12" s="31" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
       <c r="H12" s="27" t="n"/>
@@ -23064,9 +23064,9 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="27" t="n"/>
-      <c r="C13" s="31" t="n"/>
+      <c r="C13" s="27" t="n"/>
       <c r="D13" s="31" t="n"/>
-      <c r="E13" s="27" t="n"/>
+      <c r="E13" s="31" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
       <c r="H13" s="27" t="n"/>
@@ -23074,9 +23074,9 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="27" t="n"/>
-      <c r="C14" s="31" t="n"/>
+      <c r="C14" s="27" t="n"/>
       <c r="D14" s="31" t="n"/>
-      <c r="E14" s="27" t="n"/>
+      <c r="E14" s="31" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
       <c r="H14" s="27" t="n"/>
@@ -23084,9 +23084,9 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="27" t="n"/>
-      <c r="C15" s="31" t="n"/>
+      <c r="C15" s="27" t="n"/>
       <c r="D15" s="31" t="n"/>
-      <c r="E15" s="27" t="n"/>
+      <c r="E15" s="31" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
       <c r="H15" s="27" t="n"/>
@@ -23094,9 +23094,9 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="16" t="n"/>
-      <c r="C16" s="33" t="n"/>
+      <c r="C16" s="16" t="n"/>
       <c r="D16" s="33" t="n"/>
-      <c r="E16" s="16" t="n"/>
+      <c r="E16" s="33" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
       <c r="H16" s="16" t="n"/>
@@ -23109,28 +23109,28 @@
       </c>
       <c r="B17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G1, M3, KHIAT</t>
-        </is>
-      </c>
-      <c r="C17" s="29" t="inlineStr">
+          <t>AOSI, TP/ G1, A1, KHIAT</t>
+        </is>
+      </c>
+      <c r="C17" s="17" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G1, A2, HABIB ZAHMANI M</t>
+        </is>
+      </c>
+      <c r="D17" s="29" t="inlineStr">
         <is>
           <t>SSI, COUR/ section 1, Amphi1, BENTAOUZA C</t>
         </is>
       </c>
-      <c r="D17" s="29" t="inlineStr">
-        <is>
-          <t>OWS, COUR/ section 1, Amphi3, DJEBBARA R.</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>RO, TP/ G1, A1,  MIROUD</t>
-        </is>
-      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>OWS, COUR/ section 1, Amphi1, DJEBBARA R.</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>FDD, TP/ G1, A2, HABIB ZAHMANI M</t>
+          <t>RO, TP/ G1, M3,  MIROUD</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
@@ -23139,20 +23139,20 @@
       <c r="A18" s="30" t="n"/>
       <c r="B18" s="27" t="inlineStr">
         <is>
-          <t>SSI, TP/ G2, C4, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="C18" s="31" t="n"/>
+          <t>SSI, TP/ G2, A4, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="C18" s="27" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G2, A1, KHIAT</t>
+        </is>
+      </c>
       <c r="D18" s="31" t="n"/>
-      <c r="E18" s="27" t="n"/>
-      <c r="F18" s="27" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G2, A2, KHIAT</t>
-        </is>
-      </c>
+      <c r="E18" s="31" t="n"/>
+      <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G3, A1, BAHNES N.</t>
+          <t>FDD, TP/ G2, M2, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="H18" s="27" t="n"/>
@@ -23161,12 +23161,16 @@
       <c r="A19" s="30" t="n"/>
       <c r="B19" s="27" t="inlineStr">
         <is>
-          <t>ALOS, TP/ G3, M1, MOUSSA M.</t>
-        </is>
-      </c>
-      <c r="C19" s="31" t="n"/>
+          <t>ALOS, TP/ G3, A3, MOUSSA M.</t>
+        </is>
+      </c>
+      <c r="C19" s="27" t="inlineStr">
+        <is>
+          <t>RO, TP/ G3, A3, BAHNES N.</t>
+        </is>
+      </c>
       <c r="D19" s="31" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
@@ -23175,12 +23179,16 @@
       <c r="A20" s="30" t="n"/>
       <c r="B20" s="27" t="inlineStr">
         <is>
-          <t>AOSI, TP/ G4, M2, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="C20" s="31" t="n"/>
+          <t>AOSI, TP/ G4, A2, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="C20" s="27" t="inlineStr">
+        <is>
+          <t>SMA, TP/ G4, A4, MEROUFEL B.</t>
+        </is>
+      </c>
       <c r="D20" s="31" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
@@ -23188,9 +23196,9 @@
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
       <c r="B21" s="27" t="n"/>
-      <c r="C21" s="31" t="n"/>
+      <c r="C21" s="27" t="n"/>
       <c r="D21" s="31" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
@@ -23198,9 +23206,9 @@
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
       <c r="B22" s="27" t="n"/>
-      <c r="C22" s="31" t="n"/>
+      <c r="C22" s="27" t="n"/>
       <c r="D22" s="31" t="n"/>
-      <c r="E22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
@@ -23208,9 +23216,9 @@
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
       <c r="B23" s="27" t="n"/>
-      <c r="C23" s="31" t="n"/>
+      <c r="C23" s="27" t="n"/>
       <c r="D23" s="31" t="n"/>
-      <c r="E23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
@@ -23218,9 +23226,9 @@
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
       <c r="B24" s="27" t="n"/>
-      <c r="C24" s="31" t="n"/>
+      <c r="C24" s="27" t="n"/>
       <c r="D24" s="31" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
@@ -23228,9 +23236,9 @@
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
       <c r="B25" s="16" t="n"/>
-      <c r="C25" s="33" t="n"/>
+      <c r="C25" s="16" t="n"/>
       <c r="D25" s="33" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -23243,27 +23251,23 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>FDD, COUR/ section 1, Amphi1, MOUMEN M.</t>
+          <t>FDD, COUR/ section 1, Amphi4, MOUMEN M.</t>
         </is>
       </c>
       <c r="C26" s="29" t="inlineStr">
         <is>
-          <t>RO, COUR/ section 1, Amphi1, BAHNES N.</t>
+          <t>RO, COUR/ section 1, Amphi4, BAHNES N.</t>
         </is>
       </c>
       <c r="D26" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G1, A3, MEROUFEL B.</t>
-        </is>
-      </c>
-      <c r="E26" s="17" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G3, A2, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+          <t>SMA, TP/ G1, M3, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G2, A4, MEROUFEL B.</t>
+          <t>SMA, TP/ G2, M3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="G26" s="17" t="n"/>
@@ -23275,15 +23279,11 @@
       <c r="C27" s="31" t="n"/>
       <c r="D27" s="27" t="inlineStr">
         <is>
-          <t>FDD, TP/ G2, C3, HABIB ZAHMANI M</t>
+          <t>FDD, TP/ G3, M1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="E27" s="27" t="n"/>
-      <c r="F27" s="27" t="inlineStr">
-        <is>
-          <t>FDD, TP/ G4, C3, HABIB ZAHMANI M</t>
-        </is>
-      </c>
+      <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
       <c r="H27" s="27" t="n"/>
     </row>
@@ -23293,7 +23293,7 @@
       <c r="C28" s="31" t="n"/>
       <c r="D28" s="27" t="inlineStr">
         <is>
-          <t>RO, TP/ G4, A4, BAHNES N.</t>
+          <t>RO, TP/ G4, M2, BAHNES N.</t>
         </is>
       </c>
       <c r="E28" s="27" t="n"/>
@@ -23369,25 +23369,21 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>GP, COUR/ section 1, Amphi2, DELALI A.</t>
+          <t>GP, COUR/ section 1, Amphi3, DELALI A.</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>SMA, COUR/ section 1, Amphi2, MEROUFEL B.</t>
+          <t>SMA, COUR/ section 1, Amphi3, MEROUFEL B.</t>
         </is>
       </c>
       <c r="D35" s="17" t="n"/>
       <c r="E35" s="17" t="inlineStr">
         <is>
-          <t>SMA, TP/ G3, A4, MEROUFEL B.</t>
-        </is>
-      </c>
-      <c r="F35" s="17" t="inlineStr">
-        <is>
-          <t>SMA, TP/ G4, A1, MEROUFEL B.</t>
-        </is>
-      </c>
+          <t>SMA, TP/ G3, C4, MEROUFEL B.</t>
+        </is>
+      </c>
+      <c r="F35" s="17" t="n"/>
       <c r="G35" s="17" t="n"/>
       <c r="H35" s="17" t="n"/>
     </row>
@@ -23396,7 +23392,11 @@
       <c r="B36" s="31" t="n"/>
       <c r="C36" s="31" t="n"/>
       <c r="D36" s="27" t="n"/>
-      <c r="E36" s="27" t="n"/>
+      <c r="E36" s="27" t="inlineStr">
+        <is>
+          <t>FDD, TP/ G4, C3, HABIB ZAHMANI M</t>
+        </is>
+      </c>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
@@ -24545,10 +24545,10 @@
     <mergeCell ref="A35:A43"/>
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="C8:C16"/>
     <mergeCell ref="D8:D16"/>
-    <mergeCell ref="C17:C25"/>
+    <mergeCell ref="E8:E16"/>
     <mergeCell ref="D17:D25"/>
+    <mergeCell ref="E17:E25"/>
     <mergeCell ref="B26:B34"/>
     <mergeCell ref="C26:C34"/>
     <mergeCell ref="B35:B43"/>
@@ -24677,28 +24677,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>GSR, COUR/ section 1, S10, LAREDJ A.</t>
+          <t>GSR, COUR/ section 1, B3, LAREDJ A. M</t>
         </is>
       </c>
       <c r="C8" s="29" t="inlineStr">
         <is>
-          <t>VS, COUR/ section 1, S11, FILALI F.</t>
+          <t>VS, COUR/ section 1, S12, FILALI F.</t>
         </is>
       </c>
       <c r="D8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TD/ G1, B3, LAREDJ A.</t>
+          <t>GSR, TD/ G1, S16, LAREDJ A. M</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>RO, TD/ G1, C2, BAHNES N.</t>
+          <t>AOSI, TD/ G1, S7, KHIAT</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GSR, TP/ G1, A4, LAREDJ A.</t>
+          <t>GSR, TP/ G1, C4, LAREDJ A. M</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -24791,22 +24791,30 @@
       </c>
       <c r="B17" s="29" t="inlineStr">
         <is>
-          <t>ASBDA, COUR/ section 1, S8, HABIB ZAHMANI M</t>
+          <t>ASBDA, COUR/ section 1, B1, HABIB ZAHMANI M</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>PR, COUR/ section 1, S11, HOCINE N.</t>
+          <t>SRI, COUR/ section 1, C1, BENTAOUZA C</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AOSI, TD/ G1, S12, KHIAT</t>
+          <t>VS, TP/ G1, A4, FILALI F.</t>
         </is>
       </c>
       <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="n"/>
-      <c r="G17" s="17" t="n"/>
+      <c r="F17" s="17" t="inlineStr">
+        <is>
+          <t>SRI, TP/ G1, C4, BENTAOUZA C</t>
+        </is>
+      </c>
+      <c r="G17" s="17" t="inlineStr">
+        <is>
+          <t>RO, TD/ G1, S6, BAHNES N.</t>
+        </is>
+      </c>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
@@ -24897,33 +24905,29 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>SRI, COUR/ section 1, S10, BENTAOUZA C</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>AOSI, COUR/ section 1, S8, KHELIFA N.</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>VS, TP/ G1, A2, FILALI F.</t>
+          <t>AOSI, COUR/ section 1, B3, KHELIFA N.</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>AOSI, TP/ G1, A3, KHIAT</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>GP, COUR/ section 1, S4, DELALI A.</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
-      <c r="F26" s="17" t="inlineStr">
-        <is>
-          <t>SRI, TP/ G1, A3, BENTAOUZA C</t>
-        </is>
-      </c>
+      <c r="F26" s="17" t="n"/>
       <c r="G26" s="17" t="n"/>
       <c r="H26" s="17" t="n"/>
     </row>
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="31" t="n"/>
-      <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="31" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -24932,8 +24936,8 @@
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
-      <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="31" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -24942,8 +24946,8 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
-      <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="31" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -24952,8 +24956,8 @@
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="31" t="n"/>
-      <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="31" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
@@ -24962,8 +24966,8 @@
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="31" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
@@ -24972,8 +24976,8 @@
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="31" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
@@ -24982,8 +24986,8 @@
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
       <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
-      <c r="D33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="31" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
@@ -24992,8 +24996,8 @@
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
       <c r="B34" s="33" t="n"/>
-      <c r="C34" s="33" t="n"/>
-      <c r="D34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="33" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
@@ -25007,24 +25011,20 @@
       </c>
       <c r="B35" s="29" t="inlineStr">
         <is>
-          <t>RO, COUR/ section 1, S8, BAHNES N.</t>
-        </is>
-      </c>
-      <c r="C35" s="29" t="inlineStr">
-        <is>
-          <t>GP, COUR/ section 1, S8, DELALI A.</t>
-        </is>
-      </c>
+          <t>RO, COUR/ section 1, B2, BAHNES N.</t>
+        </is>
+      </c>
+      <c r="C35" s="17" t="n"/>
       <c r="D35" s="17" t="n"/>
-      <c r="E35" s="17" t="inlineStr">
-        <is>
-          <t>AOSI, TP/ G1, A3, KHIAT</t>
-        </is>
-      </c>
-      <c r="F35" s="17" t="n"/>
+      <c r="E35" s="17" t="n"/>
+      <c r="F35" s="29" t="inlineStr">
+        <is>
+          <t>PR, COUR/ section 1, B4, HOCINE N.</t>
+        </is>
+      </c>
       <c r="G35" s="17" t="inlineStr">
         <is>
-          <t>PR, TP/ G1, A3, HOCINE N.</t>
+          <t>PR, TP/ G1, M1, HOCINE N.</t>
         </is>
       </c>
       <c r="H35" s="17" t="n"/>
@@ -25032,80 +25032,80 @@
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
       <c r="B36" s="31" t="n"/>
-      <c r="C36" s="31" t="n"/>
+      <c r="C36" s="27" t="n"/>
       <c r="D36" s="27" t="n"/>
       <c r="E36" s="27" t="n"/>
-      <c r="F36" s="27" t="n"/>
+      <c r="F36" s="31" t="n"/>
       <c r="G36" s="27" t="n"/>
       <c r="H36" s="27" t="n"/>
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
       <c r="B37" s="31" t="n"/>
-      <c r="C37" s="31" t="n"/>
+      <c r="C37" s="27" t="n"/>
       <c r="D37" s="27" t="n"/>
       <c r="E37" s="27" t="n"/>
-      <c r="F37" s="27" t="n"/>
+      <c r="F37" s="31" t="n"/>
       <c r="G37" s="27" t="n"/>
       <c r="H37" s="27" t="n"/>
     </row>
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
       <c r="B38" s="31" t="n"/>
-      <c r="C38" s="31" t="n"/>
+      <c r="C38" s="27" t="n"/>
       <c r="D38" s="27" t="n"/>
       <c r="E38" s="27" t="n"/>
-      <c r="F38" s="27" t="n"/>
+      <c r="F38" s="31" t="n"/>
       <c r="G38" s="27" t="n"/>
       <c r="H38" s="27" t="n"/>
     </row>
     <row r="39" ht="21.75" customHeight="1" s="24">
       <c r="A39" s="30" t="n"/>
       <c r="B39" s="31" t="n"/>
-      <c r="C39" s="31" t="n"/>
+      <c r="C39" s="27" t="n"/>
       <c r="D39" s="27" t="n"/>
       <c r="E39" s="27" t="n"/>
-      <c r="F39" s="27" t="n"/>
+      <c r="F39" s="31" t="n"/>
       <c r="G39" s="27" t="n"/>
       <c r="H39" s="27" t="n"/>
     </row>
     <row r="40" ht="21.75" customHeight="1" s="24">
       <c r="A40" s="30" t="n"/>
       <c r="B40" s="31" t="n"/>
-      <c r="C40" s="31" t="n"/>
+      <c r="C40" s="27" t="n"/>
       <c r="D40" s="27" t="n"/>
       <c r="E40" s="27" t="n"/>
-      <c r="F40" s="27" t="n"/>
+      <c r="F40" s="31" t="n"/>
       <c r="G40" s="27" t="n"/>
       <c r="H40" s="27" t="n"/>
     </row>
     <row r="41" ht="21.75" customHeight="1" s="24">
       <c r="A41" s="30" t="n"/>
       <c r="B41" s="31" t="n"/>
-      <c r="C41" s="31" t="n"/>
+      <c r="C41" s="27" t="n"/>
       <c r="D41" s="27" t="n"/>
       <c r="E41" s="27" t="n"/>
-      <c r="F41" s="27" t="n"/>
+      <c r="F41" s="31" t="n"/>
       <c r="G41" s="27" t="n"/>
       <c r="H41" s="27" t="n"/>
     </row>
     <row r="42" ht="21.75" customHeight="1" s="24">
       <c r="A42" s="30" t="n"/>
       <c r="B42" s="31" t="n"/>
-      <c r="C42" s="31" t="n"/>
+      <c r="C42" s="27" t="n"/>
       <c r="D42" s="27" t="n"/>
       <c r="E42" s="27" t="n"/>
-      <c r="F42" s="27" t="n"/>
+      <c r="F42" s="31" t="n"/>
       <c r="G42" s="27" t="n"/>
       <c r="H42" s="27" t="n"/>
     </row>
     <row r="43" ht="21.75" customHeight="1" s="24">
       <c r="A43" s="32" t="n"/>
       <c r="B43" s="33" t="n"/>
-      <c r="C43" s="33" t="n"/>
+      <c r="C43" s="16" t="n"/>
       <c r="D43" s="16" t="n"/>
       <c r="E43" s="16" t="n"/>
-      <c r="F43" s="16" t="n"/>
+      <c r="F43" s="33" t="n"/>
       <c r="G43" s="16" t="n"/>
       <c r="H43" s="16" t="n"/>
     </row>
@@ -26188,9 +26188,9 @@
     <mergeCell ref="B17:B25"/>
     <mergeCell ref="C17:C25"/>
     <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
+    <mergeCell ref="D26:D34"/>
     <mergeCell ref="B35:B43"/>
-    <mergeCell ref="C35:C43"/>
+    <mergeCell ref="F35:F43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
@@ -26315,28 +26315,28 @@
       </c>
       <c r="B8" s="29" t="inlineStr">
         <is>
-          <t>AC2, COUR/ section 1, S11, M. BELAIDI Benharrat</t>
-        </is>
-      </c>
-      <c r="C8" s="29" t="inlineStr">
-        <is>
-          <t>TO2, COUR/ section 1, S7, M. B. BENDOUKHA</t>
-        </is>
-      </c>
-      <c r="D8" s="17" t="inlineStr">
-        <is>
-          <t>AC2, TD/ G1, B2, M. BELAIDI Benharrat</t>
+          <t>AC2, COUR/ section 1, B4, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="C8" s="17" t="inlineStr">
+        <is>
+          <t>AC2, TD/ G1, S13, M. BELAIDI Benharrat</t>
+        </is>
+      </c>
+      <c r="D8" s="29" t="inlineStr">
+        <is>
+          <t>TO2, COUR/ section 1, S2, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="E8" s="17" t="n"/>
       <c r="F8" s="17" t="inlineStr">
         <is>
-          <t>TO2, TD/ G1, C1, M. B. BENDOUKHA</t>
+          <t>TO2, TD/ G1, S11, M. B. BENDOUKHA</t>
         </is>
       </c>
       <c r="G8" s="17" t="inlineStr">
         <is>
-          <t>GéoDiff2, TD/ G1, B4, M. BELARBI Lakehal</t>
+          <t>GéoDiff2, TD/ G1, S16, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="H8" s="17" t="n"/>
@@ -26344,8 +26344,8 @@
     <row r="9" ht="21.75" customHeight="1" s="24">
       <c r="A9" s="30" t="n"/>
       <c r="B9" s="31" t="n"/>
-      <c r="C9" s="31" t="n"/>
-      <c r="D9" s="27" t="n"/>
+      <c r="C9" s="27" t="n"/>
+      <c r="D9" s="31" t="n"/>
       <c r="E9" s="27" t="n"/>
       <c r="F9" s="27" t="n"/>
       <c r="G9" s="27" t="n"/>
@@ -26354,8 +26354,8 @@
     <row r="10" ht="21.75" customHeight="1" s="24">
       <c r="A10" s="30" t="n"/>
       <c r="B10" s="31" t="n"/>
-      <c r="C10" s="31" t="n"/>
-      <c r="D10" s="27" t="n"/>
+      <c r="C10" s="27" t="n"/>
+      <c r="D10" s="31" t="n"/>
       <c r="E10" s="27" t="n"/>
       <c r="F10" s="27" t="n"/>
       <c r="G10" s="27" t="n"/>
@@ -26364,8 +26364,8 @@
     <row r="11" ht="21.75" customHeight="1" s="24">
       <c r="A11" s="30" t="n"/>
       <c r="B11" s="31" t="n"/>
-      <c r="C11" s="31" t="n"/>
-      <c r="D11" s="27" t="n"/>
+      <c r="C11" s="27" t="n"/>
+      <c r="D11" s="31" t="n"/>
       <c r="E11" s="27" t="n"/>
       <c r="F11" s="27" t="n"/>
       <c r="G11" s="27" t="n"/>
@@ -26374,8 +26374,8 @@
     <row r="12" ht="21.75" customHeight="1" s="24">
       <c r="A12" s="30" t="n"/>
       <c r="B12" s="31" t="n"/>
-      <c r="C12" s="31" t="n"/>
-      <c r="D12" s="27" t="n"/>
+      <c r="C12" s="27" t="n"/>
+      <c r="D12" s="31" t="n"/>
       <c r="E12" s="27" t="n"/>
       <c r="F12" s="27" t="n"/>
       <c r="G12" s="27" t="n"/>
@@ -26384,8 +26384,8 @@
     <row r="13" ht="21.75" customHeight="1" s="24">
       <c r="A13" s="30" t="n"/>
       <c r="B13" s="31" t="n"/>
-      <c r="C13" s="31" t="n"/>
-      <c r="D13" s="27" t="n"/>
+      <c r="C13" s="27" t="n"/>
+      <c r="D13" s="31" t="n"/>
       <c r="E13" s="27" t="n"/>
       <c r="F13" s="27" t="n"/>
       <c r="G13" s="27" t="n"/>
@@ -26394,8 +26394,8 @@
     <row r="14" ht="21.75" customHeight="1" s="24">
       <c r="A14" s="30" t="n"/>
       <c r="B14" s="31" t="n"/>
-      <c r="C14" s="31" t="n"/>
-      <c r="D14" s="27" t="n"/>
+      <c r="C14" s="27" t="n"/>
+      <c r="D14" s="31" t="n"/>
       <c r="E14" s="27" t="n"/>
       <c r="F14" s="27" t="n"/>
       <c r="G14" s="27" t="n"/>
@@ -26404,8 +26404,8 @@
     <row r="15" ht="21.75" customHeight="1" s="24">
       <c r="A15" s="30" t="n"/>
       <c r="B15" s="31" t="n"/>
-      <c r="C15" s="31" t="n"/>
-      <c r="D15" s="27" t="n"/>
+      <c r="C15" s="27" t="n"/>
+      <c r="D15" s="31" t="n"/>
       <c r="E15" s="27" t="n"/>
       <c r="F15" s="27" t="n"/>
       <c r="G15" s="27" t="n"/>
@@ -26414,8 +26414,8 @@
     <row r="16" ht="21.75" customHeight="1" s="24">
       <c r="A16" s="32" t="n"/>
       <c r="B16" s="33" t="n"/>
-      <c r="C16" s="33" t="n"/>
-      <c r="D16" s="16" t="n"/>
+      <c r="C16" s="16" t="n"/>
+      <c r="D16" s="33" t="n"/>
       <c r="E16" s="16" t="n"/>
       <c r="F16" s="16" t="n"/>
       <c r="G16" s="16" t="n"/>
@@ -26427,110 +26427,110 @@
           <t>Lundi</t>
         </is>
       </c>
-      <c r="B17" s="29" t="inlineStr">
-        <is>
-          <t>GéoDiff2, COUR/ section 1, S9, M. BELARBI Lakehal</t>
+      <c r="B17" s="17" t="inlineStr">
+        <is>
+          <t>AC2, TD/ G1, B2, M. BELAIDI Benharrat</t>
         </is>
       </c>
       <c r="C17" s="29" t="inlineStr">
         <is>
-          <t>Dis2, COUR/ section 1, S7, M. BOUZIT Hamid</t>
+          <t>GéoDiff2, COUR/ section 1, C2, M. BELARBI Lakehal</t>
         </is>
       </c>
       <c r="D17" s="17" t="inlineStr">
         <is>
-          <t>AC2, TD/ G1, C2, M. BELAIDI Benharrat</t>
-        </is>
-      </c>
-      <c r="E17" s="17" t="n"/>
-      <c r="F17" s="17" t="inlineStr">
-        <is>
-          <t>GéoDiff2, TD/ G1, S14, M. BELARBI Lakehal</t>
-        </is>
-      </c>
+          <t>GéoDiff2, TD/ G1, S16, M. BELARBI Lakehal</t>
+        </is>
+      </c>
+      <c r="E17" s="29" t="inlineStr">
+        <is>
+          <t>Dis2, COUR/ section 1, S5, M. BOUZIT Hamid</t>
+        </is>
+      </c>
+      <c r="F17" s="17" t="n"/>
       <c r="G17" s="17" t="inlineStr">
         <is>
-          <t>Dis2, TD/ G1, S15, M. BOUZIT Hamid</t>
+          <t>Dis2, TD/ G1, S7, M. BOUZIT Hamid</t>
         </is>
       </c>
       <c r="H17" s="17" t="n"/>
     </row>
     <row r="18" ht="21.75" customHeight="1" s="24">
       <c r="A18" s="30" t="n"/>
-      <c r="B18" s="31" t="n"/>
+      <c r="B18" s="27" t="n"/>
       <c r="C18" s="31" t="n"/>
       <c r="D18" s="27" t="n"/>
-      <c r="E18" s="27" t="n"/>
+      <c r="E18" s="31" t="n"/>
       <c r="F18" s="27" t="n"/>
       <c r="G18" s="27" t="n"/>
       <c r="H18" s="27" t="n"/>
     </row>
     <row r="19" ht="21.75" customHeight="1" s="24">
       <c r="A19" s="30" t="n"/>
-      <c r="B19" s="31" t="n"/>
+      <c r="B19" s="27" t="n"/>
       <c r="C19" s="31" t="n"/>
       <c r="D19" s="27" t="n"/>
-      <c r="E19" s="27" t="n"/>
+      <c r="E19" s="31" t="n"/>
       <c r="F19" s="27" t="n"/>
       <c r="G19" s="27" t="n"/>
       <c r="H19" s="27" t="n"/>
     </row>
     <row r="20" ht="21.75" customHeight="1" s="24">
       <c r="A20" s="30" t="n"/>
-      <c r="B20" s="31" t="n"/>
+      <c r="B20" s="27" t="n"/>
       <c r="C20" s="31" t="n"/>
       <c r="D20" s="27" t="n"/>
-      <c r="E20" s="27" t="n"/>
+      <c r="E20" s="31" t="n"/>
       <c r="F20" s="27" t="n"/>
       <c r="G20" s="27" t="n"/>
       <c r="H20" s="27" t="n"/>
     </row>
     <row r="21" ht="21.75" customHeight="1" s="24">
       <c r="A21" s="30" t="n"/>
-      <c r="B21" s="31" t="n"/>
+      <c r="B21" s="27" t="n"/>
       <c r="C21" s="31" t="n"/>
       <c r="D21" s="27" t="n"/>
-      <c r="E21" s="27" t="n"/>
+      <c r="E21" s="31" t="n"/>
       <c r="F21" s="27" t="n"/>
       <c r="G21" s="27" t="n"/>
       <c r="H21" s="27" t="n"/>
     </row>
     <row r="22" ht="21.75" customHeight="1" s="24">
       <c r="A22" s="30" t="n"/>
-      <c r="B22" s="31" t="n"/>
+      <c r="B22" s="27" t="n"/>
       <c r="C22" s="31" t="n"/>
       <c r="D22" s="27" t="n"/>
-      <c r="E22" s="27" t="n"/>
+      <c r="E22" s="31" t="n"/>
       <c r="F22" s="27" t="n"/>
       <c r="G22" s="27" t="n"/>
       <c r="H22" s="27" t="n"/>
     </row>
     <row r="23" ht="21.75" customHeight="1" s="24">
       <c r="A23" s="30" t="n"/>
-      <c r="B23" s="31" t="n"/>
+      <c r="B23" s="27" t="n"/>
       <c r="C23" s="31" t="n"/>
       <c r="D23" s="27" t="n"/>
-      <c r="E23" s="27" t="n"/>
+      <c r="E23" s="31" t="n"/>
       <c r="F23" s="27" t="n"/>
       <c r="G23" s="27" t="n"/>
       <c r="H23" s="27" t="n"/>
     </row>
     <row r="24" ht="21.75" customHeight="1" s="24">
       <c r="A24" s="30" t="n"/>
-      <c r="B24" s="31" t="n"/>
+      <c r="B24" s="27" t="n"/>
       <c r="C24" s="31" t="n"/>
       <c r="D24" s="27" t="n"/>
-      <c r="E24" s="27" t="n"/>
+      <c r="E24" s="31" t="n"/>
       <c r="F24" s="27" t="n"/>
       <c r="G24" s="27" t="n"/>
       <c r="H24" s="27" t="n"/>
     </row>
     <row r="25" ht="21.75" customHeight="1" s="24">
       <c r="A25" s="32" t="n"/>
-      <c r="B25" s="33" t="n"/>
+      <c r="B25" s="16" t="n"/>
       <c r="C25" s="33" t="n"/>
       <c r="D25" s="16" t="n"/>
-      <c r="E25" s="16" t="n"/>
+      <c r="E25" s="33" t="n"/>
       <c r="F25" s="16" t="n"/>
       <c r="G25" s="16" t="n"/>
       <c r="H25" s="16" t="n"/>
@@ -26543,28 +26543,28 @@
       </c>
       <c r="B26" s="29" t="inlineStr">
         <is>
-          <t>EDP2, COUR/ section 1, S11, M. Andasmas M</t>
-        </is>
-      </c>
-      <c r="C26" s="29" t="inlineStr">
-        <is>
-          <t>STAT2, COUR/ section 1, S9, Mlle Dj.BENSIKADDOUR</t>
-        </is>
-      </c>
-      <c r="D26" s="17" t="inlineStr">
-        <is>
-          <t>EDP2, TD/ G1, S14, M. Andasmas M</t>
+          <t>EDP2, COUR/ section 1, B4, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="C26" s="17" t="inlineStr">
+        <is>
+          <t>EDP2, TD/ G1, B1, M. Andasmas M</t>
+        </is>
+      </c>
+      <c r="D26" s="29" t="inlineStr">
+        <is>
+          <t>STAT2, COUR/ section 1, S5, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="E26" s="17" t="n"/>
       <c r="F26" s="17" t="inlineStr">
         <is>
-          <t>STAT2, TD/ G1, S7, Mlle Dj.BENSIKADDOUR</t>
+          <t>STAT2, TD/ G1, S12, Mlle Dj.BENSIKADDOUR</t>
         </is>
       </c>
       <c r="G26" s="17" t="inlineStr">
         <is>
-          <t>SEMIGROUP, TD/ G1, S7, Mlle Medeghri Ahmed</t>
+          <t>SEMIGROUP, TD/ G1, B4, Mlle Medeghri Ahmed</t>
         </is>
       </c>
       <c r="H26" s="17" t="n"/>
@@ -26572,8 +26572,8 @@
     <row r="27" ht="21.75" customHeight="1" s="24">
       <c r="A27" s="30" t="n"/>
       <c r="B27" s="31" t="n"/>
-      <c r="C27" s="31" t="n"/>
-      <c r="D27" s="27" t="n"/>
+      <c r="C27" s="27" t="n"/>
+      <c r="D27" s="31" t="n"/>
       <c r="E27" s="27" t="n"/>
       <c r="F27" s="27" t="n"/>
       <c r="G27" s="27" t="n"/>
@@ -26582,8 +26582,8 @@
     <row r="28" ht="21.75" customHeight="1" s="24">
       <c r="A28" s="30" t="n"/>
       <c r="B28" s="31" t="n"/>
-      <c r="C28" s="31" t="n"/>
-      <c r="D28" s="27" t="n"/>
+      <c r="C28" s="27" t="n"/>
+      <c r="D28" s="31" t="n"/>
       <c r="E28" s="27" t="n"/>
       <c r="F28" s="27" t="n"/>
       <c r="G28" s="27" t="n"/>
@@ -26592,8 +26592,8 @@
     <row r="29" ht="21.75" customHeight="1" s="24">
       <c r="A29" s="30" t="n"/>
       <c r="B29" s="31" t="n"/>
-      <c r="C29" s="31" t="n"/>
-      <c r="D29" s="27" t="n"/>
+      <c r="C29" s="27" t="n"/>
+      <c r="D29" s="31" t="n"/>
       <c r="E29" s="27" t="n"/>
       <c r="F29" s="27" t="n"/>
       <c r="G29" s="27" t="n"/>
@@ -26602,8 +26602,8 @@
     <row r="30" ht="21.75" customHeight="1" s="24">
       <c r="A30" s="30" t="n"/>
       <c r="B30" s="31" t="n"/>
-      <c r="C30" s="31" t="n"/>
-      <c r="D30" s="27" t="n"/>
+      <c r="C30" s="27" t="n"/>
+      <c r="D30" s="31" t="n"/>
       <c r="E30" s="27" t="n"/>
       <c r="F30" s="27" t="n"/>
       <c r="G30" s="27" t="n"/>
@@ -26612,8 +26612,8 @@
     <row r="31" ht="21.75" customHeight="1" s="24">
       <c r="A31" s="30" t="n"/>
       <c r="B31" s="31" t="n"/>
-      <c r="C31" s="31" t="n"/>
-      <c r="D31" s="27" t="n"/>
+      <c r="C31" s="27" t="n"/>
+      <c r="D31" s="31" t="n"/>
       <c r="E31" s="27" t="n"/>
       <c r="F31" s="27" t="n"/>
       <c r="G31" s="27" t="n"/>
@@ -26622,8 +26622,8 @@
     <row r="32" ht="21.75" customHeight="1" s="24">
       <c r="A32" s="30" t="n"/>
       <c r="B32" s="31" t="n"/>
-      <c r="C32" s="31" t="n"/>
-      <c r="D32" s="27" t="n"/>
+      <c r="C32" s="27" t="n"/>
+      <c r="D32" s="31" t="n"/>
       <c r="E32" s="27" t="n"/>
       <c r="F32" s="27" t="n"/>
       <c r="G32" s="27" t="n"/>
@@ -26632,8 +26632,8 @@
     <row r="33" ht="21.75" customHeight="1" s="24">
       <c r="A33" s="30" t="n"/>
       <c r="B33" s="31" t="n"/>
-      <c r="C33" s="31" t="n"/>
-      <c r="D33" s="27" t="n"/>
+      <c r="C33" s="27" t="n"/>
+      <c r="D33" s="31" t="n"/>
       <c r="E33" s="27" t="n"/>
       <c r="F33" s="27" t="n"/>
       <c r="G33" s="27" t="n"/>
@@ -26642,8 +26642,8 @@
     <row r="34" ht="21.75" customHeight="1" s="24">
       <c r="A34" s="32" t="n"/>
       <c r="B34" s="33" t="n"/>
-      <c r="C34" s="33" t="n"/>
-      <c r="D34" s="16" t="n"/>
+      <c r="C34" s="16" t="n"/>
+      <c r="D34" s="33" t="n"/>
       <c r="E34" s="16" t="n"/>
       <c r="F34" s="16" t="n"/>
       <c r="G34" s="16" t="n"/>
@@ -26655,19 +26655,19 @@
           <t>Mercredi</t>
         </is>
       </c>
-      <c r="B35" s="29" t="inlineStr">
-        <is>
-          <t>SEMIGROUP, COUR/ section 1, S9, Mlle Medeghri Ahmed</t>
+      <c r="B35" s="17" t="inlineStr">
+        <is>
+          <t>EDP2, TD/ G1, B3, M. Andasmas M</t>
         </is>
       </c>
       <c r="C35" s="29" t="inlineStr">
         <is>
-          <t>Anglais2, COUR/ section 1, S9, M. Dahmani Z.</t>
-        </is>
-      </c>
-      <c r="D35" s="17" t="inlineStr">
-        <is>
-          <t>EDP2, TD/ G1, S9, M. Andasmas M</t>
+          <t>SEMIGROUP, COUR/ section 1, B2, Mlle Medeghri Ahmed</t>
+        </is>
+      </c>
+      <c r="D35" s="29" t="inlineStr">
+        <is>
+          <t>Anglais2, COUR/ section 1, C2, M. Dahmani Z.</t>
         </is>
       </c>
       <c r="E35" s="17" t="n"/>
@@ -26677,9 +26677,9 @@
     </row>
     <row r="36" ht="21.75" customHeight="1" s="24">
       <c r="A36" s="30" t="n"/>
-      <c r="B36" s="31" t="n"/>
+      <c r="B36" s="27" t="n"/>
       <c r="C36" s="31" t="n"/>
-      <c r="D36" s="27" t="n"/>
+      <c r="D36" s="31" t="n"/>
       <c r="E36" s="27" t="n"/>
       <c r="F36" s="27" t="n"/>
       <c r="G36" s="27" t="n"/>
@@ -26687,9 +26687,9 @@
     </row>
     <row r="37" ht="21.75" customHeight="1" s="24">
       <c r="A37" s="30" t="n"/>
-      <c r="B37" s="31" t="n"/>
+      <c r="B37" s="27" t="n"/>
       <c r="C37" s="31" t="n"/>
-      <c r="D37" s="27" t="n"/>
+      <c r="D37" s="31" t="n"/>
       <c r="E37" s="27" t="n"/>
       <c r="F37" s="27" t="n"/>
       <c r="G37" s="27" t="n"/>
@@ -26697,9 +26697,9 @@
     </row>
     <row r="38" ht="21.75" customHeight="1" s="24">
       <c r="A38" s="30" t="n"/>
-      <c r="B38" s="31" t="n"/>
+      <c r="B38" s="27" t="n"/>
       <c r="C38" s="31" t="n"/>
-      <c r="D38" s="27" t="n"/>
+      <c r="D38" s="31" t="n"/>
       <c r="E38" s="27" t="n"/>
       <c r="F38" s="27" t="n"/>
       <c r="G38" s="27" t="n"/>
@@ -26707,9 +26707,9 @@
     </row>
     <row r="39" ht="21.75" customHeight="1" s="24">
       <c r="A39" s="30" t="n"/>
-      <c r="B39" s="31" t="n"/>
+      <c r="B39" s="27" t="n"/>
       <c r="C39" s="31" t="n"/>
-      <c r="D39" s="27" t="n"/>
+      <c r="D39" s="31" t="n"/>
       <c r="E39" s="27" t="n"/>
       <c r="F39" s="27" t="n"/>
       <c r="G39" s="27" t="n"/>
@@ -26717,9 +26717,9 @@
     </row>
     <row r="40" ht="21.75" customHeight="1" s="24">
       <c r="A40" s="30" t="n"/>
-      <c r="B40" s="31" t="n"/>
+      <c r="B40" s="27" t="n"/>
       <c r="C40" s="31" t="n"/>
-      <c r="D40" s="27" t="n"/>
+      <c r="D40" s="31" t="n"/>
       <c r="E40" s="27" t="n"/>
       <c r="F40" s="27" t="n"/>
       <c r="G40" s="27" t="n"/>
@@ -26727,9 +26727,9 @@
     </row>
     <row r="41" ht="21.75" customHeight="1" s="24">
       <c r="A41" s="30" t="n"/>
-      <c r="B41" s="31" t="n"/>
+      <c r="B41" s="27" t="n"/>
       <c r="C41" s="31" t="n"/>
-      <c r="D41" s="27" t="n"/>
+      <c r="D41" s="31" t="n"/>
       <c r="E41" s="27" t="n"/>
       <c r="F41" s="27" t="n"/>
       <c r="G41" s="27" t="n"/>
@@ -26737,9 +26737,9 @@
     </row>
     <row r="42" ht="21.75" customHeight="1" s="24">
       <c r="A42" s="30" t="n"/>
-      <c r="B42" s="31" t="n"/>
+      <c r="B42" s="27" t="n"/>
       <c r="C42" s="31" t="n"/>
-      <c r="D42" s="27" t="n"/>
+      <c r="D42" s="31" t="n"/>
       <c r="E42" s="27" t="n"/>
       <c r="F42" s="27" t="n"/>
       <c r="G42" s="27" t="n"/>
@@ -26747,9 +26747,9 @@
     </row>
     <row r="43" ht="21.75" customHeight="1" s="24">
       <c r="A43" s="32" t="n"/>
-      <c r="B43" s="33" t="n"/>
+      <c r="B43" s="16" t="n"/>
       <c r="C43" s="33" t="n"/>
-      <c r="D43" s="16" t="n"/>
+      <c r="D43" s="33" t="n"/>
       <c r="E43" s="16" t="n"/>
       <c r="F43" s="16" t="n"/>
       <c r="G43" s="16" t="n"/>
@@ -27830,13 +27830,13 @@
     <mergeCell ref="A5:G5"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="B8:B16"/>
-    <mergeCell ref="C8:C16"/>
-    <mergeCell ref="B17:B25"/>
+    <mergeCell ref="D8:D16"/>
     <mergeCell ref="C17:C25"/>
+    <mergeCell ref="E17:E25"/>
     <mergeCell ref="B26:B34"/>
-    <mergeCell ref="C26:C34"/>
-    <mergeCell ref="B35:B43"/>
+    <mergeCell ref="D26:D34"/>
     <mergeCell ref="C35:C43"/>
+    <mergeCell ref="D35:D43"/>
   </mergeCells>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.433070866141732" right="0.196850393700787" top="0.196850393700787" bottom="0.393700787401575" header="0" footer="0"/>
